--- a/StockInfo/tse_analysis_result.xlsx
+++ b/StockInfo/tse_analysis_result.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251124" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251121" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251120" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251119" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251118" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="20251124" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="20251121" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="20251120" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="20251119" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="20251118" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/StockInfo/tse_analysis_result.xlsx
+++ b/StockInfo/tse_analysis_result.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="20251124" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="20251121" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="20251120" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="20251119" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="20251118" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251124" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251121" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251120" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251119" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251118" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/StockInfo/tse_analysis_result.xlsx
+++ b/StockInfo/tse_analysis_result.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="20251127" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="20251126" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="20251125" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="20251124" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="20251121" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251127" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251126" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251125" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251124" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251121" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/StockInfo/tse_analysis_result.xlsx
+++ b/StockInfo/tse_analysis_result.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="20251203" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="20251202" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="20251201" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="20251128" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="20251127" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251203" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251202" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251201" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251128" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251127" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/StockInfo/tse_analysis_result.xlsx
+++ b/StockInfo/tse_analysis_result.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251203" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251202" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251201" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251128" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251127" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="20251203" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="20251202" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="20251201" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="20251128" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="20251127" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/StockInfo/tse_analysis_result.xlsx
+++ b/StockInfo/tse_analysis_result.xlsx
@@ -3187,7 +3187,7 @@
       </c>
       <c r="E98" s="4" t="inlineStr">
         <is>
-          <t>11/27, 12/02, 12/03</t>
+          <t>27, 02, 03</t>
         </is>
       </c>
       <c r="F98" s="4" t="n">
@@ -3198,7 +3198,7 @@
       </c>
       <c r="H98" s="4" t="inlineStr">
         <is>
-          <t>11/28, 12/01</t>
+          <t>28, 01</t>
         </is>
       </c>
       <c r="I98" s="4" t="n">
@@ -3229,7 +3229,7 @@
       </c>
       <c r="E99" s="4" t="inlineStr">
         <is>
-          <t>12/01, 12/02, 12/03</t>
+          <t>01, 02, 03</t>
         </is>
       </c>
       <c r="F99" s="4" t="n">
@@ -3240,7 +3240,7 @@
       </c>
       <c r="H99" s="4" t="inlineStr">
         <is>
-          <t>11/28</t>
+          <t>28</t>
         </is>
       </c>
       <c r="I99" s="4" t="n">
@@ -3271,7 +3271,7 @@
       </c>
       <c r="E100" s="4" t="inlineStr">
         <is>
-          <t>11/27, 12/02, 12/03</t>
+          <t>27, 02, 03</t>
         </is>
       </c>
       <c r="F100" s="4" t="n">
@@ -3282,7 +3282,7 @@
       </c>
       <c r="H100" s="4" t="inlineStr">
         <is>
-          <t>11/28</t>
+          <t>28</t>
         </is>
       </c>
       <c r="I100" s="4" t="n">
@@ -3313,7 +3313,7 @@
       </c>
       <c r="E101" s="4" t="inlineStr">
         <is>
-          <t>12/01, 12/02</t>
+          <t>01, 02</t>
         </is>
       </c>
       <c r="F101" s="4" t="n">
@@ -3324,7 +3324,7 @@
       </c>
       <c r="H101" s="4" t="inlineStr">
         <is>
-          <t>11/28</t>
+          <t>28</t>
         </is>
       </c>
       <c r="I101" s="4" t="n">
@@ -3355,7 +3355,7 @@
       </c>
       <c r="E102" s="4" t="inlineStr">
         <is>
-          <t>11/27, 12/03</t>
+          <t>27, 03</t>
         </is>
       </c>
       <c r="F102" s="4" t="n">
@@ -3366,7 +3366,7 @@
       </c>
       <c r="H102" s="4" t="inlineStr">
         <is>
-          <t>11/28</t>
+          <t>28</t>
         </is>
       </c>
       <c r="I102" s="4" t="n">
@@ -3397,7 +3397,7 @@
       </c>
       <c r="E103" s="4" t="inlineStr">
         <is>
-          <t>11/28, 12/01</t>
+          <t>28, 01</t>
         </is>
       </c>
       <c r="F103" s="4" t="n">
@@ -3408,7 +3408,7 @@
       </c>
       <c r="H103" s="4" t="inlineStr">
         <is>
-          <t>11/27</t>
+          <t>27</t>
         </is>
       </c>
       <c r="I103" s="4" t="n">
@@ -3439,7 +3439,7 @@
       </c>
       <c r="E104" s="4" t="inlineStr">
         <is>
-          <t>12/02</t>
+          <t>02</t>
         </is>
       </c>
       <c r="F104" s="4" t="n">
@@ -3450,7 +3450,7 @@
       </c>
       <c r="H104" s="4" t="inlineStr">
         <is>
-          <t>12/03</t>
+          <t>03</t>
         </is>
       </c>
       <c r="I104" s="4" t="n">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="E105" s="4" t="inlineStr">
         <is>
-          <t>11/27</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F105" s="4" t="n">
@@ -3492,7 +3492,7 @@
       </c>
       <c r="H105" s="4" t="inlineStr">
         <is>
-          <t>12/02</t>
+          <t>02</t>
         </is>
       </c>
       <c r="I105" s="4" t="n">
@@ -3523,7 +3523,7 @@
       </c>
       <c r="E106" s="4" t="inlineStr">
         <is>
-          <t>11/28, 12/01, 12/02</t>
+          <t>28, 01, 02</t>
         </is>
       </c>
       <c r="F106" s="4" t="n">
@@ -3534,7 +3534,7 @@
       </c>
       <c r="H106" s="4" t="inlineStr">
         <is>
-          <t>12/03</t>
+          <t>03</t>
         </is>
       </c>
       <c r="I106" s="4" t="n">
@@ -3565,7 +3565,7 @@
       </c>
       <c r="E107" s="4" t="inlineStr">
         <is>
-          <t>12/01, 12/03</t>
+          <t>01, 03</t>
         </is>
       </c>
       <c r="F107" s="4" t="n">
@@ -3576,7 +3576,7 @@
       </c>
       <c r="H107" s="4" t="inlineStr">
         <is>
-          <t>11/28</t>
+          <t>28</t>
         </is>
       </c>
       <c r="I107" s="4" t="n">
@@ -3607,7 +3607,7 @@
       </c>
       <c r="E108" s="4" t="inlineStr">
         <is>
-          <t>11/27, 12/02</t>
+          <t>27, 02</t>
         </is>
       </c>
       <c r="F108" s="4" t="n">
@@ -3618,7 +3618,7 @@
       </c>
       <c r="H108" s="4" t="inlineStr">
         <is>
-          <t>12/01</t>
+          <t>01</t>
         </is>
       </c>
       <c r="I108" s="4" t="n">
@@ -3649,7 +3649,7 @@
       </c>
       <c r="E109" s="4" t="inlineStr">
         <is>
-          <t>11/28, 12/02</t>
+          <t>28, 02</t>
         </is>
       </c>
       <c r="F109" s="4" t="n">
@@ -3660,7 +3660,7 @@
       </c>
       <c r="H109" s="4" t="inlineStr">
         <is>
-          <t>12/01, 12/03</t>
+          <t>01, 03</t>
         </is>
       </c>
       <c r="I109" s="4" t="n">
@@ -3691,7 +3691,7 @@
       </c>
       <c r="E110" s="4" t="inlineStr">
         <is>
-          <t>11/28</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F110" s="4" t="n">
@@ -3702,7 +3702,7 @@
       </c>
       <c r="H110" s="4" t="inlineStr">
         <is>
-          <t>12/03</t>
+          <t>03</t>
         </is>
       </c>
       <c r="I110" s="4" t="n">
@@ -3733,7 +3733,7 @@
       </c>
       <c r="E111" s="4" t="inlineStr">
         <is>
-          <t>12/01</t>
+          <t>01</t>
         </is>
       </c>
       <c r="F111" s="4" t="n">
@@ -3744,7 +3744,7 @@
       </c>
       <c r="H111" s="4" t="inlineStr">
         <is>
-          <t>11/28</t>
+          <t>28</t>
         </is>
       </c>
       <c r="I111" s="4" t="n">
@@ -3775,7 +3775,7 @@
       </c>
       <c r="E112" s="4" t="inlineStr">
         <is>
-          <t>11/28</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F112" s="4" t="n">
@@ -3786,7 +3786,7 @@
       </c>
       <c r="H112" s="4" t="inlineStr">
         <is>
-          <t>11/27</t>
+          <t>27</t>
         </is>
       </c>
       <c r="I112" s="4" t="n">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="E113" s="4" t="inlineStr">
         <is>
-          <t>12/03</t>
+          <t>03</t>
         </is>
       </c>
       <c r="F113" s="4" t="n">
@@ -3828,7 +3828,7 @@
       </c>
       <c r="H113" s="4" t="inlineStr">
         <is>
-          <t>11/28</t>
+          <t>28</t>
         </is>
       </c>
       <c r="I113" s="4" t="n">
@@ -3859,7 +3859,7 @@
       </c>
       <c r="E114" s="4" t="inlineStr">
         <is>
-          <t>12/01</t>
+          <t>01</t>
         </is>
       </c>
       <c r="F114" s="4" t="n">
@@ -3870,7 +3870,7 @@
       </c>
       <c r="H114" s="4" t="inlineStr">
         <is>
-          <t>12/03</t>
+          <t>03</t>
         </is>
       </c>
       <c r="I114" s="4" t="n">
@@ -3901,7 +3901,7 @@
       </c>
       <c r="E115" s="4" t="inlineStr">
         <is>
-          <t>11/28</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F115" s="4" t="n">
@@ -3912,7 +3912,7 @@
       </c>
       <c r="H115" s="4" t="inlineStr">
         <is>
-          <t>12/02</t>
+          <t>02</t>
         </is>
       </c>
       <c r="I115" s="4" t="n">
@@ -3943,7 +3943,7 @@
       </c>
       <c r="E116" s="4" t="inlineStr">
         <is>
-          <t>11/27</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F116" s="4" t="n">
@@ -3954,7 +3954,7 @@
       </c>
       <c r="H116" s="4" t="inlineStr">
         <is>
-          <t>11/28, 12/02, 12/03</t>
+          <t>28, 02, 03</t>
         </is>
       </c>
       <c r="I116" s="4" t="n">
@@ -3985,7 +3985,7 @@
       </c>
       <c r="E117" s="4" t="inlineStr">
         <is>
-          <t>11/27, 12/02</t>
+          <t>27, 02</t>
         </is>
       </c>
       <c r="F117" s="4" t="n">
@@ -3996,7 +3996,7 @@
       </c>
       <c r="H117" s="4" t="inlineStr">
         <is>
-          <t>11/28, 12/01, 12/03</t>
+          <t>28, 01, 03</t>
         </is>
       </c>
       <c r="I117" s="4" t="n">
@@ -4027,7 +4027,7 @@
       </c>
       <c r="E118" s="4" t="inlineStr">
         <is>
-          <t>11/27</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F118" s="4" t="n">
@@ -4038,7 +4038,7 @@
       </c>
       <c r="H118" s="4" t="inlineStr">
         <is>
-          <t>11/28, 12/02</t>
+          <t>28, 02</t>
         </is>
       </c>
       <c r="I118" s="4" t="n">
@@ -4069,7 +4069,7 @@
       </c>
       <c r="E119" s="4" t="inlineStr">
         <is>
-          <t>11/28</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F119" s="4" t="n">
@@ -4080,7 +4080,7 @@
       </c>
       <c r="H119" s="4" t="inlineStr">
         <is>
-          <t>11/27, 12/01</t>
+          <t>27, 01</t>
         </is>
       </c>
       <c r="I119" s="4" t="n">
@@ -4111,7 +4111,7 @@
       </c>
       <c r="E120" s="4" t="inlineStr">
         <is>
-          <t>12/03</t>
+          <t>03</t>
         </is>
       </c>
       <c r="F120" s="4" t="n">
@@ -4122,7 +4122,7 @@
       </c>
       <c r="H120" s="4" t="inlineStr">
         <is>
-          <t>12/01, 12/02</t>
+          <t>01, 02</t>
         </is>
       </c>
       <c r="I120" s="4" t="n">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="E121" s="4" t="inlineStr">
         <is>
-          <t>12/01</t>
+          <t>01</t>
         </is>
       </c>
       <c r="F121" s="4" t="n">
@@ -4164,7 +4164,7 @@
       </c>
       <c r="H121" s="4" t="inlineStr">
         <is>
-          <t>11/28, 12/02, 12/03</t>
+          <t>28, 02, 03</t>
         </is>
       </c>
       <c r="I121" s="4" t="n">
@@ -4195,7 +4195,7 @@
       </c>
       <c r="E122" s="4" t="inlineStr">
         <is>
-          <t>12/03</t>
+          <t>03</t>
         </is>
       </c>
       <c r="F122" s="4" t="n">
@@ -4206,7 +4206,7 @@
       </c>
       <c r="H122" s="4" t="inlineStr">
         <is>
-          <t>11/27, 11/28, 12/01</t>
+          <t>27, 28, 01</t>
         </is>
       </c>
       <c r="I122" s="4" t="n">
@@ -4237,7 +4237,7 @@
       </c>
       <c r="E123" s="4" t="inlineStr">
         <is>
-          <t>11/27, 11/28, 12/03</t>
+          <t>27, 28, 03</t>
         </is>
       </c>
       <c r="F123" s="4" t="n">
@@ -4248,7 +4248,7 @@
       </c>
       <c r="H123" s="4" t="inlineStr">
         <is>
-          <t>12/01</t>
+          <t>01</t>
         </is>
       </c>
       <c r="I123" s="4" t="n">
@@ -4279,7 +4279,7 @@
       </c>
       <c r="E124" s="4" t="inlineStr">
         <is>
-          <t>11/27, 11/28</t>
+          <t>27, 28</t>
         </is>
       </c>
       <c r="F124" s="4" t="n">
@@ -4290,7 +4290,7 @@
       </c>
       <c r="H124" s="4" t="inlineStr">
         <is>
-          <t>12/01, 12/02, 12/03</t>
+          <t>01, 02, 03</t>
         </is>
       </c>
       <c r="I124" s="4" t="n">

--- a/StockInfo/tse_analysis_result.xlsx
+++ b/StockInfo/tse_analysis_result.xlsx
@@ -196,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -215,6 +215,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -606,7 +609,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J124"/>
+  <dimension ref="A1:K124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -641,6 +644,7 @@
       <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -653,6 +657,7 @@
       <c r="H2" s="4" t="n"/>
       <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
+      <c r="K2" s="4" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="5" t="inlineStr">
@@ -685,6 +690,7 @@
       <c r="H3" s="4" t="n"/>
       <c r="I3" s="4" t="n"/>
       <c r="J3" s="4" t="n"/>
+      <c r="K3" s="4" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
@@ -711,6 +717,7 @@
       <c r="H4" s="4" t="n"/>
       <c r="I4" s="4" t="n"/>
       <c r="J4" s="4" t="n"/>
+      <c r="K4" s="4" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
@@ -741,6 +748,7 @@
       <c r="H5" s="4" t="n"/>
       <c r="I5" s="4" t="n"/>
       <c r="J5" s="4" t="n"/>
+      <c r="K5" s="4" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
@@ -767,6 +775,7 @@
       <c r="H6" s="4" t="n"/>
       <c r="I6" s="4" t="n"/>
       <c r="J6" s="4" t="n"/>
+      <c r="K6" s="4" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
@@ -793,6 +802,7 @@
       <c r="H7" s="4" t="n"/>
       <c r="I7" s="4" t="n"/>
       <c r="J7" s="4" t="n"/>
+      <c r="K7" s="4" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
@@ -819,6 +829,7 @@
       <c r="H8" s="4" t="n"/>
       <c r="I8" s="4" t="n"/>
       <c r="J8" s="4" t="n"/>
+      <c r="K8" s="4" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
@@ -845,6 +856,7 @@
       <c r="H9" s="4" t="n"/>
       <c r="I9" s="4" t="n"/>
       <c r="J9" s="4" t="n"/>
+      <c r="K9" s="4" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
@@ -871,6 +883,7 @@
       <c r="H10" s="4" t="n"/>
       <c r="I10" s="4" t="n"/>
       <c r="J10" s="4" t="n"/>
+      <c r="K10" s="4" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
@@ -897,6 +910,7 @@
       <c r="H11" s="4" t="n"/>
       <c r="I11" s="4" t="n"/>
       <c r="J11" s="4" t="n"/>
+      <c r="K11" s="4" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
@@ -927,6 +941,7 @@
       <c r="H12" s="4" t="n"/>
       <c r="I12" s="4" t="n"/>
       <c r="J12" s="4" t="n"/>
+      <c r="K12" s="4" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
@@ -953,6 +968,7 @@
       <c r="H13" s="4" t="n"/>
       <c r="I13" s="4" t="n"/>
       <c r="J13" s="4" t="n"/>
+      <c r="K13" s="4" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
@@ -979,6 +995,7 @@
       <c r="H14" s="4" t="n"/>
       <c r="I14" s="4" t="n"/>
       <c r="J14" s="4" t="n"/>
+      <c r="K14" s="4" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
@@ -1009,6 +1026,7 @@
       <c r="H15" s="4" t="n"/>
       <c r="I15" s="4" t="n"/>
       <c r="J15" s="4" t="n"/>
+      <c r="K15" s="4" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
@@ -1035,6 +1053,7 @@
       <c r="H16" s="4" t="n"/>
       <c r="I16" s="4" t="n"/>
       <c r="J16" s="4" t="n"/>
+      <c r="K16" s="4" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
@@ -1065,6 +1084,7 @@
       <c r="H17" s="4" t="n"/>
       <c r="I17" s="4" t="n"/>
       <c r="J17" s="4" t="n"/>
+      <c r="K17" s="4" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
@@ -1091,6 +1111,7 @@
       <c r="H18" s="4" t="n"/>
       <c r="I18" s="4" t="n"/>
       <c r="J18" s="4" t="n"/>
+      <c r="K18" s="4" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
@@ -1117,6 +1138,7 @@
       <c r="H19" s="4" t="n"/>
       <c r="I19" s="4" t="n"/>
       <c r="J19" s="4" t="n"/>
+      <c r="K19" s="4" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
@@ -1143,6 +1165,7 @@
       <c r="H20" s="4" t="n"/>
       <c r="I20" s="4" t="n"/>
       <c r="J20" s="4" t="n"/>
+      <c r="K20" s="4" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
@@ -1173,6 +1196,7 @@
       <c r="H21" s="4" t="n"/>
       <c r="I21" s="4" t="n"/>
       <c r="J21" s="4" t="n"/>
+      <c r="K21" s="4" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="4" t="inlineStr">
@@ -1199,6 +1223,7 @@
       <c r="H22" s="4" t="n"/>
       <c r="I22" s="4" t="n"/>
       <c r="J22" s="4" t="n"/>
+      <c r="K22" s="4" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="4" t="inlineStr">
@@ -1225,6 +1250,7 @@
       <c r="H23" s="4" t="n"/>
       <c r="I23" s="4" t="n"/>
       <c r="J23" s="4" t="n"/>
+      <c r="K23" s="4" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="4" t="inlineStr">
@@ -1251,6 +1277,7 @@
       <c r="H24" s="4" t="n"/>
       <c r="I24" s="4" t="n"/>
       <c r="J24" s="4" t="n"/>
+      <c r="K24" s="4" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="4" t="inlineStr">
@@ -1277,6 +1304,7 @@
       <c r="H25" s="4" t="n"/>
       <c r="I25" s="4" t="n"/>
       <c r="J25" s="4" t="n"/>
+      <c r="K25" s="4" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="4" t="inlineStr">
@@ -1307,6 +1335,7 @@
       <c r="H26" s="4" t="n"/>
       <c r="I26" s="4" t="n"/>
       <c r="J26" s="4" t="n"/>
+      <c r="K26" s="4" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
@@ -1333,6 +1362,7 @@
       <c r="H27" s="4" t="n"/>
       <c r="I27" s="4" t="n"/>
       <c r="J27" s="4" t="n"/>
+      <c r="K27" s="4" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="4" t="inlineStr">
@@ -1359,6 +1389,7 @@
       <c r="H28" s="4" t="n"/>
       <c r="I28" s="4" t="n"/>
       <c r="J28" s="4" t="n"/>
+      <c r="K28" s="4" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
@@ -1389,6 +1420,7 @@
       <c r="H29" s="4" t="n"/>
       <c r="I29" s="4" t="n"/>
       <c r="J29" s="4" t="n"/>
+      <c r="K29" s="4" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="4" t="inlineStr">
@@ -1415,6 +1447,7 @@
       <c r="H30" s="4" t="n"/>
       <c r="I30" s="4" t="n"/>
       <c r="J30" s="4" t="n"/>
+      <c r="K30" s="4" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
@@ -1445,6 +1478,7 @@
       <c r="H31" s="4" t="n"/>
       <c r="I31" s="4" t="n"/>
       <c r="J31" s="4" t="n"/>
+      <c r="K31" s="4" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
@@ -1475,6 +1509,7 @@
       <c r="H32" s="4" t="n"/>
       <c r="I32" s="4" t="n"/>
       <c r="J32" s="4" t="n"/>
+      <c r="K32" s="4" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="4" t="inlineStr">
@@ -1505,6 +1540,7 @@
       <c r="H33" s="4" t="n"/>
       <c r="I33" s="4" t="n"/>
       <c r="J33" s="4" t="n"/>
+      <c r="K33" s="4" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="4" t="inlineStr">
@@ -1535,6 +1571,7 @@
       <c r="H34" s="4" t="n"/>
       <c r="I34" s="4" t="n"/>
       <c r="J34" s="4" t="n"/>
+      <c r="K34" s="4" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="4" t="inlineStr">
@@ -1561,6 +1598,7 @@
       <c r="H35" s="4" t="n"/>
       <c r="I35" s="4" t="n"/>
       <c r="J35" s="4" t="n"/>
+      <c r="K35" s="4" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="4" t="inlineStr">
@@ -1591,6 +1629,7 @@
       <c r="H36" s="4" t="n"/>
       <c r="I36" s="4" t="n"/>
       <c r="J36" s="4" t="n"/>
+      <c r="K36" s="4" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
@@ -1617,6 +1656,7 @@
       <c r="H37" s="4" t="n"/>
       <c r="I37" s="4" t="n"/>
       <c r="J37" s="4" t="n"/>
+      <c r="K37" s="4" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="4" t="inlineStr">
@@ -1643,6 +1683,7 @@
       <c r="H38" s="4" t="n"/>
       <c r="I38" s="4" t="n"/>
       <c r="J38" s="4" t="n"/>
+      <c r="K38" s="4" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
@@ -1669,6 +1710,7 @@
       <c r="H39" s="4" t="n"/>
       <c r="I39" s="4" t="n"/>
       <c r="J39" s="4" t="n"/>
+      <c r="K39" s="4" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="4" t="inlineStr">
@@ -1695,6 +1737,7 @@
       <c r="H40" s="4" t="n"/>
       <c r="I40" s="4" t="n"/>
       <c r="J40" s="4" t="n"/>
+      <c r="K40" s="4" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="4" t="inlineStr">
@@ -1725,6 +1768,7 @@
       <c r="H41" s="4" t="n"/>
       <c r="I41" s="4" t="n"/>
       <c r="J41" s="4" t="n"/>
+      <c r="K41" s="4" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="4" t="inlineStr">
@@ -1755,6 +1799,7 @@
       <c r="H42" s="4" t="n"/>
       <c r="I42" s="4" t="n"/>
       <c r="J42" s="4" t="n"/>
+      <c r="K42" s="4" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="4" t="inlineStr">
@@ -1785,6 +1830,7 @@
       <c r="H43" s="4" t="n"/>
       <c r="I43" s="4" t="n"/>
       <c r="J43" s="4" t="n"/>
+      <c r="K43" s="4" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="4" t="n"/>
@@ -1797,6 +1843,7 @@
       <c r="H44" s="4" t="n"/>
       <c r="I44" s="4" t="n"/>
       <c r="J44" s="4" t="n"/>
+      <c r="K44" s="4" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="4" t="n"/>
@@ -1809,6 +1856,7 @@
       <c r="H45" s="4" t="n"/>
       <c r="I45" s="4" t="n"/>
       <c r="J45" s="4" t="n"/>
+      <c r="K45" s="4" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
@@ -1825,6 +1873,7 @@
       <c r="H46" s="3" t="n"/>
       <c r="I46" s="3" t="n"/>
       <c r="J46" s="3" t="n"/>
+      <c r="K46" s="3" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="4" t="n"/>
@@ -1837,6 +1886,7 @@
       <c r="H47" s="4" t="n"/>
       <c r="I47" s="4" t="n"/>
       <c r="J47" s="4" t="n"/>
+      <c r="K47" s="4" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="5" t="inlineStr">
@@ -1869,6 +1919,7 @@
       <c r="H48" s="4" t="n"/>
       <c r="I48" s="4" t="n"/>
       <c r="J48" s="4" t="n"/>
+      <c r="K48" s="4" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="4" t="inlineStr">
@@ -1895,6 +1946,7 @@
       <c r="H49" s="4" t="n"/>
       <c r="I49" s="4" t="n"/>
       <c r="J49" s="4" t="n"/>
+      <c r="K49" s="4" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="4" t="inlineStr">
@@ -1921,6 +1973,7 @@
       <c r="H50" s="4" t="n"/>
       <c r="I50" s="4" t="n"/>
       <c r="J50" s="4" t="n"/>
+      <c r="K50" s="4" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="4" t="inlineStr">
@@ -1947,6 +2000,7 @@
       <c r="H51" s="4" t="n"/>
       <c r="I51" s="4" t="n"/>
       <c r="J51" s="4" t="n"/>
+      <c r="K51" s="4" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="4" t="inlineStr">
@@ -1973,6 +2027,7 @@
       <c r="H52" s="4" t="n"/>
       <c r="I52" s="4" t="n"/>
       <c r="J52" s="4" t="n"/>
+      <c r="K52" s="4" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="4" t="inlineStr">
@@ -1999,6 +2054,7 @@
       <c r="H53" s="4" t="n"/>
       <c r="I53" s="4" t="n"/>
       <c r="J53" s="4" t="n"/>
+      <c r="K53" s="4" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="4" t="inlineStr">
@@ -2029,6 +2085,7 @@
       <c r="H54" s="4" t="n"/>
       <c r="I54" s="4" t="n"/>
       <c r="J54" s="4" t="n"/>
+      <c r="K54" s="4" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="4" t="inlineStr">
@@ -2055,6 +2112,7 @@
       <c r="H55" s="4" t="n"/>
       <c r="I55" s="4" t="n"/>
       <c r="J55" s="4" t="n"/>
+      <c r="K55" s="4" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="4" t="inlineStr">
@@ -2085,6 +2143,7 @@
       <c r="H56" s="4" t="n"/>
       <c r="I56" s="4" t="n"/>
       <c r="J56" s="4" t="n"/>
+      <c r="K56" s="4" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="4" t="inlineStr">
@@ -2115,6 +2174,7 @@
       <c r="H57" s="4" t="n"/>
       <c r="I57" s="4" t="n"/>
       <c r="J57" s="4" t="n"/>
+      <c r="K57" s="4" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="4" t="inlineStr">
@@ -2145,6 +2205,7 @@
       <c r="H58" s="4" t="n"/>
       <c r="I58" s="4" t="n"/>
       <c r="J58" s="4" t="n"/>
+      <c r="K58" s="4" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="4" t="inlineStr">
@@ -2171,6 +2232,7 @@
       <c r="H59" s="4" t="n"/>
       <c r="I59" s="4" t="n"/>
       <c r="J59" s="4" t="n"/>
+      <c r="K59" s="4" t="n"/>
     </row>
     <row r="60">
       <c r="A60" s="4" t="inlineStr">
@@ -2197,6 +2259,7 @@
       <c r="H60" s="4" t="n"/>
       <c r="I60" s="4" t="n"/>
       <c r="J60" s="4" t="n"/>
+      <c r="K60" s="4" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="4" t="inlineStr">
@@ -2223,6 +2286,7 @@
       <c r="H61" s="4" t="n"/>
       <c r="I61" s="4" t="n"/>
       <c r="J61" s="4" t="n"/>
+      <c r="K61" s="4" t="n"/>
     </row>
     <row r="62">
       <c r="A62" s="4" t="inlineStr">
@@ -2253,6 +2317,7 @@
       <c r="H62" s="4" t="n"/>
       <c r="I62" s="4" t="n"/>
       <c r="J62" s="4" t="n"/>
+      <c r="K62" s="4" t="n"/>
     </row>
     <row r="63">
       <c r="A63" s="4" t="inlineStr">
@@ -2283,6 +2348,7 @@
       <c r="H63" s="4" t="n"/>
       <c r="I63" s="4" t="n"/>
       <c r="J63" s="4" t="n"/>
+      <c r="K63" s="4" t="n"/>
     </row>
     <row r="64">
       <c r="A64" s="4" t="inlineStr">
@@ -2309,6 +2375,7 @@
       <c r="H64" s="4" t="n"/>
       <c r="I64" s="4" t="n"/>
       <c r="J64" s="4" t="n"/>
+      <c r="K64" s="4" t="n"/>
     </row>
     <row r="65">
       <c r="A65" s="4" t="inlineStr">
@@ -2335,6 +2402,7 @@
       <c r="H65" s="4" t="n"/>
       <c r="I65" s="4" t="n"/>
       <c r="J65" s="4" t="n"/>
+      <c r="K65" s="4" t="n"/>
     </row>
     <row r="66">
       <c r="A66" s="4" t="inlineStr">
@@ -2361,6 +2429,7 @@
       <c r="H66" s="4" t="n"/>
       <c r="I66" s="4" t="n"/>
       <c r="J66" s="4" t="n"/>
+      <c r="K66" s="4" t="n"/>
     </row>
     <row r="67">
       <c r="A67" s="4" t="inlineStr">
@@ -2387,6 +2456,7 @@
       <c r="H67" s="4" t="n"/>
       <c r="I67" s="4" t="n"/>
       <c r="J67" s="4" t="n"/>
+      <c r="K67" s="4" t="n"/>
     </row>
     <row r="68">
       <c r="A68" s="4" t="inlineStr">
@@ -2413,6 +2483,7 @@
       <c r="H68" s="4" t="n"/>
       <c r="I68" s="4" t="n"/>
       <c r="J68" s="4" t="n"/>
+      <c r="K68" s="4" t="n"/>
     </row>
     <row r="69">
       <c r="A69" s="4" t="inlineStr">
@@ -2439,6 +2510,7 @@
       <c r="H69" s="4" t="n"/>
       <c r="I69" s="4" t="n"/>
       <c r="J69" s="4" t="n"/>
+      <c r="K69" s="4" t="n"/>
     </row>
     <row r="70">
       <c r="A70" s="4" t="inlineStr">
@@ -2465,6 +2537,7 @@
       <c r="H70" s="4" t="n"/>
       <c r="I70" s="4" t="n"/>
       <c r="J70" s="4" t="n"/>
+      <c r="K70" s="4" t="n"/>
     </row>
     <row r="71">
       <c r="A71" s="4" t="inlineStr">
@@ -2491,6 +2564,7 @@
       <c r="H71" s="4" t="n"/>
       <c r="I71" s="4" t="n"/>
       <c r="J71" s="4" t="n"/>
+      <c r="K71" s="4" t="n"/>
     </row>
     <row r="72">
       <c r="A72" s="4" t="inlineStr">
@@ -2521,6 +2595,7 @@
       <c r="H72" s="4" t="n"/>
       <c r="I72" s="4" t="n"/>
       <c r="J72" s="4" t="n"/>
+      <c r="K72" s="4" t="n"/>
     </row>
     <row r="73">
       <c r="A73" s="4" t="inlineStr">
@@ -2547,6 +2622,7 @@
       <c r="H73" s="4" t="n"/>
       <c r="I73" s="4" t="n"/>
       <c r="J73" s="4" t="n"/>
+      <c r="K73" s="4" t="n"/>
     </row>
     <row r="74">
       <c r="A74" s="4" t="inlineStr">
@@ -2573,6 +2649,7 @@
       <c r="H74" s="4" t="n"/>
       <c r="I74" s="4" t="n"/>
       <c r="J74" s="4" t="n"/>
+      <c r="K74" s="4" t="n"/>
     </row>
     <row r="75">
       <c r="A75" s="4" t="inlineStr">
@@ -2599,6 +2676,7 @@
       <c r="H75" s="4" t="n"/>
       <c r="I75" s="4" t="n"/>
       <c r="J75" s="4" t="n"/>
+      <c r="K75" s="4" t="n"/>
     </row>
     <row r="76">
       <c r="A76" s="4" t="inlineStr">
@@ -2629,6 +2707,7 @@
       <c r="H76" s="4" t="n"/>
       <c r="I76" s="4" t="n"/>
       <c r="J76" s="4" t="n"/>
+      <c r="K76" s="4" t="n"/>
     </row>
     <row r="77">
       <c r="A77" s="4" t="inlineStr">
@@ -2655,6 +2734,7 @@
       <c r="H77" s="4" t="n"/>
       <c r="I77" s="4" t="n"/>
       <c r="J77" s="4" t="n"/>
+      <c r="K77" s="4" t="n"/>
     </row>
     <row r="78">
       <c r="A78" s="4" t="inlineStr">
@@ -2681,6 +2761,7 @@
       <c r="H78" s="4" t="n"/>
       <c r="I78" s="4" t="n"/>
       <c r="J78" s="4" t="n"/>
+      <c r="K78" s="4" t="n"/>
     </row>
     <row r="79">
       <c r="A79" s="4" t="inlineStr">
@@ -2707,6 +2788,7 @@
       <c r="H79" s="4" t="n"/>
       <c r="I79" s="4" t="n"/>
       <c r="J79" s="4" t="n"/>
+      <c r="K79" s="4" t="n"/>
     </row>
     <row r="80">
       <c r="A80" s="4" t="inlineStr">
@@ -2733,6 +2815,7 @@
       <c r="H80" s="4" t="n"/>
       <c r="I80" s="4" t="n"/>
       <c r="J80" s="4" t="n"/>
+      <c r="K80" s="4" t="n"/>
     </row>
     <row r="81">
       <c r="A81" s="4" t="inlineStr">
@@ -2759,6 +2842,7 @@
       <c r="H81" s="4" t="n"/>
       <c r="I81" s="4" t="n"/>
       <c r="J81" s="4" t="n"/>
+      <c r="K81" s="4" t="n"/>
     </row>
     <row r="82">
       <c r="A82" s="4" t="inlineStr">
@@ -2785,6 +2869,7 @@
       <c r="H82" s="4" t="n"/>
       <c r="I82" s="4" t="n"/>
       <c r="J82" s="4" t="n"/>
+      <c r="K82" s="4" t="n"/>
     </row>
     <row r="83">
       <c r="A83" s="4" t="inlineStr">
@@ -2815,6 +2900,7 @@
       <c r="H83" s="4" t="n"/>
       <c r="I83" s="4" t="n"/>
       <c r="J83" s="4" t="n"/>
+      <c r="K83" s="4" t="n"/>
     </row>
     <row r="84">
       <c r="A84" s="4" t="inlineStr">
@@ -2841,6 +2927,7 @@
       <c r="H84" s="4" t="n"/>
       <c r="I84" s="4" t="n"/>
       <c r="J84" s="4" t="n"/>
+      <c r="K84" s="4" t="n"/>
     </row>
     <row r="85">
       <c r="A85" s="4" t="inlineStr">
@@ -2867,6 +2954,7 @@
       <c r="H85" s="4" t="n"/>
       <c r="I85" s="4" t="n"/>
       <c r="J85" s="4" t="n"/>
+      <c r="K85" s="4" t="n"/>
     </row>
     <row r="86">
       <c r="A86" s="4" t="inlineStr">
@@ -2893,6 +2981,7 @@
       <c r="H86" s="4" t="n"/>
       <c r="I86" s="4" t="n"/>
       <c r="J86" s="4" t="n"/>
+      <c r="K86" s="4" t="n"/>
     </row>
     <row r="87">
       <c r="A87" s="4" t="inlineStr">
@@ -2919,6 +3008,7 @@
       <c r="H87" s="4" t="n"/>
       <c r="I87" s="4" t="n"/>
       <c r="J87" s="4" t="n"/>
+      <c r="K87" s="4" t="n"/>
     </row>
     <row r="88">
       <c r="A88" s="4" t="inlineStr">
@@ -2945,6 +3035,7 @@
       <c r="H88" s="4" t="n"/>
       <c r="I88" s="4" t="n"/>
       <c r="J88" s="4" t="n"/>
+      <c r="K88" s="4" t="n"/>
     </row>
     <row r="89">
       <c r="A89" s="4" t="inlineStr">
@@ -2971,6 +3062,7 @@
       <c r="H89" s="4" t="n"/>
       <c r="I89" s="4" t="n"/>
       <c r="J89" s="4" t="n"/>
+      <c r="K89" s="4" t="n"/>
     </row>
     <row r="90">
       <c r="A90" s="4" t="inlineStr">
@@ -3001,6 +3093,7 @@
       <c r="H90" s="4" t="n"/>
       <c r="I90" s="4" t="n"/>
       <c r="J90" s="4" t="n"/>
+      <c r="K90" s="4" t="n"/>
     </row>
     <row r="91">
       <c r="A91" s="4" t="inlineStr">
@@ -3031,6 +3124,7 @@
       <c r="H91" s="4" t="n"/>
       <c r="I91" s="4" t="n"/>
       <c r="J91" s="4" t="n"/>
+      <c r="K91" s="4" t="n"/>
     </row>
     <row r="92">
       <c r="A92" s="4" t="inlineStr">
@@ -3061,6 +3155,7 @@
       <c r="H92" s="4" t="n"/>
       <c r="I92" s="4" t="n"/>
       <c r="J92" s="4" t="n"/>
+      <c r="K92" s="4" t="n"/>
     </row>
     <row r="93">
       <c r="A93" s="4" t="n"/>
@@ -3073,6 +3168,7 @@
       <c r="H93" s="4" t="n"/>
       <c r="I93" s="4" t="n"/>
       <c r="J93" s="4" t="n"/>
+      <c r="K93" s="4" t="n"/>
     </row>
     <row r="94">
       <c r="A94" s="4" t="n"/>
@@ -3085,6 +3181,7 @@
       <c r="H94" s="4" t="n"/>
       <c r="I94" s="4" t="n"/>
       <c r="J94" s="4" t="n"/>
+      <c r="K94" s="4" t="n"/>
     </row>
     <row r="95">
       <c r="A95" s="6" t="inlineStr">
@@ -3101,6 +3198,7 @@
       <c r="H95" s="3" t="n"/>
       <c r="I95" s="3" t="n"/>
       <c r="J95" s="3" t="n"/>
+      <c r="K95" s="3" t="n"/>
     </row>
     <row r="96">
       <c r="A96" s="4" t="n"/>
@@ -3113,6 +3211,7 @@
       <c r="H96" s="4" t="n"/>
       <c r="I96" s="4" t="n"/>
       <c r="J96" s="4" t="n"/>
+      <c r="K96" s="4" t="n"/>
     </row>
     <row r="97">
       <c r="A97" s="7" t="inlineStr">
@@ -3165,6 +3264,11 @@
           <t>淨買賣超</t>
         </is>
       </c>
+      <c r="K97" s="8" t="inlineStr">
+        <is>
+          <t>日期狀態</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="4" t="inlineStr">
@@ -3207,6 +3311,11 @@
       <c r="J98" s="4" t="n">
         <v>81342</v>
       </c>
+      <c r="K98" s="4" t="inlineStr">
+        <is>
+          <t>[('buy', '03'), ('buy', '02'), ('sell', '01'), ('sell', '28'), ('buy', '27')]</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="4" t="inlineStr">
@@ -3249,6 +3358,11 @@
       <c r="J99" s="4" t="n">
         <v>34573</v>
       </c>
+      <c r="K99" s="4" t="inlineStr">
+        <is>
+          <t>[('buy', '03'), ('buy', '02'), ('buy', '01'), ('sell', '28'), ('neutral', '27')]</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="4" t="inlineStr">
@@ -3291,6 +3405,11 @@
       <c r="J100" s="4" t="n">
         <v>30610</v>
       </c>
+      <c r="K100" s="4" t="inlineStr">
+        <is>
+          <t>[('buy', '03'), ('buy', '02'), ('neutral', '01'), ('sell', '28'), ('buy', '27')]</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="4" t="inlineStr">
@@ -3333,6 +3452,11 @@
       <c r="J101" s="4" t="n">
         <v>28273</v>
       </c>
+      <c r="K101" s="4" t="inlineStr">
+        <is>
+          <t>[('neutral', '03'), ('buy', '02'), ('buy', '01'), ('sell', '28'), ('neutral', '27')]</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="4" t="inlineStr">
@@ -3375,6 +3499,11 @@
       <c r="J102" s="4" t="n">
         <v>14629</v>
       </c>
+      <c r="K102" s="4" t="inlineStr">
+        <is>
+          <t>[('buy', '03'), ('neutral', '02'), ('neutral', '01'), ('sell', '28'), ('buy', '27')]</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="4" t="inlineStr">
@@ -3417,6 +3546,11 @@
       <c r="J103" s="4" t="n">
         <v>10625</v>
       </c>
+      <c r="K103" s="4" t="inlineStr">
+        <is>
+          <t>[('neutral', '03'), ('neutral', '02'), ('buy', '01'), ('buy', '28'), ('sell', '27')]</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="4" t="inlineStr">
@@ -3459,6 +3593,11 @@
       <c r="J104" s="4" t="n">
         <v>8925</v>
       </c>
+      <c r="K104" s="4" t="inlineStr">
+        <is>
+          <t>[('sell', '03'), ('buy', '02'), ('neutral', '01'), ('neutral', '28'), ('neutral', '27')]</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="4" t="inlineStr">
@@ -3501,6 +3640,11 @@
       <c r="J105" s="4" t="n">
         <v>7777</v>
       </c>
+      <c r="K105" s="4" t="inlineStr">
+        <is>
+          <t>[('neutral', '03'), ('sell', '02'), ('neutral', '01'), ('neutral', '28'), ('buy', '27')]</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="4" t="inlineStr">
@@ -3543,6 +3687,11 @@
       <c r="J106" s="4" t="n">
         <v>7654</v>
       </c>
+      <c r="K106" s="4" t="inlineStr">
+        <is>
+          <t>[('sell', '03'), ('buy', '02'), ('buy', '01'), ('buy', '28'), ('neutral', '27')]</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="4" t="inlineStr">
@@ -3585,6 +3734,11 @@
       <c r="J107" s="4" t="n">
         <v>7640</v>
       </c>
+      <c r="K107" s="4" t="inlineStr">
+        <is>
+          <t>[('buy', '03'), ('neutral', '02'), ('buy', '01'), ('sell', '28'), ('neutral', '27')]</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="4" t="inlineStr">
@@ -3627,6 +3781,11 @@
       <c r="J108" s="4" t="n">
         <v>7220</v>
       </c>
+      <c r="K108" s="4" t="inlineStr">
+        <is>
+          <t>[('neutral', '03'), ('buy', '02'), ('sell', '01'), ('neutral', '28'), ('buy', '27')]</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="4" t="inlineStr">
@@ -3669,6 +3828,11 @@
       <c r="J109" s="4" t="n">
         <v>5765</v>
       </c>
+      <c r="K109" s="4" t="inlineStr">
+        <is>
+          <t>[('sell', '03'), ('buy', '02'), ('sell', '01'), ('buy', '28'), ('neutral', '27')]</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="4" t="inlineStr">
@@ -3711,6 +3875,11 @@
       <c r="J110" s="4" t="n">
         <v>3670</v>
       </c>
+      <c r="K110" s="4" t="inlineStr">
+        <is>
+          <t>[('sell', '03'), ('neutral', '02'), ('neutral', '01'), ('buy', '28'), ('neutral', '27')]</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="4" t="inlineStr">
@@ -3753,6 +3922,11 @@
       <c r="J111" s="4" t="n">
         <v>1884</v>
       </c>
+      <c r="K111" s="4" t="inlineStr">
+        <is>
+          <t>[('neutral', '03'), ('neutral', '02'), ('buy', '01'), ('sell', '28'), ('neutral', '27')]</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="4" t="inlineStr">
@@ -3795,6 +3969,11 @@
       <c r="J112" s="4" t="n">
         <v>47</v>
       </c>
+      <c r="K112" s="4" t="inlineStr">
+        <is>
+          <t>[('neutral', '03'), ('neutral', '02'), ('neutral', '01'), ('buy', '28'), ('sell', '27')]</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="4" t="inlineStr">
@@ -3837,6 +4016,11 @@
       <c r="J113" s="4" t="n">
         <v>-184</v>
       </c>
+      <c r="K113" s="4" t="inlineStr">
+        <is>
+          <t>[('buy', '03'), ('neutral', '02'), ('neutral', '01'), ('sell', '28'), ('neutral', '27')]</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="4" t="inlineStr">
@@ -3879,6 +4063,11 @@
       <c r="J114" s="4" t="n">
         <v>-1957</v>
       </c>
+      <c r="K114" s="4" t="inlineStr">
+        <is>
+          <t>[('sell', '03'), ('neutral', '02'), ('buy', '01'), ('neutral', '28'), ('neutral', '27')]</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="4" t="inlineStr">
@@ -3921,6 +4110,11 @@
       <c r="J115" s="4" t="n">
         <v>-2120</v>
       </c>
+      <c r="K115" s="4" t="inlineStr">
+        <is>
+          <t>[('neutral', '03'), ('sell', '02'), ('neutral', '01'), ('buy', '28'), ('neutral', '27')]</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="4" t="inlineStr">
@@ -3963,6 +4157,11 @@
       <c r="J116" s="4" t="n">
         <v>-4233</v>
       </c>
+      <c r="K116" s="4" t="inlineStr">
+        <is>
+          <t>[('sell', '03'), ('sell', '02'), ('neutral', '01'), ('sell', '28'), ('buy', '27')]</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="4" t="inlineStr">
@@ -4005,6 +4204,11 @@
       <c r="J117" s="4" t="n">
         <v>-5721</v>
       </c>
+      <c r="K117" s="4" t="inlineStr">
+        <is>
+          <t>[('sell', '03'), ('buy', '02'), ('sell', '01'), ('sell', '28'), ('buy', '27')]</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="4" t="inlineStr">
@@ -4047,6 +4251,11 @@
       <c r="J118" s="4" t="n">
         <v>-7754</v>
       </c>
+      <c r="K118" s="4" t="inlineStr">
+        <is>
+          <t>[('neutral', '03'), ('sell', '02'), ('neutral', '01'), ('sell', '28'), ('buy', '27')]</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="4" t="inlineStr">
@@ -4089,6 +4298,11 @@
       <c r="J119" s="4" t="n">
         <v>-13161</v>
       </c>
+      <c r="K119" s="4" t="inlineStr">
+        <is>
+          <t>[('neutral', '03'), ('neutral', '02'), ('sell', '01'), ('buy', '28'), ('sell', '27')]</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="4" t="inlineStr">
@@ -4131,6 +4345,11 @@
       <c r="J120" s="4" t="n">
         <v>-13949</v>
       </c>
+      <c r="K120" s="4" t="inlineStr">
+        <is>
+          <t>[('buy', '03'), ('sell', '02'), ('sell', '01'), ('neutral', '28'), ('neutral', '27')]</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="4" t="inlineStr">
@@ -4173,6 +4392,11 @@
       <c r="J121" s="4" t="n">
         <v>-25172</v>
       </c>
+      <c r="K121" s="4" t="inlineStr">
+        <is>
+          <t>[('sell', '03'), ('sell', '02'), ('buy', '01'), ('sell', '28'), ('neutral', '27')]</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="4" t="inlineStr">
@@ -4215,6 +4439,11 @@
       <c r="J122" s="4" t="n">
         <v>-28413</v>
       </c>
+      <c r="K122" s="4" t="inlineStr">
+        <is>
+          <t>[('buy', '03'), ('neutral', '02'), ('sell', '01'), ('sell', '28'), ('sell', '27')]</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="4" t="inlineStr">
@@ -4257,6 +4486,11 @@
       <c r="J123" s="4" t="n">
         <v>-35713</v>
       </c>
+      <c r="K123" s="4" t="inlineStr">
+        <is>
+          <t>[('buy', '03'), ('neutral', '02'), ('sell', '01'), ('buy', '28'), ('buy', '27')]</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="4" t="inlineStr">
@@ -4299,12 +4533,17 @@
       <c r="J124" s="4" t="n">
         <v>-46665</v>
       </c>
+      <c r="K124" s="4" t="inlineStr">
+        <is>
+          <t>[('sell', '03'), ('sell', '02'), ('sell', '01'), ('buy', '28'), ('buy', '27')]</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A46:J46"/>
-    <mergeCell ref="A95:J95"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A46:K46"/>
+    <mergeCell ref="A95:K95"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4365,52 +4604,52 @@
       <c r="J2" s="4" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="inlineStr">
+      <c r="A3" s="9" t="inlineStr">
         <is>
           <t>排名</t>
         </is>
       </c>
-      <c r="B3" s="8" t="inlineStr">
+      <c r="B3" s="9" t="inlineStr">
         <is>
           <t>證券代號</t>
         </is>
       </c>
-      <c r="C3" s="8" t="inlineStr">
+      <c r="C3" s="9" t="inlineStr">
         <is>
           <t>證券領域</t>
         </is>
       </c>
-      <c r="D3" s="8" t="inlineStr">
+      <c r="D3" s="9" t="inlineStr">
         <is>
           <t>證券名稱</t>
         </is>
       </c>
-      <c r="E3" s="8" t="inlineStr">
+      <c r="E3" s="9" t="inlineStr">
         <is>
           <t>收盤價</t>
         </is>
       </c>
-      <c r="F3" s="8" t="inlineStr">
+      <c r="F3" s="9" t="inlineStr">
         <is>
           <t>漲跌價差</t>
         </is>
       </c>
-      <c r="G3" s="8" t="inlineStr">
+      <c r="G3" s="9" t="inlineStr">
         <is>
           <t>買賣超張數</t>
         </is>
       </c>
-      <c r="H3" s="9" t="inlineStr">
+      <c r="H3" s="10" t="inlineStr">
         <is>
           <t>新進榜</t>
         </is>
       </c>
-      <c r="I3" s="10" t="inlineStr">
+      <c r="I3" s="11" t="inlineStr">
         <is>
           <t>值得觀察</t>
         </is>
       </c>
-      <c r="J3" s="11" t="inlineStr">
+      <c r="J3" s="12" t="inlineStr">
         <is>
           <t>統計數據(60天)</t>
         </is>
@@ -4485,7 +4724,7 @@
         <v>24729</v>
       </c>
       <c r="H5" s="4" t="inlineStr"/>
-      <c r="I5" s="12" t="inlineStr">
+      <c r="I5" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -4525,7 +4764,7 @@
         <v>18193</v>
       </c>
       <c r="H6" s="4" t="inlineStr"/>
-      <c r="I6" s="12" t="inlineStr">
+      <c r="I6" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -4597,7 +4836,7 @@
         <v>11621</v>
       </c>
       <c r="H8" s="4" t="inlineStr"/>
-      <c r="I8" s="12" t="inlineStr">
+      <c r="I8" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -4672,7 +4911,7 @@
       <c r="G10" s="4" t="n">
         <v>11161</v>
       </c>
-      <c r="H10" s="13" t="inlineStr">
+      <c r="H10" s="14" t="inlineStr">
         <is>
           <t>🔥NEW</t>
         </is>
@@ -4712,7 +4951,7 @@
       <c r="G11" s="4" t="n">
         <v>10917</v>
       </c>
-      <c r="H11" s="13" t="inlineStr">
+      <c r="H11" s="14" t="inlineStr">
         <is>
           <t>🔥NEW</t>
         </is>
@@ -4753,7 +4992,7 @@
         <v>10826</v>
       </c>
       <c r="H12" s="4" t="inlineStr"/>
-      <c r="I12" s="12" t="inlineStr">
+      <c r="I12" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -4829,7 +5068,7 @@
         <v>10105</v>
       </c>
       <c r="H14" s="4" t="inlineStr"/>
-      <c r="I14" s="12" t="inlineStr">
+      <c r="I14" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -4868,7 +5107,7 @@
       <c r="G15" s="4" t="n">
         <v>9912</v>
       </c>
-      <c r="H15" s="13" t="inlineStr">
+      <c r="H15" s="14" t="inlineStr">
         <is>
           <t>🔥NEW</t>
         </is>
@@ -4945,7 +5184,7 @@
         <v>8392</v>
       </c>
       <c r="H17" s="4" t="inlineStr"/>
-      <c r="I17" s="12" t="inlineStr">
+      <c r="I17" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -4985,7 +5224,7 @@
         <v>8222</v>
       </c>
       <c r="H18" s="4" t="inlineStr"/>
-      <c r="I18" s="12" t="inlineStr">
+      <c r="I18" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -5025,7 +5264,7 @@
         <v>7954</v>
       </c>
       <c r="H19" s="4" t="inlineStr"/>
-      <c r="I19" s="12" t="inlineStr">
+      <c r="I19" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -5137,7 +5376,7 @@
         <v>6954</v>
       </c>
       <c r="H22" s="4" t="inlineStr"/>
-      <c r="I22" s="12" t="inlineStr">
+      <c r="I22" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -5177,7 +5416,7 @@
         <v>6502</v>
       </c>
       <c r="H23" s="4" t="inlineStr"/>
-      <c r="I23" s="12" t="inlineStr">
+      <c r="I23" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -5289,7 +5528,7 @@
         <v>5893</v>
       </c>
       <c r="H26" s="4" t="inlineStr"/>
-      <c r="I26" s="12" t="inlineStr">
+      <c r="I26" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -5437,7 +5676,7 @@
         <v>4349</v>
       </c>
       <c r="H30" s="4" t="inlineStr"/>
-      <c r="I30" s="12" t="inlineStr">
+      <c r="I30" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -5477,7 +5716,7 @@
         <v>4116</v>
       </c>
       <c r="H31" s="4" t="inlineStr"/>
-      <c r="I31" s="12" t="inlineStr">
+      <c r="I31" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -5517,7 +5756,7 @@
         <v>3854</v>
       </c>
       <c r="H32" s="4" t="inlineStr"/>
-      <c r="I32" s="12" t="inlineStr">
+      <c r="I32" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -5557,7 +5796,7 @@
         <v>3606</v>
       </c>
       <c r="H33" s="4" t="inlineStr"/>
-      <c r="I33" s="12" t="inlineStr">
+      <c r="I33" s="13" t="inlineStr">
         <is>
           <t>👀異常波動(2.9σ)</t>
         </is>
@@ -5633,7 +5872,7 @@
         <v>3284</v>
       </c>
       <c r="H35" s="4" t="inlineStr"/>
-      <c r="I35" s="12" t="inlineStr">
+      <c r="I35" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -5673,7 +5912,7 @@
         <v>3211</v>
       </c>
       <c r="H36" s="4" t="inlineStr"/>
-      <c r="I36" s="12" t="inlineStr">
+      <c r="I36" s="13" t="inlineStr">
         <is>
           <t>👀異常波動(2.9σ)+連續買超</t>
         </is>
@@ -5753,7 +5992,7 @@
         <v>3087</v>
       </c>
       <c r="H38" s="4" t="inlineStr"/>
-      <c r="I38" s="12" t="inlineStr">
+      <c r="I38" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -5793,7 +6032,7 @@
         <v>2918</v>
       </c>
       <c r="H39" s="4" t="inlineStr"/>
-      <c r="I39" s="12" t="inlineStr">
+      <c r="I39" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -5833,7 +6072,7 @@
         <v>2771</v>
       </c>
       <c r="H40" s="4" t="inlineStr"/>
-      <c r="I40" s="12" t="inlineStr">
+      <c r="I40" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -5869,7 +6108,7 @@
         <v>2539</v>
       </c>
       <c r="H41" s="4" t="inlineStr"/>
-      <c r="I41" s="12" t="inlineStr">
+      <c r="I41" s="13" t="inlineStr">
         <is>
           <t>👀異常波動(2.8σ)+連續買超</t>
         </is>
@@ -5945,7 +6184,7 @@
         <v>2399</v>
       </c>
       <c r="H43" s="4" t="inlineStr"/>
-      <c r="I43" s="12" t="inlineStr">
+      <c r="I43" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -5985,7 +6224,7 @@
         <v>2220</v>
       </c>
       <c r="H44" s="4" t="inlineStr"/>
-      <c r="I44" s="12" t="inlineStr">
+      <c r="I44" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -6097,7 +6336,7 @@
         <v>1839</v>
       </c>
       <c r="H47" s="4" t="inlineStr"/>
-      <c r="I47" s="12" t="inlineStr">
+      <c r="I47" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -6137,7 +6376,7 @@
         <v>1794</v>
       </c>
       <c r="H48" s="4" t="inlineStr"/>
-      <c r="I48" s="12" t="inlineStr">
+      <c r="I48" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -6177,7 +6416,7 @@
         <v>1667</v>
       </c>
       <c r="H49" s="4" t="inlineStr"/>
-      <c r="I49" s="12" t="inlineStr">
+      <c r="I49" s="13" t="inlineStr">
         <is>
           <t>👀異常波動(2.7σ)</t>
         </is>
@@ -6365,7 +6604,7 @@
         <v>1480</v>
       </c>
       <c r="H54" s="4" t="inlineStr"/>
-      <c r="I54" s="12" t="inlineStr">
+      <c r="I54" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -6441,7 +6680,7 @@
         <v>1452</v>
       </c>
       <c r="H56" s="4" t="inlineStr"/>
-      <c r="I56" s="12" t="inlineStr">
+      <c r="I56" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -6481,7 +6720,7 @@
         <v>1399</v>
       </c>
       <c r="H57" s="4" t="inlineStr"/>
-      <c r="I57" s="12" t="inlineStr">
+      <c r="I57" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -6521,7 +6760,7 @@
         <v>1326</v>
       </c>
       <c r="H58" s="4" t="inlineStr"/>
-      <c r="I58" s="12" t="inlineStr">
+      <c r="I58" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -6597,7 +6836,7 @@
         <v>1292</v>
       </c>
       <c r="H60" s="4" t="inlineStr"/>
-      <c r="I60" s="12" t="inlineStr">
+      <c r="I60" s="13" t="inlineStr">
         <is>
           <t>👀異常波動(2.6σ)</t>
         </is>
@@ -6677,7 +6916,7 @@
         <v>1214</v>
       </c>
       <c r="H62" s="4" t="inlineStr"/>
-      <c r="I62" s="12" t="inlineStr">
+      <c r="I62" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -6717,7 +6956,7 @@
         <v>1188</v>
       </c>
       <c r="H63" s="4" t="inlineStr"/>
-      <c r="I63" s="12" t="inlineStr">
+      <c r="I63" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -6829,7 +7068,7 @@
         <v>1116</v>
       </c>
       <c r="H66" s="4" t="inlineStr"/>
-      <c r="I66" s="12" t="inlineStr">
+      <c r="I66" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -6869,7 +7108,7 @@
         <v>1067</v>
       </c>
       <c r="H67" s="4" t="inlineStr"/>
-      <c r="I67" s="12" t="inlineStr">
+      <c r="I67" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -6909,7 +7148,7 @@
         <v>1066</v>
       </c>
       <c r="H68" s="4" t="inlineStr"/>
-      <c r="I68" s="12" t="inlineStr">
+      <c r="I68" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -6949,7 +7188,7 @@
         <v>1021</v>
       </c>
       <c r="H69" s="4" t="inlineStr"/>
-      <c r="I69" s="12" t="inlineStr">
+      <c r="I69" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -6989,7 +7228,7 @@
         <v>996</v>
       </c>
       <c r="H70" s="4" t="inlineStr"/>
-      <c r="I70" s="12" t="inlineStr">
+      <c r="I70" s="13" t="inlineStr">
         <is>
           <t>👀異常波動(2.5σ)+連續買超</t>
         </is>
@@ -7069,7 +7308,7 @@
         <v>909</v>
       </c>
       <c r="H72" s="4" t="inlineStr"/>
-      <c r="I72" s="12" t="inlineStr">
+      <c r="I72" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -7145,7 +7384,7 @@
         <v>895</v>
       </c>
       <c r="H74" s="4" t="inlineStr"/>
-      <c r="I74" s="12" t="inlineStr">
+      <c r="I74" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -7221,7 +7460,7 @@
         <v>867</v>
       </c>
       <c r="H76" s="4" t="inlineStr"/>
-      <c r="I76" s="12" t="inlineStr">
+      <c r="I76" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -7333,7 +7572,7 @@
         <v>826</v>
       </c>
       <c r="H79" s="4" t="inlineStr"/>
-      <c r="I79" s="12" t="inlineStr">
+      <c r="I79" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -7373,7 +7612,7 @@
         <v>801</v>
       </c>
       <c r="H80" s="4" t="inlineStr"/>
-      <c r="I80" s="12" t="inlineStr">
+      <c r="I80" s="13" t="inlineStr">
         <is>
           <t>👀異常波動(2.6σ)+連續買超</t>
         </is>
@@ -7453,7 +7692,7 @@
         <v>774</v>
       </c>
       <c r="H82" s="4" t="inlineStr"/>
-      <c r="I82" s="12" t="inlineStr">
+      <c r="I82" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -7601,7 +7840,7 @@
         <v>717</v>
       </c>
       <c r="H86" s="4" t="inlineStr"/>
-      <c r="I86" s="12" t="inlineStr">
+      <c r="I86" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -7641,7 +7880,7 @@
         <v>705</v>
       </c>
       <c r="H87" s="4" t="inlineStr"/>
-      <c r="I87" s="12" t="inlineStr">
+      <c r="I87" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -7857,7 +8096,7 @@
         <v>647</v>
       </c>
       <c r="H93" s="4" t="inlineStr"/>
-      <c r="I93" s="12" t="inlineStr">
+      <c r="I93" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -7897,7 +8136,7 @@
         <v>630</v>
       </c>
       <c r="H94" s="4" t="inlineStr"/>
-      <c r="I94" s="12" t="inlineStr">
+      <c r="I94" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -7937,7 +8176,7 @@
         <v>614</v>
       </c>
       <c r="H95" s="4" t="inlineStr"/>
-      <c r="I95" s="12" t="inlineStr">
+      <c r="I95" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -7977,7 +8216,7 @@
         <v>608</v>
       </c>
       <c r="H96" s="4" t="inlineStr"/>
-      <c r="I96" s="12" t="inlineStr">
+      <c r="I96" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -8017,7 +8256,7 @@
         <v>589</v>
       </c>
       <c r="H97" s="4" t="inlineStr"/>
-      <c r="I97" s="12" t="inlineStr">
+      <c r="I97" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -8057,7 +8296,7 @@
         <v>566</v>
       </c>
       <c r="H98" s="4" t="inlineStr"/>
-      <c r="I98" s="12" t="inlineStr">
+      <c r="I98" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -8097,7 +8336,7 @@
         <v>544</v>
       </c>
       <c r="H99" s="4" t="inlineStr"/>
-      <c r="I99" s="12" t="inlineStr">
+      <c r="I99" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -8245,7 +8484,7 @@
         <v>515</v>
       </c>
       <c r="H103" s="4" t="inlineStr"/>
-      <c r="I103" s="12" t="inlineStr">
+      <c r="I103" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -8340,17 +8579,17 @@
           <t>買賣超張數</t>
         </is>
       </c>
-      <c r="H108" s="9" t="inlineStr">
+      <c r="H108" s="10" t="inlineStr">
         <is>
           <t>新進榜</t>
         </is>
       </c>
-      <c r="I108" s="10" t="inlineStr">
+      <c r="I108" s="11" t="inlineStr">
         <is>
           <t>值得觀察</t>
         </is>
       </c>
-      <c r="J108" s="11" t="inlineStr">
+      <c r="J108" s="12" t="inlineStr">
         <is>
           <t>統計數據(60天)</t>
         </is>
@@ -8389,7 +8628,7 @@
         <v>-41010</v>
       </c>
       <c r="H109" s="4" t="inlineStr"/>
-      <c r="I109" s="12" t="inlineStr">
+      <c r="I109" s="13" t="inlineStr">
         <is>
           <t>👀異常波動(3.2σ)</t>
         </is>
@@ -8433,7 +8672,7 @@
         <v>-18954</v>
       </c>
       <c r="H110" s="4" t="inlineStr"/>
-      <c r="I110" s="12" t="inlineStr">
+      <c r="I110" s="13" t="inlineStr">
         <is>
           <t>👀連續賣超</t>
         </is>
@@ -8508,7 +8747,7 @@
       <c r="G112" s="4" t="n">
         <v>-15766</v>
       </c>
-      <c r="H112" s="14" t="inlineStr">
+      <c r="H112" s="15" t="inlineStr">
         <is>
           <t>📉NEW</t>
         </is>
@@ -8585,7 +8824,7 @@
         <v>-11498</v>
       </c>
       <c r="H114" s="4" t="inlineStr"/>
-      <c r="I114" s="12" t="inlineStr">
+      <c r="I114" s="13" t="inlineStr">
         <is>
           <t>👀連續賣超</t>
         </is>
@@ -8625,7 +8864,7 @@
         <v>-10982</v>
       </c>
       <c r="H115" s="4" t="inlineStr"/>
-      <c r="I115" s="12" t="inlineStr">
+      <c r="I115" s="13" t="inlineStr">
         <is>
           <t>👀連續賣超</t>
         </is>
@@ -8665,7 +8904,7 @@
         <v>-10432</v>
       </c>
       <c r="H116" s="4" t="inlineStr"/>
-      <c r="I116" s="12" t="inlineStr">
+      <c r="I116" s="13" t="inlineStr">
         <is>
           <t>👀連續賣超</t>
         </is>
@@ -8705,7 +8944,7 @@
         <v>-9734</v>
       </c>
       <c r="H117" s="4" t="inlineStr"/>
-      <c r="I117" s="12" t="inlineStr">
+      <c r="I117" s="13" t="inlineStr">
         <is>
           <t>👀連續賣超</t>
         </is>
@@ -8780,7 +9019,7 @@
       <c r="G119" s="4" t="n">
         <v>-9107</v>
       </c>
-      <c r="H119" s="14" t="inlineStr">
+      <c r="H119" s="15" t="inlineStr">
         <is>
           <t>📉NEW</t>
         </is>
@@ -8816,12 +9055,12 @@
       <c r="G120" s="4" t="n">
         <v>-8161</v>
       </c>
-      <c r="H120" s="14" t="inlineStr">
+      <c r="H120" s="15" t="inlineStr">
         <is>
           <t>📉NEW</t>
         </is>
       </c>
-      <c r="I120" s="12" t="inlineStr">
+      <c r="I120" s="13" t="inlineStr">
         <is>
           <t>👀連續賣超</t>
         </is>
@@ -8861,7 +9100,7 @@
         <v>-7525</v>
       </c>
       <c r="H121" s="4" t="inlineStr"/>
-      <c r="I121" s="12" t="inlineStr">
+      <c r="I121" s="13" t="inlineStr">
         <is>
           <t>👀連續賣超</t>
         </is>
@@ -8897,7 +9136,7 @@
         <v>-7038</v>
       </c>
       <c r="H122" s="4" t="inlineStr"/>
-      <c r="I122" s="12" t="inlineStr">
+      <c r="I122" s="13" t="inlineStr">
         <is>
           <t>👀連續賣超</t>
         </is>
@@ -8937,7 +9176,7 @@
         <v>-6185</v>
       </c>
       <c r="H123" s="4" t="inlineStr"/>
-      <c r="I123" s="12" t="inlineStr">
+      <c r="I123" s="13" t="inlineStr">
         <is>
           <t>👀連續賣超</t>
         </is>
@@ -8976,12 +9215,12 @@
       <c r="G124" s="4" t="n">
         <v>-5510</v>
       </c>
-      <c r="H124" s="14" t="inlineStr">
+      <c r="H124" s="15" t="inlineStr">
         <is>
           <t>📉NEW</t>
         </is>
       </c>
-      <c r="I124" s="12" t="inlineStr">
+      <c r="I124" s="13" t="inlineStr">
         <is>
           <t>👀異常波動(4.6σ)</t>
         </is>
@@ -9024,7 +9263,7 @@
       <c r="G125" s="4" t="n">
         <v>-5149</v>
       </c>
-      <c r="H125" s="14" t="inlineStr">
+      <c r="H125" s="15" t="inlineStr">
         <is>
           <t>📉NEW</t>
         </is>
@@ -9065,7 +9304,7 @@
         <v>-4924</v>
       </c>
       <c r="H126" s="4" t="inlineStr"/>
-      <c r="I126" s="12" t="inlineStr">
+      <c r="I126" s="13" t="inlineStr">
         <is>
           <t>👀異常波動(4.8σ)</t>
         </is>
@@ -9109,7 +9348,7 @@
         <v>-4749</v>
       </c>
       <c r="H127" s="4" t="inlineStr"/>
-      <c r="I127" s="12" t="inlineStr">
+      <c r="I127" s="13" t="inlineStr">
         <is>
           <t>👀連續賣超</t>
         </is>
@@ -9148,7 +9387,7 @@
       <c r="G128" s="4" t="n">
         <v>-4736</v>
       </c>
-      <c r="H128" s="14" t="inlineStr">
+      <c r="H128" s="15" t="inlineStr">
         <is>
           <t>📉NEW</t>
         </is>
@@ -9261,7 +9500,7 @@
         <v>-3499</v>
       </c>
       <c r="H131" s="4" t="inlineStr"/>
-      <c r="I131" s="12" t="inlineStr">
+      <c r="I131" s="13" t="inlineStr">
         <is>
           <t>👀連續賣超</t>
         </is>
@@ -9301,7 +9540,7 @@
         <v>-3272</v>
       </c>
       <c r="H132" s="4" t="inlineStr"/>
-      <c r="I132" s="12" t="inlineStr">
+      <c r="I132" s="13" t="inlineStr">
         <is>
           <t>👀連續賣超</t>
         </is>
@@ -9341,7 +9580,7 @@
         <v>-3172</v>
       </c>
       <c r="H133" s="4" t="inlineStr"/>
-      <c r="I133" s="12" t="inlineStr">
+      <c r="I133" s="13" t="inlineStr">
         <is>
           <t>👀連續賣超</t>
         </is>
@@ -9417,7 +9656,7 @@
         <v>-2542</v>
       </c>
       <c r="H135" s="4" t="inlineStr"/>
-      <c r="I135" s="12" t="inlineStr">
+      <c r="I135" s="13" t="inlineStr">
         <is>
           <t>👀連續賣超</t>
         </is>
@@ -9457,7 +9696,7 @@
         <v>-2468</v>
       </c>
       <c r="H136" s="4" t="inlineStr"/>
-      <c r="I136" s="12" t="inlineStr">
+      <c r="I136" s="13" t="inlineStr">
         <is>
           <t>👀連續賣超</t>
         </is>
@@ -9497,7 +9736,7 @@
         <v>-2413</v>
       </c>
       <c r="H137" s="4" t="inlineStr"/>
-      <c r="I137" s="12" t="inlineStr">
+      <c r="I137" s="13" t="inlineStr">
         <is>
           <t>👀連續賣超</t>
         </is>
@@ -9673,7 +9912,7 @@
         <v>-2054</v>
       </c>
       <c r="H142" s="4" t="inlineStr"/>
-      <c r="I142" s="12" t="inlineStr">
+      <c r="I142" s="13" t="inlineStr">
         <is>
           <t>👀連續賣超</t>
         </is>
@@ -9713,7 +9952,7 @@
         <v>-2047</v>
       </c>
       <c r="H143" s="4" t="inlineStr"/>
-      <c r="I143" s="12" t="inlineStr">
+      <c r="I143" s="13" t="inlineStr">
         <is>
           <t>👀連續賣超</t>
         </is>
@@ -9753,7 +9992,7 @@
         <v>-2015</v>
       </c>
       <c r="H144" s="4" t="inlineStr"/>
-      <c r="I144" s="12" t="inlineStr">
+      <c r="I144" s="13" t="inlineStr">
         <is>
           <t>👀異常波動(8.6σ)</t>
         </is>
@@ -9833,7 +10072,7 @@
         <v>-1891</v>
       </c>
       <c r="H146" s="4" t="inlineStr"/>
-      <c r="I146" s="12" t="inlineStr">
+      <c r="I146" s="13" t="inlineStr">
         <is>
           <t>👀連續賣超</t>
         </is>
@@ -9873,7 +10112,7 @@
         <v>-1857</v>
       </c>
       <c r="H147" s="4" t="inlineStr"/>
-      <c r="I147" s="12" t="inlineStr">
+      <c r="I147" s="13" t="inlineStr">
         <is>
           <t>👀異常波動(2.6σ)</t>
         </is>
@@ -9917,7 +10156,7 @@
         <v>-1845</v>
       </c>
       <c r="H148" s="4" t="inlineStr"/>
-      <c r="I148" s="12" t="inlineStr">
+      <c r="I148" s="13" t="inlineStr">
         <is>
           <t>👀連續賣超</t>
         </is>
@@ -10029,7 +10268,7 @@
         <v>-1612</v>
       </c>
       <c r="H151" s="4" t="inlineStr"/>
-      <c r="I151" s="12" t="inlineStr">
+      <c r="I151" s="13" t="inlineStr">
         <is>
           <t>👀連續賣超</t>
         </is>
@@ -10069,7 +10308,7 @@
         <v>-1608</v>
       </c>
       <c r="H152" s="4" t="inlineStr"/>
-      <c r="I152" s="12" t="inlineStr">
+      <c r="I152" s="13" t="inlineStr">
         <is>
           <t>👀異常波動(3.2σ)</t>
         </is>
@@ -10145,7 +10384,7 @@
         <v>-1473</v>
       </c>
       <c r="H154" s="4" t="inlineStr"/>
-      <c r="I154" s="12" t="inlineStr">
+      <c r="I154" s="13" t="inlineStr">
         <is>
           <t>👀連續賣超</t>
         </is>
@@ -10185,7 +10424,7 @@
         <v>-1466</v>
       </c>
       <c r="H155" s="4" t="inlineStr"/>
-      <c r="I155" s="12" t="inlineStr">
+      <c r="I155" s="13" t="inlineStr">
         <is>
           <t>👀連續賣超</t>
         </is>
@@ -10297,7 +10536,7 @@
         <v>-1184</v>
       </c>
       <c r="H158" s="4" t="inlineStr"/>
-      <c r="I158" s="12" t="inlineStr">
+      <c r="I158" s="13" t="inlineStr">
         <is>
           <t>👀連續賣超</t>
         </is>
@@ -10329,7 +10568,7 @@
       <c r="J160" s="4" t="n"/>
     </row>
     <row r="161">
-      <c r="A161" s="15" t="inlineStr">
+      <c r="A161" s="16" t="inlineStr">
         <is>
           <t>【2025-12-03 ETF買超 TOP 10】</t>
         </is>
@@ -10357,32 +10596,32 @@
       <c r="J162" s="4" t="n"/>
     </row>
     <row r="163">
-      <c r="A163" s="11" t="inlineStr">
+      <c r="A163" s="12" t="inlineStr">
         <is>
           <t>排名</t>
         </is>
       </c>
-      <c r="B163" s="11" t="inlineStr">
+      <c r="B163" s="12" t="inlineStr">
         <is>
           <t>證券代號</t>
         </is>
       </c>
-      <c r="C163" s="11" t="inlineStr">
+      <c r="C163" s="12" t="inlineStr">
         <is>
           <t>證券名稱</t>
         </is>
       </c>
-      <c r="D163" s="11" t="inlineStr">
+      <c r="D163" s="12" t="inlineStr">
         <is>
           <t>收盤價</t>
         </is>
       </c>
-      <c r="E163" s="11" t="inlineStr">
+      <c r="E163" s="12" t="inlineStr">
         <is>
           <t>漲跌價差</t>
         </is>
       </c>
-      <c r="F163" s="11" t="inlineStr">
+      <c r="F163" s="12" t="inlineStr">
         <is>
           <t>買賣超張數</t>
         </is>
@@ -10733,7 +10972,7 @@
       <c r="J175" s="4" t="n"/>
     </row>
     <row r="176">
-      <c r="A176" s="15" t="inlineStr">
+      <c r="A176" s="16" t="inlineStr">
         <is>
           <t>【2025-12-03 ETF賣超 TOP 10】</t>
         </is>
@@ -10761,32 +11000,32 @@
       <c r="J177" s="4" t="n"/>
     </row>
     <row r="178">
-      <c r="A178" s="11" t="inlineStr">
+      <c r="A178" s="12" t="inlineStr">
         <is>
           <t>排名</t>
         </is>
       </c>
-      <c r="B178" s="11" t="inlineStr">
+      <c r="B178" s="12" t="inlineStr">
         <is>
           <t>證券代號</t>
         </is>
       </c>
-      <c r="C178" s="11" t="inlineStr">
+      <c r="C178" s="12" t="inlineStr">
         <is>
           <t>證券名稱</t>
         </is>
       </c>
-      <c r="D178" s="11" t="inlineStr">
+      <c r="D178" s="12" t="inlineStr">
         <is>
           <t>收盤價</t>
         </is>
       </c>
-      <c r="E178" s="11" t="inlineStr">
+      <c r="E178" s="12" t="inlineStr">
         <is>
           <t>漲跌價差</t>
         </is>
       </c>
-      <c r="F178" s="11" t="inlineStr">
+      <c r="F178" s="12" t="inlineStr">
         <is>
           <t>買賣超張數</t>
         </is>
@@ -11016,37 +11255,37 @@
       <c r="G2" s="4" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="inlineStr">
+      <c r="A3" s="9" t="inlineStr">
         <is>
           <t>排名</t>
         </is>
       </c>
-      <c r="B3" s="8" t="inlineStr">
+      <c r="B3" s="9" t="inlineStr">
         <is>
           <t>證券代號</t>
         </is>
       </c>
-      <c r="C3" s="8" t="inlineStr">
+      <c r="C3" s="9" t="inlineStr">
         <is>
           <t>證券領域</t>
         </is>
       </c>
-      <c r="D3" s="8" t="inlineStr">
+      <c r="D3" s="9" t="inlineStr">
         <is>
           <t>證券名稱</t>
         </is>
       </c>
-      <c r="E3" s="8" t="inlineStr">
+      <c r="E3" s="9" t="inlineStr">
         <is>
           <t>收盤價</t>
         </is>
       </c>
-      <c r="F3" s="8" t="inlineStr">
+      <c r="F3" s="9" t="inlineStr">
         <is>
           <t>漲跌價差</t>
         </is>
       </c>
-      <c r="G3" s="8" t="inlineStr">
+      <c r="G3" s="9" t="inlineStr">
         <is>
           <t>買賣超張數</t>
         </is>
@@ -16058,7 +16297,7 @@
       <c r="G160" s="4" t="n"/>
     </row>
     <row r="161">
-      <c r="A161" s="15" t="inlineStr">
+      <c r="A161" s="16" t="inlineStr">
         <is>
           <t>【2025-12-02 ETF買超 TOP 10】</t>
         </is>
@@ -16080,32 +16319,32 @@
       <c r="G162" s="4" t="n"/>
     </row>
     <row r="163">
-      <c r="A163" s="11" t="inlineStr">
+      <c r="A163" s="12" t="inlineStr">
         <is>
           <t>排名</t>
         </is>
       </c>
-      <c r="B163" s="11" t="inlineStr">
+      <c r="B163" s="12" t="inlineStr">
         <is>
           <t>證券代號</t>
         </is>
       </c>
-      <c r="C163" s="11" t="inlineStr">
+      <c r="C163" s="12" t="inlineStr">
         <is>
           <t>證券名稱</t>
         </is>
       </c>
-      <c r="D163" s="11" t="inlineStr">
+      <c r="D163" s="12" t="inlineStr">
         <is>
           <t>收盤價</t>
         </is>
       </c>
-      <c r="E163" s="11" t="inlineStr">
+      <c r="E163" s="12" t="inlineStr">
         <is>
           <t>漲跌價差</t>
         </is>
       </c>
-      <c r="F163" s="11" t="inlineStr">
+      <c r="F163" s="12" t="inlineStr">
         <is>
           <t>買賣超張數</t>
         </is>
@@ -16417,7 +16656,7 @@
       <c r="G175" s="4" t="n"/>
     </row>
     <row r="176">
-      <c r="A176" s="15" t="inlineStr">
+      <c r="A176" s="16" t="inlineStr">
         <is>
           <t>【2025-12-02 ETF賣超 TOP 10】</t>
         </is>
@@ -16439,32 +16678,32 @@
       <c r="G177" s="4" t="n"/>
     </row>
     <row r="178">
-      <c r="A178" s="11" t="inlineStr">
+      <c r="A178" s="12" t="inlineStr">
         <is>
           <t>排名</t>
         </is>
       </c>
-      <c r="B178" s="11" t="inlineStr">
+      <c r="B178" s="12" t="inlineStr">
         <is>
           <t>證券代號</t>
         </is>
       </c>
-      <c r="C178" s="11" t="inlineStr">
+      <c r="C178" s="12" t="inlineStr">
         <is>
           <t>證券名稱</t>
         </is>
       </c>
-      <c r="D178" s="11" t="inlineStr">
+      <c r="D178" s="12" t="inlineStr">
         <is>
           <t>收盤價</t>
         </is>
       </c>
-      <c r="E178" s="11" t="inlineStr">
+      <c r="E178" s="12" t="inlineStr">
         <is>
           <t>漲跌價差</t>
         </is>
       </c>
-      <c r="F178" s="11" t="inlineStr">
+      <c r="F178" s="12" t="inlineStr">
         <is>
           <t>買賣超張數</t>
         </is>
@@ -16705,37 +16944,37 @@
       <c r="G2" s="4" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="inlineStr">
+      <c r="A3" s="9" t="inlineStr">
         <is>
           <t>排名</t>
         </is>
       </c>
-      <c r="B3" s="8" t="inlineStr">
+      <c r="B3" s="9" t="inlineStr">
         <is>
           <t>證券代號</t>
         </is>
       </c>
-      <c r="C3" s="8" t="inlineStr">
+      <c r="C3" s="9" t="inlineStr">
         <is>
           <t>證券領域</t>
         </is>
       </c>
-      <c r="D3" s="8" t="inlineStr">
+      <c r="D3" s="9" t="inlineStr">
         <is>
           <t>證券名稱</t>
         </is>
       </c>
-      <c r="E3" s="8" t="inlineStr">
+      <c r="E3" s="9" t="inlineStr">
         <is>
           <t>收盤價</t>
         </is>
       </c>
-      <c r="F3" s="8" t="inlineStr">
+      <c r="F3" s="9" t="inlineStr">
         <is>
           <t>漲跌價差</t>
         </is>
       </c>
-      <c r="G3" s="8" t="inlineStr">
+      <c r="G3" s="9" t="inlineStr">
         <is>
           <t>買賣超張數</t>
         </is>
@@ -21759,7 +21998,7 @@
       <c r="G160" s="4" t="n"/>
     </row>
     <row r="161">
-      <c r="A161" s="15" t="inlineStr">
+      <c r="A161" s="16" t="inlineStr">
         <is>
           <t>【2025-12-01 ETF買超 TOP 10】</t>
         </is>
@@ -21781,32 +22020,32 @@
       <c r="G162" s="4" t="n"/>
     </row>
     <row r="163">
-      <c r="A163" s="11" t="inlineStr">
+      <c r="A163" s="12" t="inlineStr">
         <is>
           <t>排名</t>
         </is>
       </c>
-      <c r="B163" s="11" t="inlineStr">
+      <c r="B163" s="12" t="inlineStr">
         <is>
           <t>證券代號</t>
         </is>
       </c>
-      <c r="C163" s="11" t="inlineStr">
+      <c r="C163" s="12" t="inlineStr">
         <is>
           <t>證券名稱</t>
         </is>
       </c>
-      <c r="D163" s="11" t="inlineStr">
+      <c r="D163" s="12" t="inlineStr">
         <is>
           <t>收盤價</t>
         </is>
       </c>
-      <c r="E163" s="11" t="inlineStr">
+      <c r="E163" s="12" t="inlineStr">
         <is>
           <t>漲跌價差</t>
         </is>
       </c>
-      <c r="F163" s="11" t="inlineStr">
+      <c r="F163" s="12" t="inlineStr">
         <is>
           <t>買賣超張數</t>
         </is>
@@ -22060,7 +22299,7 @@
       <c r="G173" s="4" t="n"/>
     </row>
     <row r="174">
-      <c r="A174" s="15" t="inlineStr">
+      <c r="A174" s="16" t="inlineStr">
         <is>
           <t>【2025-12-01 ETF賣超 TOP 10】</t>
         </is>
@@ -22082,32 +22321,32 @@
       <c r="G175" s="4" t="n"/>
     </row>
     <row r="176">
-      <c r="A176" s="11" t="inlineStr">
+      <c r="A176" s="12" t="inlineStr">
         <is>
           <t>排名</t>
         </is>
       </c>
-      <c r="B176" s="11" t="inlineStr">
+      <c r="B176" s="12" t="inlineStr">
         <is>
           <t>證券代號</t>
         </is>
       </c>
-      <c r="C176" s="11" t="inlineStr">
+      <c r="C176" s="12" t="inlineStr">
         <is>
           <t>證券名稱</t>
         </is>
       </c>
-      <c r="D176" s="11" t="inlineStr">
+      <c r="D176" s="12" t="inlineStr">
         <is>
           <t>收盤價</t>
         </is>
       </c>
-      <c r="E176" s="11" t="inlineStr">
+      <c r="E176" s="12" t="inlineStr">
         <is>
           <t>漲跌價差</t>
         </is>
       </c>
-      <c r="F176" s="11" t="inlineStr">
+      <c r="F176" s="12" t="inlineStr">
         <is>
           <t>買賣超張數</t>
         </is>
@@ -22464,37 +22703,37 @@
       <c r="G2" s="4" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="inlineStr">
+      <c r="A3" s="9" t="inlineStr">
         <is>
           <t>排名</t>
         </is>
       </c>
-      <c r="B3" s="8" t="inlineStr">
+      <c r="B3" s="9" t="inlineStr">
         <is>
           <t>證券代號</t>
         </is>
       </c>
-      <c r="C3" s="8" t="inlineStr">
+      <c r="C3" s="9" t="inlineStr">
         <is>
           <t>證券領域</t>
         </is>
       </c>
-      <c r="D3" s="8" t="inlineStr">
+      <c r="D3" s="9" t="inlineStr">
         <is>
           <t>證券名稱</t>
         </is>
       </c>
-      <c r="E3" s="8" t="inlineStr">
+      <c r="E3" s="9" t="inlineStr">
         <is>
           <t>收盤價</t>
         </is>
       </c>
-      <c r="F3" s="8" t="inlineStr">
+      <c r="F3" s="9" t="inlineStr">
         <is>
           <t>漲跌價差</t>
         </is>
       </c>
-      <c r="G3" s="8" t="inlineStr">
+      <c r="G3" s="9" t="inlineStr">
         <is>
           <t>買賣超張數</t>
         </is>
@@ -27518,7 +27757,7 @@
       <c r="G160" s="4" t="n"/>
     </row>
     <row r="161">
-      <c r="A161" s="15" t="inlineStr">
+      <c r="A161" s="16" t="inlineStr">
         <is>
           <t>【2025-11-28 ETF買超 TOP 10】</t>
         </is>
@@ -27540,32 +27779,32 @@
       <c r="G162" s="4" t="n"/>
     </row>
     <row r="163">
-      <c r="A163" s="11" t="inlineStr">
+      <c r="A163" s="12" t="inlineStr">
         <is>
           <t>排名</t>
         </is>
       </c>
-      <c r="B163" s="11" t="inlineStr">
+      <c r="B163" s="12" t="inlineStr">
         <is>
           <t>證券代號</t>
         </is>
       </c>
-      <c r="C163" s="11" t="inlineStr">
+      <c r="C163" s="12" t="inlineStr">
         <is>
           <t>證券名稱</t>
         </is>
       </c>
-      <c r="D163" s="11" t="inlineStr">
+      <c r="D163" s="12" t="inlineStr">
         <is>
           <t>收盤價</t>
         </is>
       </c>
-      <c r="E163" s="11" t="inlineStr">
+      <c r="E163" s="12" t="inlineStr">
         <is>
           <t>漲跌價差</t>
         </is>
       </c>
-      <c r="F163" s="11" t="inlineStr">
+      <c r="F163" s="12" t="inlineStr">
         <is>
           <t>買賣超張數</t>
         </is>
@@ -27877,7 +28116,7 @@
       <c r="G175" s="4" t="n"/>
     </row>
     <row r="176">
-      <c r="A176" s="15" t="inlineStr">
+      <c r="A176" s="16" t="inlineStr">
         <is>
           <t>【2025-11-28 ETF賣超 TOP 10】</t>
         </is>
@@ -27899,32 +28138,32 @@
       <c r="G177" s="4" t="n"/>
     </row>
     <row r="178">
-      <c r="A178" s="11" t="inlineStr">
+      <c r="A178" s="12" t="inlineStr">
         <is>
           <t>排名</t>
         </is>
       </c>
-      <c r="B178" s="11" t="inlineStr">
+      <c r="B178" s="12" t="inlineStr">
         <is>
           <t>證券代號</t>
         </is>
       </c>
-      <c r="C178" s="11" t="inlineStr">
+      <c r="C178" s="12" t="inlineStr">
         <is>
           <t>證券名稱</t>
         </is>
       </c>
-      <c r="D178" s="11" t="inlineStr">
+      <c r="D178" s="12" t="inlineStr">
         <is>
           <t>收盤價</t>
         </is>
       </c>
-      <c r="E178" s="11" t="inlineStr">
+      <c r="E178" s="12" t="inlineStr">
         <is>
           <t>漲跌價差</t>
         </is>
       </c>
-      <c r="F178" s="11" t="inlineStr">
+      <c r="F178" s="12" t="inlineStr">
         <is>
           <t>買賣超張數</t>
         </is>
@@ -28252,37 +28491,37 @@
       <c r="G2" s="4" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="inlineStr">
+      <c r="A3" s="9" t="inlineStr">
         <is>
           <t>排名</t>
         </is>
       </c>
-      <c r="B3" s="8" t="inlineStr">
+      <c r="B3" s="9" t="inlineStr">
         <is>
           <t>證券代號</t>
         </is>
       </c>
-      <c r="C3" s="8" t="inlineStr">
+      <c r="C3" s="9" t="inlineStr">
         <is>
           <t>證券領域</t>
         </is>
       </c>
-      <c r="D3" s="8" t="inlineStr">
+      <c r="D3" s="9" t="inlineStr">
         <is>
           <t>證券名稱</t>
         </is>
       </c>
-      <c r="E3" s="8" t="inlineStr">
+      <c r="E3" s="9" t="inlineStr">
         <is>
           <t>收盤價</t>
         </is>
       </c>
-      <c r="F3" s="8" t="inlineStr">
+      <c r="F3" s="9" t="inlineStr">
         <is>
           <t>漲跌價差</t>
         </is>
       </c>
-      <c r="G3" s="8" t="inlineStr">
+      <c r="G3" s="9" t="inlineStr">
         <is>
           <t>買賣超張數</t>
         </is>
@@ -33318,7 +33557,7 @@
       <c r="G160" s="4" t="n"/>
     </row>
     <row r="161">
-      <c r="A161" s="15" t="inlineStr">
+      <c r="A161" s="16" t="inlineStr">
         <is>
           <t>【2025-11-27 ETF買超 TOP 10】</t>
         </is>
@@ -33340,32 +33579,32 @@
       <c r="G162" s="4" t="n"/>
     </row>
     <row r="163">
-      <c r="A163" s="11" t="inlineStr">
+      <c r="A163" s="12" t="inlineStr">
         <is>
           <t>排名</t>
         </is>
       </c>
-      <c r="B163" s="11" t="inlineStr">
+      <c r="B163" s="12" t="inlineStr">
         <is>
           <t>證券代號</t>
         </is>
       </c>
-      <c r="C163" s="11" t="inlineStr">
+      <c r="C163" s="12" t="inlineStr">
         <is>
           <t>證券名稱</t>
         </is>
       </c>
-      <c r="D163" s="11" t="inlineStr">
+      <c r="D163" s="12" t="inlineStr">
         <is>
           <t>收盤價</t>
         </is>
       </c>
-      <c r="E163" s="11" t="inlineStr">
+      <c r="E163" s="12" t="inlineStr">
         <is>
           <t>漲跌價差</t>
         </is>
       </c>
-      <c r="F163" s="11" t="inlineStr">
+      <c r="F163" s="12" t="inlineStr">
         <is>
           <t>買賣超張數</t>
         </is>
@@ -33681,7 +33920,7 @@
       <c r="G175" s="4" t="n"/>
     </row>
     <row r="176">
-      <c r="A176" s="15" t="inlineStr">
+      <c r="A176" s="16" t="inlineStr">
         <is>
           <t>【2025-11-27 ETF賣超 TOP 10】</t>
         </is>
@@ -33703,32 +33942,32 @@
       <c r="G177" s="4" t="n"/>
     </row>
     <row r="178">
-      <c r="A178" s="11" t="inlineStr">
+      <c r="A178" s="12" t="inlineStr">
         <is>
           <t>排名</t>
         </is>
       </c>
-      <c r="B178" s="11" t="inlineStr">
+      <c r="B178" s="12" t="inlineStr">
         <is>
           <t>證券代號</t>
         </is>
       </c>
-      <c r="C178" s="11" t="inlineStr">
+      <c r="C178" s="12" t="inlineStr">
         <is>
           <t>證券名稱</t>
         </is>
       </c>
-      <c r="D178" s="11" t="inlineStr">
+      <c r="D178" s="12" t="inlineStr">
         <is>
           <t>收盤價</t>
         </is>
       </c>
-      <c r="E178" s="11" t="inlineStr">
+      <c r="E178" s="12" t="inlineStr">
         <is>
           <t>漲跌價差</t>
         </is>
       </c>
-      <c r="F178" s="11" t="inlineStr">
+      <c r="F178" s="12" t="inlineStr">
         <is>
           <t>買賣超張數</t>
         </is>

--- a/StockInfo/tse_analysis_result.xlsx
+++ b/StockInfo/tse_analysis_result.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251205" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251204" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251203" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251202" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251201" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="20251205" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="20251204" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="20251203" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="20251202" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="20251201" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/StockInfo/tse_analysis_result.xlsx
+++ b/StockInfo/tse_analysis_result.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="20251205" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="20251204" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="20251203" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="20251202" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="20251201" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251205" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251204" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251203" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251202" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251201" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/StockInfo/tse_analysis_result.xlsx
+++ b/StockInfo/tse_analysis_result.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251212" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251211" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251210" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251209" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251208" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="20251212" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="20251211" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="20251210" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="20251209" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="20251208" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/StockInfo/tse_analysis_result.xlsx
+++ b/StockInfo/tse_analysis_result.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="20251216" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="20251215" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="20251212" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="20251211" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="20251210" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251216" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251215" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251212" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251211" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251210" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/StockInfo/tse_analysis_result.xlsx
+++ b/StockInfo/tse_analysis_result.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251216" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251215" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251212" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251211" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251210" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="20251216" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="20251215" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="20251212" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="20251211" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="20251210" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -28488,16 +28488,8 @@
           <t xml:space="preserve">凱基金          </t>
         </is>
       </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>16.40</t>
-        </is>
-      </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t>+0.1</t>
-        </is>
-      </c>
+      <c r="E4" s="4" t="inlineStr"/>
+      <c r="F4" s="4" t="inlineStr"/>
       <c r="G4" s="4" t="n">
         <v>39254</v>
       </c>
@@ -28521,16 +28513,8 @@
           <t xml:space="preserve">元大台灣50      </t>
         </is>
       </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t>64.05</t>
-        </is>
-      </c>
-      <c r="F5" s="4" t="inlineStr">
-        <is>
-          <t>+0.45</t>
-        </is>
-      </c>
+      <c r="E5" s="4" t="inlineStr"/>
+      <c r="F5" s="4" t="inlineStr"/>
       <c r="G5" s="4" t="n">
         <v>25247</v>
       </c>
@@ -28554,16 +28538,8 @@
           <t>富邦特選高股息30</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>13.40</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>+0.03</t>
-        </is>
-      </c>
+      <c r="E6" s="4" t="inlineStr"/>
+      <c r="F6" s="4" t="inlineStr"/>
       <c r="G6" s="4" t="n">
         <v>13571</v>
       </c>
@@ -28587,16 +28563,8 @@
           <t xml:space="preserve">聯電            </t>
         </is>
       </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>49.35</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>-0.25</t>
-        </is>
-      </c>
+      <c r="E7" s="4" t="inlineStr"/>
+      <c r="F7" s="4" t="inlineStr"/>
       <c r="G7" s="4" t="n">
         <v>12755</v>
       </c>
@@ -28620,16 +28588,8 @@
           <t>群益優選非投等債</t>
         </is>
       </c>
-      <c r="E8" s="4" t="inlineStr">
-        <is>
-          <t>9.63</t>
-        </is>
-      </c>
-      <c r="F8" s="4" t="inlineStr">
-        <is>
-          <t>+0.02</t>
-        </is>
-      </c>
+      <c r="E8" s="4" t="inlineStr"/>
+      <c r="F8" s="4" t="inlineStr"/>
       <c r="G8" s="4" t="n">
         <v>9894</v>
       </c>
@@ -28653,16 +28613,8 @@
           <t xml:space="preserve">台積電          </t>
         </is>
       </c>
-      <c r="E9" s="4" t="inlineStr">
-        <is>
-          <t>1,505.00</t>
-        </is>
-      </c>
-      <c r="F9" s="4" t="inlineStr">
-        <is>
-          <t>+25.0</t>
-        </is>
-      </c>
+      <c r="E9" s="4" t="inlineStr"/>
+      <c r="F9" s="4" t="inlineStr"/>
       <c r="G9" s="4" t="n">
         <v>9857</v>
       </c>
@@ -28686,16 +28638,8 @@
           <t xml:space="preserve">尖點            </t>
         </is>
       </c>
-      <c r="E10" s="4" t="inlineStr">
-        <is>
-          <t>151.50</t>
-        </is>
-      </c>
-      <c r="F10" s="4" t="inlineStr">
-        <is>
-          <t>+13.5</t>
-        </is>
-      </c>
+      <c r="E10" s="4" t="inlineStr"/>
+      <c r="F10" s="4" t="inlineStr"/>
       <c r="G10" s="4" t="n">
         <v>9304</v>
       </c>
@@ -28719,16 +28663,8 @@
           <t xml:space="preserve">合庫金          </t>
         </is>
       </c>
-      <c r="E11" s="4" t="inlineStr">
-        <is>
-          <t>24.20</t>
-        </is>
-      </c>
-      <c r="F11" s="4" t="inlineStr">
-        <is>
-          <t>+0.1</t>
-        </is>
-      </c>
+      <c r="E11" s="4" t="inlineStr"/>
+      <c r="F11" s="4" t="inlineStr"/>
       <c r="G11" s="4" t="n">
         <v>7063</v>
       </c>
@@ -28752,16 +28688,8 @@
           <t>復華台灣科技優息</t>
         </is>
       </c>
-      <c r="E12" s="4" t="inlineStr">
-        <is>
-          <t>17.81</t>
-        </is>
-      </c>
-      <c r="F12" s="4" t="inlineStr">
-        <is>
-          <t>+0.05</t>
-        </is>
-      </c>
+      <c r="E12" s="4" t="inlineStr"/>
+      <c r="F12" s="4" t="inlineStr"/>
       <c r="G12" s="4" t="n">
         <v>7047</v>
       </c>
@@ -28785,16 +28713,8 @@
           <t xml:space="preserve">國泰台灣領袖50  </t>
         </is>
       </c>
-      <c r="E13" s="4" t="inlineStr">
-        <is>
-          <t>25.38</t>
-        </is>
-      </c>
-      <c r="F13" s="4" t="inlineStr">
-        <is>
-          <t>+0.19</t>
-        </is>
-      </c>
+      <c r="E13" s="4" t="inlineStr"/>
+      <c r="F13" s="4" t="inlineStr"/>
       <c r="G13" s="4" t="n">
         <v>6736</v>
       </c>
@@ -28818,16 +28738,8 @@
           <t xml:space="preserve">泰鼎-KY         </t>
         </is>
       </c>
-      <c r="E14" s="4" t="inlineStr">
-        <is>
-          <t>27.80</t>
-        </is>
-      </c>
-      <c r="F14" s="4" t="inlineStr">
-        <is>
-          <t>+2.5</t>
-        </is>
-      </c>
+      <c r="E14" s="4" t="inlineStr"/>
+      <c r="F14" s="4" t="inlineStr"/>
       <c r="G14" s="4" t="n">
         <v>5803</v>
       </c>
@@ -28851,16 +28763,8 @@
           <t xml:space="preserve">日月光投控      </t>
         </is>
       </c>
-      <c r="E15" s="4" t="inlineStr">
-        <is>
-          <t>244.50</t>
-        </is>
-      </c>
-      <c r="F15" s="4" t="inlineStr">
-        <is>
-          <t>+4.5</t>
-        </is>
-      </c>
+      <c r="E15" s="4" t="inlineStr"/>
+      <c r="F15" s="4" t="inlineStr"/>
       <c r="G15" s="4" t="n">
         <v>5542</v>
       </c>
@@ -28884,16 +28788,8 @@
           <t xml:space="preserve">長榮航          </t>
         </is>
       </c>
-      <c r="E16" s="4" t="inlineStr">
-        <is>
-          <t>34.85</t>
-        </is>
-      </c>
-      <c r="F16" s="4" t="inlineStr">
-        <is>
-          <t>+0.85</t>
-        </is>
-      </c>
+      <c r="E16" s="4" t="inlineStr"/>
+      <c r="F16" s="4" t="inlineStr"/>
       <c r="G16" s="4" t="n">
         <v>5484</v>
       </c>
@@ -28917,16 +28813,8 @@
           <t>元大台灣價值高息</t>
         </is>
       </c>
-      <c r="E17" s="4" t="inlineStr">
-        <is>
-          <t>9.21</t>
-        </is>
-      </c>
-      <c r="F17" s="4" t="inlineStr">
-        <is>
-          <t>X0.0</t>
-        </is>
-      </c>
+      <c r="E17" s="4" t="inlineStr"/>
+      <c r="F17" s="4" t="inlineStr"/>
       <c r="G17" s="4" t="n">
         <v>5459</v>
       </c>
@@ -28950,16 +28838,8 @@
           <t>統一台灣高息動能</t>
         </is>
       </c>
-      <c r="E18" s="4" t="inlineStr">
-        <is>
-          <t>14.22</t>
-        </is>
-      </c>
-      <c r="F18" s="4" t="inlineStr">
-        <is>
-          <t>+0.04</t>
-        </is>
-      </c>
+      <c r="E18" s="4" t="inlineStr"/>
+      <c r="F18" s="4" t="inlineStr"/>
       <c r="G18" s="4" t="n">
         <v>5418</v>
       </c>
@@ -28983,16 +28863,8 @@
           <t xml:space="preserve">台新新光金      </t>
         </is>
       </c>
-      <c r="E19" s="4" t="inlineStr">
-        <is>
-          <t>19.15</t>
-        </is>
-      </c>
-      <c r="F19" s="4" t="inlineStr">
-        <is>
-          <t>-0.1</t>
-        </is>
-      </c>
+      <c r="E19" s="4" t="inlineStr"/>
+      <c r="F19" s="4" t="inlineStr"/>
       <c r="G19" s="4" t="n">
         <v>5340</v>
       </c>
@@ -29016,16 +28888,8 @@
           <t xml:space="preserve">智邦            </t>
         </is>
       </c>
-      <c r="E20" s="4" t="inlineStr">
-        <is>
-          <t>1,090.00</t>
-        </is>
-      </c>
-      <c r="F20" s="4" t="inlineStr">
-        <is>
-          <t>+95.0</t>
-        </is>
-      </c>
+      <c r="E20" s="4" t="inlineStr"/>
+      <c r="F20" s="4" t="inlineStr"/>
       <c r="G20" s="4" t="n">
         <v>4973</v>
       </c>
@@ -29049,16 +28913,8 @@
           <t xml:space="preserve">毅嘉            </t>
         </is>
       </c>
-      <c r="E21" s="4" t="inlineStr">
-        <is>
-          <t>67.10</t>
-        </is>
-      </c>
-      <c r="F21" s="4" t="inlineStr">
-        <is>
-          <t>+6.1</t>
-        </is>
-      </c>
+      <c r="E21" s="4" t="inlineStr"/>
+      <c r="F21" s="4" t="inlineStr"/>
       <c r="G21" s="4" t="n">
         <v>3985</v>
       </c>
@@ -29082,16 +28938,8 @@
           <t xml:space="preserve">元大高股息      </t>
         </is>
       </c>
-      <c r="E22" s="4" t="inlineStr">
-        <is>
-          <t>36.59</t>
-        </is>
-      </c>
-      <c r="F22" s="4" t="inlineStr">
-        <is>
-          <t>+0.01</t>
-        </is>
-      </c>
+      <c r="E22" s="4" t="inlineStr"/>
+      <c r="F22" s="4" t="inlineStr"/>
       <c r="G22" s="4" t="n">
         <v>3873</v>
       </c>
@@ -29115,16 +28963,8 @@
           <t xml:space="preserve">達運            </t>
         </is>
       </c>
-      <c r="E23" s="4" t="inlineStr">
-        <is>
-          <t>13.45</t>
-        </is>
-      </c>
-      <c r="F23" s="4" t="inlineStr">
-        <is>
-          <t>+0.55</t>
-        </is>
-      </c>
+      <c r="E23" s="4" t="inlineStr"/>
+      <c r="F23" s="4" t="inlineStr"/>
       <c r="G23" s="4" t="n">
         <v>3803</v>
       </c>
@@ -29148,16 +28988,8 @@
           <t xml:space="preserve">富邦台50        </t>
         </is>
       </c>
-      <c r="E24" s="4" t="inlineStr">
-        <is>
-          <t>146.50</t>
-        </is>
-      </c>
-      <c r="F24" s="4" t="inlineStr">
-        <is>
-          <t>+1.05</t>
-        </is>
-      </c>
+      <c r="E24" s="4" t="inlineStr"/>
+      <c r="F24" s="4" t="inlineStr"/>
       <c r="G24" s="4" t="n">
         <v>3782</v>
       </c>
@@ -29181,16 +29013,8 @@
           <t xml:space="preserve">聯發科          </t>
         </is>
       </c>
-      <c r="E25" s="4" t="inlineStr">
-        <is>
-          <t>1,460.00</t>
-        </is>
-      </c>
-      <c r="F25" s="4" t="inlineStr">
-        <is>
-          <t>+40.0</t>
-        </is>
-      </c>
+      <c r="E25" s="4" t="inlineStr"/>
+      <c r="F25" s="4" t="inlineStr"/>
       <c r="G25" s="4" t="n">
         <v>3780</v>
       </c>
@@ -29214,16 +29038,8 @@
           <t xml:space="preserve">威盛            </t>
         </is>
       </c>
-      <c r="E26" s="4" t="inlineStr">
-        <is>
-          <t>64.90</t>
-        </is>
-      </c>
-      <c r="F26" s="4" t="inlineStr">
-        <is>
-          <t>+2.4</t>
-        </is>
-      </c>
+      <c r="E26" s="4" t="inlineStr"/>
+      <c r="F26" s="4" t="inlineStr"/>
       <c r="G26" s="4" t="n">
         <v>3762</v>
       </c>
@@ -29247,16 +29063,8 @@
           <t>國泰台灣科技龍頭</t>
         </is>
       </c>
-      <c r="E27" s="4" t="inlineStr">
-        <is>
-          <t>32.16</t>
-        </is>
-      </c>
-      <c r="F27" s="4" t="inlineStr">
-        <is>
-          <t>+0.34</t>
-        </is>
-      </c>
+      <c r="E27" s="4" t="inlineStr"/>
+      <c r="F27" s="4" t="inlineStr"/>
       <c r="G27" s="4" t="n">
         <v>3715</v>
       </c>
@@ -29280,16 +29088,8 @@
           <t xml:space="preserve">日電貿          </t>
         </is>
       </c>
-      <c r="E28" s="4" t="inlineStr">
-        <is>
-          <t>99.30</t>
-        </is>
-      </c>
-      <c r="F28" s="4" t="inlineStr">
-        <is>
-          <t>+5.2</t>
-        </is>
-      </c>
+      <c r="E28" s="4" t="inlineStr"/>
+      <c r="F28" s="4" t="inlineStr"/>
       <c r="G28" s="4" t="n">
         <v>3593</v>
       </c>
@@ -29313,16 +29113,8 @@
           <t xml:space="preserve">錸德            </t>
         </is>
       </c>
-      <c r="E29" s="4" t="inlineStr">
-        <is>
-          <t>11.65</t>
-        </is>
-      </c>
-      <c r="F29" s="4" t="inlineStr">
-        <is>
-          <t>+1.05</t>
-        </is>
-      </c>
+      <c r="E29" s="4" t="inlineStr"/>
+      <c r="F29" s="4" t="inlineStr"/>
       <c r="G29" s="4" t="n">
         <v>3464</v>
       </c>
@@ -29346,16 +29138,8 @@
           <t>元大台灣高息低波</t>
         </is>
       </c>
-      <c r="E30" s="4" t="inlineStr">
-        <is>
-          <t>50.40</t>
-        </is>
-      </c>
-      <c r="F30" s="4" t="inlineStr">
-        <is>
-          <t>+0.1</t>
-        </is>
-      </c>
+      <c r="E30" s="4" t="inlineStr"/>
+      <c r="F30" s="4" t="inlineStr"/>
       <c r="G30" s="4" t="n">
         <v>3388</v>
       </c>
@@ -29379,16 +29163,8 @@
           <t xml:space="preserve">台中銀          </t>
         </is>
       </c>
-      <c r="E31" s="4" t="inlineStr">
-        <is>
-          <t>21.15</t>
-        </is>
-      </c>
-      <c r="F31" s="4" t="inlineStr">
-        <is>
-          <t>+0.15</t>
-        </is>
-      </c>
+      <c r="E31" s="4" t="inlineStr"/>
+      <c r="F31" s="4" t="inlineStr"/>
       <c r="G31" s="4" t="n">
         <v>3127</v>
       </c>
@@ -29412,16 +29188,8 @@
           <t xml:space="preserve">華新科          </t>
         </is>
       </c>
-      <c r="E32" s="4" t="inlineStr">
-        <is>
-          <t>127.00</t>
-        </is>
-      </c>
-      <c r="F32" s="4" t="inlineStr">
-        <is>
-          <t>+8.0</t>
-        </is>
-      </c>
+      <c r="E32" s="4" t="inlineStr"/>
+      <c r="F32" s="4" t="inlineStr"/>
       <c r="G32" s="4" t="n">
         <v>3024</v>
       </c>
@@ -29445,16 +29213,8 @@
           <t xml:space="preserve">國泰永續高股息  </t>
         </is>
       </c>
-      <c r="E33" s="4" t="inlineStr">
-        <is>
-          <t>21.25</t>
-        </is>
-      </c>
-      <c r="F33" s="4" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
+      <c r="E33" s="4" t="inlineStr"/>
+      <c r="F33" s="4" t="inlineStr"/>
       <c r="G33" s="4" t="n">
         <v>2964</v>
       </c>
@@ -29478,16 +29238,8 @@
           <t xml:space="preserve">欣興            </t>
         </is>
       </c>
-      <c r="E34" s="4" t="inlineStr">
-        <is>
-          <t>227.50</t>
-        </is>
-      </c>
-      <c r="F34" s="4" t="inlineStr">
-        <is>
-          <t>+1.5</t>
-        </is>
-      </c>
+      <c r="E34" s="4" t="inlineStr"/>
+      <c r="F34" s="4" t="inlineStr"/>
       <c r="G34" s="4" t="n">
         <v>2696</v>
       </c>
@@ -29511,16 +29263,8 @@
           <t xml:space="preserve">大同            </t>
         </is>
       </c>
-      <c r="E35" s="4" t="inlineStr">
-        <is>
-          <t>32.70</t>
-        </is>
-      </c>
-      <c r="F35" s="4" t="inlineStr">
-        <is>
-          <t>+0.2</t>
-        </is>
-      </c>
+      <c r="E35" s="4" t="inlineStr"/>
+      <c r="F35" s="4" t="inlineStr"/>
       <c r="G35" s="4" t="n">
         <v>2657</v>
       </c>
@@ -29544,16 +29288,8 @@
           <t xml:space="preserve">京元電子        </t>
         </is>
       </c>
-      <c r="E36" s="4" t="inlineStr">
-        <is>
-          <t>229.00</t>
-        </is>
-      </c>
-      <c r="F36" s="4" t="inlineStr">
-        <is>
-          <t>+0.5</t>
-        </is>
-      </c>
+      <c r="E36" s="4" t="inlineStr"/>
+      <c r="F36" s="4" t="inlineStr"/>
       <c r="G36" s="4" t="n">
         <v>2488</v>
       </c>
@@ -29577,16 +29313,8 @@
           <t xml:space="preserve">廣達            </t>
         </is>
       </c>
-      <c r="E37" s="4" t="inlineStr">
-        <is>
-          <t>292.50</t>
-        </is>
-      </c>
-      <c r="F37" s="4" t="inlineStr">
-        <is>
-          <t>-3.5</t>
-        </is>
-      </c>
+      <c r="E37" s="4" t="inlineStr"/>
+      <c r="F37" s="4" t="inlineStr"/>
       <c r="G37" s="4" t="n">
         <v>2484</v>
       </c>
@@ -29610,11 +29338,7 @@
           <t xml:space="preserve">玉山金          </t>
         </is>
       </c>
-      <c r="E38" s="4" t="inlineStr">
-        <is>
-          <t>32.10</t>
-        </is>
-      </c>
+      <c r="E38" s="4" t="inlineStr"/>
       <c r="F38" s="4" t="inlineStr"/>
       <c r="G38" s="4" t="n">
         <v>2428</v>
@@ -29639,16 +29363,8 @@
           <t xml:space="preserve">亞翔            </t>
         </is>
       </c>
-      <c r="E39" s="4" t="inlineStr">
-        <is>
-          <t>508.00</t>
-        </is>
-      </c>
-      <c r="F39" s="4" t="inlineStr">
-        <is>
-          <t>+16.5</t>
-        </is>
-      </c>
+      <c r="E39" s="4" t="inlineStr"/>
+      <c r="F39" s="4" t="inlineStr"/>
       <c r="G39" s="4" t="n">
         <v>2408</v>
       </c>
@@ -29672,16 +29388,8 @@
           <t xml:space="preserve">仁寶            </t>
         </is>
       </c>
-      <c r="E40" s="4" t="inlineStr">
-        <is>
-          <t>29.95</t>
-        </is>
-      </c>
-      <c r="F40" s="4" t="inlineStr">
-        <is>
-          <t>+0.15</t>
-        </is>
-      </c>
+      <c r="E40" s="4" t="inlineStr"/>
+      <c r="F40" s="4" t="inlineStr"/>
       <c r="G40" s="4" t="n">
         <v>2385</v>
       </c>
@@ -29705,16 +29413,8 @@
           <t xml:space="preserve">中環            </t>
         </is>
       </c>
-      <c r="E41" s="4" t="inlineStr">
-        <is>
-          <t>9.90</t>
-        </is>
-      </c>
-      <c r="F41" s="4" t="inlineStr">
-        <is>
-          <t>+0.1</t>
-        </is>
-      </c>
+      <c r="E41" s="4" t="inlineStr"/>
+      <c r="F41" s="4" t="inlineStr"/>
       <c r="G41" s="4" t="n">
         <v>2080</v>
       </c>
@@ -29738,16 +29438,8 @@
           <t xml:space="preserve">中信金          </t>
         </is>
       </c>
-      <c r="E42" s="4" t="inlineStr">
-        <is>
-          <t>44.80</t>
-        </is>
-      </c>
-      <c r="F42" s="4" t="inlineStr">
-        <is>
-          <t>-0.15</t>
-        </is>
-      </c>
+      <c r="E42" s="4" t="inlineStr"/>
+      <c r="F42" s="4" t="inlineStr"/>
       <c r="G42" s="4" t="n">
         <v>1966</v>
       </c>
@@ -29771,16 +29463,8 @@
           <t xml:space="preserve">一詮            </t>
         </is>
       </c>
-      <c r="E43" s="4" t="inlineStr">
-        <is>
-          <t>94.00</t>
-        </is>
-      </c>
-      <c r="F43" s="4" t="inlineStr">
-        <is>
-          <t>+1.8</t>
-        </is>
-      </c>
+      <c r="E43" s="4" t="inlineStr"/>
+      <c r="F43" s="4" t="inlineStr"/>
       <c r="G43" s="4" t="n">
         <v>1897</v>
       </c>
@@ -29804,16 +29488,8 @@
           <t xml:space="preserve">台虹            </t>
         </is>
       </c>
-      <c r="E44" s="4" t="inlineStr">
-        <is>
-          <t>95.70</t>
-        </is>
-      </c>
-      <c r="F44" s="4" t="inlineStr">
-        <is>
-          <t>+1.7</t>
-        </is>
-      </c>
+      <c r="E44" s="4" t="inlineStr"/>
+      <c r="F44" s="4" t="inlineStr"/>
       <c r="G44" s="4" t="n">
         <v>1877</v>
       </c>
@@ -29837,11 +29513,7 @@
           <t xml:space="preserve">三商壽          </t>
         </is>
       </c>
-      <c r="E45" s="4" t="inlineStr">
-        <is>
-          <t>7.60</t>
-        </is>
-      </c>
+      <c r="E45" s="4" t="inlineStr"/>
       <c r="F45" s="4" t="inlineStr"/>
       <c r="G45" s="4" t="n">
         <v>1742</v>
@@ -29866,16 +29538,8 @@
           <t xml:space="preserve">聯鈞            </t>
         </is>
       </c>
-      <c r="E46" s="4" t="inlineStr">
-        <is>
-          <t>281.50</t>
-        </is>
-      </c>
-      <c r="F46" s="4" t="inlineStr">
-        <is>
-          <t>+4.5</t>
-        </is>
-      </c>
+      <c r="E46" s="4" t="inlineStr"/>
+      <c r="F46" s="4" t="inlineStr"/>
       <c r="G46" s="4" t="n">
         <v>1610</v>
       </c>
@@ -29899,16 +29563,8 @@
           <t xml:space="preserve">國巨*           </t>
         </is>
       </c>
-      <c r="E47" s="4" t="inlineStr">
-        <is>
-          <t>245.50</t>
-        </is>
-      </c>
-      <c r="F47" s="4" t="inlineStr">
-        <is>
-          <t>+6.0</t>
-        </is>
-      </c>
+      <c r="E47" s="4" t="inlineStr"/>
+      <c r="F47" s="4" t="inlineStr"/>
       <c r="G47" s="4" t="n">
         <v>1571</v>
       </c>
@@ -29932,16 +29588,8 @@
           <t xml:space="preserve">定穎投控        </t>
         </is>
       </c>
-      <c r="E48" s="4" t="inlineStr">
-        <is>
-          <t>117.00</t>
-        </is>
-      </c>
-      <c r="F48" s="4" t="inlineStr">
-        <is>
-          <t>+1.0</t>
-        </is>
-      </c>
+      <c r="E48" s="4" t="inlineStr"/>
+      <c r="F48" s="4" t="inlineStr"/>
       <c r="G48" s="4" t="n">
         <v>1468</v>
       </c>
@@ -29965,16 +29613,8 @@
           <t xml:space="preserve">元大台灣50正2   </t>
         </is>
       </c>
-      <c r="E49" s="4" t="inlineStr">
-        <is>
-          <t>350.85</t>
-        </is>
-      </c>
-      <c r="F49" s="4" t="inlineStr">
-        <is>
-          <t>+4.35</t>
-        </is>
-      </c>
+      <c r="E49" s="4" t="inlineStr"/>
+      <c r="F49" s="4" t="inlineStr"/>
       <c r="G49" s="4" t="n">
         <v>1431</v>
       </c>
@@ -29998,16 +29638,8 @@
           <t xml:space="preserve">眾達-KY         </t>
         </is>
       </c>
-      <c r="E50" s="4" t="inlineStr">
-        <is>
-          <t>141.00</t>
-        </is>
-      </c>
-      <c r="F50" s="4" t="inlineStr">
-        <is>
-          <t>+11.5</t>
-        </is>
-      </c>
+      <c r="E50" s="4" t="inlineStr"/>
+      <c r="F50" s="4" t="inlineStr"/>
       <c r="G50" s="4" t="n">
         <v>1383</v>
       </c>
@@ -30031,16 +29663,8 @@
           <t xml:space="preserve">聯合再生        </t>
         </is>
       </c>
-      <c r="E51" s="4" t="inlineStr">
-        <is>
-          <t>6.57</t>
-        </is>
-      </c>
-      <c r="F51" s="4" t="inlineStr">
-        <is>
-          <t>+0.11</t>
-        </is>
-      </c>
+      <c r="E51" s="4" t="inlineStr"/>
+      <c r="F51" s="4" t="inlineStr"/>
       <c r="G51" s="4" t="n">
         <v>1181</v>
       </c>
@@ -30064,16 +29688,8 @@
           <t xml:space="preserve">富邦公司治理    </t>
         </is>
       </c>
-      <c r="E52" s="4" t="inlineStr">
-        <is>
-          <t>56.25</t>
-        </is>
-      </c>
-      <c r="F52" s="4" t="inlineStr">
-        <is>
-          <t>+0.2</t>
-        </is>
-      </c>
+      <c r="E52" s="4" t="inlineStr"/>
+      <c r="F52" s="4" t="inlineStr"/>
       <c r="G52" s="4" t="n">
         <v>1130</v>
       </c>
@@ -30097,16 +29713,8 @@
           <t xml:space="preserve">華城            </t>
         </is>
       </c>
-      <c r="E53" s="4" t="inlineStr">
-        <is>
-          <t>779.00</t>
-        </is>
-      </c>
-      <c r="F53" s="4" t="inlineStr">
-        <is>
-          <t>+49.0</t>
-        </is>
-      </c>
+      <c r="E53" s="4" t="inlineStr"/>
+      <c r="F53" s="4" t="inlineStr"/>
       <c r="G53" s="4" t="n">
         <v>1101</v>
       </c>
@@ -30130,16 +29738,8 @@
           <t xml:space="preserve">智原            </t>
         </is>
       </c>
-      <c r="E54" s="4" t="inlineStr">
-        <is>
-          <t>174.00</t>
-        </is>
-      </c>
-      <c r="F54" s="4" t="inlineStr">
-        <is>
-          <t>+3.0</t>
-        </is>
-      </c>
+      <c r="E54" s="4" t="inlineStr"/>
+      <c r="F54" s="4" t="inlineStr"/>
       <c r="G54" s="4" t="n">
         <v>1100</v>
       </c>
@@ -30163,16 +29763,8 @@
           <t xml:space="preserve">台船            </t>
         </is>
       </c>
-      <c r="E55" s="4" t="inlineStr">
-        <is>
-          <t>20.05</t>
-        </is>
-      </c>
-      <c r="F55" s="4" t="inlineStr">
-        <is>
-          <t>-0.55</t>
-        </is>
-      </c>
+      <c r="E55" s="4" t="inlineStr"/>
+      <c r="F55" s="4" t="inlineStr"/>
       <c r="G55" s="4" t="n">
         <v>1096</v>
       </c>
@@ -30196,16 +29788,8 @@
           <t xml:space="preserve">南亞科          </t>
         </is>
       </c>
-      <c r="E56" s="4" t="inlineStr">
-        <is>
-          <t>156.00</t>
-        </is>
-      </c>
-      <c r="F56" s="4" t="inlineStr">
-        <is>
-          <t>-6.0</t>
-        </is>
-      </c>
+      <c r="E56" s="4" t="inlineStr"/>
+      <c r="F56" s="4" t="inlineStr"/>
       <c r="G56" s="4" t="n">
         <v>1095</v>
       </c>
@@ -30229,16 +29813,8 @@
           <t xml:space="preserve">高雄銀          </t>
         </is>
       </c>
-      <c r="E57" s="4" t="inlineStr">
-        <is>
-          <t>12.20</t>
-        </is>
-      </c>
-      <c r="F57" s="4" t="inlineStr">
-        <is>
-          <t>+0.1</t>
-        </is>
-      </c>
+      <c r="E57" s="4" t="inlineStr"/>
+      <c r="F57" s="4" t="inlineStr"/>
       <c r="G57" s="4" t="n">
         <v>1071</v>
       </c>
@@ -30262,16 +29838,8 @@
           <t xml:space="preserve">富邦金          </t>
         </is>
       </c>
-      <c r="E58" s="4" t="inlineStr">
-        <is>
-          <t>95.20</t>
-        </is>
-      </c>
-      <c r="F58" s="4" t="inlineStr">
-        <is>
-          <t>-1.1</t>
-        </is>
-      </c>
+      <c r="E58" s="4" t="inlineStr"/>
+      <c r="F58" s="4" t="inlineStr"/>
       <c r="G58" s="4" t="n">
         <v>1070</v>
       </c>
@@ -30295,16 +29863,8 @@
           <t xml:space="preserve">統一            </t>
         </is>
       </c>
-      <c r="E59" s="4" t="inlineStr">
-        <is>
-          <t>75.00</t>
-        </is>
-      </c>
-      <c r="F59" s="4" t="inlineStr">
-        <is>
-          <t>+0.2</t>
-        </is>
-      </c>
+      <c r="E59" s="4" t="inlineStr"/>
+      <c r="F59" s="4" t="inlineStr"/>
       <c r="G59" s="4" t="n">
         <v>946</v>
       </c>
@@ -30328,16 +29888,8 @@
           <t xml:space="preserve">友達            </t>
         </is>
       </c>
-      <c r="E60" s="4" t="inlineStr">
-        <is>
-          <t>11.60</t>
-        </is>
-      </c>
-      <c r="F60" s="4" t="inlineStr">
-        <is>
-          <t>+0.3</t>
-        </is>
-      </c>
+      <c r="E60" s="4" t="inlineStr"/>
+      <c r="F60" s="4" t="inlineStr"/>
       <c r="G60" s="4" t="n">
         <v>878</v>
       </c>
@@ -30361,16 +29913,8 @@
           <t xml:space="preserve">長興            </t>
         </is>
       </c>
-      <c r="E61" s="4" t="inlineStr">
-        <is>
-          <t>40.20</t>
-        </is>
-      </c>
-      <c r="F61" s="4" t="inlineStr">
-        <is>
-          <t>-0.3</t>
-        </is>
-      </c>
+      <c r="E61" s="4" t="inlineStr"/>
+      <c r="F61" s="4" t="inlineStr"/>
       <c r="G61" s="4" t="n">
         <v>874</v>
       </c>
@@ -30394,16 +29938,8 @@
           <t xml:space="preserve">台光電          </t>
         </is>
       </c>
-      <c r="E62" s="4" t="inlineStr">
-        <is>
-          <t>1,600.00</t>
-        </is>
-      </c>
-      <c r="F62" s="4" t="inlineStr">
-        <is>
-          <t>+100.0</t>
-        </is>
-      </c>
+      <c r="E62" s="4" t="inlineStr"/>
+      <c r="F62" s="4" t="inlineStr"/>
       <c r="G62" s="4" t="n">
         <v>862</v>
       </c>
@@ -30427,16 +29963,8 @@
           <t xml:space="preserve">華榮            </t>
         </is>
       </c>
-      <c r="E63" s="4" t="inlineStr">
-        <is>
-          <t>36.90</t>
-        </is>
-      </c>
-      <c r="F63" s="4" t="inlineStr">
-        <is>
-          <t>+0.1</t>
-        </is>
-      </c>
+      <c r="E63" s="4" t="inlineStr"/>
+      <c r="F63" s="4" t="inlineStr"/>
       <c r="G63" s="4" t="n">
         <v>846</v>
       </c>
@@ -30460,16 +29988,8 @@
           <t xml:space="preserve">英業達          </t>
         </is>
       </c>
-      <c r="E64" s="4" t="inlineStr">
-        <is>
-          <t>44.50</t>
-        </is>
-      </c>
-      <c r="F64" s="4" t="inlineStr">
-        <is>
-          <t>-0.9</t>
-        </is>
-      </c>
+      <c r="E64" s="4" t="inlineStr"/>
+      <c r="F64" s="4" t="inlineStr"/>
       <c r="G64" s="4" t="n">
         <v>816</v>
       </c>
@@ -30493,16 +30013,8 @@
           <t xml:space="preserve">晟銘電          </t>
         </is>
       </c>
-      <c r="E65" s="4" t="inlineStr">
-        <is>
-          <t>137.50</t>
-        </is>
-      </c>
-      <c r="F65" s="4" t="inlineStr">
-        <is>
-          <t>-1.5</t>
-        </is>
-      </c>
+      <c r="E65" s="4" t="inlineStr"/>
+      <c r="F65" s="4" t="inlineStr"/>
       <c r="G65" s="4" t="n">
         <v>737</v>
       </c>
@@ -30526,16 +30038,8 @@
           <t xml:space="preserve">國光生          </t>
         </is>
       </c>
-      <c r="E66" s="4" t="inlineStr">
-        <is>
-          <t>19.80</t>
-        </is>
-      </c>
-      <c r="F66" s="4" t="inlineStr">
-        <is>
-          <t>+0.3</t>
-        </is>
-      </c>
+      <c r="E66" s="4" t="inlineStr"/>
+      <c r="F66" s="4" t="inlineStr"/>
       <c r="G66" s="4" t="n">
         <v>732</v>
       </c>
@@ -30559,16 +30063,8 @@
           <t xml:space="preserve">中砂            </t>
         </is>
       </c>
-      <c r="E67" s="4" t="inlineStr">
-        <is>
-          <t>355.00</t>
-        </is>
-      </c>
-      <c r="F67" s="4" t="inlineStr">
-        <is>
-          <t>+3.0</t>
-        </is>
-      </c>
+      <c r="E67" s="4" t="inlineStr"/>
+      <c r="F67" s="4" t="inlineStr"/>
       <c r="G67" s="4" t="n">
         <v>731</v>
       </c>
@@ -30592,16 +30088,8 @@
           <t xml:space="preserve">瑞昱            </t>
         </is>
       </c>
-      <c r="E68" s="4" t="inlineStr">
-        <is>
-          <t>539.00</t>
-        </is>
-      </c>
-      <c r="F68" s="4" t="inlineStr">
-        <is>
-          <t>+5.0</t>
-        </is>
-      </c>
+      <c r="E68" s="4" t="inlineStr"/>
+      <c r="F68" s="4" t="inlineStr"/>
       <c r="G68" s="4" t="n">
         <v>700</v>
       </c>
@@ -30625,16 +30113,8 @@
           <t xml:space="preserve">台亞            </t>
         </is>
       </c>
-      <c r="E69" s="4" t="inlineStr">
-        <is>
-          <t>27.85</t>
-        </is>
-      </c>
-      <c r="F69" s="4" t="inlineStr">
-        <is>
-          <t>+0.35</t>
-        </is>
-      </c>
+      <c r="E69" s="4" t="inlineStr"/>
+      <c r="F69" s="4" t="inlineStr"/>
       <c r="G69" s="4" t="n">
         <v>680</v>
       </c>
@@ -30658,16 +30138,8 @@
           <t xml:space="preserve">文曄            </t>
         </is>
       </c>
-      <c r="E70" s="4" t="inlineStr">
-        <is>
-          <t>150.50</t>
-        </is>
-      </c>
-      <c r="F70" s="4" t="inlineStr">
-        <is>
-          <t>-0.5</t>
-        </is>
-      </c>
+      <c r="E70" s="4" t="inlineStr"/>
+      <c r="F70" s="4" t="inlineStr"/>
       <c r="G70" s="4" t="n">
         <v>677</v>
       </c>
@@ -30691,16 +30163,8 @@
           <t xml:space="preserve">國產            </t>
         </is>
       </c>
-      <c r="E71" s="4" t="inlineStr">
-        <is>
-          <t>35.45</t>
-        </is>
-      </c>
-      <c r="F71" s="4" t="inlineStr">
-        <is>
-          <t>+0.4</t>
-        </is>
-      </c>
+      <c r="E71" s="4" t="inlineStr"/>
+      <c r="F71" s="4" t="inlineStr"/>
       <c r="G71" s="4" t="n">
         <v>659</v>
       </c>
@@ -30724,16 +30188,8 @@
           <t xml:space="preserve">敬鵬            </t>
         </is>
       </c>
-      <c r="E72" s="4" t="inlineStr">
-        <is>
-          <t>33.05</t>
-        </is>
-      </c>
-      <c r="F72" s="4" t="inlineStr">
-        <is>
-          <t>+0.9</t>
-        </is>
-      </c>
+      <c r="E72" s="4" t="inlineStr"/>
+      <c r="F72" s="4" t="inlineStr"/>
       <c r="G72" s="4" t="n">
         <v>657</v>
       </c>
@@ -30757,16 +30213,8 @@
           <t xml:space="preserve">藥華藥          </t>
         </is>
       </c>
-      <c r="E73" s="4" t="inlineStr">
-        <is>
-          <t>516.00</t>
-        </is>
-      </c>
-      <c r="F73" s="4" t="inlineStr">
-        <is>
-          <t>+4.0</t>
-        </is>
-      </c>
+      <c r="E73" s="4" t="inlineStr"/>
+      <c r="F73" s="4" t="inlineStr"/>
       <c r="G73" s="4" t="n">
         <v>647</v>
       </c>
@@ -30790,16 +30238,8 @@
           <t xml:space="preserve">菱生            </t>
         </is>
       </c>
-      <c r="E74" s="4" t="inlineStr">
-        <is>
-          <t>22.70</t>
-        </is>
-      </c>
-      <c r="F74" s="4" t="inlineStr">
-        <is>
-          <t>-0.3</t>
-        </is>
-      </c>
+      <c r="E74" s="4" t="inlineStr"/>
+      <c r="F74" s="4" t="inlineStr"/>
       <c r="G74" s="4" t="n">
         <v>634</v>
       </c>
@@ -30823,16 +30263,8 @@
           <t xml:space="preserve">中信中國高股息  </t>
         </is>
       </c>
-      <c r="E75" s="4" t="inlineStr">
-        <is>
-          <t>15.11</t>
-        </is>
-      </c>
-      <c r="F75" s="4" t="inlineStr">
-        <is>
-          <t>-0.07</t>
-        </is>
-      </c>
+      <c r="E75" s="4" t="inlineStr"/>
+      <c r="F75" s="4" t="inlineStr"/>
       <c r="G75" s="4" t="n">
         <v>612</v>
       </c>
@@ -30856,16 +30288,8 @@
           <t xml:space="preserve">台郡            </t>
         </is>
       </c>
-      <c r="E76" s="4" t="inlineStr">
-        <is>
-          <t>59.00</t>
-        </is>
-      </c>
-      <c r="F76" s="4" t="inlineStr">
-        <is>
-          <t>+0.3</t>
-        </is>
-      </c>
+      <c r="E76" s="4" t="inlineStr"/>
+      <c r="F76" s="4" t="inlineStr"/>
       <c r="G76" s="4" t="n">
         <v>611</v>
       </c>
@@ -30889,16 +30313,8 @@
           <t xml:space="preserve">東元            </t>
         </is>
       </c>
-      <c r="E77" s="4" t="inlineStr">
-        <is>
-          <t>85.80</t>
-        </is>
-      </c>
-      <c r="F77" s="4" t="inlineStr">
-        <is>
-          <t>-0.8</t>
-        </is>
-      </c>
+      <c r="E77" s="4" t="inlineStr"/>
+      <c r="F77" s="4" t="inlineStr"/>
       <c r="G77" s="4" t="n">
         <v>595</v>
       </c>
@@ -30922,16 +30338,8 @@
           <t xml:space="preserve">億光            </t>
         </is>
       </c>
-      <c r="E78" s="4" t="inlineStr">
-        <is>
-          <t>51.10</t>
-        </is>
-      </c>
-      <c r="F78" s="4" t="inlineStr">
-        <is>
-          <t>+0.6</t>
-        </is>
-      </c>
+      <c r="E78" s="4" t="inlineStr"/>
+      <c r="F78" s="4" t="inlineStr"/>
       <c r="G78" s="4" t="n">
         <v>563</v>
       </c>
@@ -30955,16 +30363,8 @@
           <t xml:space="preserve">奇鋐            </t>
         </is>
       </c>
-      <c r="E79" s="4" t="inlineStr">
-        <is>
-          <t>1,425.00</t>
-        </is>
-      </c>
-      <c r="F79" s="4" t="inlineStr">
-        <is>
-          <t>+15.0</t>
-        </is>
-      </c>
+      <c r="E79" s="4" t="inlineStr"/>
+      <c r="F79" s="4" t="inlineStr"/>
       <c r="G79" s="4" t="n">
         <v>526</v>
       </c>
@@ -30988,16 +30388,8 @@
           <t xml:space="preserve">映泰            </t>
         </is>
       </c>
-      <c r="E80" s="4" t="inlineStr">
-        <is>
-          <t>24.65</t>
-        </is>
-      </c>
-      <c r="F80" s="4" t="inlineStr">
-        <is>
-          <t>-0.35</t>
-        </is>
-      </c>
+      <c r="E80" s="4" t="inlineStr"/>
+      <c r="F80" s="4" t="inlineStr"/>
       <c r="G80" s="4" t="n">
         <v>505</v>
       </c>
@@ -31021,16 +30413,8 @@
           <t xml:space="preserve">健鼎            </t>
         </is>
       </c>
-      <c r="E81" s="4" t="inlineStr">
-        <is>
-          <t>312.50</t>
-        </is>
-      </c>
-      <c r="F81" s="4" t="inlineStr">
-        <is>
-          <t>+12.5</t>
-        </is>
-      </c>
+      <c r="E81" s="4" t="inlineStr"/>
+      <c r="F81" s="4" t="inlineStr"/>
       <c r="G81" s="4" t="n">
         <v>502</v>
       </c>
@@ -31054,16 +30438,8 @@
           <t xml:space="preserve">世芯-KY         </t>
         </is>
       </c>
-      <c r="E82" s="4" t="inlineStr">
-        <is>
-          <t>3,370.00</t>
-        </is>
-      </c>
-      <c r="F82" s="4" t="inlineStr">
-        <is>
-          <t>+110.0</t>
-        </is>
-      </c>
+      <c r="E82" s="4" t="inlineStr"/>
+      <c r="F82" s="4" t="inlineStr"/>
       <c r="G82" s="4" t="n">
         <v>480</v>
       </c>
@@ -31087,16 +30463,8 @@
           <t xml:space="preserve">立隆電          </t>
         </is>
       </c>
-      <c r="E83" s="4" t="inlineStr">
-        <is>
-          <t>110.50</t>
-        </is>
-      </c>
-      <c r="F83" s="4" t="inlineStr">
-        <is>
-          <t>+0.5</t>
-        </is>
-      </c>
+      <c r="E83" s="4" t="inlineStr"/>
+      <c r="F83" s="4" t="inlineStr"/>
       <c r="G83" s="4" t="n">
         <v>418</v>
       </c>
@@ -31120,16 +30488,8 @@
           <t xml:space="preserve">龍德造船        </t>
         </is>
       </c>
-      <c r="E84" s="4" t="inlineStr">
-        <is>
-          <t>127.50</t>
-        </is>
-      </c>
-      <c r="F84" s="4" t="inlineStr">
-        <is>
-          <t>+2.0</t>
-        </is>
-      </c>
+      <c r="E84" s="4" t="inlineStr"/>
+      <c r="F84" s="4" t="inlineStr"/>
       <c r="G84" s="4" t="n">
         <v>383</v>
       </c>
@@ -31153,16 +30513,8 @@
           <t xml:space="preserve">輔信            </t>
         </is>
       </c>
-      <c r="E85" s="4" t="inlineStr">
-        <is>
-          <t>18.00</t>
-        </is>
-      </c>
-      <c r="F85" s="4" t="inlineStr">
-        <is>
-          <t>+0.5</t>
-        </is>
-      </c>
+      <c r="E85" s="4" t="inlineStr"/>
+      <c r="F85" s="4" t="inlineStr"/>
       <c r="G85" s="4" t="n">
         <v>366</v>
       </c>
@@ -31186,16 +30538,8 @@
           <t xml:space="preserve">統一FANG+       </t>
         </is>
       </c>
-      <c r="E86" s="4" t="inlineStr">
-        <is>
-          <t>122.80</t>
-        </is>
-      </c>
-      <c r="F86" s="4" t="inlineStr">
-        <is>
-          <t>+0.2</t>
-        </is>
-      </c>
+      <c r="E86" s="4" t="inlineStr"/>
+      <c r="F86" s="4" t="inlineStr"/>
       <c r="G86" s="4" t="n">
         <v>364</v>
       </c>
@@ -31219,16 +30563,8 @@
           <t xml:space="preserve">騰輝電子-KY     </t>
         </is>
       </c>
-      <c r="E87" s="4" t="inlineStr">
-        <is>
-          <t>91.40</t>
-        </is>
-      </c>
-      <c r="F87" s="4" t="inlineStr">
-        <is>
-          <t>+3.4</t>
-        </is>
-      </c>
+      <c r="E87" s="4" t="inlineStr"/>
+      <c r="F87" s="4" t="inlineStr"/>
       <c r="G87" s="4" t="n">
         <v>357</v>
       </c>
@@ -31252,16 +30588,8 @@
           <t xml:space="preserve">華電            </t>
         </is>
       </c>
-      <c r="E88" s="4" t="inlineStr">
-        <is>
-          <t>37.85</t>
-        </is>
-      </c>
-      <c r="F88" s="4" t="inlineStr">
-        <is>
-          <t>+0.9</t>
-        </is>
-      </c>
+      <c r="E88" s="4" t="inlineStr"/>
+      <c r="F88" s="4" t="inlineStr"/>
       <c r="G88" s="4" t="n">
         <v>355</v>
       </c>
@@ -31285,11 +30613,7 @@
           <t xml:space="preserve">彩晶            </t>
         </is>
       </c>
-      <c r="E89" s="4" t="inlineStr">
-        <is>
-          <t>7.24</t>
-        </is>
-      </c>
+      <c r="E89" s="4" t="inlineStr"/>
       <c r="F89" s="4" t="inlineStr"/>
       <c r="G89" s="4" t="n">
         <v>353</v>
@@ -31314,16 +30638,8 @@
           <t xml:space="preserve">中興電          </t>
         </is>
       </c>
-      <c r="E90" s="4" t="inlineStr">
-        <is>
-          <t>150.50</t>
-        </is>
-      </c>
-      <c r="F90" s="4" t="inlineStr">
-        <is>
-          <t>+0.5</t>
-        </is>
-      </c>
+      <c r="E90" s="4" t="inlineStr"/>
+      <c r="F90" s="4" t="inlineStr"/>
       <c r="G90" s="4" t="n">
         <v>351</v>
       </c>
@@ -31347,16 +30663,8 @@
           <t xml:space="preserve">雙鍵            </t>
         </is>
       </c>
-      <c r="E91" s="4" t="inlineStr">
-        <is>
-          <t>89.50</t>
-        </is>
-      </c>
-      <c r="F91" s="4" t="inlineStr">
-        <is>
-          <t>+7.8</t>
-        </is>
-      </c>
+      <c r="E91" s="4" t="inlineStr"/>
+      <c r="F91" s="4" t="inlineStr"/>
       <c r="G91" s="4" t="n">
         <v>350</v>
       </c>
@@ -31380,16 +30688,8 @@
           <t xml:space="preserve">上銀            </t>
         </is>
       </c>
-      <c r="E92" s="4" t="inlineStr">
-        <is>
-          <t>200.00</t>
-        </is>
-      </c>
-      <c r="F92" s="4" t="inlineStr">
-        <is>
-          <t>+1.5</t>
-        </is>
-      </c>
+      <c r="E92" s="4" t="inlineStr"/>
+      <c r="F92" s="4" t="inlineStr"/>
       <c r="G92" s="4" t="n">
         <v>334</v>
       </c>
@@ -31413,16 +30713,8 @@
           <t xml:space="preserve">大量            </t>
         </is>
       </c>
-      <c r="E93" s="4" t="inlineStr">
-        <is>
-          <t>240.50</t>
-        </is>
-      </c>
-      <c r="F93" s="4" t="inlineStr">
-        <is>
-          <t>+6.0</t>
-        </is>
-      </c>
+      <c r="E93" s="4" t="inlineStr"/>
+      <c r="F93" s="4" t="inlineStr"/>
       <c r="G93" s="4" t="n">
         <v>328</v>
       </c>
@@ -31446,16 +30738,8 @@
           <t xml:space="preserve">永冠-KY         </t>
         </is>
       </c>
-      <c r="E94" s="4" t="inlineStr">
-        <is>
-          <t>17.45</t>
-        </is>
-      </c>
-      <c r="F94" s="4" t="inlineStr">
-        <is>
-          <t>+0.55</t>
-        </is>
-      </c>
+      <c r="E94" s="4" t="inlineStr"/>
+      <c r="F94" s="4" t="inlineStr"/>
       <c r="G94" s="4" t="n">
         <v>322</v>
       </c>
@@ -31479,16 +30763,8 @@
           <t xml:space="preserve">華晶科          </t>
         </is>
       </c>
-      <c r="E95" s="4" t="inlineStr">
-        <is>
-          <t>42.35</t>
-        </is>
-      </c>
-      <c r="F95" s="4" t="inlineStr">
-        <is>
-          <t>-0.15</t>
-        </is>
-      </c>
+      <c r="E95" s="4" t="inlineStr"/>
+      <c r="F95" s="4" t="inlineStr"/>
       <c r="G95" s="4" t="n">
         <v>314</v>
       </c>
@@ -31512,16 +30788,8 @@
           <t xml:space="preserve">復華富時不動產  </t>
         </is>
       </c>
-      <c r="E96" s="4" t="inlineStr">
-        <is>
-          <t>9.13</t>
-        </is>
-      </c>
-      <c r="F96" s="4" t="inlineStr">
-        <is>
-          <t>-0.04</t>
-        </is>
-      </c>
+      <c r="E96" s="4" t="inlineStr"/>
+      <c r="F96" s="4" t="inlineStr"/>
       <c r="G96" s="4" t="n">
         <v>290</v>
       </c>
@@ -31545,16 +30813,8 @@
           <t xml:space="preserve">皇普            </t>
         </is>
       </c>
-      <c r="E97" s="4" t="inlineStr">
-        <is>
-          <t>30.00</t>
-        </is>
-      </c>
-      <c r="F97" s="4" t="inlineStr">
-        <is>
-          <t>+0.1</t>
-        </is>
-      </c>
+      <c r="E97" s="4" t="inlineStr"/>
+      <c r="F97" s="4" t="inlineStr"/>
       <c r="G97" s="4" t="n">
         <v>287</v>
       </c>
@@ -31578,16 +30838,8 @@
           <t xml:space="preserve">貿聯-KY         </t>
         </is>
       </c>
-      <c r="E98" s="4" t="inlineStr">
-        <is>
-          <t>1,525.00</t>
-        </is>
-      </c>
-      <c r="F98" s="4" t="inlineStr">
-        <is>
-          <t>+55.0</t>
-        </is>
-      </c>
+      <c r="E98" s="4" t="inlineStr"/>
+      <c r="F98" s="4" t="inlineStr"/>
       <c r="G98" s="4" t="n">
         <v>284</v>
       </c>
@@ -31611,16 +30863,8 @@
           <t xml:space="preserve">冠德            </t>
         </is>
       </c>
-      <c r="E99" s="4" t="inlineStr">
-        <is>
-          <t>32.75</t>
-        </is>
-      </c>
-      <c r="F99" s="4" t="inlineStr">
-        <is>
-          <t>-0.15</t>
-        </is>
-      </c>
+      <c r="E99" s="4" t="inlineStr"/>
+      <c r="F99" s="4" t="inlineStr"/>
       <c r="G99" s="4" t="n">
         <v>283</v>
       </c>
@@ -31644,16 +30888,8 @@
           <t xml:space="preserve">遠雄            </t>
         </is>
       </c>
-      <c r="E100" s="4" t="inlineStr">
-        <is>
-          <t>60.80</t>
-        </is>
-      </c>
-      <c r="F100" s="4" t="inlineStr">
-        <is>
-          <t>+0.8</t>
-        </is>
-      </c>
+      <c r="E100" s="4" t="inlineStr"/>
+      <c r="F100" s="4" t="inlineStr"/>
       <c r="G100" s="4" t="n">
         <v>278</v>
       </c>
@@ -31677,16 +30913,8 @@
           <t xml:space="preserve">晶彩科          </t>
         </is>
       </c>
-      <c r="E101" s="4" t="inlineStr">
-        <is>
-          <t>87.00</t>
-        </is>
-      </c>
-      <c r="F101" s="4" t="inlineStr">
-        <is>
-          <t>-3.0</t>
-        </is>
-      </c>
+      <c r="E101" s="4" t="inlineStr"/>
+      <c r="F101" s="4" t="inlineStr"/>
       <c r="G101" s="4" t="n">
         <v>275</v>
       </c>
@@ -31710,16 +30938,8 @@
           <t xml:space="preserve">全新            </t>
         </is>
       </c>
-      <c r="E102" s="4" t="inlineStr">
-        <is>
-          <t>141.50</t>
-        </is>
-      </c>
-      <c r="F102" s="4" t="inlineStr">
-        <is>
-          <t>+0.5</t>
-        </is>
-      </c>
+      <c r="E102" s="4" t="inlineStr"/>
+      <c r="F102" s="4" t="inlineStr"/>
       <c r="G102" s="4" t="n">
         <v>271</v>
       </c>
@@ -31743,16 +30963,8 @@
           <t xml:space="preserve">東台            </t>
         </is>
       </c>
-      <c r="E103" s="4" t="inlineStr">
-        <is>
-          <t>32.05</t>
-        </is>
-      </c>
-      <c r="F103" s="4" t="inlineStr">
-        <is>
-          <t>-0.15</t>
-        </is>
-      </c>
+      <c r="E103" s="4" t="inlineStr"/>
+      <c r="F103" s="4" t="inlineStr"/>
       <c r="G103" s="4" t="n">
         <v>268</v>
       </c>
@@ -31853,16 +31065,8 @@
           <t xml:space="preserve">華邦電          </t>
         </is>
       </c>
-      <c r="E109" s="4" t="inlineStr">
-        <is>
-          <t>67.50</t>
-        </is>
-      </c>
-      <c r="F109" s="4" t="inlineStr">
-        <is>
-          <t>-3.8</t>
-        </is>
-      </c>
+      <c r="E109" s="4" t="inlineStr"/>
+      <c r="F109" s="4" t="inlineStr"/>
       <c r="G109" s="4" t="n">
         <v>-57653</v>
       </c>
@@ -31886,16 +31090,8 @@
           <t xml:space="preserve">台玻            </t>
         </is>
       </c>
-      <c r="E110" s="4" t="inlineStr">
-        <is>
-          <t>38.25</t>
-        </is>
-      </c>
-      <c r="F110" s="4" t="inlineStr">
-        <is>
-          <t>-1.65</t>
-        </is>
-      </c>
+      <c r="E110" s="4" t="inlineStr"/>
+      <c r="F110" s="4" t="inlineStr"/>
       <c r="G110" s="4" t="n">
         <v>-39934</v>
       </c>
@@ -31919,16 +31115,8 @@
           <t>群益台灣精選高息</t>
         </is>
       </c>
-      <c r="E111" s="4" t="inlineStr">
-        <is>
-          <t>21.93</t>
-        </is>
-      </c>
-      <c r="F111" s="4" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
+      <c r="E111" s="4" t="inlineStr"/>
+      <c r="F111" s="4" t="inlineStr"/>
       <c r="G111" s="4" t="n">
         <v>-30025</v>
       </c>
@@ -31952,16 +31140,8 @@
           <t xml:space="preserve">神達            </t>
         </is>
       </c>
-      <c r="E112" s="4" t="inlineStr">
-        <is>
-          <t>87.90</t>
-        </is>
-      </c>
-      <c r="F112" s="4" t="inlineStr">
-        <is>
-          <t>-6.5</t>
-        </is>
-      </c>
+      <c r="E112" s="4" t="inlineStr"/>
+      <c r="F112" s="4" t="inlineStr"/>
       <c r="G112" s="4" t="n">
         <v>-22008</v>
       </c>
@@ -31985,16 +31165,8 @@
           <t xml:space="preserve">力積電          </t>
         </is>
       </c>
-      <c r="E113" s="4" t="inlineStr">
-        <is>
-          <t>34.70</t>
-        </is>
-      </c>
-      <c r="F113" s="4" t="inlineStr">
-        <is>
-          <t>-0.6</t>
-        </is>
-      </c>
+      <c r="E113" s="4" t="inlineStr"/>
+      <c r="F113" s="4" t="inlineStr"/>
       <c r="G113" s="4" t="n">
         <v>-20951</v>
       </c>
@@ -32018,16 +31190,8 @@
           <t xml:space="preserve">旺宏            </t>
         </is>
       </c>
-      <c r="E114" s="4" t="inlineStr">
-        <is>
-          <t>37.00</t>
-        </is>
-      </c>
-      <c r="F114" s="4" t="inlineStr">
-        <is>
-          <t>-1.75</t>
-        </is>
-      </c>
+      <c r="E114" s="4" t="inlineStr"/>
+      <c r="F114" s="4" t="inlineStr"/>
       <c r="G114" s="4" t="n">
         <v>-19773</v>
       </c>
@@ -32051,16 +31215,8 @@
           <t xml:space="preserve">宏碁            </t>
         </is>
       </c>
-      <c r="E115" s="4" t="inlineStr">
-        <is>
-          <t>26.45</t>
-        </is>
-      </c>
-      <c r="F115" s="4" t="inlineStr">
-        <is>
-          <t>-0.35</t>
-        </is>
-      </c>
+      <c r="E115" s="4" t="inlineStr"/>
+      <c r="F115" s="4" t="inlineStr"/>
       <c r="G115" s="4" t="n">
         <v>-10155</v>
       </c>
@@ -32084,16 +31240,8 @@
           <t xml:space="preserve">台塑            </t>
         </is>
       </c>
-      <c r="E116" s="4" t="inlineStr">
-        <is>
-          <t>39.80</t>
-        </is>
-      </c>
-      <c r="F116" s="4" t="inlineStr">
-        <is>
-          <t>-0.5</t>
-        </is>
-      </c>
+      <c r="E116" s="4" t="inlineStr"/>
+      <c r="F116" s="4" t="inlineStr"/>
       <c r="G116" s="4" t="n">
         <v>-9646</v>
       </c>
@@ -32117,16 +31265,8 @@
           <t xml:space="preserve">元大台灣50反1   </t>
         </is>
       </c>
-      <c r="E117" s="4" t="inlineStr">
-        <is>
-          <t>16.77</t>
-        </is>
-      </c>
-      <c r="F117" s="4" t="inlineStr">
-        <is>
-          <t>-0.09</t>
-        </is>
-      </c>
+      <c r="E117" s="4" t="inlineStr"/>
+      <c r="F117" s="4" t="inlineStr"/>
       <c r="G117" s="4" t="n">
         <v>-8748</v>
       </c>
@@ -32150,16 +31290,8 @@
           <t xml:space="preserve">燿華            </t>
         </is>
       </c>
-      <c r="E118" s="4" t="inlineStr">
-        <is>
-          <t>26.15</t>
-        </is>
-      </c>
-      <c r="F118" s="4" t="inlineStr">
-        <is>
-          <t>-1.65</t>
-        </is>
-      </c>
+      <c r="E118" s="4" t="inlineStr"/>
+      <c r="F118" s="4" t="inlineStr"/>
       <c r="G118" s="4" t="n">
         <v>-8527</v>
       </c>
@@ -32183,16 +31315,8 @@
           <t xml:space="preserve">南亞            </t>
         </is>
       </c>
-      <c r="E119" s="4" t="inlineStr">
-        <is>
-          <t>61.40</t>
-        </is>
-      </c>
-      <c r="F119" s="4" t="inlineStr">
-        <is>
-          <t>-0.7</t>
-        </is>
-      </c>
+      <c r="E119" s="4" t="inlineStr"/>
+      <c r="F119" s="4" t="inlineStr"/>
       <c r="G119" s="4" t="n">
         <v>-8087</v>
       </c>
@@ -32216,11 +31340,7 @@
           <t xml:space="preserve">第一金          </t>
         </is>
       </c>
-      <c r="E120" s="4" t="inlineStr">
-        <is>
-          <t>27.95</t>
-        </is>
-      </c>
+      <c r="E120" s="4" t="inlineStr"/>
       <c r="F120" s="4" t="inlineStr"/>
       <c r="G120" s="4" t="n">
         <v>-7941</v>
@@ -32245,16 +31365,8 @@
           <t xml:space="preserve">華新            </t>
         </is>
       </c>
-      <c r="E121" s="4" t="inlineStr">
-        <is>
-          <t>29.90</t>
-        </is>
-      </c>
-      <c r="F121" s="4" t="inlineStr">
-        <is>
-          <t>-0.8</t>
-        </is>
-      </c>
+      <c r="E121" s="4" t="inlineStr"/>
+      <c r="F121" s="4" t="inlineStr"/>
       <c r="G121" s="4" t="n">
         <v>-7387</v>
       </c>
@@ -32278,16 +31390,8 @@
           <t xml:space="preserve">大成鋼          </t>
         </is>
       </c>
-      <c r="E122" s="4" t="inlineStr">
-        <is>
-          <t>36.55</t>
-        </is>
-      </c>
-      <c r="F122" s="4" t="inlineStr">
-        <is>
-          <t>-0.5</t>
-        </is>
-      </c>
+      <c r="E122" s="4" t="inlineStr"/>
+      <c r="F122" s="4" t="inlineStr"/>
       <c r="G122" s="4" t="n">
         <v>-6973</v>
       </c>
@@ -32311,16 +31415,8 @@
           <t xml:space="preserve">華航            </t>
         </is>
       </c>
-      <c r="E123" s="4" t="inlineStr">
-        <is>
-          <t>18.90</t>
-        </is>
-      </c>
-      <c r="F123" s="4" t="inlineStr">
-        <is>
-          <t>+0.3</t>
-        </is>
-      </c>
+      <c r="E123" s="4" t="inlineStr"/>
+      <c r="F123" s="4" t="inlineStr"/>
       <c r="G123" s="4" t="n">
         <v>-6742</v>
       </c>
@@ -32344,16 +31440,8 @@
           <t xml:space="preserve">臺企銀          </t>
         </is>
       </c>
-      <c r="E124" s="4" t="inlineStr">
-        <is>
-          <t>15.90</t>
-        </is>
-      </c>
-      <c r="F124" s="4" t="inlineStr">
-        <is>
-          <t>-0.2</t>
-        </is>
-      </c>
+      <c r="E124" s="4" t="inlineStr"/>
+      <c r="F124" s="4" t="inlineStr"/>
       <c r="G124" s="4" t="n">
         <v>-6244</v>
       </c>
@@ -32377,16 +31465,8 @@
           <t xml:space="preserve">南茂            </t>
         </is>
       </c>
-      <c r="E125" s="4" t="inlineStr">
-        <is>
-          <t>45.50</t>
-        </is>
-      </c>
-      <c r="F125" s="4" t="inlineStr">
-        <is>
-          <t>-1.8</t>
-        </is>
-      </c>
+      <c r="E125" s="4" t="inlineStr"/>
+      <c r="F125" s="4" t="inlineStr"/>
       <c r="G125" s="4" t="n">
         <v>-5914</v>
       </c>
@@ -32410,16 +31490,8 @@
           <t xml:space="preserve">元大金          </t>
         </is>
       </c>
-      <c r="E126" s="4" t="inlineStr">
-        <is>
-          <t>37.40</t>
-        </is>
-      </c>
-      <c r="F126" s="4" t="inlineStr">
-        <is>
-          <t>-0.8</t>
-        </is>
-      </c>
+      <c r="E126" s="4" t="inlineStr"/>
+      <c r="F126" s="4" t="inlineStr"/>
       <c r="G126" s="4" t="n">
         <v>-5530</v>
       </c>
@@ -32443,16 +31515,8 @@
           <t xml:space="preserve">康舒            </t>
         </is>
       </c>
-      <c r="E127" s="4" t="inlineStr">
-        <is>
-          <t>40.85</t>
-        </is>
-      </c>
-      <c r="F127" s="4" t="inlineStr">
-        <is>
-          <t>+0.75</t>
-        </is>
-      </c>
+      <c r="E127" s="4" t="inlineStr"/>
+      <c r="F127" s="4" t="inlineStr"/>
       <c r="G127" s="4" t="n">
         <v>-5338</v>
       </c>
@@ -32476,16 +31540,8 @@
           <t xml:space="preserve">中鼎            </t>
         </is>
       </c>
-      <c r="E128" s="4" t="inlineStr">
-        <is>
-          <t>32.00</t>
-        </is>
-      </c>
-      <c r="F128" s="4" t="inlineStr">
-        <is>
-          <t>-1.8</t>
-        </is>
-      </c>
+      <c r="E128" s="4" t="inlineStr"/>
+      <c r="F128" s="4" t="inlineStr"/>
       <c r="G128" s="4" t="n">
         <v>-4728</v>
       </c>
@@ -32509,16 +31565,8 @@
           <t xml:space="preserve">緯創            </t>
         </is>
       </c>
-      <c r="E129" s="4" t="inlineStr">
-        <is>
-          <t>147.50</t>
-        </is>
-      </c>
-      <c r="F129" s="4" t="inlineStr">
-        <is>
-          <t>-2.0</t>
-        </is>
-      </c>
+      <c r="E129" s="4" t="inlineStr"/>
+      <c r="F129" s="4" t="inlineStr"/>
       <c r="G129" s="4" t="n">
         <v>-4545</v>
       </c>
@@ -32542,16 +31590,8 @@
           <t xml:space="preserve">宏達電          </t>
         </is>
       </c>
-      <c r="E130" s="4" t="inlineStr">
-        <is>
-          <t>50.90</t>
-        </is>
-      </c>
-      <c r="F130" s="4" t="inlineStr">
-        <is>
-          <t>-0.9</t>
-        </is>
-      </c>
+      <c r="E130" s="4" t="inlineStr"/>
+      <c r="F130" s="4" t="inlineStr"/>
       <c r="G130" s="4" t="n">
         <v>-4462</v>
       </c>
@@ -32575,16 +31615,8 @@
           <t xml:space="preserve">大亞            </t>
         </is>
       </c>
-      <c r="E131" s="4" t="inlineStr">
-        <is>
-          <t>38.00</t>
-        </is>
-      </c>
-      <c r="F131" s="4" t="inlineStr">
-        <is>
-          <t>-1.25</t>
-        </is>
-      </c>
+      <c r="E131" s="4" t="inlineStr"/>
+      <c r="F131" s="4" t="inlineStr"/>
       <c r="G131" s="4" t="n">
         <v>-3759</v>
       </c>
@@ -32608,16 +31640,8 @@
           <t xml:space="preserve">景碩            </t>
         </is>
       </c>
-      <c r="E132" s="4" t="inlineStr">
-        <is>
-          <t>152.50</t>
-        </is>
-      </c>
-      <c r="F132" s="4" t="inlineStr">
-        <is>
-          <t>-7.0</t>
-        </is>
-      </c>
+      <c r="E132" s="4" t="inlineStr"/>
+      <c r="F132" s="4" t="inlineStr"/>
       <c r="G132" s="4" t="n">
         <v>-3660</v>
       </c>
@@ -32641,16 +31665,8 @@
           <t>大華優利高填息30</t>
         </is>
       </c>
-      <c r="E133" s="4" t="inlineStr">
-        <is>
-          <t>22.81</t>
-        </is>
-      </c>
-      <c r="F133" s="4" t="inlineStr">
-        <is>
-          <t>+0.09</t>
-        </is>
-      </c>
+      <c r="E133" s="4" t="inlineStr"/>
+      <c r="F133" s="4" t="inlineStr"/>
       <c r="G133" s="4" t="n">
         <v>-3625</v>
       </c>
@@ -32674,16 +31690,8 @@
           <t xml:space="preserve">國票金          </t>
         </is>
       </c>
-      <c r="E134" s="4" t="inlineStr">
-        <is>
-          <t>16.15</t>
-        </is>
-      </c>
-      <c r="F134" s="4" t="inlineStr">
-        <is>
-          <t>-0.3</t>
-        </is>
-      </c>
+      <c r="E134" s="4" t="inlineStr"/>
+      <c r="F134" s="4" t="inlineStr"/>
       <c r="G134" s="4" t="n">
         <v>-3565</v>
       </c>
@@ -32707,16 +31715,8 @@
           <t xml:space="preserve">可寧衛*         </t>
         </is>
       </c>
-      <c r="E135" s="4" t="inlineStr">
-        <is>
-          <t>22.15</t>
-        </is>
-      </c>
-      <c r="F135" s="4" t="inlineStr">
-        <is>
-          <t>-0.15</t>
-        </is>
-      </c>
+      <c r="E135" s="4" t="inlineStr"/>
+      <c r="F135" s="4" t="inlineStr"/>
       <c r="G135" s="4" t="n">
         <v>-3472</v>
       </c>
@@ -32740,16 +31740,8 @@
           <t xml:space="preserve">金寶            </t>
         </is>
       </c>
-      <c r="E136" s="4" t="inlineStr">
-        <is>
-          <t>22.10</t>
-        </is>
-      </c>
-      <c r="F136" s="4" t="inlineStr">
-        <is>
-          <t>-0.9</t>
-        </is>
-      </c>
+      <c r="E136" s="4" t="inlineStr"/>
+      <c r="F136" s="4" t="inlineStr"/>
       <c r="G136" s="4" t="n">
         <v>-3396</v>
       </c>
@@ -32773,16 +31765,8 @@
           <t xml:space="preserve">中鋼            </t>
         </is>
       </c>
-      <c r="E137" s="4" t="inlineStr">
-        <is>
-          <t>18.30</t>
-        </is>
-      </c>
-      <c r="F137" s="4" t="inlineStr">
-        <is>
-          <t>-0.15</t>
-        </is>
-      </c>
+      <c r="E137" s="4" t="inlineStr"/>
+      <c r="F137" s="4" t="inlineStr"/>
       <c r="G137" s="4" t="n">
         <v>-3385</v>
       </c>
@@ -32806,16 +31790,8 @@
           <t xml:space="preserve">榮科            </t>
         </is>
       </c>
-      <c r="E138" s="4" t="inlineStr">
-        <is>
-          <t>43.65</t>
-        </is>
-      </c>
-      <c r="F138" s="4" t="inlineStr">
-        <is>
-          <t>-2.2</t>
-        </is>
-      </c>
+      <c r="E138" s="4" t="inlineStr"/>
+      <c r="F138" s="4" t="inlineStr"/>
       <c r="G138" s="4" t="n">
         <v>-3067</v>
       </c>
@@ -32839,16 +31815,8 @@
           <t xml:space="preserve">中石化          </t>
         </is>
       </c>
-      <c r="E139" s="4" t="inlineStr">
-        <is>
-          <t>7.72</t>
-        </is>
-      </c>
-      <c r="F139" s="4" t="inlineStr">
-        <is>
-          <t>-0.09</t>
-        </is>
-      </c>
+      <c r="E139" s="4" t="inlineStr"/>
+      <c r="F139" s="4" t="inlineStr"/>
       <c r="G139" s="4" t="n">
         <v>-3066</v>
       </c>
@@ -32872,16 +31840,8 @@
           <t xml:space="preserve">中工            </t>
         </is>
       </c>
-      <c r="E140" s="4" t="inlineStr">
-        <is>
-          <t>12.80</t>
-        </is>
-      </c>
-      <c r="F140" s="4" t="inlineStr">
-        <is>
-          <t>-0.45</t>
-        </is>
-      </c>
+      <c r="E140" s="4" t="inlineStr"/>
+      <c r="F140" s="4" t="inlineStr"/>
       <c r="G140" s="4" t="n">
         <v>-3004</v>
       </c>
@@ -32905,16 +31865,8 @@
           <t xml:space="preserve">台聚            </t>
         </is>
       </c>
-      <c r="E141" s="4" t="inlineStr">
-        <is>
-          <t>11.40</t>
-        </is>
-      </c>
-      <c r="F141" s="4" t="inlineStr">
-        <is>
-          <t>-0.5</t>
-        </is>
-      </c>
+      <c r="E141" s="4" t="inlineStr"/>
+      <c r="F141" s="4" t="inlineStr"/>
       <c r="G141" s="4" t="n">
         <v>-2997</v>
       </c>
@@ -32938,16 +31890,8 @@
           <t xml:space="preserve">鴻海            </t>
         </is>
       </c>
-      <c r="E142" s="4" t="inlineStr">
-        <is>
-          <t>233.50</t>
-        </is>
-      </c>
-      <c r="F142" s="4" t="inlineStr">
-        <is>
-          <t>-1.5</t>
-        </is>
-      </c>
+      <c r="E142" s="4" t="inlineStr"/>
+      <c r="F142" s="4" t="inlineStr"/>
       <c r="G142" s="4" t="n">
         <v>-2962</v>
       </c>
@@ -32971,16 +31915,8 @@
           <t xml:space="preserve">群創            </t>
         </is>
       </c>
-      <c r="E143" s="4" t="inlineStr">
-        <is>
-          <t>13.85</t>
-        </is>
-      </c>
-      <c r="F143" s="4" t="inlineStr">
-        <is>
-          <t>-0.1</t>
-        </is>
-      </c>
+      <c r="E143" s="4" t="inlineStr"/>
+      <c r="F143" s="4" t="inlineStr"/>
       <c r="G143" s="4" t="n">
         <v>-2871</v>
       </c>
@@ -33004,16 +31940,8 @@
           <t xml:space="preserve">兆赫            </t>
         </is>
       </c>
-      <c r="E144" s="4" t="inlineStr">
-        <is>
-          <t>25.85</t>
-        </is>
-      </c>
-      <c r="F144" s="4" t="inlineStr">
-        <is>
-          <t>-1.7</t>
-        </is>
-      </c>
+      <c r="E144" s="4" t="inlineStr"/>
+      <c r="F144" s="4" t="inlineStr"/>
       <c r="G144" s="4" t="n">
         <v>-2864</v>
       </c>
@@ -33037,16 +31965,8 @@
           <t xml:space="preserve">至上            </t>
         </is>
       </c>
-      <c r="E145" s="4" t="inlineStr">
-        <is>
-          <t>71.60</t>
-        </is>
-      </c>
-      <c r="F145" s="4" t="inlineStr">
-        <is>
-          <t>-3.3</t>
-        </is>
-      </c>
+      <c r="E145" s="4" t="inlineStr"/>
+      <c r="F145" s="4" t="inlineStr"/>
       <c r="G145" s="4" t="n">
         <v>-2789</v>
       </c>
@@ -33070,16 +31990,8 @@
           <t xml:space="preserve">新興            </t>
         </is>
       </c>
-      <c r="E146" s="4" t="inlineStr">
-        <is>
-          <t>26.45</t>
-        </is>
-      </c>
-      <c r="F146" s="4" t="inlineStr">
-        <is>
-          <t>-1.45</t>
-        </is>
-      </c>
+      <c r="E146" s="4" t="inlineStr"/>
+      <c r="F146" s="4" t="inlineStr"/>
       <c r="G146" s="4" t="n">
         <v>-2765</v>
       </c>
@@ -33103,16 +32015,8 @@
           <t xml:space="preserve">慧洋-KY         </t>
         </is>
       </c>
-      <c r="E147" s="4" t="inlineStr">
-        <is>
-          <t>66.40</t>
-        </is>
-      </c>
-      <c r="F147" s="4" t="inlineStr">
-        <is>
-          <t>-2.8</t>
-        </is>
-      </c>
+      <c r="E147" s="4" t="inlineStr"/>
+      <c r="F147" s="4" t="inlineStr"/>
       <c r="G147" s="4" t="n">
         <v>-2492</v>
       </c>
@@ -33136,16 +32040,8 @@
           <t xml:space="preserve">聯成            </t>
         </is>
       </c>
-      <c r="E148" s="4" t="inlineStr">
-        <is>
-          <t>10.60</t>
-        </is>
-      </c>
-      <c r="F148" s="4" t="inlineStr">
-        <is>
-          <t>-0.6</t>
-        </is>
-      </c>
+      <c r="E148" s="4" t="inlineStr"/>
+      <c r="F148" s="4" t="inlineStr"/>
       <c r="G148" s="4" t="n">
         <v>-2433</v>
       </c>
@@ -33169,16 +32065,8 @@
           <t xml:space="preserve">東陽            </t>
         </is>
       </c>
-      <c r="E149" s="4" t="inlineStr">
-        <is>
-          <t>90.20</t>
-        </is>
-      </c>
-      <c r="F149" s="4" t="inlineStr">
-        <is>
-          <t>-1.7</t>
-        </is>
-      </c>
+      <c r="E149" s="4" t="inlineStr"/>
+      <c r="F149" s="4" t="inlineStr"/>
       <c r="G149" s="4" t="n">
         <v>-2237</v>
       </c>
@@ -33202,11 +32090,7 @@
           <t xml:space="preserve">台灣大          </t>
         </is>
       </c>
-      <c r="E150" s="4" t="inlineStr">
-        <is>
-          <t>104.50</t>
-        </is>
-      </c>
+      <c r="E150" s="4" t="inlineStr"/>
       <c r="F150" s="4" t="inlineStr"/>
       <c r="G150" s="4" t="n">
         <v>-2226</v>
@@ -33231,16 +32115,8 @@
           <t xml:space="preserve">微星            </t>
         </is>
       </c>
-      <c r="E151" s="4" t="inlineStr">
-        <is>
-          <t>98.60</t>
-        </is>
-      </c>
-      <c r="F151" s="4" t="inlineStr">
-        <is>
-          <t>-0.9</t>
-        </is>
-      </c>
+      <c r="E151" s="4" t="inlineStr"/>
+      <c r="F151" s="4" t="inlineStr"/>
       <c r="G151" s="4" t="n">
         <v>-2218</v>
       </c>
@@ -33264,16 +32140,8 @@
           <t xml:space="preserve">大聯大          </t>
         </is>
       </c>
-      <c r="E152" s="4" t="inlineStr">
-        <is>
-          <t>64.00</t>
-        </is>
-      </c>
-      <c r="F152" s="4" t="inlineStr">
-        <is>
-          <t>-1.6</t>
-        </is>
-      </c>
+      <c r="E152" s="4" t="inlineStr"/>
+      <c r="F152" s="4" t="inlineStr"/>
       <c r="G152" s="4" t="n">
         <v>-2160</v>
       </c>
@@ -33297,16 +32165,8 @@
           <t xml:space="preserve">新纖            </t>
         </is>
       </c>
-      <c r="E153" s="4" t="inlineStr">
-        <is>
-          <t>14.70</t>
-        </is>
-      </c>
-      <c r="F153" s="4" t="inlineStr">
-        <is>
-          <t>-0.5</t>
-        </is>
-      </c>
+      <c r="E153" s="4" t="inlineStr"/>
+      <c r="F153" s="4" t="inlineStr"/>
       <c r="G153" s="4" t="n">
         <v>-2145</v>
       </c>
@@ -33330,16 +32190,8 @@
           <t xml:space="preserve">彰銀            </t>
         </is>
       </c>
-      <c r="E154" s="4" t="inlineStr">
-        <is>
-          <t>20.35</t>
-        </is>
-      </c>
-      <c r="F154" s="4" t="inlineStr">
-        <is>
-          <t>-0.2</t>
-        </is>
-      </c>
+      <c r="E154" s="4" t="inlineStr"/>
+      <c r="F154" s="4" t="inlineStr"/>
       <c r="G154" s="4" t="n">
         <v>-2135</v>
       </c>
@@ -33363,16 +32215,8 @@
           <t xml:space="preserve">國際中橡        </t>
         </is>
       </c>
-      <c r="E155" s="4" t="inlineStr">
-        <is>
-          <t>11.30</t>
-        </is>
-      </c>
-      <c r="F155" s="4" t="inlineStr">
-        <is>
-          <t>-0.5</t>
-        </is>
-      </c>
+      <c r="E155" s="4" t="inlineStr"/>
+      <c r="F155" s="4" t="inlineStr"/>
       <c r="G155" s="4" t="n">
         <v>-2116</v>
       </c>
@@ -33396,16 +32240,8 @@
           <t xml:space="preserve">事欣科          </t>
         </is>
       </c>
-      <c r="E156" s="4" t="inlineStr">
-        <is>
-          <t>52.20</t>
-        </is>
-      </c>
-      <c r="F156" s="4" t="inlineStr">
-        <is>
-          <t>+1.5</t>
-        </is>
-      </c>
+      <c r="E156" s="4" t="inlineStr"/>
+      <c r="F156" s="4" t="inlineStr"/>
       <c r="G156" s="4" t="n">
         <v>-2066</v>
       </c>
@@ -33429,16 +32265,8 @@
           <t xml:space="preserve">裕民            </t>
         </is>
       </c>
-      <c r="E157" s="4" t="inlineStr">
-        <is>
-          <t>60.80</t>
-        </is>
-      </c>
-      <c r="F157" s="4" t="inlineStr">
-        <is>
-          <t>-2.2</t>
-        </is>
-      </c>
+      <c r="E157" s="4" t="inlineStr"/>
+      <c r="F157" s="4" t="inlineStr"/>
       <c r="G157" s="4" t="n">
         <v>-2017</v>
       </c>
@@ -33462,16 +32290,8 @@
           <t xml:space="preserve">恩德            </t>
         </is>
       </c>
-      <c r="E158" s="4" t="inlineStr">
-        <is>
-          <t>16.35</t>
-        </is>
-      </c>
-      <c r="F158" s="4" t="inlineStr">
-        <is>
-          <t>+1.4</t>
-        </is>
-      </c>
+      <c r="E158" s="4" t="inlineStr"/>
+      <c r="F158" s="4" t="inlineStr"/>
       <c r="G158" s="4" t="n">
         <v>-2000</v>
       </c>
@@ -33563,16 +32383,8 @@
           <t xml:space="preserve">元大台灣50      </t>
         </is>
       </c>
-      <c r="D164" s="4" t="inlineStr">
-        <is>
-          <t>64.05</t>
-        </is>
-      </c>
-      <c r="E164" s="4" t="inlineStr">
-        <is>
-          <t>+0.45</t>
-        </is>
-      </c>
+      <c r="D164" s="4" t="inlineStr"/>
+      <c r="E164" s="4" t="inlineStr"/>
       <c r="F164" s="4" t="n">
         <v>25247</v>
       </c>
@@ -33592,16 +32404,8 @@
           <t>富邦特選高股息30</t>
         </is>
       </c>
-      <c r="D165" s="4" t="inlineStr">
-        <is>
-          <t>13.40</t>
-        </is>
-      </c>
-      <c r="E165" s="4" t="inlineStr">
-        <is>
-          <t>+0.03</t>
-        </is>
-      </c>
+      <c r="D165" s="4" t="inlineStr"/>
+      <c r="E165" s="4" t="inlineStr"/>
       <c r="F165" s="4" t="n">
         <v>13571</v>
       </c>
@@ -33621,16 +32425,8 @@
           <t>群益優選非投等債</t>
         </is>
       </c>
-      <c r="D166" s="4" t="inlineStr">
-        <is>
-          <t>9.63</t>
-        </is>
-      </c>
-      <c r="E166" s="4" t="inlineStr">
-        <is>
-          <t>+0.02</t>
-        </is>
-      </c>
+      <c r="D166" s="4" t="inlineStr"/>
+      <c r="E166" s="4" t="inlineStr"/>
       <c r="F166" s="4" t="n">
         <v>9894</v>
       </c>
@@ -33650,16 +32446,8 @@
           <t>復華台灣科技優息</t>
         </is>
       </c>
-      <c r="D167" s="4" t="inlineStr">
-        <is>
-          <t>17.81</t>
-        </is>
-      </c>
-      <c r="E167" s="4" t="inlineStr">
-        <is>
-          <t>+0.05</t>
-        </is>
-      </c>
+      <c r="D167" s="4" t="inlineStr"/>
+      <c r="E167" s="4" t="inlineStr"/>
       <c r="F167" s="4" t="n">
         <v>7047</v>
       </c>
@@ -33679,16 +32467,8 @@
           <t xml:space="preserve">國泰台灣領袖50  </t>
         </is>
       </c>
-      <c r="D168" s="4" t="inlineStr">
-        <is>
-          <t>25.38</t>
-        </is>
-      </c>
-      <c r="E168" s="4" t="inlineStr">
-        <is>
-          <t>+0.19</t>
-        </is>
-      </c>
+      <c r="D168" s="4" t="inlineStr"/>
+      <c r="E168" s="4" t="inlineStr"/>
       <c r="F168" s="4" t="n">
         <v>6736</v>
       </c>
@@ -33708,16 +32488,8 @@
           <t>元大台灣價值高息</t>
         </is>
       </c>
-      <c r="D169" s="4" t="inlineStr">
-        <is>
-          <t>9.21</t>
-        </is>
-      </c>
-      <c r="E169" s="4" t="inlineStr">
-        <is>
-          <t>X0.0</t>
-        </is>
-      </c>
+      <c r="D169" s="4" t="inlineStr"/>
+      <c r="E169" s="4" t="inlineStr"/>
       <c r="F169" s="4" t="n">
         <v>5459</v>
       </c>
@@ -33737,16 +32509,8 @@
           <t>統一台灣高息動能</t>
         </is>
       </c>
-      <c r="D170" s="4" t="inlineStr">
-        <is>
-          <t>14.22</t>
-        </is>
-      </c>
-      <c r="E170" s="4" t="inlineStr">
-        <is>
-          <t>+0.04</t>
-        </is>
-      </c>
+      <c r="D170" s="4" t="inlineStr"/>
+      <c r="E170" s="4" t="inlineStr"/>
       <c r="F170" s="4" t="n">
         <v>5418</v>
       </c>
@@ -33766,16 +32530,8 @@
           <t xml:space="preserve">元大高股息      </t>
         </is>
       </c>
-      <c r="D171" s="4" t="inlineStr">
-        <is>
-          <t>36.59</t>
-        </is>
-      </c>
-      <c r="E171" s="4" t="inlineStr">
-        <is>
-          <t>+0.01</t>
-        </is>
-      </c>
+      <c r="D171" s="4" t="inlineStr"/>
+      <c r="E171" s="4" t="inlineStr"/>
       <c r="F171" s="4" t="n">
         <v>3873</v>
       </c>
@@ -33795,16 +32551,8 @@
           <t xml:space="preserve">富邦台50        </t>
         </is>
       </c>
-      <c r="D172" s="4" t="inlineStr">
-        <is>
-          <t>146.50</t>
-        </is>
-      </c>
-      <c r="E172" s="4" t="inlineStr">
-        <is>
-          <t>+1.05</t>
-        </is>
-      </c>
+      <c r="D172" s="4" t="inlineStr"/>
+      <c r="E172" s="4" t="inlineStr"/>
       <c r="F172" s="4" t="n">
         <v>3782</v>
       </c>
@@ -33824,16 +32572,8 @@
           <t>國泰台灣科技龍頭</t>
         </is>
       </c>
-      <c r="D173" s="4" t="inlineStr">
-        <is>
-          <t>32.16</t>
-        </is>
-      </c>
-      <c r="E173" s="4" t="inlineStr">
-        <is>
-          <t>+0.34</t>
-        </is>
-      </c>
+      <c r="D173" s="4" t="inlineStr"/>
+      <c r="E173" s="4" t="inlineStr"/>
       <c r="F173" s="4" t="n">
         <v>3715</v>
       </c>
@@ -33926,16 +32666,8 @@
           <t>群益台灣精選高息</t>
         </is>
       </c>
-      <c r="D179" s="4" t="inlineStr">
-        <is>
-          <t>21.93</t>
-        </is>
-      </c>
-      <c r="E179" s="4" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
+      <c r="D179" s="4" t="inlineStr"/>
+      <c r="E179" s="4" t="inlineStr"/>
       <c r="F179" s="4" t="n">
         <v>-30025</v>
       </c>
@@ -33955,16 +32687,8 @@
           <t xml:space="preserve">元大台灣50反1   </t>
         </is>
       </c>
-      <c r="D180" s="4" t="inlineStr">
-        <is>
-          <t>16.77</t>
-        </is>
-      </c>
-      <c r="E180" s="4" t="inlineStr">
-        <is>
-          <t>-0.09</t>
-        </is>
-      </c>
+      <c r="D180" s="4" t="inlineStr"/>
+      <c r="E180" s="4" t="inlineStr"/>
       <c r="F180" s="4" t="n">
         <v>-8748</v>
       </c>
@@ -33984,16 +32708,8 @@
           <t>大華優利高填息30</t>
         </is>
       </c>
-      <c r="D181" s="4" t="inlineStr">
-        <is>
-          <t>22.81</t>
-        </is>
-      </c>
-      <c r="E181" s="4" t="inlineStr">
-        <is>
-          <t>+0.09</t>
-        </is>
-      </c>
+      <c r="D181" s="4" t="inlineStr"/>
+      <c r="E181" s="4" t="inlineStr"/>
       <c r="F181" s="4" t="n">
         <v>-3625</v>
       </c>
@@ -34013,16 +32729,8 @@
           <t xml:space="preserve">元大S&amp;P500      </t>
         </is>
       </c>
-      <c r="D182" s="4" t="inlineStr">
-        <is>
-          <t>67.05</t>
-        </is>
-      </c>
-      <c r="E182" s="4" t="inlineStr">
-        <is>
-          <t>+0.1</t>
-        </is>
-      </c>
+      <c r="D182" s="4" t="inlineStr"/>
+      <c r="E182" s="4" t="inlineStr"/>
       <c r="F182" s="4" t="n">
         <v>-1301</v>
       </c>
@@ -34042,16 +32750,8 @@
           <t xml:space="preserve">富邦NASDAQ      </t>
         </is>
       </c>
-      <c r="D183" s="4" t="inlineStr">
-        <is>
-          <t>103.00</t>
-        </is>
-      </c>
-      <c r="E183" s="4" t="inlineStr">
-        <is>
-          <t>+0.3</t>
-        </is>
-      </c>
+      <c r="D183" s="4" t="inlineStr"/>
+      <c r="E183" s="4" t="inlineStr"/>
       <c r="F183" s="4" t="n">
         <v>-871</v>
       </c>

--- a/StockInfo/tse_analysis_result.xlsx
+++ b/StockInfo/tse_analysis_result.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251217" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251216" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251215" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251212" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251211" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="20251217" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="20251216" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="20251215" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="20251212" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="20251211" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/StockInfo/tse_analysis_result.xlsx
+++ b/StockInfo/tse_analysis_result.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="20251217" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="20251216" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="20251215" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="20251212" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="20251211" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251217" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251216" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251215" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251212" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251211" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/StockInfo/tse_analysis_result.xlsx
+++ b/StockInfo/tse_analysis_result.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251218" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251217" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251216" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251215" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251212" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="20251218" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="20251217" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="20251216" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="20251215" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="20251212" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/StockInfo/tse_analysis_result.xlsx
+++ b/StockInfo/tse_analysis_result.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="20251218" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="20251217" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="20251216" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="20251215" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="20251212" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251218" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251217" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251216" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251215" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251212" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/StockInfo/tse_analysis_result.xlsx
+++ b/StockInfo/tse_analysis_result.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251219" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251218" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251217" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251216" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251215" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="20251219" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="20251218" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="20251217" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="20251216" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="20251215" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/StockInfo/tse_analysis_result.xlsx
+++ b/StockInfo/tse_analysis_result.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="20251219" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="20251218" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="20251217" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="20251216" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="20251215" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251219" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251218" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251217" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251216" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251215" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/StockInfo/tse_analysis_result.xlsx
+++ b/StockInfo/tse_analysis_result.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251230" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251229" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251226" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251224" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251223" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="20251230" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="20251229" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="20251226" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="20251224" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="20251223" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/StockInfo/tse_analysis_result.xlsx
+++ b/StockInfo/tse_analysis_result.xlsx
@@ -28247,16 +28247,8 @@
           <t xml:space="preserve">華邦電          </t>
         </is>
       </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>76.90</t>
-        </is>
-      </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t>+3.9</t>
-        </is>
-      </c>
+      <c r="E4" s="4" t="inlineStr"/>
+      <c r="F4" s="4" t="inlineStr"/>
       <c r="G4" s="4" t="n">
         <v>74372</v>
       </c>
@@ -28280,16 +28272,8 @@
           <t xml:space="preserve">台新新光金      </t>
         </is>
       </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t>20.75</t>
-        </is>
-      </c>
-      <c r="F5" s="4" t="inlineStr">
-        <is>
-          <t>-0.15</t>
-        </is>
-      </c>
+      <c r="E5" s="4" t="inlineStr"/>
+      <c r="F5" s="4" t="inlineStr"/>
       <c r="G5" s="4" t="n">
         <v>49189</v>
       </c>
@@ -28313,16 +28297,8 @@
           <t xml:space="preserve">力積電          </t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>40.40</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>+1.4</t>
-        </is>
-      </c>
+      <c r="E6" s="4" t="inlineStr"/>
+      <c r="F6" s="4" t="inlineStr"/>
       <c r="G6" s="4" t="n">
         <v>41265</v>
       </c>
@@ -28346,16 +28322,8 @@
           <t>群益台灣精選高息</t>
         </is>
       </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>22.50</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>+0.04</t>
-        </is>
-      </c>
+      <c r="E7" s="4" t="inlineStr"/>
+      <c r="F7" s="4" t="inlineStr"/>
       <c r="G7" s="4" t="n">
         <v>38743</v>
       </c>
@@ -28379,16 +28347,8 @@
           <t xml:space="preserve">元大台灣50      </t>
         </is>
       </c>
-      <c r="E8" s="4" t="inlineStr">
-        <is>
-          <t>63.85</t>
-        </is>
-      </c>
-      <c r="F8" s="4" t="inlineStr">
-        <is>
-          <t>+0.15</t>
-        </is>
-      </c>
+      <c r="E8" s="4" t="inlineStr"/>
+      <c r="F8" s="4" t="inlineStr"/>
       <c r="G8" s="4" t="n">
         <v>32639</v>
       </c>
@@ -28412,16 +28372,8 @@
           <t xml:space="preserve">陽明            </t>
         </is>
       </c>
-      <c r="E9" s="4" t="inlineStr">
-        <is>
-          <t>55.30</t>
-        </is>
-      </c>
-      <c r="F9" s="4" t="inlineStr">
-        <is>
-          <t>+2.5</t>
-        </is>
-      </c>
+      <c r="E9" s="4" t="inlineStr"/>
+      <c r="F9" s="4" t="inlineStr"/>
       <c r="G9" s="4" t="n">
         <v>26583</v>
       </c>
@@ -28445,16 +28397,8 @@
           <t xml:space="preserve">華新            </t>
         </is>
       </c>
-      <c r="E10" s="4" t="inlineStr">
-        <is>
-          <t>31.65</t>
-        </is>
-      </c>
-      <c r="F10" s="4" t="inlineStr">
-        <is>
-          <t>+1.1</t>
-        </is>
-      </c>
+      <c r="E10" s="4" t="inlineStr"/>
+      <c r="F10" s="4" t="inlineStr"/>
       <c r="G10" s="4" t="n">
         <v>23601</v>
       </c>
@@ -28478,16 +28422,8 @@
           <t xml:space="preserve">南亞科          </t>
         </is>
       </c>
-      <c r="E11" s="4" t="inlineStr">
-        <is>
-          <t>189.00</t>
-        </is>
-      </c>
-      <c r="F11" s="4" t="inlineStr">
-        <is>
-          <t>+12.5</t>
-        </is>
-      </c>
+      <c r="E11" s="4" t="inlineStr"/>
+      <c r="F11" s="4" t="inlineStr"/>
       <c r="G11" s="4" t="n">
         <v>21087</v>
       </c>
@@ -28511,16 +28447,8 @@
           <t xml:space="preserve">玉山金          </t>
         </is>
       </c>
-      <c r="E12" s="4" t="inlineStr">
-        <is>
-          <t>33.95</t>
-        </is>
-      </c>
-      <c r="F12" s="4" t="inlineStr">
-        <is>
-          <t>+0.4</t>
-        </is>
-      </c>
+      <c r="E12" s="4" t="inlineStr"/>
+      <c r="F12" s="4" t="inlineStr"/>
       <c r="G12" s="4" t="n">
         <v>17597</v>
       </c>
@@ -28544,16 +28472,8 @@
           <t xml:space="preserve">三商壽          </t>
         </is>
       </c>
-      <c r="E13" s="4" t="inlineStr">
-        <is>
-          <t>7.96</t>
-        </is>
-      </c>
-      <c r="F13" s="4" t="inlineStr">
-        <is>
-          <t>+0.08</t>
-        </is>
-      </c>
+      <c r="E13" s="4" t="inlineStr"/>
+      <c r="F13" s="4" t="inlineStr"/>
       <c r="G13" s="4" t="n">
         <v>12460</v>
       </c>
@@ -28577,16 +28497,8 @@
           <t xml:space="preserve">國泰永續高股息  </t>
         </is>
       </c>
-      <c r="E14" s="4" t="inlineStr">
-        <is>
-          <t>21.60</t>
-        </is>
-      </c>
-      <c r="F14" s="4" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
+      <c r="E14" s="4" t="inlineStr"/>
+      <c r="F14" s="4" t="inlineStr"/>
       <c r="G14" s="4" t="n">
         <v>12023</v>
       </c>
@@ -28610,16 +28522,8 @@
           <t xml:space="preserve">晶豪科          </t>
         </is>
       </c>
-      <c r="E15" s="4" t="inlineStr">
-        <is>
-          <t>96.40</t>
-        </is>
-      </c>
-      <c r="F15" s="4" t="inlineStr">
-        <is>
-          <t>+8.7</t>
-        </is>
-      </c>
+      <c r="E15" s="4" t="inlineStr"/>
+      <c r="F15" s="4" t="inlineStr"/>
       <c r="G15" s="4" t="n">
         <v>9751</v>
       </c>
@@ -28643,16 +28547,8 @@
           <t xml:space="preserve">旺宏            </t>
         </is>
       </c>
-      <c r="E16" s="4" t="inlineStr">
-        <is>
-          <t>38.95</t>
-        </is>
-      </c>
-      <c r="F16" s="4" t="inlineStr">
-        <is>
-          <t>+0.45</t>
-        </is>
-      </c>
+      <c r="E16" s="4" t="inlineStr"/>
+      <c r="F16" s="4" t="inlineStr"/>
       <c r="G16" s="4" t="n">
         <v>8655</v>
       </c>
@@ -28676,16 +28572,8 @@
           <t xml:space="preserve">台灣大          </t>
         </is>
       </c>
-      <c r="E17" s="4" t="inlineStr">
-        <is>
-          <t>108.50</t>
-        </is>
-      </c>
-      <c r="F17" s="4" t="inlineStr">
-        <is>
-          <t>+2.0</t>
-        </is>
-      </c>
+      <c r="E17" s="4" t="inlineStr"/>
+      <c r="F17" s="4" t="inlineStr"/>
       <c r="G17" s="4" t="n">
         <v>7136</v>
       </c>
@@ -28709,16 +28597,8 @@
           <t>元大台灣價值高息</t>
         </is>
       </c>
-      <c r="E18" s="4" t="inlineStr">
-        <is>
-          <t>9.24</t>
-        </is>
-      </c>
-      <c r="F18" s="4" t="inlineStr">
-        <is>
-          <t>+0.01</t>
-        </is>
-      </c>
+      <c r="E18" s="4" t="inlineStr"/>
+      <c r="F18" s="4" t="inlineStr"/>
       <c r="G18" s="4" t="n">
         <v>7025</v>
       </c>
@@ -28742,16 +28622,8 @@
           <t xml:space="preserve">緯創            </t>
         </is>
       </c>
-      <c r="E19" s="4" t="inlineStr">
-        <is>
-          <t>145.50</t>
-        </is>
-      </c>
-      <c r="F19" s="4" t="inlineStr">
-        <is>
-          <t>+0.5</t>
-        </is>
-      </c>
+      <c r="E19" s="4" t="inlineStr"/>
+      <c r="F19" s="4" t="inlineStr"/>
       <c r="G19" s="4" t="n">
         <v>6185</v>
       </c>
@@ -28775,16 +28647,8 @@
           <t>復華台灣科技優息</t>
         </is>
       </c>
-      <c r="E20" s="4" t="inlineStr">
-        <is>
-          <t>17.88</t>
-        </is>
-      </c>
-      <c r="F20" s="4" t="inlineStr">
-        <is>
-          <t>+0.07</t>
-        </is>
-      </c>
+      <c r="E20" s="4" t="inlineStr"/>
+      <c r="F20" s="4" t="inlineStr"/>
       <c r="G20" s="4" t="n">
         <v>5841</v>
       </c>
@@ -28808,16 +28672,8 @@
           <t>富邦特選高股息30</t>
         </is>
       </c>
-      <c r="E21" s="4" t="inlineStr">
-        <is>
-          <t>13.67</t>
-        </is>
-      </c>
-      <c r="F21" s="4" t="inlineStr">
-        <is>
-          <t>+0.06</t>
-        </is>
-      </c>
+      <c r="E21" s="4" t="inlineStr"/>
+      <c r="F21" s="4" t="inlineStr"/>
       <c r="G21" s="4" t="n">
         <v>5827</v>
       </c>
@@ -28841,16 +28697,8 @@
           <t>大華優利高填息30</t>
         </is>
       </c>
-      <c r="E22" s="4" t="inlineStr">
-        <is>
-          <t>22.46</t>
-        </is>
-      </c>
-      <c r="F22" s="4" t="inlineStr">
-        <is>
-          <t>+0.04</t>
-        </is>
-      </c>
+      <c r="E22" s="4" t="inlineStr"/>
+      <c r="F22" s="4" t="inlineStr"/>
       <c r="G22" s="4" t="n">
         <v>4457</v>
       </c>
@@ -28874,16 +28722,8 @@
           <t xml:space="preserve">國泰台灣領袖50  </t>
         </is>
       </c>
-      <c r="E23" s="4" t="inlineStr">
-        <is>
-          <t>25.32</t>
-        </is>
-      </c>
-      <c r="F23" s="4" t="inlineStr">
-        <is>
-          <t>+0.03</t>
-        </is>
-      </c>
+      <c r="E23" s="4" t="inlineStr"/>
+      <c r="F23" s="4" t="inlineStr"/>
       <c r="G23" s="4" t="n">
         <v>3490</v>
       </c>
@@ -28907,16 +28747,8 @@
           <t xml:space="preserve">富邦NASDAQ      </t>
         </is>
       </c>
-      <c r="E24" s="4" t="inlineStr">
-        <is>
-          <t>103.10</t>
-        </is>
-      </c>
-      <c r="F24" s="4" t="inlineStr">
-        <is>
-          <t>-0.05</t>
-        </is>
-      </c>
+      <c r="E24" s="4" t="inlineStr"/>
+      <c r="F24" s="4" t="inlineStr"/>
       <c r="G24" s="4" t="n">
         <v>3478</v>
       </c>
@@ -28940,16 +28772,8 @@
           <t>統一台灣高息動能</t>
         </is>
       </c>
-      <c r="E25" s="4" t="inlineStr">
-        <is>
-          <t>14.62</t>
-        </is>
-      </c>
-      <c r="F25" s="4" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
+      <c r="E25" s="4" t="inlineStr"/>
+      <c r="F25" s="4" t="inlineStr"/>
       <c r="G25" s="4" t="n">
         <v>3282</v>
       </c>
@@ -28973,16 +28797,8 @@
           <t xml:space="preserve">裕隆            </t>
         </is>
       </c>
-      <c r="E26" s="4" t="inlineStr">
-        <is>
-          <t>34.90</t>
-        </is>
-      </c>
-      <c r="F26" s="4" t="inlineStr">
-        <is>
-          <t>+1.1</t>
-        </is>
-      </c>
+      <c r="E26" s="4" t="inlineStr"/>
+      <c r="F26" s="4" t="inlineStr"/>
       <c r="G26" s="4" t="n">
         <v>3172</v>
       </c>
@@ -29006,16 +28822,8 @@
           <t xml:space="preserve">長榮            </t>
         </is>
       </c>
-      <c r="E27" s="4" t="inlineStr">
-        <is>
-          <t>188.50</t>
-        </is>
-      </c>
-      <c r="F27" s="4" t="inlineStr">
-        <is>
-          <t>+2.5</t>
-        </is>
-      </c>
+      <c r="E27" s="4" t="inlineStr"/>
+      <c r="F27" s="4" t="inlineStr"/>
       <c r="G27" s="4" t="n">
         <v>3135</v>
       </c>
@@ -29039,16 +28847,8 @@
           <t xml:space="preserve">康舒            </t>
         </is>
       </c>
-      <c r="E28" s="4" t="inlineStr">
-        <is>
-          <t>40.90</t>
-        </is>
-      </c>
-      <c r="F28" s="4" t="inlineStr">
-        <is>
-          <t>-0.2</t>
-        </is>
-      </c>
+      <c r="E28" s="4" t="inlineStr"/>
+      <c r="F28" s="4" t="inlineStr"/>
       <c r="G28" s="4" t="n">
         <v>3102</v>
       </c>
@@ -29072,16 +28872,8 @@
           <t xml:space="preserve">華泰            </t>
         </is>
       </c>
-      <c r="E29" s="4" t="inlineStr">
-        <is>
-          <t>51.50</t>
-        </is>
-      </c>
-      <c r="F29" s="4" t="inlineStr">
-        <is>
-          <t>+1.2</t>
-        </is>
-      </c>
+      <c r="E29" s="4" t="inlineStr"/>
+      <c r="F29" s="4" t="inlineStr"/>
       <c r="G29" s="4" t="n">
         <v>2998</v>
       </c>
@@ -29105,16 +28897,8 @@
           <t xml:space="preserve">統一            </t>
         </is>
       </c>
-      <c r="E30" s="4" t="inlineStr">
-        <is>
-          <t>78.40</t>
-        </is>
-      </c>
-      <c r="F30" s="4" t="inlineStr">
-        <is>
-          <t>+1.1</t>
-        </is>
-      </c>
+      <c r="E30" s="4" t="inlineStr"/>
+      <c r="F30" s="4" t="inlineStr"/>
       <c r="G30" s="4" t="n">
         <v>2967</v>
       </c>
@@ -29138,11 +28922,7 @@
           <t xml:space="preserve">華航            </t>
         </is>
       </c>
-      <c r="E31" s="4" t="inlineStr">
-        <is>
-          <t>19.90</t>
-        </is>
-      </c>
+      <c r="E31" s="4" t="inlineStr"/>
       <c r="F31" s="4" t="inlineStr"/>
       <c r="G31" s="4" t="n">
         <v>2949</v>
@@ -29167,11 +28947,7 @@
           <t xml:space="preserve">長榮航          </t>
         </is>
       </c>
-      <c r="E32" s="4" t="inlineStr">
-        <is>
-          <t>36.50</t>
-        </is>
-      </c>
+      <c r="E32" s="4" t="inlineStr"/>
       <c r="F32" s="4" t="inlineStr"/>
       <c r="G32" s="4" t="n">
         <v>2647</v>
@@ -29196,16 +28972,8 @@
           <t xml:space="preserve">中信中國高股息  </t>
         </is>
       </c>
-      <c r="E33" s="4" t="inlineStr">
-        <is>
-          <t>15.27</t>
-        </is>
-      </c>
-      <c r="F33" s="4" t="inlineStr">
-        <is>
-          <t>-0.03</t>
-        </is>
-      </c>
+      <c r="E33" s="4" t="inlineStr"/>
+      <c r="F33" s="4" t="inlineStr"/>
       <c r="G33" s="4" t="n">
         <v>2339</v>
       </c>
@@ -29229,16 +28997,8 @@
           <t xml:space="preserve">尖點            </t>
         </is>
       </c>
-      <c r="E34" s="4" t="inlineStr">
-        <is>
-          <t>170.00</t>
-        </is>
-      </c>
-      <c r="F34" s="4" t="inlineStr">
-        <is>
-          <t>+4.5</t>
-        </is>
-      </c>
+      <c r="E34" s="4" t="inlineStr"/>
+      <c r="F34" s="4" t="inlineStr"/>
       <c r="G34" s="4" t="n">
         <v>2325</v>
       </c>
@@ -29262,16 +29022,8 @@
           <t xml:space="preserve">南茂            </t>
         </is>
       </c>
-      <c r="E35" s="4" t="inlineStr">
-        <is>
-          <t>45.70</t>
-        </is>
-      </c>
-      <c r="F35" s="4" t="inlineStr">
-        <is>
-          <t>+0.45</t>
-        </is>
-      </c>
+      <c r="E35" s="4" t="inlineStr"/>
+      <c r="F35" s="4" t="inlineStr"/>
       <c r="G35" s="4" t="n">
         <v>2210</v>
       </c>
@@ -29295,16 +29047,8 @@
           <t xml:space="preserve">潤泰新          </t>
         </is>
       </c>
-      <c r="E36" s="4" t="inlineStr">
-        <is>
-          <t>30.55</t>
-        </is>
-      </c>
-      <c r="F36" s="4" t="inlineStr">
-        <is>
-          <t>+0.05</t>
-        </is>
-      </c>
+      <c r="E36" s="4" t="inlineStr"/>
+      <c r="F36" s="4" t="inlineStr"/>
       <c r="G36" s="4" t="n">
         <v>2190</v>
       </c>
@@ -29328,16 +29072,8 @@
           <t xml:space="preserve">元大台灣50正2   </t>
         </is>
       </c>
-      <c r="E37" s="4" t="inlineStr">
-        <is>
-          <t>348.90</t>
-        </is>
-      </c>
-      <c r="F37" s="4" t="inlineStr">
-        <is>
-          <t>+0.8</t>
-        </is>
-      </c>
+      <c r="E37" s="4" t="inlineStr"/>
+      <c r="F37" s="4" t="inlineStr"/>
       <c r="G37" s="4" t="n">
         <v>2130</v>
       </c>
@@ -29361,11 +29097,7 @@
           <t xml:space="preserve">華南金          </t>
         </is>
       </c>
-      <c r="E38" s="4" t="inlineStr">
-        <is>
-          <t>32.00</t>
-        </is>
-      </c>
+      <c r="E38" s="4" t="inlineStr"/>
       <c r="F38" s="4" t="inlineStr"/>
       <c r="G38" s="4" t="n">
         <v>2079</v>
@@ -29390,16 +29122,8 @@
           <t>元大台灣高息低波</t>
         </is>
       </c>
-      <c r="E39" s="4" t="inlineStr">
-        <is>
-          <t>50.65</t>
-        </is>
-      </c>
-      <c r="F39" s="4" t="inlineStr">
-        <is>
-          <t>+0.05</t>
-        </is>
-      </c>
+      <c r="E39" s="4" t="inlineStr"/>
+      <c r="F39" s="4" t="inlineStr"/>
       <c r="G39" s="4" t="n">
         <v>1840</v>
       </c>
@@ -29423,16 +29147,8 @@
           <t>國泰台灣科技龍頭</t>
         </is>
       </c>
-      <c r="E40" s="4" t="inlineStr">
-        <is>
-          <t>31.95</t>
-        </is>
-      </c>
-      <c r="F40" s="4" t="inlineStr">
-        <is>
-          <t>+0.15</t>
-        </is>
-      </c>
+      <c r="E40" s="4" t="inlineStr"/>
+      <c r="F40" s="4" t="inlineStr"/>
       <c r="G40" s="4" t="n">
         <v>1801</v>
       </c>
@@ -29456,16 +29172,8 @@
           <t xml:space="preserve">金像電          </t>
         </is>
       </c>
-      <c r="E41" s="4" t="inlineStr">
-        <is>
-          <t>668.00</t>
-        </is>
-      </c>
-      <c r="F41" s="4" t="inlineStr">
-        <is>
-          <t>+17.0</t>
-        </is>
-      </c>
+      <c r="E41" s="4" t="inlineStr"/>
+      <c r="F41" s="4" t="inlineStr"/>
       <c r="G41" s="4" t="n">
         <v>1693</v>
       </c>
@@ -29489,16 +29197,8 @@
           <t xml:space="preserve">可成            </t>
         </is>
       </c>
-      <c r="E42" s="4" t="inlineStr">
-        <is>
-          <t>209.50</t>
-        </is>
-      </c>
-      <c r="F42" s="4" t="inlineStr">
-        <is>
-          <t>+15.0</t>
-        </is>
-      </c>
+      <c r="E42" s="4" t="inlineStr"/>
+      <c r="F42" s="4" t="inlineStr"/>
       <c r="G42" s="4" t="n">
         <v>1533</v>
       </c>
@@ -29522,16 +29222,8 @@
           <t xml:space="preserve">恩德            </t>
         </is>
       </c>
-      <c r="E43" s="4" t="inlineStr">
-        <is>
-          <t>18.25</t>
-        </is>
-      </c>
-      <c r="F43" s="4" t="inlineStr">
-        <is>
-          <t>+1.65</t>
-        </is>
-      </c>
+      <c r="E43" s="4" t="inlineStr"/>
+      <c r="F43" s="4" t="inlineStr"/>
       <c r="G43" s="4" t="n">
         <v>1444</v>
       </c>
@@ -29555,16 +29247,8 @@
           <t xml:space="preserve">國碩            </t>
         </is>
       </c>
-      <c r="E44" s="4" t="inlineStr">
-        <is>
-          <t>26.45</t>
-        </is>
-      </c>
-      <c r="F44" s="4" t="inlineStr">
-        <is>
-          <t>-0.75</t>
-        </is>
-      </c>
+      <c r="E44" s="4" t="inlineStr"/>
+      <c r="F44" s="4" t="inlineStr"/>
       <c r="G44" s="4" t="n">
         <v>1431</v>
       </c>
@@ -29588,16 +29272,8 @@
           <t xml:space="preserve">新興            </t>
         </is>
       </c>
-      <c r="E45" s="4" t="inlineStr">
-        <is>
-          <t>26.15</t>
-        </is>
-      </c>
-      <c r="F45" s="4" t="inlineStr">
-        <is>
-          <t>-0.25</t>
-        </is>
-      </c>
+      <c r="E45" s="4" t="inlineStr"/>
+      <c r="F45" s="4" t="inlineStr"/>
       <c r="G45" s="4" t="n">
         <v>1325</v>
       </c>
@@ -29621,16 +29297,8 @@
           <t xml:space="preserve">興富發          </t>
         </is>
       </c>
-      <c r="E46" s="4" t="inlineStr">
-        <is>
-          <t>39.95</t>
-        </is>
-      </c>
-      <c r="F46" s="4" t="inlineStr">
-        <is>
-          <t>+0.6</t>
-        </is>
-      </c>
+      <c r="E46" s="4" t="inlineStr"/>
+      <c r="F46" s="4" t="inlineStr"/>
       <c r="G46" s="4" t="n">
         <v>1258</v>
       </c>
@@ -29654,16 +29322,8 @@
           <t xml:space="preserve">光寶科          </t>
         </is>
       </c>
-      <c r="E47" s="4" t="inlineStr">
-        <is>
-          <t>165.50</t>
-        </is>
-      </c>
-      <c r="F47" s="4" t="inlineStr">
-        <is>
-          <t>+2.5</t>
-        </is>
-      </c>
+      <c r="E47" s="4" t="inlineStr"/>
+      <c r="F47" s="4" t="inlineStr"/>
       <c r="G47" s="4" t="n">
         <v>1213</v>
       </c>
@@ -29687,16 +29347,8 @@
           <t xml:space="preserve">毅嘉            </t>
         </is>
       </c>
-      <c r="E48" s="4" t="inlineStr">
-        <is>
-          <t>65.00</t>
-        </is>
-      </c>
-      <c r="F48" s="4" t="inlineStr">
-        <is>
-          <t>+0.5</t>
-        </is>
-      </c>
+      <c r="E48" s="4" t="inlineStr"/>
+      <c r="F48" s="4" t="inlineStr"/>
       <c r="G48" s="4" t="n">
         <v>1208</v>
       </c>
@@ -29720,16 +29372,8 @@
           <t xml:space="preserve">宇瞻            </t>
         </is>
       </c>
-      <c r="E49" s="4" t="inlineStr">
-        <is>
-          <t>100.00</t>
-        </is>
-      </c>
-      <c r="F49" s="4" t="inlineStr">
-        <is>
-          <t>+3.4</t>
-        </is>
-      </c>
+      <c r="E49" s="4" t="inlineStr"/>
+      <c r="F49" s="4" t="inlineStr"/>
       <c r="G49" s="4" t="n">
         <v>1193</v>
       </c>
@@ -29753,16 +29397,8 @@
           <t xml:space="preserve">銘異            </t>
         </is>
       </c>
-      <c r="E50" s="4" t="inlineStr">
-        <is>
-          <t>33.45</t>
-        </is>
-      </c>
-      <c r="F50" s="4" t="inlineStr">
-        <is>
-          <t>-0.2</t>
-        </is>
-      </c>
+      <c r="E50" s="4" t="inlineStr"/>
+      <c r="F50" s="4" t="inlineStr"/>
       <c r="G50" s="4" t="n">
         <v>1124</v>
       </c>
@@ -29786,11 +29422,7 @@
           <t xml:space="preserve">元晶            </t>
         </is>
       </c>
-      <c r="E51" s="4" t="inlineStr">
-        <is>
-          <t>26.80</t>
-        </is>
-      </c>
+      <c r="E51" s="4" t="inlineStr"/>
       <c r="F51" s="4" t="inlineStr"/>
       <c r="G51" s="4" t="n">
         <v>1073</v>
@@ -29815,16 +29447,8 @@
           <t xml:space="preserve">矽格            </t>
         </is>
       </c>
-      <c r="E52" s="4" t="inlineStr">
-        <is>
-          <t>101.00</t>
-        </is>
-      </c>
-      <c r="F52" s="4" t="inlineStr">
-        <is>
-          <t>+2.3</t>
-        </is>
-      </c>
+      <c r="E52" s="4" t="inlineStr"/>
+      <c r="F52" s="4" t="inlineStr"/>
       <c r="G52" s="4" t="n">
         <v>1016</v>
       </c>
@@ -29848,16 +29472,8 @@
           <t xml:space="preserve">達麗            </t>
         </is>
       </c>
-      <c r="E53" s="4" t="inlineStr">
-        <is>
-          <t>52.40</t>
-        </is>
-      </c>
-      <c r="F53" s="4" t="inlineStr">
-        <is>
-          <t>+1.4</t>
-        </is>
-      </c>
+      <c r="E53" s="4" t="inlineStr"/>
+      <c r="F53" s="4" t="inlineStr"/>
       <c r="G53" s="4" t="n">
         <v>960</v>
       </c>
@@ -29881,16 +29497,8 @@
           <t xml:space="preserve">國產            </t>
         </is>
       </c>
-      <c r="E54" s="4" t="inlineStr">
-        <is>
-          <t>38.50</t>
-        </is>
-      </c>
-      <c r="F54" s="4" t="inlineStr">
-        <is>
-          <t>+0.45</t>
-        </is>
-      </c>
+      <c r="E54" s="4" t="inlineStr"/>
+      <c r="F54" s="4" t="inlineStr"/>
       <c r="G54" s="4" t="n">
         <v>951</v>
       </c>
@@ -29914,16 +29522,8 @@
           <t xml:space="preserve">健鼎            </t>
         </is>
       </c>
-      <c r="E55" s="4" t="inlineStr">
-        <is>
-          <t>322.00</t>
-        </is>
-      </c>
-      <c r="F55" s="4" t="inlineStr">
-        <is>
-          <t>+9.5</t>
-        </is>
-      </c>
+      <c r="E55" s="4" t="inlineStr"/>
+      <c r="F55" s="4" t="inlineStr"/>
       <c r="G55" s="4" t="n">
         <v>913</v>
       </c>
@@ -29947,16 +29547,8 @@
           <t xml:space="preserve">大眾控          </t>
         </is>
       </c>
-      <c r="E56" s="4" t="inlineStr">
-        <is>
-          <t>48.70</t>
-        </is>
-      </c>
-      <c r="F56" s="4" t="inlineStr">
-        <is>
-          <t>+4.4</t>
-        </is>
-      </c>
+      <c r="E56" s="4" t="inlineStr"/>
+      <c r="F56" s="4" t="inlineStr"/>
       <c r="G56" s="4" t="n">
         <v>904</v>
       </c>
@@ -29980,16 +29572,8 @@
           <t xml:space="preserve">工信            </t>
         </is>
       </c>
-      <c r="E57" s="4" t="inlineStr">
-        <is>
-          <t>25.00</t>
-        </is>
-      </c>
-      <c r="F57" s="4" t="inlineStr">
-        <is>
-          <t>+1.9</t>
-        </is>
-      </c>
+      <c r="E57" s="4" t="inlineStr"/>
+      <c r="F57" s="4" t="inlineStr"/>
       <c r="G57" s="4" t="n">
         <v>878</v>
       </c>
@@ -30013,16 +29597,8 @@
           <t xml:space="preserve">愛普*           </t>
         </is>
       </c>
-      <c r="E58" s="4" t="inlineStr">
-        <is>
-          <t>417.50</t>
-        </is>
-      </c>
-      <c r="F58" s="4" t="inlineStr">
-        <is>
-          <t>+5.5</t>
-        </is>
-      </c>
+      <c r="E58" s="4" t="inlineStr"/>
+      <c r="F58" s="4" t="inlineStr"/>
       <c r="G58" s="4" t="n">
         <v>872</v>
       </c>
@@ -30046,16 +29622,8 @@
           <t xml:space="preserve">華固            </t>
         </is>
       </c>
-      <c r="E59" s="4" t="inlineStr">
-        <is>
-          <t>121.00</t>
-        </is>
-      </c>
-      <c r="F59" s="4" t="inlineStr">
-        <is>
-          <t>+3.0</t>
-        </is>
-      </c>
+      <c r="E59" s="4" t="inlineStr"/>
+      <c r="F59" s="4" t="inlineStr"/>
       <c r="G59" s="4" t="n">
         <v>851</v>
       </c>
@@ -30079,16 +29647,8 @@
           <t xml:space="preserve">東森            </t>
         </is>
       </c>
-      <c r="E60" s="4" t="inlineStr">
-        <is>
-          <t>23.20</t>
-        </is>
-      </c>
-      <c r="F60" s="4" t="inlineStr">
-        <is>
-          <t>+0.6</t>
-        </is>
-      </c>
+      <c r="E60" s="4" t="inlineStr"/>
+      <c r="F60" s="4" t="inlineStr"/>
       <c r="G60" s="4" t="n">
         <v>730</v>
       </c>
@@ -30112,16 +29672,8 @@
           <t xml:space="preserve">台郡            </t>
         </is>
       </c>
-      <c r="E61" s="4" t="inlineStr">
-        <is>
-          <t>60.60</t>
-        </is>
-      </c>
-      <c r="F61" s="4" t="inlineStr">
-        <is>
-          <t>+2.8</t>
-        </is>
-      </c>
+      <c r="E61" s="4" t="inlineStr"/>
+      <c r="F61" s="4" t="inlineStr"/>
       <c r="G61" s="4" t="n">
         <v>727</v>
       </c>
@@ -30145,16 +29697,8 @@
           <t xml:space="preserve">長虹            </t>
         </is>
       </c>
-      <c r="E62" s="4" t="inlineStr">
-        <is>
-          <t>87.00</t>
-        </is>
-      </c>
-      <c r="F62" s="4" t="inlineStr">
-        <is>
-          <t>+2.2</t>
-        </is>
-      </c>
+      <c r="E62" s="4" t="inlineStr"/>
+      <c r="F62" s="4" t="inlineStr"/>
       <c r="G62" s="4" t="n">
         <v>679</v>
       </c>
@@ -30178,16 +29722,8 @@
           <t xml:space="preserve">泰福-KY         </t>
         </is>
       </c>
-      <c r="E63" s="4" t="inlineStr">
-        <is>
-          <t>57.90</t>
-        </is>
-      </c>
-      <c r="F63" s="4" t="inlineStr">
-        <is>
-          <t>-2.2</t>
-        </is>
-      </c>
+      <c r="E63" s="4" t="inlineStr"/>
+      <c r="F63" s="4" t="inlineStr"/>
       <c r="G63" s="4" t="n">
         <v>636</v>
       </c>
@@ -30211,16 +29747,8 @@
           <t xml:space="preserve">瑞儀            </t>
         </is>
       </c>
-      <c r="E64" s="4" t="inlineStr">
-        <is>
-          <t>130.00</t>
-        </is>
-      </c>
-      <c r="F64" s="4" t="inlineStr">
-        <is>
-          <t>+4.0</t>
-        </is>
-      </c>
+      <c r="E64" s="4" t="inlineStr"/>
+      <c r="F64" s="4" t="inlineStr"/>
       <c r="G64" s="4" t="n">
         <v>602</v>
       </c>
@@ -30244,16 +29772,8 @@
           <t xml:space="preserve">新日興          </t>
         </is>
       </c>
-      <c r="E65" s="4" t="inlineStr">
-        <is>
-          <t>202.00</t>
-        </is>
-      </c>
-      <c r="F65" s="4" t="inlineStr">
-        <is>
-          <t>-3.5</t>
-        </is>
-      </c>
+      <c r="E65" s="4" t="inlineStr"/>
+      <c r="F65" s="4" t="inlineStr"/>
       <c r="G65" s="4" t="n">
         <v>552</v>
       </c>
@@ -30277,16 +29797,8 @@
           <t xml:space="preserve">榮科            </t>
         </is>
       </c>
-      <c r="E66" s="4" t="inlineStr">
-        <is>
-          <t>45.90</t>
-        </is>
-      </c>
-      <c r="F66" s="4" t="inlineStr">
-        <is>
-          <t>+3.45</t>
-        </is>
-      </c>
+      <c r="E66" s="4" t="inlineStr"/>
+      <c r="F66" s="4" t="inlineStr"/>
       <c r="G66" s="4" t="n">
         <v>536</v>
       </c>
@@ -30310,16 +29822,8 @@
           <t xml:space="preserve">錸德            </t>
         </is>
       </c>
-      <c r="E67" s="4" t="inlineStr">
-        <is>
-          <t>14.60</t>
-        </is>
-      </c>
-      <c r="F67" s="4" t="inlineStr">
-        <is>
-          <t>-0.4</t>
-        </is>
-      </c>
+      <c r="E67" s="4" t="inlineStr"/>
+      <c r="F67" s="4" t="inlineStr"/>
       <c r="G67" s="4" t="n">
         <v>495</v>
       </c>
@@ -30343,16 +29847,8 @@
           <t xml:space="preserve">瀚宇博          </t>
         </is>
       </c>
-      <c r="E68" s="4" t="inlineStr">
-        <is>
-          <t>96.40</t>
-        </is>
-      </c>
-      <c r="F68" s="4" t="inlineStr">
-        <is>
-          <t>+0.6</t>
-        </is>
-      </c>
+      <c r="E68" s="4" t="inlineStr"/>
+      <c r="F68" s="4" t="inlineStr"/>
       <c r="G68" s="4" t="n">
         <v>490</v>
       </c>
@@ -30376,16 +29872,8 @@
           <t xml:space="preserve">亞力            </t>
         </is>
       </c>
-      <c r="E69" s="4" t="inlineStr">
-        <is>
-          <t>102.00</t>
-        </is>
-      </c>
-      <c r="F69" s="4" t="inlineStr">
-        <is>
-          <t>+0.5</t>
-        </is>
-      </c>
+      <c r="E69" s="4" t="inlineStr"/>
+      <c r="F69" s="4" t="inlineStr"/>
       <c r="G69" s="4" t="n">
         <v>479</v>
       </c>
@@ -30409,16 +29897,8 @@
           <t xml:space="preserve">台肥            </t>
         </is>
       </c>
-      <c r="E70" s="4" t="inlineStr">
-        <is>
-          <t>47.30</t>
-        </is>
-      </c>
-      <c r="F70" s="4" t="inlineStr">
-        <is>
-          <t>-0.05</t>
-        </is>
-      </c>
+      <c r="E70" s="4" t="inlineStr"/>
+      <c r="F70" s="4" t="inlineStr"/>
       <c r="G70" s="4" t="n">
         <v>476</v>
       </c>
@@ -30442,16 +29922,8 @@
           <t xml:space="preserve">中鴻            </t>
         </is>
       </c>
-      <c r="E71" s="4" t="inlineStr">
-        <is>
-          <t>15.55</t>
-        </is>
-      </c>
-      <c r="F71" s="4" t="inlineStr">
-        <is>
-          <t>+0.2</t>
-        </is>
-      </c>
+      <c r="E71" s="4" t="inlineStr"/>
+      <c r="F71" s="4" t="inlineStr"/>
       <c r="G71" s="4" t="n">
         <v>421</v>
       </c>
@@ -30475,16 +29947,8 @@
           <t xml:space="preserve">華東            </t>
         </is>
       </c>
-      <c r="E72" s="4" t="inlineStr">
-        <is>
-          <t>55.70</t>
-        </is>
-      </c>
-      <c r="F72" s="4" t="inlineStr">
-        <is>
-          <t>+1.7</t>
-        </is>
-      </c>
+      <c r="E72" s="4" t="inlineStr"/>
+      <c r="F72" s="4" t="inlineStr"/>
       <c r="G72" s="4" t="n">
         <v>415</v>
       </c>
@@ -30508,16 +29972,8 @@
           <t xml:space="preserve">十銓            </t>
         </is>
       </c>
-      <c r="E73" s="4" t="inlineStr">
-        <is>
-          <t>162.50</t>
-        </is>
-      </c>
-      <c r="F73" s="4" t="inlineStr">
-        <is>
-          <t>+10.0</t>
-        </is>
-      </c>
+      <c r="E73" s="4" t="inlineStr"/>
+      <c r="F73" s="4" t="inlineStr"/>
       <c r="G73" s="4" t="n">
         <v>389</v>
       </c>
@@ -30541,16 +29997,8 @@
           <t xml:space="preserve">德律            </t>
         </is>
       </c>
-      <c r="E74" s="4" t="inlineStr">
-        <is>
-          <t>193.00</t>
-        </is>
-      </c>
-      <c r="F74" s="4" t="inlineStr">
-        <is>
-          <t>+0.5</t>
-        </is>
-      </c>
+      <c r="E74" s="4" t="inlineStr"/>
+      <c r="F74" s="4" t="inlineStr"/>
       <c r="G74" s="4" t="n">
         <v>385</v>
       </c>
@@ -30574,16 +30022,8 @@
           <t xml:space="preserve">貿聯-KY         </t>
         </is>
       </c>
-      <c r="E75" s="4" t="inlineStr">
-        <is>
-          <t>1,550.00</t>
-        </is>
-      </c>
-      <c r="F75" s="4" t="inlineStr">
-        <is>
-          <t>+90.0</t>
-        </is>
-      </c>
+      <c r="E75" s="4" t="inlineStr"/>
+      <c r="F75" s="4" t="inlineStr"/>
       <c r="G75" s="4" t="n">
         <v>381</v>
       </c>
@@ -30607,16 +30047,8 @@
           <t xml:space="preserve">華孚            </t>
         </is>
       </c>
-      <c r="E76" s="4" t="inlineStr">
-        <is>
-          <t>63.00</t>
-        </is>
-      </c>
-      <c r="F76" s="4" t="inlineStr">
-        <is>
-          <t>+1.3</t>
-        </is>
-      </c>
+      <c r="E76" s="4" t="inlineStr"/>
+      <c r="F76" s="4" t="inlineStr"/>
       <c r="G76" s="4" t="n">
         <v>358</v>
       </c>
@@ -30640,16 +30072,8 @@
           <t xml:space="preserve">王道銀行        </t>
         </is>
       </c>
-      <c r="E77" s="4" t="inlineStr">
-        <is>
-          <t>9.20</t>
-        </is>
-      </c>
-      <c r="F77" s="4" t="inlineStr">
-        <is>
-          <t>+0.01</t>
-        </is>
-      </c>
+      <c r="E77" s="4" t="inlineStr"/>
+      <c r="F77" s="4" t="inlineStr"/>
       <c r="G77" s="4" t="n">
         <v>347</v>
       </c>
@@ -30673,16 +30097,8 @@
           <t xml:space="preserve">帆宣            </t>
         </is>
       </c>
-      <c r="E78" s="4" t="inlineStr">
-        <is>
-          <t>272.50</t>
-        </is>
-      </c>
-      <c r="F78" s="4" t="inlineStr">
-        <is>
-          <t>+1.0</t>
-        </is>
-      </c>
+      <c r="E78" s="4" t="inlineStr"/>
+      <c r="F78" s="4" t="inlineStr"/>
       <c r="G78" s="4" t="n">
         <v>340</v>
       </c>
@@ -30706,16 +30122,8 @@
           <t xml:space="preserve">東陽            </t>
         </is>
       </c>
-      <c r="E79" s="4" t="inlineStr">
-        <is>
-          <t>95.90</t>
-        </is>
-      </c>
-      <c r="F79" s="4" t="inlineStr">
-        <is>
-          <t>+0.7</t>
-        </is>
-      </c>
+      <c r="E79" s="4" t="inlineStr"/>
+      <c r="F79" s="4" t="inlineStr"/>
       <c r="G79" s="4" t="n">
         <v>321</v>
       </c>
@@ -30739,16 +30147,8 @@
           <t xml:space="preserve">和碩            </t>
         </is>
       </c>
-      <c r="E80" s="4" t="inlineStr">
-        <is>
-          <t>69.40</t>
-        </is>
-      </c>
-      <c r="F80" s="4" t="inlineStr">
-        <is>
-          <t>+0.3</t>
-        </is>
-      </c>
+      <c r="E80" s="4" t="inlineStr"/>
+      <c r="F80" s="4" t="inlineStr"/>
       <c r="G80" s="4" t="n">
         <v>312</v>
       </c>
@@ -30772,16 +30172,8 @@
           <t xml:space="preserve">皇昌            </t>
         </is>
       </c>
-      <c r="E81" s="4" t="inlineStr">
-        <is>
-          <t>62.70</t>
-        </is>
-      </c>
-      <c r="F81" s="4" t="inlineStr">
-        <is>
-          <t>+0.6</t>
-        </is>
-      </c>
+      <c r="E81" s="4" t="inlineStr"/>
+      <c r="F81" s="4" t="inlineStr"/>
       <c r="G81" s="4" t="n">
         <v>300</v>
       </c>
@@ -30805,16 +30197,8 @@
           <t xml:space="preserve">宇隆            </t>
         </is>
       </c>
-      <c r="E82" s="4" t="inlineStr">
-        <is>
-          <t>202.00</t>
-        </is>
-      </c>
-      <c r="F82" s="4" t="inlineStr">
-        <is>
-          <t>+7.0</t>
-        </is>
-      </c>
+      <c r="E82" s="4" t="inlineStr"/>
+      <c r="F82" s="4" t="inlineStr"/>
       <c r="G82" s="4" t="n">
         <v>297</v>
       </c>
@@ -30838,16 +30222,8 @@
           <t xml:space="preserve">明泰            </t>
         </is>
       </c>
-      <c r="E83" s="4" t="inlineStr">
-        <is>
-          <t>32.10</t>
-        </is>
-      </c>
-      <c r="F83" s="4" t="inlineStr">
-        <is>
-          <t>+0.7</t>
-        </is>
-      </c>
+      <c r="E83" s="4" t="inlineStr"/>
+      <c r="F83" s="4" t="inlineStr"/>
       <c r="G83" s="4" t="n">
         <v>292</v>
       </c>
@@ -30871,16 +30247,8 @@
           <t xml:space="preserve">帝寶            </t>
         </is>
       </c>
-      <c r="E84" s="4" t="inlineStr">
-        <is>
-          <t>143.50</t>
-        </is>
-      </c>
-      <c r="F84" s="4" t="inlineStr">
-        <is>
-          <t>+2.5</t>
-        </is>
-      </c>
+      <c r="E84" s="4" t="inlineStr"/>
+      <c r="F84" s="4" t="inlineStr"/>
       <c r="G84" s="4" t="n">
         <v>282</v>
       </c>
@@ -30904,16 +30272,8 @@
           <t xml:space="preserve">中工            </t>
         </is>
       </c>
-      <c r="E85" s="4" t="inlineStr">
-        <is>
-          <t>13.35</t>
-        </is>
-      </c>
-      <c r="F85" s="4" t="inlineStr">
-        <is>
-          <t>+0.05</t>
-        </is>
-      </c>
+      <c r="E85" s="4" t="inlineStr"/>
+      <c r="F85" s="4" t="inlineStr"/>
       <c r="G85" s="4" t="n">
         <v>281</v>
       </c>
@@ -30937,16 +30297,8 @@
           <t xml:space="preserve">精成科          </t>
         </is>
       </c>
-      <c r="E86" s="4" t="inlineStr">
-        <is>
-          <t>116.50</t>
-        </is>
-      </c>
-      <c r="F86" s="4" t="inlineStr">
-        <is>
-          <t>-1.0</t>
-        </is>
-      </c>
+      <c r="E86" s="4" t="inlineStr"/>
+      <c r="F86" s="4" t="inlineStr"/>
       <c r="G86" s="4" t="n">
         <v>275</v>
       </c>
@@ -30970,16 +30322,8 @@
           <t xml:space="preserve">遠雄            </t>
         </is>
       </c>
-      <c r="E87" s="4" t="inlineStr">
-        <is>
-          <t>81.20</t>
-        </is>
-      </c>
-      <c r="F87" s="4" t="inlineStr">
-        <is>
-          <t>-0.2</t>
-        </is>
-      </c>
+      <c r="E87" s="4" t="inlineStr"/>
+      <c r="F87" s="4" t="inlineStr"/>
       <c r="G87" s="4" t="n">
         <v>269</v>
       </c>
@@ -31003,16 +30347,8 @@
           <t xml:space="preserve">夆典            </t>
         </is>
       </c>
-      <c r="E88" s="4" t="inlineStr">
-        <is>
-          <t>12.10</t>
-        </is>
-      </c>
-      <c r="F88" s="4" t="inlineStr">
-        <is>
-          <t>+0.15</t>
-        </is>
-      </c>
+      <c r="E88" s="4" t="inlineStr"/>
+      <c r="F88" s="4" t="inlineStr"/>
       <c r="G88" s="4" t="n">
         <v>267</v>
       </c>
@@ -31036,16 +30372,8 @@
           <t xml:space="preserve">國建            </t>
         </is>
       </c>
-      <c r="E89" s="4" t="inlineStr">
-        <is>
-          <t>24.00</t>
-        </is>
-      </c>
-      <c r="F89" s="4" t="inlineStr">
-        <is>
-          <t>+0.35</t>
-        </is>
-      </c>
+      <c r="E89" s="4" t="inlineStr"/>
+      <c r="F89" s="4" t="inlineStr"/>
       <c r="G89" s="4" t="n">
         <v>245</v>
       </c>
@@ -31069,16 +30397,8 @@
           <t xml:space="preserve">南港            </t>
         </is>
       </c>
-      <c r="E90" s="4" t="inlineStr">
-        <is>
-          <t>37.60</t>
-        </is>
-      </c>
-      <c r="F90" s="4" t="inlineStr">
-        <is>
-          <t>+0.1</t>
-        </is>
-      </c>
+      <c r="E90" s="4" t="inlineStr"/>
+      <c r="F90" s="4" t="inlineStr"/>
       <c r="G90" s="4" t="n">
         <v>243</v>
       </c>
@@ -31102,16 +30422,8 @@
           <t xml:space="preserve">皇普            </t>
         </is>
       </c>
-      <c r="E91" s="4" t="inlineStr">
-        <is>
-          <t>31.40</t>
-        </is>
-      </c>
-      <c r="F91" s="4" t="inlineStr">
-        <is>
-          <t>+0.2</t>
-        </is>
-      </c>
+      <c r="E91" s="4" t="inlineStr"/>
+      <c r="F91" s="4" t="inlineStr"/>
       <c r="G91" s="4" t="n">
         <v>241</v>
       </c>
@@ -31135,16 +30447,8 @@
           <t xml:space="preserve">聯詠            </t>
         </is>
       </c>
-      <c r="E92" s="4" t="inlineStr">
-        <is>
-          <t>377.00</t>
-        </is>
-      </c>
-      <c r="F92" s="4" t="inlineStr">
-        <is>
-          <t>+2.5</t>
-        </is>
-      </c>
+      <c r="E92" s="4" t="inlineStr"/>
+      <c r="F92" s="4" t="inlineStr"/>
       <c r="G92" s="4" t="n">
         <v>240</v>
       </c>
@@ -31168,16 +30472,8 @@
           <t xml:space="preserve">和成            </t>
         </is>
       </c>
-      <c r="E93" s="4" t="inlineStr">
-        <is>
-          <t>17.30</t>
-        </is>
-      </c>
-      <c r="F93" s="4" t="inlineStr">
-        <is>
-          <t>+0.05</t>
-        </is>
-      </c>
+      <c r="E93" s="4" t="inlineStr"/>
+      <c r="F93" s="4" t="inlineStr"/>
       <c r="G93" s="4" t="n">
         <v>232</v>
       </c>
@@ -31201,16 +30497,8 @@
           <t xml:space="preserve">台通            </t>
         </is>
       </c>
-      <c r="E94" s="4" t="inlineStr">
-        <is>
-          <t>22.85</t>
-        </is>
-      </c>
-      <c r="F94" s="4" t="inlineStr">
-        <is>
-          <t>-0.15</t>
-        </is>
-      </c>
+      <c r="E94" s="4" t="inlineStr"/>
+      <c r="F94" s="4" t="inlineStr"/>
       <c r="G94" s="4" t="n">
         <v>230</v>
       </c>
@@ -31234,16 +30522,8 @@
           <t xml:space="preserve">欣陸            </t>
         </is>
       </c>
-      <c r="E95" s="4" t="inlineStr">
-        <is>
-          <t>23.10</t>
-        </is>
-      </c>
-      <c r="F95" s="4" t="inlineStr">
-        <is>
-          <t>+0.3</t>
-        </is>
-      </c>
+      <c r="E95" s="4" t="inlineStr"/>
+      <c r="F95" s="4" t="inlineStr"/>
       <c r="G95" s="4" t="n">
         <v>229</v>
       </c>
@@ -31267,16 +30547,8 @@
           <t xml:space="preserve">大亞            </t>
         </is>
       </c>
-      <c r="E96" s="4" t="inlineStr">
-        <is>
-          <t>38.00</t>
-        </is>
-      </c>
-      <c r="F96" s="4" t="inlineStr">
-        <is>
-          <t>-0.15</t>
-        </is>
-      </c>
+      <c r="E96" s="4" t="inlineStr"/>
+      <c r="F96" s="4" t="inlineStr"/>
       <c r="G96" s="4" t="n">
         <v>227</v>
       </c>
@@ -31300,16 +30572,8 @@
           <t xml:space="preserve">智原            </t>
         </is>
       </c>
-      <c r="E97" s="4" t="inlineStr">
-        <is>
-          <t>164.50</t>
-        </is>
-      </c>
-      <c r="F97" s="4" t="inlineStr">
-        <is>
-          <t>+0.5</t>
-        </is>
-      </c>
+      <c r="E97" s="4" t="inlineStr"/>
+      <c r="F97" s="4" t="inlineStr"/>
       <c r="G97" s="4" t="n">
         <v>207</v>
       </c>
@@ -31333,16 +30597,8 @@
           <t xml:space="preserve">景碩            </t>
         </is>
       </c>
-      <c r="E98" s="4" t="inlineStr">
-        <is>
-          <t>144.00</t>
-        </is>
-      </c>
-      <c r="F98" s="4" t="inlineStr">
-        <is>
-          <t>+1.5</t>
-        </is>
-      </c>
+      <c r="E98" s="4" t="inlineStr"/>
+      <c r="F98" s="4" t="inlineStr"/>
       <c r="G98" s="4" t="n">
         <v>204</v>
       </c>
@@ -31366,16 +30622,8 @@
           <t xml:space="preserve">州巧            </t>
         </is>
       </c>
-      <c r="E99" s="4" t="inlineStr">
-        <is>
-          <t>43.90</t>
-        </is>
-      </c>
-      <c r="F99" s="4" t="inlineStr">
-        <is>
-          <t>-0.95</t>
-        </is>
-      </c>
+      <c r="E99" s="4" t="inlineStr"/>
+      <c r="F99" s="4" t="inlineStr"/>
       <c r="G99" s="4" t="n">
         <v>199</v>
       </c>
@@ -31399,16 +30647,8 @@
           <t xml:space="preserve">宏達電          </t>
         </is>
       </c>
-      <c r="E100" s="4" t="inlineStr">
-        <is>
-          <t>50.10</t>
-        </is>
-      </c>
-      <c r="F100" s="4" t="inlineStr">
-        <is>
-          <t>+0.35</t>
-        </is>
-      </c>
+      <c r="E100" s="4" t="inlineStr"/>
+      <c r="F100" s="4" t="inlineStr"/>
       <c r="G100" s="4" t="n">
         <v>190</v>
       </c>
@@ -31432,16 +30672,8 @@
           <t xml:space="preserve">喬鼎            </t>
         </is>
       </c>
-      <c r="E101" s="4" t="inlineStr">
-        <is>
-          <t>22.00</t>
-        </is>
-      </c>
-      <c r="F101" s="4" t="inlineStr">
-        <is>
-          <t>+1.3</t>
-        </is>
-      </c>
+      <c r="E101" s="4" t="inlineStr"/>
+      <c r="F101" s="4" t="inlineStr"/>
       <c r="G101" s="4" t="n">
         <v>190</v>
       </c>
@@ -31465,16 +30697,8 @@
           <t xml:space="preserve">勤誠            </t>
         </is>
       </c>
-      <c r="E102" s="4" t="inlineStr">
-        <is>
-          <t>964.00</t>
-        </is>
-      </c>
-      <c r="F102" s="4" t="inlineStr">
-        <is>
-          <t>+9.0</t>
-        </is>
-      </c>
+      <c r="E102" s="4" t="inlineStr"/>
+      <c r="F102" s="4" t="inlineStr"/>
       <c r="G102" s="4" t="n">
         <v>187</v>
       </c>
@@ -31498,16 +30722,8 @@
           <t xml:space="preserve">精英            </t>
         </is>
       </c>
-      <c r="E103" s="4" t="inlineStr">
-        <is>
-          <t>23.00</t>
-        </is>
-      </c>
-      <c r="F103" s="4" t="inlineStr">
-        <is>
-          <t>-0.15</t>
-        </is>
-      </c>
+      <c r="E103" s="4" t="inlineStr"/>
+      <c r="F103" s="4" t="inlineStr"/>
       <c r="G103" s="4" t="n">
         <v>182</v>
       </c>
@@ -31608,16 +30824,8 @@
           <t xml:space="preserve">群創            </t>
         </is>
       </c>
-      <c r="E109" s="4" t="inlineStr">
-        <is>
-          <t>13.25</t>
-        </is>
-      </c>
-      <c r="F109" s="4" t="inlineStr">
-        <is>
-          <t>+0.2</t>
-        </is>
-      </c>
+      <c r="E109" s="4" t="inlineStr"/>
+      <c r="F109" s="4" t="inlineStr"/>
       <c r="G109" s="4" t="n">
         <v>-33769</v>
       </c>
@@ -31641,16 +30849,8 @@
           <t xml:space="preserve">大成鋼          </t>
         </is>
       </c>
-      <c r="E110" s="4" t="inlineStr">
-        <is>
-          <t>34.80</t>
-        </is>
-      </c>
-      <c r="F110" s="4" t="inlineStr">
-        <is>
-          <t>-0.3</t>
-        </is>
-      </c>
+      <c r="E110" s="4" t="inlineStr"/>
+      <c r="F110" s="4" t="inlineStr"/>
       <c r="G110" s="4" t="n">
         <v>-19339</v>
       </c>
@@ -31674,16 +30874,8 @@
           <t xml:space="preserve">華通            </t>
         </is>
       </c>
-      <c r="E111" s="4" t="inlineStr">
-        <is>
-          <t>99.00</t>
-        </is>
-      </c>
-      <c r="F111" s="4" t="inlineStr">
-        <is>
-          <t>-2.5</t>
-        </is>
-      </c>
+      <c r="E111" s="4" t="inlineStr"/>
+      <c r="F111" s="4" t="inlineStr"/>
       <c r="G111" s="4" t="n">
         <v>-13930</v>
       </c>
@@ -31707,16 +30899,8 @@
           <t xml:space="preserve">南亞            </t>
         </is>
       </c>
-      <c r="E112" s="4" t="inlineStr">
-        <is>
-          <t>58.10</t>
-        </is>
-      </c>
-      <c r="F112" s="4" t="inlineStr">
-        <is>
-          <t>-0.7</t>
-        </is>
-      </c>
+      <c r="E112" s="4" t="inlineStr"/>
+      <c r="F112" s="4" t="inlineStr"/>
       <c r="G112" s="4" t="n">
         <v>-12226</v>
       </c>
@@ -31740,16 +30924,8 @@
           <t xml:space="preserve">友達            </t>
         </is>
       </c>
-      <c r="E113" s="4" t="inlineStr">
-        <is>
-          <t>11.45</t>
-        </is>
-      </c>
-      <c r="F113" s="4" t="inlineStr">
-        <is>
-          <t>+0.15</t>
-        </is>
-      </c>
+      <c r="E113" s="4" t="inlineStr"/>
+      <c r="F113" s="4" t="inlineStr"/>
       <c r="G113" s="4" t="n">
         <v>-10856</v>
       </c>
@@ -31773,16 +30949,8 @@
           <t xml:space="preserve">金寶            </t>
         </is>
       </c>
-      <c r="E114" s="4" t="inlineStr">
-        <is>
-          <t>22.75</t>
-        </is>
-      </c>
-      <c r="F114" s="4" t="inlineStr">
-        <is>
-          <t>-0.15</t>
-        </is>
-      </c>
+      <c r="E114" s="4" t="inlineStr"/>
+      <c r="F114" s="4" t="inlineStr"/>
       <c r="G114" s="4" t="n">
         <v>-10609</v>
       </c>
@@ -31806,16 +30974,8 @@
           <t xml:space="preserve">元大高股息      </t>
         </is>
       </c>
-      <c r="E115" s="4" t="inlineStr">
-        <is>
-          <t>36.55</t>
-        </is>
-      </c>
-      <c r="F115" s="4" t="inlineStr">
-        <is>
-          <t>+0.01</t>
-        </is>
-      </c>
+      <c r="E115" s="4" t="inlineStr"/>
+      <c r="F115" s="4" t="inlineStr"/>
       <c r="G115" s="4" t="n">
         <v>-10442</v>
       </c>
@@ -31839,16 +30999,8 @@
           <t xml:space="preserve">台玻            </t>
         </is>
       </c>
-      <c r="E116" s="4" t="inlineStr">
-        <is>
-          <t>34.90</t>
-        </is>
-      </c>
-      <c r="F116" s="4" t="inlineStr">
-        <is>
-          <t>-0.6</t>
-        </is>
-      </c>
+      <c r="E116" s="4" t="inlineStr"/>
+      <c r="F116" s="4" t="inlineStr"/>
       <c r="G116" s="4" t="n">
         <v>-8286</v>
       </c>
@@ -31872,16 +31024,8 @@
           <t xml:space="preserve">宏碁            </t>
         </is>
       </c>
-      <c r="E117" s="4" t="inlineStr">
-        <is>
-          <t>25.25</t>
-        </is>
-      </c>
-      <c r="F117" s="4" t="inlineStr">
-        <is>
-          <t>-0.35</t>
-        </is>
-      </c>
+      <c r="E117" s="4" t="inlineStr"/>
+      <c r="F117" s="4" t="inlineStr"/>
       <c r="G117" s="4" t="n">
         <v>-7755</v>
       </c>
@@ -31905,16 +31049,8 @@
           <t xml:space="preserve">英業達          </t>
         </is>
       </c>
-      <c r="E118" s="4" t="inlineStr">
-        <is>
-          <t>43.15</t>
-        </is>
-      </c>
-      <c r="F118" s="4" t="inlineStr">
-        <is>
-          <t>+0.1</t>
-        </is>
-      </c>
+      <c r="E118" s="4" t="inlineStr"/>
+      <c r="F118" s="4" t="inlineStr"/>
       <c r="G118" s="4" t="n">
         <v>-7625</v>
       </c>
@@ -31938,16 +31074,8 @@
           <t xml:space="preserve">福懋科          </t>
         </is>
       </c>
-      <c r="E119" s="4" t="inlineStr">
-        <is>
-          <t>56.60</t>
-        </is>
-      </c>
-      <c r="F119" s="4" t="inlineStr">
-        <is>
-          <t>-1.6</t>
-        </is>
-      </c>
+      <c r="E119" s="4" t="inlineStr"/>
+      <c r="F119" s="4" t="inlineStr"/>
       <c r="G119" s="4" t="n">
         <v>-7487</v>
       </c>
@@ -31971,16 +31099,8 @@
           <t xml:space="preserve">台中銀          </t>
         </is>
       </c>
-      <c r="E120" s="4" t="inlineStr">
-        <is>
-          <t>21.05</t>
-        </is>
-      </c>
-      <c r="F120" s="4" t="inlineStr">
-        <is>
-          <t>-0.3</t>
-        </is>
-      </c>
+      <c r="E120" s="4" t="inlineStr"/>
+      <c r="F120" s="4" t="inlineStr"/>
       <c r="G120" s="4" t="n">
         <v>-7366</v>
       </c>
@@ -32004,16 +31124,8 @@
           <t xml:space="preserve">群益證          </t>
         </is>
       </c>
-      <c r="E121" s="4" t="inlineStr">
-        <is>
-          <t>24.20</t>
-        </is>
-      </c>
-      <c r="F121" s="4" t="inlineStr">
-        <is>
-          <t>-0.15</t>
-        </is>
-      </c>
+      <c r="E121" s="4" t="inlineStr"/>
+      <c r="F121" s="4" t="inlineStr"/>
       <c r="G121" s="4" t="n">
         <v>-6904</v>
       </c>
@@ -32037,11 +31149,7 @@
           <t xml:space="preserve">鴻海            </t>
         </is>
       </c>
-      <c r="E122" s="4" t="inlineStr">
-        <is>
-          <t>224.00</t>
-        </is>
-      </c>
+      <c r="E122" s="4" t="inlineStr"/>
       <c r="F122" s="4" t="inlineStr"/>
       <c r="G122" s="4" t="n">
         <v>-6030</v>
@@ -32066,16 +31174,8 @@
           <t xml:space="preserve">中石化          </t>
         </is>
       </c>
-      <c r="E123" s="4" t="inlineStr">
-        <is>
-          <t>7.88</t>
-        </is>
-      </c>
-      <c r="F123" s="4" t="inlineStr">
-        <is>
-          <t>-0.14</t>
-        </is>
-      </c>
+      <c r="E123" s="4" t="inlineStr"/>
+      <c r="F123" s="4" t="inlineStr"/>
       <c r="G123" s="4" t="n">
         <v>-5632</v>
       </c>
@@ -32099,16 +31199,8 @@
           <t xml:space="preserve">大聯大          </t>
         </is>
       </c>
-      <c r="E124" s="4" t="inlineStr">
-        <is>
-          <t>57.90</t>
-        </is>
-      </c>
-      <c r="F124" s="4" t="inlineStr">
-        <is>
-          <t>-0.3</t>
-        </is>
-      </c>
+      <c r="E124" s="4" t="inlineStr"/>
+      <c r="F124" s="4" t="inlineStr"/>
       <c r="G124" s="4" t="n">
         <v>-5626</v>
       </c>
@@ -32132,16 +31224,8 @@
           <t xml:space="preserve">彰銀            </t>
         </is>
       </c>
-      <c r="E125" s="4" t="inlineStr">
-        <is>
-          <t>20.85</t>
-        </is>
-      </c>
-      <c r="F125" s="4" t="inlineStr">
-        <is>
-          <t>-0.15</t>
-        </is>
-      </c>
+      <c r="E125" s="4" t="inlineStr"/>
+      <c r="F125" s="4" t="inlineStr"/>
       <c r="G125" s="4" t="n">
         <v>-5410</v>
       </c>
@@ -32165,16 +31249,8 @@
           <t xml:space="preserve">寶成            </t>
         </is>
       </c>
-      <c r="E126" s="4" t="inlineStr">
-        <is>
-          <t>30.25</t>
-        </is>
-      </c>
-      <c r="F126" s="4" t="inlineStr">
-        <is>
-          <t>-0.25</t>
-        </is>
-      </c>
+      <c r="E126" s="4" t="inlineStr"/>
+      <c r="F126" s="4" t="inlineStr"/>
       <c r="G126" s="4" t="n">
         <v>-4986</v>
       </c>
@@ -32198,16 +31274,8 @@
           <t>群益優選非投等債</t>
         </is>
       </c>
-      <c r="E127" s="4" t="inlineStr">
-        <is>
-          <t>9.73</t>
-        </is>
-      </c>
-      <c r="F127" s="4" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
+      <c r="E127" s="4" t="inlineStr"/>
+      <c r="F127" s="4" t="inlineStr"/>
       <c r="G127" s="4" t="n">
         <v>-4848</v>
       </c>
@@ -32231,16 +31299,8 @@
           <t xml:space="preserve">第一金          </t>
         </is>
       </c>
-      <c r="E128" s="4" t="inlineStr">
-        <is>
-          <t>29.30</t>
-        </is>
-      </c>
-      <c r="F128" s="4" t="inlineStr">
-        <is>
-          <t>-0.35</t>
-        </is>
-      </c>
+      <c r="E128" s="4" t="inlineStr"/>
+      <c r="F128" s="4" t="inlineStr"/>
       <c r="G128" s="4" t="n">
         <v>-4774</v>
       </c>
@@ -32264,16 +31324,8 @@
           <t xml:space="preserve">元大台灣50反1   </t>
         </is>
       </c>
-      <c r="E129" s="4" t="inlineStr">
-        <is>
-          <t>16.79</t>
-        </is>
-      </c>
-      <c r="F129" s="4" t="inlineStr">
-        <is>
-          <t>-0.03</t>
-        </is>
-      </c>
+      <c r="E129" s="4" t="inlineStr"/>
+      <c r="F129" s="4" t="inlineStr"/>
       <c r="G129" s="4" t="n">
         <v>-4683</v>
       </c>
@@ -32297,11 +31349,7 @@
           <t xml:space="preserve">日月光投控      </t>
         </is>
       </c>
-      <c r="E130" s="4" t="inlineStr">
-        <is>
-          <t>234.50</t>
-        </is>
-      </c>
+      <c r="E130" s="4" t="inlineStr"/>
       <c r="F130" s="4" t="inlineStr"/>
       <c r="G130" s="4" t="n">
         <v>-4561</v>
@@ -32326,16 +31374,8 @@
           <t xml:space="preserve">台化            </t>
         </is>
       </c>
-      <c r="E131" s="4" t="inlineStr">
-        <is>
-          <t>32.20</t>
-        </is>
-      </c>
-      <c r="F131" s="4" t="inlineStr">
-        <is>
-          <t>-0.8</t>
-        </is>
-      </c>
+      <c r="E131" s="4" t="inlineStr"/>
+      <c r="F131" s="4" t="inlineStr"/>
       <c r="G131" s="4" t="n">
         <v>-4337</v>
       </c>
@@ -32359,16 +31399,8 @@
           <t xml:space="preserve">廣達            </t>
         </is>
       </c>
-      <c r="E132" s="4" t="inlineStr">
-        <is>
-          <t>264.00</t>
-        </is>
-      </c>
-      <c r="F132" s="4" t="inlineStr">
-        <is>
-          <t>-0.5</t>
-        </is>
-      </c>
+      <c r="E132" s="4" t="inlineStr"/>
+      <c r="F132" s="4" t="inlineStr"/>
       <c r="G132" s="4" t="n">
         <v>-3977</v>
       </c>
@@ -32392,16 +31424,8 @@
           <t xml:space="preserve">中信金          </t>
         </is>
       </c>
-      <c r="E133" s="4" t="inlineStr">
-        <is>
-          <t>50.30</t>
-        </is>
-      </c>
-      <c r="F133" s="4" t="inlineStr">
-        <is>
-          <t>-0.1</t>
-        </is>
-      </c>
+      <c r="E133" s="4" t="inlineStr"/>
+      <c r="F133" s="4" t="inlineStr"/>
       <c r="G133" s="4" t="n">
         <v>-3568</v>
       </c>
@@ -32425,11 +31449,7 @@
           <t xml:space="preserve">國巨*           </t>
         </is>
       </c>
-      <c r="E134" s="4" t="inlineStr">
-        <is>
-          <t>222.50</t>
-        </is>
-      </c>
+      <c r="E134" s="4" t="inlineStr"/>
       <c r="F134" s="4" t="inlineStr"/>
       <c r="G134" s="4" t="n">
         <v>-3183</v>
@@ -32454,16 +31474,8 @@
           <t xml:space="preserve">遠百            </t>
         </is>
       </c>
-      <c r="E135" s="4" t="inlineStr">
-        <is>
-          <t>22.15</t>
-        </is>
-      </c>
-      <c r="F135" s="4" t="inlineStr">
-        <is>
-          <t>-0.15</t>
-        </is>
-      </c>
+      <c r="E135" s="4" t="inlineStr"/>
+      <c r="F135" s="4" t="inlineStr"/>
       <c r="G135" s="4" t="n">
         <v>-3051</v>
       </c>
@@ -32487,16 +31499,8 @@
           <t xml:space="preserve">國票金          </t>
         </is>
       </c>
-      <c r="E136" s="4" t="inlineStr">
-        <is>
-          <t>16.20</t>
-        </is>
-      </c>
-      <c r="F136" s="4" t="inlineStr">
-        <is>
-          <t>-0.25</t>
-        </is>
-      </c>
+      <c r="E136" s="4" t="inlineStr"/>
+      <c r="F136" s="4" t="inlineStr"/>
       <c r="G136" s="4" t="n">
         <v>-2943</v>
       </c>
@@ -32520,16 +31524,8 @@
           <t xml:space="preserve">元大S&amp;P500      </t>
         </is>
       </c>
-      <c r="E137" s="4" t="inlineStr">
-        <is>
-          <t>68.10</t>
-        </is>
-      </c>
-      <c r="F137" s="4" t="inlineStr">
-        <is>
-          <t>+0.15</t>
-        </is>
-      </c>
+      <c r="E137" s="4" t="inlineStr"/>
+      <c r="F137" s="4" t="inlineStr"/>
       <c r="G137" s="4" t="n">
         <v>-2890</v>
       </c>
@@ -32553,16 +31549,8 @@
           <t xml:space="preserve">中華化          </t>
         </is>
       </c>
-      <c r="E138" s="4" t="inlineStr">
-        <is>
-          <t>44.40</t>
-        </is>
-      </c>
-      <c r="F138" s="4" t="inlineStr">
-        <is>
-          <t>-3.3</t>
-        </is>
-      </c>
+      <c r="E138" s="4" t="inlineStr"/>
+      <c r="F138" s="4" t="inlineStr"/>
       <c r="G138" s="4" t="n">
         <v>-2815</v>
       </c>
@@ -32586,16 +31574,8 @@
           <t xml:space="preserve">正新            </t>
         </is>
       </c>
-      <c r="E139" s="4" t="inlineStr">
-        <is>
-          <t>29.70</t>
-        </is>
-      </c>
-      <c r="F139" s="4" t="inlineStr">
-        <is>
-          <t>-0.15</t>
-        </is>
-      </c>
+      <c r="E139" s="4" t="inlineStr"/>
+      <c r="F139" s="4" t="inlineStr"/>
       <c r="G139" s="4" t="n">
         <v>-2793</v>
       </c>
@@ -32619,16 +31599,8 @@
           <t xml:space="preserve">富邦金          </t>
         </is>
       </c>
-      <c r="E140" s="4" t="inlineStr">
-        <is>
-          <t>98.00</t>
-        </is>
-      </c>
-      <c r="F140" s="4" t="inlineStr">
-        <is>
-          <t>-0.1</t>
-        </is>
-      </c>
+      <c r="E140" s="4" t="inlineStr"/>
+      <c r="F140" s="4" t="inlineStr"/>
       <c r="G140" s="4" t="n">
         <v>-2725</v>
       </c>
@@ -32652,16 +31624,8 @@
           <t xml:space="preserve">元大金          </t>
         </is>
       </c>
-      <c r="E141" s="4" t="inlineStr">
-        <is>
-          <t>40.10</t>
-        </is>
-      </c>
-      <c r="F141" s="4" t="inlineStr">
-        <is>
-          <t>-0.45</t>
-        </is>
-      </c>
+      <c r="E141" s="4" t="inlineStr"/>
+      <c r="F141" s="4" t="inlineStr"/>
       <c r="G141" s="4" t="n">
         <v>-2703</v>
       </c>
@@ -32685,16 +31649,8 @@
           <t xml:space="preserve">台積電          </t>
         </is>
       </c>
-      <c r="E142" s="4" t="inlineStr">
-        <is>
-          <t>1,495.00</t>
-        </is>
-      </c>
-      <c r="F142" s="4" t="inlineStr">
-        <is>
-          <t>+5.0</t>
-        </is>
-      </c>
+      <c r="E142" s="4" t="inlineStr"/>
+      <c r="F142" s="4" t="inlineStr"/>
       <c r="G142" s="4" t="n">
         <v>-2450</v>
       </c>
@@ -32718,16 +31674,8 @@
           <t xml:space="preserve">遠東新          </t>
         </is>
       </c>
-      <c r="E143" s="4" t="inlineStr">
-        <is>
-          <t>27.80</t>
-        </is>
-      </c>
-      <c r="F143" s="4" t="inlineStr">
-        <is>
-          <t>-0.4</t>
-        </is>
-      </c>
+      <c r="E143" s="4" t="inlineStr"/>
+      <c r="F143" s="4" t="inlineStr"/>
       <c r="G143" s="4" t="n">
         <v>-2375</v>
       </c>
@@ -32751,16 +31699,8 @@
           <t xml:space="preserve">燿華            </t>
         </is>
       </c>
-      <c r="E144" s="4" t="inlineStr">
-        <is>
-          <t>27.35</t>
-        </is>
-      </c>
-      <c r="F144" s="4" t="inlineStr">
-        <is>
-          <t>-0.4</t>
-        </is>
-      </c>
+      <c r="E144" s="4" t="inlineStr"/>
+      <c r="F144" s="4" t="inlineStr"/>
       <c r="G144" s="4" t="n">
         <v>-2362</v>
       </c>
@@ -32784,16 +31724,8 @@
           <t xml:space="preserve">微星            </t>
         </is>
       </c>
-      <c r="E145" s="4" t="inlineStr">
-        <is>
-          <t>98.00</t>
-        </is>
-      </c>
-      <c r="F145" s="4" t="inlineStr">
-        <is>
-          <t>-0.6</t>
-        </is>
-      </c>
+      <c r="E145" s="4" t="inlineStr"/>
+      <c r="F145" s="4" t="inlineStr"/>
       <c r="G145" s="4" t="n">
         <v>-2224</v>
       </c>
@@ -32817,16 +31749,8 @@
           <t xml:space="preserve">統一證          </t>
         </is>
       </c>
-      <c r="E146" s="4" t="inlineStr">
-        <is>
-          <t>24.00</t>
-        </is>
-      </c>
-      <c r="F146" s="4" t="inlineStr">
-        <is>
-          <t>-0.2</t>
-        </is>
-      </c>
+      <c r="E146" s="4" t="inlineStr"/>
+      <c r="F146" s="4" t="inlineStr"/>
       <c r="G146" s="4" t="n">
         <v>-2214</v>
       </c>
@@ -32850,16 +31774,8 @@
           <t xml:space="preserve">文曄            </t>
         </is>
       </c>
-      <c r="E147" s="4" t="inlineStr">
-        <is>
-          <t>142.50</t>
-        </is>
-      </c>
-      <c r="F147" s="4" t="inlineStr">
-        <is>
-          <t>-3.5</t>
-        </is>
-      </c>
+      <c r="E147" s="4" t="inlineStr"/>
+      <c r="F147" s="4" t="inlineStr"/>
       <c r="G147" s="4" t="n">
         <v>-2081</v>
       </c>
@@ -32883,11 +31799,7 @@
           <t xml:space="preserve">創見            </t>
         </is>
       </c>
-      <c r="E148" s="4" t="inlineStr">
-        <is>
-          <t>182.50</t>
-        </is>
-      </c>
+      <c r="E148" s="4" t="inlineStr"/>
       <c r="F148" s="4" t="inlineStr"/>
       <c r="G148" s="4" t="n">
         <v>-2078</v>
@@ -32912,16 +31824,8 @@
           <t xml:space="preserve">新纖            </t>
         </is>
       </c>
-      <c r="E149" s="4" t="inlineStr">
-        <is>
-          <t>15.20</t>
-        </is>
-      </c>
-      <c r="F149" s="4" t="inlineStr">
-        <is>
-          <t>-0.45</t>
-        </is>
-      </c>
+      <c r="E149" s="4" t="inlineStr"/>
+      <c r="F149" s="4" t="inlineStr"/>
       <c r="G149" s="4" t="n">
         <v>-2076</v>
       </c>
@@ -32945,16 +31849,8 @@
           <t xml:space="preserve">兆豐金          </t>
         </is>
       </c>
-      <c r="E150" s="4" t="inlineStr">
-        <is>
-          <t>40.70</t>
-        </is>
-      </c>
-      <c r="F150" s="4" t="inlineStr">
-        <is>
-          <t>-0.25</t>
-        </is>
-      </c>
+      <c r="E150" s="4" t="inlineStr"/>
+      <c r="F150" s="4" t="inlineStr"/>
       <c r="G150" s="4" t="n">
         <v>-2073</v>
       </c>
@@ -32978,16 +31874,8 @@
           <t xml:space="preserve">中鋼            </t>
         </is>
       </c>
-      <c r="E151" s="4" t="inlineStr">
-        <is>
-          <t>18.55</t>
-        </is>
-      </c>
-      <c r="F151" s="4" t="inlineStr">
-        <is>
-          <t>-0.05</t>
-        </is>
-      </c>
+      <c r="E151" s="4" t="inlineStr"/>
+      <c r="F151" s="4" t="inlineStr"/>
       <c r="G151" s="4" t="n">
         <v>-2069</v>
       </c>
@@ -33011,16 +31899,8 @@
           <t xml:space="preserve">萬海            </t>
         </is>
       </c>
-      <c r="E152" s="4" t="inlineStr">
-        <is>
-          <t>78.70</t>
-        </is>
-      </c>
-      <c r="F152" s="4" t="inlineStr">
-        <is>
-          <t>+0.2</t>
-        </is>
-      </c>
+      <c r="E152" s="4" t="inlineStr"/>
+      <c r="F152" s="4" t="inlineStr"/>
       <c r="G152" s="4" t="n">
         <v>-1974</v>
       </c>
@@ -33044,16 +31924,8 @@
           <t xml:space="preserve">可寧衛*         </t>
         </is>
       </c>
-      <c r="E153" s="4" t="inlineStr">
-        <is>
-          <t>24.50</t>
-        </is>
-      </c>
-      <c r="F153" s="4" t="inlineStr">
-        <is>
-          <t>-0.1</t>
-        </is>
-      </c>
+      <c r="E153" s="4" t="inlineStr"/>
+      <c r="F153" s="4" t="inlineStr"/>
       <c r="G153" s="4" t="n">
         <v>-1929</v>
       </c>
@@ -33077,16 +31949,8 @@
           <t xml:space="preserve">定穎投控        </t>
         </is>
       </c>
-      <c r="E154" s="4" t="inlineStr">
-        <is>
-          <t>119.50</t>
-        </is>
-      </c>
-      <c r="F154" s="4" t="inlineStr">
-        <is>
-          <t>-2.5</t>
-        </is>
-      </c>
+      <c r="E154" s="4" t="inlineStr"/>
+      <c r="F154" s="4" t="inlineStr"/>
       <c r="G154" s="4" t="n">
         <v>-1869</v>
       </c>
@@ -33110,16 +31974,8 @@
           <t xml:space="preserve">台塑            </t>
         </is>
       </c>
-      <c r="E155" s="4" t="inlineStr">
-        <is>
-          <t>39.75</t>
-        </is>
-      </c>
-      <c r="F155" s="4" t="inlineStr">
-        <is>
-          <t>-0.35</t>
-        </is>
-      </c>
+      <c r="E155" s="4" t="inlineStr"/>
+      <c r="F155" s="4" t="inlineStr"/>
       <c r="G155" s="4" t="n">
         <v>-1776</v>
       </c>
@@ -33143,16 +31999,8 @@
           <t xml:space="preserve">億光            </t>
         </is>
       </c>
-      <c r="E156" s="4" t="inlineStr">
-        <is>
-          <t>54.70</t>
-        </is>
-      </c>
-      <c r="F156" s="4" t="inlineStr">
-        <is>
-          <t>+0.2</t>
-        </is>
-      </c>
+      <c r="E156" s="4" t="inlineStr"/>
+      <c r="F156" s="4" t="inlineStr"/>
       <c r="G156" s="4" t="n">
         <v>-1741</v>
       </c>
@@ -33176,16 +32024,8 @@
           <t xml:space="preserve">上海商銀        </t>
         </is>
       </c>
-      <c r="E157" s="4" t="inlineStr">
-        <is>
-          <t>40.70</t>
-        </is>
-      </c>
-      <c r="F157" s="4" t="inlineStr">
-        <is>
-          <t>-0.6</t>
-        </is>
-      </c>
+      <c r="E157" s="4" t="inlineStr"/>
+      <c r="F157" s="4" t="inlineStr"/>
       <c r="G157" s="4" t="n">
         <v>-1700</v>
       </c>
@@ -33209,16 +32049,8 @@
           <t xml:space="preserve">日電貿          </t>
         </is>
       </c>
-      <c r="E158" s="4" t="inlineStr">
-        <is>
-          <t>93.30</t>
-        </is>
-      </c>
-      <c r="F158" s="4" t="inlineStr">
-        <is>
-          <t>-1.4</t>
-        </is>
-      </c>
+      <c r="E158" s="4" t="inlineStr"/>
+      <c r="F158" s="4" t="inlineStr"/>
       <c r="G158" s="4" t="n">
         <v>-1692</v>
       </c>
@@ -33310,16 +32142,8 @@
           <t>群益台灣精選高息</t>
         </is>
       </c>
-      <c r="D164" s="4" t="inlineStr">
-        <is>
-          <t>22.50</t>
-        </is>
-      </c>
-      <c r="E164" s="4" t="inlineStr">
-        <is>
-          <t>+0.04</t>
-        </is>
-      </c>
+      <c r="D164" s="4" t="inlineStr"/>
+      <c r="E164" s="4" t="inlineStr"/>
       <c r="F164" s="4" t="n">
         <v>38743</v>
       </c>
@@ -33339,16 +32163,8 @@
           <t xml:space="preserve">元大台灣50      </t>
         </is>
       </c>
-      <c r="D165" s="4" t="inlineStr">
-        <is>
-          <t>63.85</t>
-        </is>
-      </c>
-      <c r="E165" s="4" t="inlineStr">
-        <is>
-          <t>+0.15</t>
-        </is>
-      </c>
+      <c r="D165" s="4" t="inlineStr"/>
+      <c r="E165" s="4" t="inlineStr"/>
       <c r="F165" s="4" t="n">
         <v>32639</v>
       </c>
@@ -33368,16 +32184,8 @@
           <t xml:space="preserve">國泰永續高股息  </t>
         </is>
       </c>
-      <c r="D166" s="4" t="inlineStr">
-        <is>
-          <t>21.60</t>
-        </is>
-      </c>
-      <c r="E166" s="4" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
+      <c r="D166" s="4" t="inlineStr"/>
+      <c r="E166" s="4" t="inlineStr"/>
       <c r="F166" s="4" t="n">
         <v>12023</v>
       </c>
@@ -33397,16 +32205,8 @@
           <t>元大台灣價值高息</t>
         </is>
       </c>
-      <c r="D167" s="4" t="inlineStr">
-        <is>
-          <t>9.24</t>
-        </is>
-      </c>
-      <c r="E167" s="4" t="inlineStr">
-        <is>
-          <t>+0.01</t>
-        </is>
-      </c>
+      <c r="D167" s="4" t="inlineStr"/>
+      <c r="E167" s="4" t="inlineStr"/>
       <c r="F167" s="4" t="n">
         <v>7025</v>
       </c>
@@ -33426,16 +32226,8 @@
           <t>復華台灣科技優息</t>
         </is>
       </c>
-      <c r="D168" s="4" t="inlineStr">
-        <is>
-          <t>17.88</t>
-        </is>
-      </c>
-      <c r="E168" s="4" t="inlineStr">
-        <is>
-          <t>+0.07</t>
-        </is>
-      </c>
+      <c r="D168" s="4" t="inlineStr"/>
+      <c r="E168" s="4" t="inlineStr"/>
       <c r="F168" s="4" t="n">
         <v>5841</v>
       </c>
@@ -33455,16 +32247,8 @@
           <t>富邦特選高股息30</t>
         </is>
       </c>
-      <c r="D169" s="4" t="inlineStr">
-        <is>
-          <t>13.67</t>
-        </is>
-      </c>
-      <c r="E169" s="4" t="inlineStr">
-        <is>
-          <t>+0.06</t>
-        </is>
-      </c>
+      <c r="D169" s="4" t="inlineStr"/>
+      <c r="E169" s="4" t="inlineStr"/>
       <c r="F169" s="4" t="n">
         <v>5827</v>
       </c>
@@ -33484,16 +32268,8 @@
           <t>大華優利高填息30</t>
         </is>
       </c>
-      <c r="D170" s="4" t="inlineStr">
-        <is>
-          <t>22.46</t>
-        </is>
-      </c>
-      <c r="E170" s="4" t="inlineStr">
-        <is>
-          <t>+0.04</t>
-        </is>
-      </c>
+      <c r="D170" s="4" t="inlineStr"/>
+      <c r="E170" s="4" t="inlineStr"/>
       <c r="F170" s="4" t="n">
         <v>4457</v>
       </c>
@@ -33513,16 +32289,8 @@
           <t xml:space="preserve">國泰台灣領袖50  </t>
         </is>
       </c>
-      <c r="D171" s="4" t="inlineStr">
-        <is>
-          <t>25.32</t>
-        </is>
-      </c>
-      <c r="E171" s="4" t="inlineStr">
-        <is>
-          <t>+0.03</t>
-        </is>
-      </c>
+      <c r="D171" s="4" t="inlineStr"/>
+      <c r="E171" s="4" t="inlineStr"/>
       <c r="F171" s="4" t="n">
         <v>3490</v>
       </c>
@@ -33542,16 +32310,8 @@
           <t xml:space="preserve">富邦NASDAQ      </t>
         </is>
       </c>
-      <c r="D172" s="4" t="inlineStr">
-        <is>
-          <t>103.10</t>
-        </is>
-      </c>
-      <c r="E172" s="4" t="inlineStr">
-        <is>
-          <t>-0.05</t>
-        </is>
-      </c>
+      <c r="D172" s="4" t="inlineStr"/>
+      <c r="E172" s="4" t="inlineStr"/>
       <c r="F172" s="4" t="n">
         <v>3478</v>
       </c>
@@ -33571,16 +32331,8 @@
           <t>統一台灣高息動能</t>
         </is>
       </c>
-      <c r="D173" s="4" t="inlineStr">
-        <is>
-          <t>14.62</t>
-        </is>
-      </c>
-      <c r="E173" s="4" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
+      <c r="D173" s="4" t="inlineStr"/>
+      <c r="E173" s="4" t="inlineStr"/>
       <c r="F173" s="4" t="n">
         <v>3282</v>
       </c>
@@ -33673,16 +32425,8 @@
           <t xml:space="preserve">元大高股息      </t>
         </is>
       </c>
-      <c r="D179" s="4" t="inlineStr">
-        <is>
-          <t>36.55</t>
-        </is>
-      </c>
-      <c r="E179" s="4" t="inlineStr">
-        <is>
-          <t>+0.01</t>
-        </is>
-      </c>
+      <c r="D179" s="4" t="inlineStr"/>
+      <c r="E179" s="4" t="inlineStr"/>
       <c r="F179" s="4" t="n">
         <v>-10442</v>
       </c>
@@ -33702,16 +32446,8 @@
           <t>群益優選非投等債</t>
         </is>
       </c>
-      <c r="D180" s="4" t="inlineStr">
-        <is>
-          <t>9.73</t>
-        </is>
-      </c>
-      <c r="E180" s="4" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
+      <c r="D180" s="4" t="inlineStr"/>
+      <c r="E180" s="4" t="inlineStr"/>
       <c r="F180" s="4" t="n">
         <v>-4848</v>
       </c>
@@ -33731,16 +32467,8 @@
           <t xml:space="preserve">元大台灣50反1   </t>
         </is>
       </c>
-      <c r="D181" s="4" t="inlineStr">
-        <is>
-          <t>16.79</t>
-        </is>
-      </c>
-      <c r="E181" s="4" t="inlineStr">
-        <is>
-          <t>-0.03</t>
-        </is>
-      </c>
+      <c r="D181" s="4" t="inlineStr"/>
+      <c r="E181" s="4" t="inlineStr"/>
       <c r="F181" s="4" t="n">
         <v>-4683</v>
       </c>
@@ -33760,16 +32488,8 @@
           <t xml:space="preserve">元大S&amp;P500      </t>
         </is>
       </c>
-      <c r="D182" s="4" t="inlineStr">
-        <is>
-          <t>68.10</t>
-        </is>
-      </c>
-      <c r="E182" s="4" t="inlineStr">
-        <is>
-          <t>+0.15</t>
-        </is>
-      </c>
+      <c r="D182" s="4" t="inlineStr"/>
+      <c r="E182" s="4" t="inlineStr"/>
       <c r="F182" s="4" t="n">
         <v>-2890</v>
       </c>
@@ -33789,16 +32509,8 @@
           <t xml:space="preserve">復華富時不動產  </t>
         </is>
       </c>
-      <c r="D183" s="4" t="inlineStr">
-        <is>
-          <t>9.14</t>
-        </is>
-      </c>
-      <c r="E183" s="4" t="inlineStr">
-        <is>
-          <t>-0.08</t>
-        </is>
-      </c>
+      <c r="D183" s="4" t="inlineStr"/>
+      <c r="E183" s="4" t="inlineStr"/>
       <c r="F183" s="4" t="n">
         <v>-1451</v>
       </c>
@@ -33818,16 +32530,8 @@
           <t xml:space="preserve">統一FANG+       </t>
         </is>
       </c>
-      <c r="D184" s="4" t="inlineStr">
-        <is>
-          <t>119.55</t>
-        </is>
-      </c>
-      <c r="E184" s="4" t="inlineStr">
-        <is>
-          <t>+0.65</t>
-        </is>
-      </c>
+      <c r="D184" s="4" t="inlineStr"/>
+      <c r="E184" s="4" t="inlineStr"/>
       <c r="F184" s="4" t="n">
         <v>-1367</v>
       </c>

--- a/StockInfo/tse_analysis_result.xlsx
+++ b/StockInfo/tse_analysis_result.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251231" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251230" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251229" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251226" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251224" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="20251231" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="20251230" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="20251229" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="20251226" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="20251224" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/StockInfo/tse_analysis_result.xlsx
+++ b/StockInfo/tse_analysis_result.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="20260102" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="20251231" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="20251230" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="20251229" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="20251226" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20260102" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251231" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251230" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251229" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251226" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/StockInfo/tse_analysis_result.xlsx
+++ b/StockInfo/tse_analysis_result.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20260107" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20260106" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20260105" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20260102" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251231" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="20260107" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="20260106" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="20260105" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="20260102" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="20251231" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/StockInfo/tse_analysis_result.xlsx
+++ b/StockInfo/tse_analysis_result.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20260115" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20260114" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20260113" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20260112" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20260109" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="20260115" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="20260114" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="20260113" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="20260112" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="20260109" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/StockInfo/tse_analysis_result.xlsx
+++ b/StockInfo/tse_analysis_result.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="20260115" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="20260114" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="20260113" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="20260112" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="20260109" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20260115" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20260114" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20260113" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20260112" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20260109" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -28758,16 +28758,8 @@
           <t xml:space="preserve">復華富時不動產  </t>
         </is>
       </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>9.50</t>
-        </is>
-      </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t>+0.24</t>
-        </is>
-      </c>
+      <c r="E4" s="4" t="inlineStr"/>
+      <c r="F4" s="4" t="inlineStr"/>
       <c r="G4" s="4" t="n">
         <v>50717</v>
       </c>
@@ -28791,16 +28783,8 @@
           <t xml:space="preserve">可寧衛*         </t>
         </is>
       </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t>39.05</t>
-        </is>
-      </c>
-      <c r="F5" s="4" t="inlineStr">
-        <is>
-          <t>+3.55</t>
-        </is>
-      </c>
+      <c r="E5" s="4" t="inlineStr"/>
+      <c r="F5" s="4" t="inlineStr"/>
       <c r="G5" s="4" t="n">
         <v>47838</v>
       </c>
@@ -28824,16 +28808,8 @@
           <t xml:space="preserve">聯電            </t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>55.10</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>+2.3</t>
-        </is>
-      </c>
+      <c r="E6" s="4" t="inlineStr"/>
+      <c r="F6" s="4" t="inlineStr"/>
       <c r="G6" s="4" t="n">
         <v>44417</v>
       </c>
@@ -28857,16 +28833,8 @@
           <t>群益台灣精選高息</t>
         </is>
       </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>22.94</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>+0.01</t>
-        </is>
-      </c>
+      <c r="E7" s="4" t="inlineStr"/>
+      <c r="F7" s="4" t="inlineStr"/>
       <c r="G7" s="4" t="n">
         <v>30672</v>
       </c>
@@ -28890,16 +28858,8 @@
           <t>元大台灣價值高息</t>
         </is>
       </c>
-      <c r="E8" s="4" t="inlineStr">
-        <is>
-          <t>9.35</t>
-        </is>
-      </c>
-      <c r="F8" s="4" t="inlineStr">
-        <is>
-          <t>+0.02</t>
-        </is>
-      </c>
+      <c r="E8" s="4" t="inlineStr"/>
+      <c r="F8" s="4" t="inlineStr"/>
       <c r="G8" s="4" t="n">
         <v>29508</v>
       </c>
@@ -28923,16 +28883,8 @@
           <t xml:space="preserve">康舒            </t>
         </is>
       </c>
-      <c r="E9" s="4" t="inlineStr">
-        <is>
-          <t>45.55</t>
-        </is>
-      </c>
-      <c r="F9" s="4" t="inlineStr">
-        <is>
-          <t>+3.2</t>
-        </is>
-      </c>
+      <c r="E9" s="4" t="inlineStr"/>
+      <c r="F9" s="4" t="inlineStr"/>
       <c r="G9" s="4" t="n">
         <v>25800</v>
       </c>
@@ -28956,16 +28908,8 @@
           <t xml:space="preserve">廣達            </t>
         </is>
       </c>
-      <c r="E10" s="4" t="inlineStr">
-        <is>
-          <t>283.00</t>
-        </is>
-      </c>
-      <c r="F10" s="4" t="inlineStr">
-        <is>
-          <t>+10.0</t>
-        </is>
-      </c>
+      <c r="E10" s="4" t="inlineStr"/>
+      <c r="F10" s="4" t="inlineStr"/>
       <c r="G10" s="4" t="n">
         <v>22858</v>
       </c>
@@ -28989,16 +28933,8 @@
           <t xml:space="preserve">力積電          </t>
         </is>
       </c>
-      <c r="E11" s="4" t="inlineStr">
-        <is>
-          <t>47.50</t>
-        </is>
-      </c>
-      <c r="F11" s="4" t="inlineStr">
-        <is>
-          <t>-2.15</t>
-        </is>
-      </c>
+      <c r="E11" s="4" t="inlineStr"/>
+      <c r="F11" s="4" t="inlineStr"/>
       <c r="G11" s="4" t="n">
         <v>22097</v>
       </c>
@@ -29022,16 +28958,8 @@
           <t xml:space="preserve">旺宏            </t>
         </is>
       </c>
-      <c r="E12" s="4" t="inlineStr">
-        <is>
-          <t>58.30</t>
-        </is>
-      </c>
-      <c r="F12" s="4" t="inlineStr">
-        <is>
-          <t>-5.0</t>
-        </is>
-      </c>
+      <c r="E12" s="4" t="inlineStr"/>
+      <c r="F12" s="4" t="inlineStr"/>
       <c r="G12" s="4" t="n">
         <v>19154</v>
       </c>
@@ -29055,16 +28983,8 @@
           <t xml:space="preserve">國泰永續高股息  </t>
         </is>
       </c>
-      <c r="E13" s="4" t="inlineStr">
-        <is>
-          <t>22.10</t>
-        </is>
-      </c>
-      <c r="F13" s="4" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
+      <c r="E13" s="4" t="inlineStr"/>
+      <c r="F13" s="4" t="inlineStr"/>
       <c r="G13" s="4" t="n">
         <v>17967</v>
       </c>
@@ -29088,16 +29008,8 @@
           <t>統一台灣高息動能</t>
         </is>
       </c>
-      <c r="E14" s="4" t="inlineStr">
-        <is>
-          <t>15.03</t>
-        </is>
-      </c>
-      <c r="F14" s="4" t="inlineStr">
-        <is>
-          <t>+0.01</t>
-        </is>
-      </c>
+      <c r="E14" s="4" t="inlineStr"/>
+      <c r="F14" s="4" t="inlineStr"/>
       <c r="G14" s="4" t="n">
         <v>11473</v>
       </c>
@@ -29121,16 +29033,8 @@
           <t xml:space="preserve">群創            </t>
         </is>
       </c>
-      <c r="E15" s="4" t="inlineStr">
-        <is>
-          <t>20.00</t>
-        </is>
-      </c>
-      <c r="F15" s="4" t="inlineStr">
-        <is>
-          <t>-0.75</t>
-        </is>
-      </c>
+      <c r="E15" s="4" t="inlineStr"/>
+      <c r="F15" s="4" t="inlineStr"/>
       <c r="G15" s="4" t="n">
         <v>10945</v>
       </c>
@@ -29154,16 +29058,8 @@
           <t>富邦特選高股息30</t>
         </is>
       </c>
-      <c r="E16" s="4" t="inlineStr">
-        <is>
-          <t>14.14</t>
-        </is>
-      </c>
-      <c r="F16" s="4" t="inlineStr">
-        <is>
-          <t>-0.03</t>
-        </is>
-      </c>
+      <c r="E16" s="4" t="inlineStr"/>
+      <c r="F16" s="4" t="inlineStr"/>
       <c r="G16" s="4" t="n">
         <v>10820</v>
       </c>
@@ -29187,16 +29083,8 @@
           <t xml:space="preserve">華通            </t>
         </is>
       </c>
-      <c r="E17" s="4" t="inlineStr">
-        <is>
-          <t>115.50</t>
-        </is>
-      </c>
-      <c r="F17" s="4" t="inlineStr">
-        <is>
-          <t>+10.5</t>
-        </is>
-      </c>
+      <c r="E17" s="4" t="inlineStr"/>
+      <c r="F17" s="4" t="inlineStr"/>
       <c r="G17" s="4" t="n">
         <v>10654</v>
       </c>
@@ -29220,11 +29108,7 @@
           <t xml:space="preserve">元大S&amp;P500      </t>
         </is>
       </c>
-      <c r="E18" s="4" t="inlineStr">
-        <is>
-          <t>68.65</t>
-        </is>
-      </c>
+      <c r="E18" s="4" t="inlineStr"/>
       <c r="F18" s="4" t="inlineStr"/>
       <c r="G18" s="4" t="n">
         <v>9676</v>
@@ -29249,16 +29133,8 @@
           <t xml:space="preserve">定穎投控        </t>
         </is>
       </c>
-      <c r="E19" s="4" t="inlineStr">
-        <is>
-          <t>139.50</t>
-        </is>
-      </c>
-      <c r="F19" s="4" t="inlineStr">
-        <is>
-          <t>+12.5</t>
-        </is>
-      </c>
+      <c r="E19" s="4" t="inlineStr"/>
+      <c r="F19" s="4" t="inlineStr"/>
       <c r="G19" s="4" t="n">
         <v>9332</v>
       </c>
@@ -29282,16 +29158,8 @@
           <t xml:space="preserve">南茂            </t>
         </is>
       </c>
-      <c r="E20" s="4" t="inlineStr">
-        <is>
-          <t>58.30</t>
-        </is>
-      </c>
-      <c r="F20" s="4" t="inlineStr">
-        <is>
-          <t>+5.3</t>
-        </is>
-      </c>
+      <c r="E20" s="4" t="inlineStr"/>
+      <c r="F20" s="4" t="inlineStr"/>
       <c r="G20" s="4" t="n">
         <v>8983</v>
       </c>
@@ -29315,11 +29183,7 @@
           <t>復華台灣科技優息</t>
         </is>
       </c>
-      <c r="E21" s="4" t="inlineStr">
-        <is>
-          <t>18.54</t>
-        </is>
-      </c>
+      <c r="E21" s="4" t="inlineStr"/>
       <c r="F21" s="4" t="inlineStr"/>
       <c r="G21" s="4" t="n">
         <v>8425</v>
@@ -29344,16 +29208,8 @@
           <t>元大台灣高息低波</t>
         </is>
       </c>
-      <c r="E22" s="4" t="inlineStr">
-        <is>
-          <t>51.00</t>
-        </is>
-      </c>
-      <c r="F22" s="4" t="inlineStr">
-        <is>
-          <t>+0.15</t>
-        </is>
-      </c>
+      <c r="E22" s="4" t="inlineStr"/>
+      <c r="F22" s="4" t="inlineStr"/>
       <c r="G22" s="4" t="n">
         <v>8165</v>
       </c>
@@ -29377,16 +29233,8 @@
           <t xml:space="preserve">台塑            </t>
         </is>
       </c>
-      <c r="E23" s="4" t="inlineStr">
-        <is>
-          <t>41.00</t>
-        </is>
-      </c>
-      <c r="F23" s="4" t="inlineStr">
-        <is>
-          <t>-0.7</t>
-        </is>
-      </c>
+      <c r="E23" s="4" t="inlineStr"/>
+      <c r="F23" s="4" t="inlineStr"/>
       <c r="G23" s="4" t="n">
         <v>7692</v>
       </c>
@@ -29410,16 +29258,8 @@
           <t xml:space="preserve">華東            </t>
         </is>
       </c>
-      <c r="E24" s="4" t="inlineStr">
-        <is>
-          <t>71.40</t>
-        </is>
-      </c>
-      <c r="F24" s="4" t="inlineStr">
-        <is>
-          <t>-1.2</t>
-        </is>
-      </c>
+      <c r="E24" s="4" t="inlineStr"/>
+      <c r="F24" s="4" t="inlineStr"/>
       <c r="G24" s="4" t="n">
         <v>6841</v>
       </c>
@@ -29443,16 +29283,8 @@
           <t>大華優利高填息30</t>
         </is>
       </c>
-      <c r="E25" s="4" t="inlineStr">
-        <is>
-          <t>22.67</t>
-        </is>
-      </c>
-      <c r="F25" s="4" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
+      <c r="E25" s="4" t="inlineStr"/>
+      <c r="F25" s="4" t="inlineStr"/>
       <c r="G25" s="4" t="n">
         <v>6182</v>
       </c>
@@ -29476,16 +29308,8 @@
           <t xml:space="preserve">富邦台50        </t>
         </is>
       </c>
-      <c r="E26" s="4" t="inlineStr">
-        <is>
-          <t>159.15</t>
-        </is>
-      </c>
-      <c r="F26" s="4" t="inlineStr">
-        <is>
-          <t>-0.4</t>
-        </is>
-      </c>
+      <c r="E26" s="4" t="inlineStr"/>
+      <c r="F26" s="4" t="inlineStr"/>
       <c r="G26" s="4" t="n">
         <v>5539</v>
       </c>
@@ -29509,16 +29333,8 @@
           <t xml:space="preserve">台新新光金      </t>
         </is>
       </c>
-      <c r="E27" s="4" t="inlineStr">
-        <is>
-          <t>20.85</t>
-        </is>
-      </c>
-      <c r="F27" s="4" t="inlineStr">
-        <is>
-          <t>+0.1</t>
-        </is>
-      </c>
+      <c r="E27" s="4" t="inlineStr"/>
+      <c r="F27" s="4" t="inlineStr"/>
       <c r="G27" s="4" t="n">
         <v>5470</v>
       </c>
@@ -29542,16 +29358,8 @@
           <t xml:space="preserve">慧洋-KY         </t>
         </is>
       </c>
-      <c r="E28" s="4" t="inlineStr">
-        <is>
-          <t>71.30</t>
-        </is>
-      </c>
-      <c r="F28" s="4" t="inlineStr">
-        <is>
-          <t>+1.8</t>
-        </is>
-      </c>
+      <c r="E28" s="4" t="inlineStr"/>
+      <c r="F28" s="4" t="inlineStr"/>
       <c r="G28" s="4" t="n">
         <v>5306</v>
       </c>
@@ -29575,16 +29383,8 @@
           <t xml:space="preserve">尖點            </t>
         </is>
       </c>
-      <c r="E29" s="4" t="inlineStr">
-        <is>
-          <t>215.50</t>
-        </is>
-      </c>
-      <c r="F29" s="4" t="inlineStr">
-        <is>
-          <t>+19.5</t>
-        </is>
-      </c>
+      <c r="E29" s="4" t="inlineStr"/>
+      <c r="F29" s="4" t="inlineStr"/>
       <c r="G29" s="4" t="n">
         <v>4955</v>
       </c>
@@ -29608,16 +29408,8 @@
           <t xml:space="preserve">力成            </t>
         </is>
       </c>
-      <c r="E30" s="4" t="inlineStr">
-        <is>
-          <t>200.00</t>
-        </is>
-      </c>
-      <c r="F30" s="4" t="inlineStr">
-        <is>
-          <t>-3.0</t>
-        </is>
-      </c>
+      <c r="E30" s="4" t="inlineStr"/>
+      <c r="F30" s="4" t="inlineStr"/>
       <c r="G30" s="4" t="n">
         <v>4235</v>
       </c>
@@ -29641,16 +29433,8 @@
           <t xml:space="preserve">寶成            </t>
         </is>
       </c>
-      <c r="E31" s="4" t="inlineStr">
-        <is>
-          <t>31.25</t>
-        </is>
-      </c>
-      <c r="F31" s="4" t="inlineStr">
-        <is>
-          <t>+0.45</t>
-        </is>
-      </c>
+      <c r="E31" s="4" t="inlineStr"/>
+      <c r="F31" s="4" t="inlineStr"/>
       <c r="G31" s="4" t="n">
         <v>4217</v>
       </c>
@@ -29674,16 +29458,8 @@
           <t xml:space="preserve">新興            </t>
         </is>
       </c>
-      <c r="E32" s="4" t="inlineStr">
-        <is>
-          <t>27.75</t>
-        </is>
-      </c>
-      <c r="F32" s="4" t="inlineStr">
-        <is>
-          <t>+0.8</t>
-        </is>
-      </c>
+      <c r="E32" s="4" t="inlineStr"/>
+      <c r="F32" s="4" t="inlineStr"/>
       <c r="G32" s="4" t="n">
         <v>3927</v>
       </c>
@@ -29707,16 +29483,8 @@
           <t xml:space="preserve">超豐            </t>
         </is>
       </c>
-      <c r="E33" s="4" t="inlineStr">
-        <is>
-          <t>91.50</t>
-        </is>
-      </c>
-      <c r="F33" s="4" t="inlineStr">
-        <is>
-          <t>+3.9</t>
-        </is>
-      </c>
+      <c r="E33" s="4" t="inlineStr"/>
+      <c r="F33" s="4" t="inlineStr"/>
       <c r="G33" s="4" t="n">
         <v>3768</v>
       </c>
@@ -29740,16 +29508,8 @@
           <t xml:space="preserve">華新            </t>
         </is>
       </c>
-      <c r="E34" s="4" t="inlineStr">
-        <is>
-          <t>37.60</t>
-        </is>
-      </c>
-      <c r="F34" s="4" t="inlineStr">
-        <is>
-          <t>-0.7</t>
-        </is>
-      </c>
+      <c r="E34" s="4" t="inlineStr"/>
+      <c r="F34" s="4" t="inlineStr"/>
       <c r="G34" s="4" t="n">
         <v>3543</v>
       </c>
@@ -29773,16 +29533,8 @@
           <t xml:space="preserve">泰鼎-KY         </t>
         </is>
       </c>
-      <c r="E35" s="4" t="inlineStr">
-        <is>
-          <t>38.50</t>
-        </is>
-      </c>
-      <c r="F35" s="4" t="inlineStr">
-        <is>
-          <t>+0.4</t>
-        </is>
-      </c>
+      <c r="E35" s="4" t="inlineStr"/>
+      <c r="F35" s="4" t="inlineStr"/>
       <c r="G35" s="4" t="n">
         <v>3172</v>
       </c>
@@ -29806,11 +29558,7 @@
           <t xml:space="preserve">臺企銀          </t>
         </is>
       </c>
-      <c r="E36" s="4" t="inlineStr">
-        <is>
-          <t>16.15</t>
-        </is>
-      </c>
+      <c r="E36" s="4" t="inlineStr"/>
       <c r="F36" s="4" t="inlineStr"/>
       <c r="G36" s="4" t="n">
         <v>2998</v>
@@ -29835,16 +29583,8 @@
           <t xml:space="preserve">金寶            </t>
         </is>
       </c>
-      <c r="E37" s="4" t="inlineStr">
-        <is>
-          <t>22.80</t>
-        </is>
-      </c>
-      <c r="F37" s="4" t="inlineStr">
-        <is>
-          <t>+0.15</t>
-        </is>
-      </c>
+      <c r="E37" s="4" t="inlineStr"/>
+      <c r="F37" s="4" t="inlineStr"/>
       <c r="G37" s="4" t="n">
         <v>2976</v>
       </c>
@@ -29868,16 +29608,8 @@
           <t xml:space="preserve">國巨*           </t>
         </is>
       </c>
-      <c r="E38" s="4" t="inlineStr">
-        <is>
-          <t>241.50</t>
-        </is>
-      </c>
-      <c r="F38" s="4" t="inlineStr">
-        <is>
-          <t>+4.0</t>
-        </is>
-      </c>
+      <c r="E38" s="4" t="inlineStr"/>
+      <c r="F38" s="4" t="inlineStr"/>
       <c r="G38" s="4" t="n">
         <v>2804</v>
       </c>
@@ -29901,16 +29633,8 @@
           <t xml:space="preserve">國碩            </t>
         </is>
       </c>
-      <c r="E39" s="4" t="inlineStr">
-        <is>
-          <t>25.50</t>
-        </is>
-      </c>
-      <c r="F39" s="4" t="inlineStr">
-        <is>
-          <t>+0.7</t>
-        </is>
-      </c>
+      <c r="E39" s="4" t="inlineStr"/>
+      <c r="F39" s="4" t="inlineStr"/>
       <c r="G39" s="4" t="n">
         <v>2642</v>
       </c>
@@ -29934,16 +29658,8 @@
           <t xml:space="preserve">華泰            </t>
         </is>
       </c>
-      <c r="E40" s="4" t="inlineStr">
-        <is>
-          <t>57.30</t>
-        </is>
-      </c>
-      <c r="F40" s="4" t="inlineStr">
-        <is>
-          <t>+0.8</t>
-        </is>
-      </c>
+      <c r="E40" s="4" t="inlineStr"/>
+      <c r="F40" s="4" t="inlineStr"/>
       <c r="G40" s="4" t="n">
         <v>2623</v>
       </c>
@@ -29967,16 +29683,8 @@
           <t xml:space="preserve">福懋科          </t>
         </is>
       </c>
-      <c r="E41" s="4" t="inlineStr">
-        <is>
-          <t>65.10</t>
-        </is>
-      </c>
-      <c r="F41" s="4" t="inlineStr">
-        <is>
-          <t>-2.2</t>
-        </is>
-      </c>
+      <c r="E41" s="4" t="inlineStr"/>
+      <c r="F41" s="4" t="inlineStr"/>
       <c r="G41" s="4" t="n">
         <v>2599</v>
       </c>
@@ -30000,16 +29708,8 @@
           <t xml:space="preserve">裕民            </t>
         </is>
       </c>
-      <c r="E42" s="4" t="inlineStr">
-        <is>
-          <t>62.20</t>
-        </is>
-      </c>
-      <c r="F42" s="4" t="inlineStr">
-        <is>
-          <t>+0.8</t>
-        </is>
-      </c>
+      <c r="E42" s="4" t="inlineStr"/>
+      <c r="F42" s="4" t="inlineStr"/>
       <c r="G42" s="4" t="n">
         <v>2575</v>
       </c>
@@ -30033,16 +29733,8 @@
           <t xml:space="preserve">愛普*           </t>
         </is>
       </c>
-      <c r="E43" s="4" t="inlineStr">
-        <is>
-          <t>480.00</t>
-        </is>
-      </c>
-      <c r="F43" s="4" t="inlineStr">
-        <is>
-          <t>+25.0</t>
-        </is>
-      </c>
+      <c r="E43" s="4" t="inlineStr"/>
+      <c r="F43" s="4" t="inlineStr"/>
       <c r="G43" s="4" t="n">
         <v>2456</v>
       </c>
@@ -30066,16 +29758,8 @@
           <t xml:space="preserve">州巧            </t>
         </is>
       </c>
-      <c r="E44" s="4" t="inlineStr">
-        <is>
-          <t>46.75</t>
-        </is>
-      </c>
-      <c r="F44" s="4" t="inlineStr">
-        <is>
-          <t>+4.25</t>
-        </is>
-      </c>
+      <c r="E44" s="4" t="inlineStr"/>
+      <c r="F44" s="4" t="inlineStr"/>
       <c r="G44" s="4" t="n">
         <v>2400</v>
       </c>
@@ -30099,16 +29783,8 @@
           <t xml:space="preserve">大聯大          </t>
         </is>
       </c>
-      <c r="E45" s="4" t="inlineStr">
-        <is>
-          <t>64.20</t>
-        </is>
-      </c>
-      <c r="F45" s="4" t="inlineStr">
-        <is>
-          <t>+0.7</t>
-        </is>
-      </c>
+      <c r="E45" s="4" t="inlineStr"/>
+      <c r="F45" s="4" t="inlineStr"/>
       <c r="G45" s="4" t="n">
         <v>2386</v>
       </c>
@@ -30132,16 +29808,8 @@
           <t xml:space="preserve">三商壽          </t>
         </is>
       </c>
-      <c r="E46" s="4" t="inlineStr">
-        <is>
-          <t>7.79</t>
-        </is>
-      </c>
-      <c r="F46" s="4" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
+      <c r="E46" s="4" t="inlineStr"/>
+      <c r="F46" s="4" t="inlineStr"/>
       <c r="G46" s="4" t="n">
         <v>2381</v>
       </c>
@@ -30165,16 +29833,8 @@
           <t xml:space="preserve">高力            </t>
         </is>
       </c>
-      <c r="E47" s="4" t="inlineStr">
-        <is>
-          <t>635.00</t>
-        </is>
-      </c>
-      <c r="F47" s="4" t="inlineStr">
-        <is>
-          <t>+57.0</t>
-        </is>
-      </c>
+      <c r="E47" s="4" t="inlineStr"/>
+      <c r="F47" s="4" t="inlineStr"/>
       <c r="G47" s="4" t="n">
         <v>1997</v>
       </c>
@@ -30198,16 +29858,8 @@
           <t xml:space="preserve">工信            </t>
         </is>
       </c>
-      <c r="E48" s="4" t="inlineStr">
-        <is>
-          <t>24.25</t>
-        </is>
-      </c>
-      <c r="F48" s="4" t="inlineStr">
-        <is>
-          <t>+2.2</t>
-        </is>
-      </c>
+      <c r="E48" s="4" t="inlineStr"/>
+      <c r="F48" s="4" t="inlineStr"/>
       <c r="G48" s="4" t="n">
         <v>1955</v>
       </c>
@@ -30231,16 +29883,8 @@
           <t xml:space="preserve">陽明            </t>
         </is>
       </c>
-      <c r="E49" s="4" t="inlineStr">
-        <is>
-          <t>56.20</t>
-        </is>
-      </c>
-      <c r="F49" s="4" t="inlineStr">
-        <is>
-          <t>-0.1</t>
-        </is>
-      </c>
+      <c r="E49" s="4" t="inlineStr"/>
+      <c r="F49" s="4" t="inlineStr"/>
       <c r="G49" s="4" t="n">
         <v>1897</v>
       </c>
@@ -30264,16 +29908,8 @@
           <t xml:space="preserve">永光            </t>
         </is>
       </c>
-      <c r="E50" s="4" t="inlineStr">
-        <is>
-          <t>21.05</t>
-        </is>
-      </c>
-      <c r="F50" s="4" t="inlineStr">
-        <is>
-          <t>+0.5</t>
-        </is>
-      </c>
+      <c r="E50" s="4" t="inlineStr"/>
+      <c r="F50" s="4" t="inlineStr"/>
       <c r="G50" s="4" t="n">
         <v>1807</v>
       </c>
@@ -30297,16 +29933,8 @@
           <t xml:space="preserve">南亞科          </t>
         </is>
       </c>
-      <c r="E51" s="4" t="inlineStr">
-        <is>
-          <t>217.50</t>
-        </is>
-      </c>
-      <c r="F51" s="4" t="inlineStr">
-        <is>
-          <t>-24.0</t>
-        </is>
-      </c>
+      <c r="E51" s="4" t="inlineStr"/>
+      <c r="F51" s="4" t="inlineStr"/>
       <c r="G51" s="4" t="n">
         <v>1755</v>
       </c>
@@ -30330,16 +29958,8 @@
           <t xml:space="preserve">長華*           </t>
         </is>
       </c>
-      <c r="E52" s="4" t="inlineStr">
-        <is>
-          <t>45.55</t>
-        </is>
-      </c>
-      <c r="F52" s="4" t="inlineStr">
-        <is>
-          <t>+0.35</t>
-        </is>
-      </c>
+      <c r="E52" s="4" t="inlineStr"/>
+      <c r="F52" s="4" t="inlineStr"/>
       <c r="G52" s="4" t="n">
         <v>1661</v>
       </c>
@@ -30363,16 +29983,8 @@
           <t xml:space="preserve">兆赫            </t>
         </is>
       </c>
-      <c r="E53" s="4" t="inlineStr">
-        <is>
-          <t>25.00</t>
-        </is>
-      </c>
-      <c r="F53" s="4" t="inlineStr">
-        <is>
-          <t>-0.45</t>
-        </is>
-      </c>
+      <c r="E53" s="4" t="inlineStr"/>
+      <c r="F53" s="4" t="inlineStr"/>
       <c r="G53" s="4" t="n">
         <v>1541</v>
       </c>
@@ -30396,16 +30008,8 @@
           <t xml:space="preserve">景碩            </t>
         </is>
       </c>
-      <c r="E54" s="4" t="inlineStr">
-        <is>
-          <t>168.50</t>
-        </is>
-      </c>
-      <c r="F54" s="4" t="inlineStr">
-        <is>
-          <t>+2.5</t>
-        </is>
-      </c>
+      <c r="E54" s="4" t="inlineStr"/>
+      <c r="F54" s="4" t="inlineStr"/>
       <c r="G54" s="4" t="n">
         <v>1541</v>
       </c>
@@ -30429,16 +30033,8 @@
           <t xml:space="preserve">宇瞻            </t>
         </is>
       </c>
-      <c r="E55" s="4" t="inlineStr">
-        <is>
-          <t>128.50</t>
-        </is>
-      </c>
-      <c r="F55" s="4" t="inlineStr">
-        <is>
-          <t>+1.5</t>
-        </is>
-      </c>
+      <c r="E55" s="4" t="inlineStr"/>
+      <c r="F55" s="4" t="inlineStr"/>
       <c r="G55" s="4" t="n">
         <v>1532</v>
       </c>
@@ -30462,16 +30058,8 @@
           <t xml:space="preserve">華城            </t>
         </is>
       </c>
-      <c r="E56" s="4" t="inlineStr">
-        <is>
-          <t>786.00</t>
-        </is>
-      </c>
-      <c r="F56" s="4" t="inlineStr">
-        <is>
-          <t>+51.0</t>
-        </is>
-      </c>
+      <c r="E56" s="4" t="inlineStr"/>
+      <c r="F56" s="4" t="inlineStr"/>
       <c r="G56" s="4" t="n">
         <v>1479</v>
       </c>
@@ -30495,16 +30083,8 @@
           <t xml:space="preserve">華南金          </t>
         </is>
       </c>
-      <c r="E57" s="4" t="inlineStr">
-        <is>
-          <t>31.85</t>
-        </is>
-      </c>
-      <c r="F57" s="4" t="inlineStr">
-        <is>
-          <t>+0.35</t>
-        </is>
-      </c>
+      <c r="E57" s="4" t="inlineStr"/>
+      <c r="F57" s="4" t="inlineStr"/>
       <c r="G57" s="4" t="n">
         <v>1467</v>
       </c>
@@ -30528,16 +30108,8 @@
           <t xml:space="preserve">昇貿            </t>
         </is>
       </c>
-      <c r="E58" s="4" t="inlineStr">
-        <is>
-          <t>110.50</t>
-        </is>
-      </c>
-      <c r="F58" s="4" t="inlineStr">
-        <is>
-          <t>+2.0</t>
-        </is>
-      </c>
+      <c r="E58" s="4" t="inlineStr"/>
+      <c r="F58" s="4" t="inlineStr"/>
       <c r="G58" s="4" t="n">
         <v>1408</v>
       </c>
@@ -30561,16 +30133,8 @@
           <t xml:space="preserve">玉晶光          </t>
         </is>
       </c>
-      <c r="E59" s="4" t="inlineStr">
-        <is>
-          <t>456.00</t>
-        </is>
-      </c>
-      <c r="F59" s="4" t="inlineStr">
-        <is>
-          <t>+27.5</t>
-        </is>
-      </c>
+      <c r="E59" s="4" t="inlineStr"/>
+      <c r="F59" s="4" t="inlineStr"/>
       <c r="G59" s="4" t="n">
         <v>1402</v>
       </c>
@@ -30594,16 +30158,8 @@
           <t>群益優選非投等債</t>
         </is>
       </c>
-      <c r="E60" s="4" t="inlineStr">
-        <is>
-          <t>9.79</t>
-        </is>
-      </c>
-      <c r="F60" s="4" t="inlineStr">
-        <is>
-          <t>+0.03</t>
-        </is>
-      </c>
+      <c r="E60" s="4" t="inlineStr"/>
+      <c r="F60" s="4" t="inlineStr"/>
       <c r="G60" s="4" t="n">
         <v>1235</v>
       </c>
@@ -30627,16 +30183,8 @@
           <t xml:space="preserve">惠特            </t>
         </is>
       </c>
-      <c r="E61" s="4" t="inlineStr">
-        <is>
-          <t>120.50</t>
-        </is>
-      </c>
-      <c r="F61" s="4" t="inlineStr">
-        <is>
-          <t>-5.0</t>
-        </is>
-      </c>
+      <c r="E61" s="4" t="inlineStr"/>
+      <c r="F61" s="4" t="inlineStr"/>
       <c r="G61" s="4" t="n">
         <v>1215</v>
       </c>
@@ -30660,16 +30208,8 @@
           <t xml:space="preserve">興富發          </t>
         </is>
       </c>
-      <c r="E62" s="4" t="inlineStr">
-        <is>
-          <t>39.90</t>
-        </is>
-      </c>
-      <c r="F62" s="4" t="inlineStr">
-        <is>
-          <t>+0.55</t>
-        </is>
-      </c>
+      <c r="E62" s="4" t="inlineStr"/>
+      <c r="F62" s="4" t="inlineStr"/>
       <c r="G62" s="4" t="n">
         <v>1209</v>
       </c>
@@ -30693,16 +30233,8 @@
           <t xml:space="preserve">創見            </t>
         </is>
       </c>
-      <c r="E63" s="4" t="inlineStr">
-        <is>
-          <t>241.50</t>
-        </is>
-      </c>
-      <c r="F63" s="4" t="inlineStr">
-        <is>
-          <t>-16.0</t>
-        </is>
-      </c>
+      <c r="E63" s="4" t="inlineStr"/>
+      <c r="F63" s="4" t="inlineStr"/>
       <c r="G63" s="4" t="n">
         <v>1189</v>
       </c>
@@ -30726,16 +30258,8 @@
           <t xml:space="preserve">中信中國高股息  </t>
         </is>
       </c>
-      <c r="E64" s="4" t="inlineStr">
-        <is>
-          <t>15.46</t>
-        </is>
-      </c>
-      <c r="F64" s="4" t="inlineStr">
-        <is>
-          <t>+0.04</t>
-        </is>
-      </c>
+      <c r="E64" s="4" t="inlineStr"/>
+      <c r="F64" s="4" t="inlineStr"/>
       <c r="G64" s="4" t="n">
         <v>1186</v>
       </c>
@@ -30759,16 +30283,8 @@
           <t xml:space="preserve">晶豪科          </t>
         </is>
       </c>
-      <c r="E65" s="4" t="inlineStr">
-        <is>
-          <t>136.00</t>
-        </is>
-      </c>
-      <c r="F65" s="4" t="inlineStr">
-        <is>
-          <t>-10.5</t>
-        </is>
-      </c>
+      <c r="E65" s="4" t="inlineStr"/>
+      <c r="F65" s="4" t="inlineStr"/>
       <c r="G65" s="4" t="n">
         <v>1106</v>
       </c>
@@ -30792,16 +30308,8 @@
           <t xml:space="preserve">欣陸            </t>
         </is>
       </c>
-      <c r="E66" s="4" t="inlineStr">
-        <is>
-          <t>23.05</t>
-        </is>
-      </c>
-      <c r="F66" s="4" t="inlineStr">
-        <is>
-          <t>+0.7</t>
-        </is>
-      </c>
+      <c r="E66" s="4" t="inlineStr"/>
+      <c r="F66" s="4" t="inlineStr"/>
       <c r="G66" s="4" t="n">
         <v>1056</v>
       </c>
@@ -30825,16 +30333,8 @@
           <t xml:space="preserve">祥碩            </t>
         </is>
       </c>
-      <c r="E67" s="4" t="inlineStr">
-        <is>
-          <t>1,400.00</t>
-        </is>
-      </c>
-      <c r="F67" s="4" t="inlineStr">
-        <is>
-          <t>+125.0</t>
-        </is>
-      </c>
+      <c r="E67" s="4" t="inlineStr"/>
+      <c r="F67" s="4" t="inlineStr"/>
       <c r="G67" s="4" t="n">
         <v>1053</v>
       </c>
@@ -30858,16 +30358,8 @@
           <t xml:space="preserve">矽格            </t>
         </is>
       </c>
-      <c r="E68" s="4" t="inlineStr">
-        <is>
-          <t>117.50</t>
-        </is>
-      </c>
-      <c r="F68" s="4" t="inlineStr">
-        <is>
-          <t>+2.5</t>
-        </is>
-      </c>
+      <c r="E68" s="4" t="inlineStr"/>
+      <c r="F68" s="4" t="inlineStr"/>
       <c r="G68" s="4" t="n">
         <v>1050</v>
       </c>
@@ -30891,16 +30383,8 @@
           <t xml:space="preserve">瀚宇博          </t>
         </is>
       </c>
-      <c r="E69" s="4" t="inlineStr">
-        <is>
-          <t>95.40</t>
-        </is>
-      </c>
-      <c r="F69" s="4" t="inlineStr">
-        <is>
-          <t>+4.3</t>
-        </is>
-      </c>
+      <c r="E69" s="4" t="inlineStr"/>
+      <c r="F69" s="4" t="inlineStr"/>
       <c r="G69" s="4" t="n">
         <v>1039</v>
       </c>
@@ -30924,16 +30408,8 @@
           <t xml:space="preserve">美時            </t>
         </is>
       </c>
-      <c r="E70" s="4" t="inlineStr">
-        <is>
-          <t>292.50</t>
-        </is>
-      </c>
-      <c r="F70" s="4" t="inlineStr">
-        <is>
-          <t>+5.5</t>
-        </is>
-      </c>
+      <c r="E70" s="4" t="inlineStr"/>
+      <c r="F70" s="4" t="inlineStr"/>
       <c r="G70" s="4" t="n">
         <v>970</v>
       </c>
@@ -30957,16 +30433,8 @@
           <t xml:space="preserve">兆豐金          </t>
         </is>
       </c>
-      <c r="E71" s="4" t="inlineStr">
-        <is>
-          <t>40.65</t>
-        </is>
-      </c>
-      <c r="F71" s="4" t="inlineStr">
-        <is>
-          <t>+0.2</t>
-        </is>
-      </c>
+      <c r="E71" s="4" t="inlineStr"/>
+      <c r="F71" s="4" t="inlineStr"/>
       <c r="G71" s="4" t="n">
         <v>970</v>
       </c>
@@ -30990,16 +30458,8 @@
           <t xml:space="preserve">材料*-KY        </t>
         </is>
       </c>
-      <c r="E72" s="4" t="inlineStr">
-        <is>
-          <t>52.40</t>
-        </is>
-      </c>
-      <c r="F72" s="4" t="inlineStr">
-        <is>
-          <t>+0.6</t>
-        </is>
-      </c>
+      <c r="E72" s="4" t="inlineStr"/>
+      <c r="F72" s="4" t="inlineStr"/>
       <c r="G72" s="4" t="n">
         <v>922</v>
       </c>
@@ -31023,16 +30483,8 @@
           <t xml:space="preserve">長興            </t>
         </is>
       </c>
-      <c r="E73" s="4" t="inlineStr">
-        <is>
-          <t>51.40</t>
-        </is>
-      </c>
-      <c r="F73" s="4" t="inlineStr">
-        <is>
-          <t>-0.4</t>
-        </is>
-      </c>
+      <c r="E73" s="4" t="inlineStr"/>
+      <c r="F73" s="4" t="inlineStr"/>
       <c r="G73" s="4" t="n">
         <v>911</v>
       </c>
@@ -31056,16 +30508,8 @@
           <t xml:space="preserve">晶彩科          </t>
         </is>
       </c>
-      <c r="E74" s="4" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F74" s="4" t="inlineStr">
-        <is>
-          <t>+0.4</t>
-        </is>
-      </c>
+      <c r="E74" s="4" t="inlineStr"/>
+      <c r="F74" s="4" t="inlineStr"/>
       <c r="G74" s="4" t="n">
         <v>901</v>
       </c>
@@ -31089,16 +30533,8 @@
           <t xml:space="preserve">台虹            </t>
         </is>
       </c>
-      <c r="E75" s="4" t="inlineStr">
-        <is>
-          <t>84.70</t>
-        </is>
-      </c>
-      <c r="F75" s="4" t="inlineStr">
-        <is>
-          <t>+1.5</t>
-        </is>
-      </c>
+      <c r="E75" s="4" t="inlineStr"/>
+      <c r="F75" s="4" t="inlineStr"/>
       <c r="G75" s="4" t="n">
         <v>873</v>
       </c>
@@ -31122,16 +30558,8 @@
           <t xml:space="preserve">遠東新          </t>
         </is>
       </c>
-      <c r="E76" s="4" t="inlineStr">
-        <is>
-          <t>28.35</t>
-        </is>
-      </c>
-      <c r="F76" s="4" t="inlineStr">
-        <is>
-          <t>+0.1</t>
-        </is>
-      </c>
+      <c r="E76" s="4" t="inlineStr"/>
+      <c r="F76" s="4" t="inlineStr"/>
       <c r="G76" s="4" t="n">
         <v>801</v>
       </c>
@@ -31155,16 +30583,8 @@
           <t xml:space="preserve">菱生            </t>
         </is>
       </c>
-      <c r="E77" s="4" t="inlineStr">
-        <is>
-          <t>25.00</t>
-        </is>
-      </c>
-      <c r="F77" s="4" t="inlineStr">
-        <is>
-          <t>+0.3</t>
-        </is>
-      </c>
+      <c r="E77" s="4" t="inlineStr"/>
+      <c r="F77" s="4" t="inlineStr"/>
       <c r="G77" s="4" t="n">
         <v>797</v>
       </c>
@@ -31188,16 +30608,8 @@
           <t xml:space="preserve">東元            </t>
         </is>
       </c>
-      <c r="E78" s="4" t="inlineStr">
-        <is>
-          <t>83.40</t>
-        </is>
-      </c>
-      <c r="F78" s="4" t="inlineStr">
-        <is>
-          <t>+1.8</t>
-        </is>
-      </c>
+      <c r="E78" s="4" t="inlineStr"/>
+      <c r="F78" s="4" t="inlineStr"/>
       <c r="G78" s="4" t="n">
         <v>793</v>
       </c>
@@ -31221,16 +30633,8 @@
           <t xml:space="preserve">統一實          </t>
         </is>
       </c>
-      <c r="E79" s="4" t="inlineStr">
-        <is>
-          <t>18.60</t>
-        </is>
-      </c>
-      <c r="F79" s="4" t="inlineStr">
-        <is>
-          <t>+0.2</t>
-        </is>
-      </c>
+      <c r="E79" s="4" t="inlineStr"/>
+      <c r="F79" s="4" t="inlineStr"/>
       <c r="G79" s="4" t="n">
         <v>793</v>
       </c>
@@ -31254,16 +30658,8 @@
           <t xml:space="preserve">國票金          </t>
         </is>
       </c>
-      <c r="E80" s="4" t="inlineStr">
-        <is>
-          <t>16.75</t>
-        </is>
-      </c>
-      <c r="F80" s="4" t="inlineStr">
-        <is>
-          <t>+0.05</t>
-        </is>
-      </c>
+      <c r="E80" s="4" t="inlineStr"/>
+      <c r="F80" s="4" t="inlineStr"/>
       <c r="G80" s="4" t="n">
         <v>792</v>
       </c>
@@ -31287,16 +30683,8 @@
           <t xml:space="preserve">國光生          </t>
         </is>
       </c>
-      <c r="E81" s="4" t="inlineStr">
-        <is>
-          <t>19.95</t>
-        </is>
-      </c>
-      <c r="F81" s="4" t="inlineStr">
-        <is>
-          <t>+0.35</t>
-        </is>
-      </c>
+      <c r="E81" s="4" t="inlineStr"/>
+      <c r="F81" s="4" t="inlineStr"/>
       <c r="G81" s="4" t="n">
         <v>781</v>
       </c>
@@ -31320,16 +30708,8 @@
           <t xml:space="preserve">建準            </t>
         </is>
       </c>
-      <c r="E82" s="4" t="inlineStr">
-        <is>
-          <t>156.50</t>
-        </is>
-      </c>
-      <c r="F82" s="4" t="inlineStr">
-        <is>
-          <t>+2.5</t>
-        </is>
-      </c>
+      <c r="E82" s="4" t="inlineStr"/>
+      <c r="F82" s="4" t="inlineStr"/>
       <c r="G82" s="4" t="n">
         <v>754</v>
       </c>
@@ -31353,16 +30733,8 @@
           <t xml:space="preserve">台航            </t>
         </is>
       </c>
-      <c r="E83" s="4" t="inlineStr">
-        <is>
-          <t>31.40</t>
-        </is>
-      </c>
-      <c r="F83" s="4" t="inlineStr">
-        <is>
-          <t>+0.4</t>
-        </is>
-      </c>
+      <c r="E83" s="4" t="inlineStr"/>
+      <c r="F83" s="4" t="inlineStr"/>
       <c r="G83" s="4" t="n">
         <v>696</v>
       </c>
@@ -31386,16 +30758,8 @@
           <t xml:space="preserve">凱美            </t>
         </is>
       </c>
-      <c r="E84" s="4" t="inlineStr">
-        <is>
-          <t>90.60</t>
-        </is>
-      </c>
-      <c r="F84" s="4" t="inlineStr">
-        <is>
-          <t>+1.8</t>
-        </is>
-      </c>
+      <c r="E84" s="4" t="inlineStr"/>
+      <c r="F84" s="4" t="inlineStr"/>
       <c r="G84" s="4" t="n">
         <v>686</v>
       </c>
@@ -31419,16 +30783,8 @@
           <t xml:space="preserve">日月光投控      </t>
         </is>
       </c>
-      <c r="E85" s="4" t="inlineStr">
-        <is>
-          <t>272.00</t>
-        </is>
-      </c>
-      <c r="F85" s="4" t="inlineStr">
-        <is>
-          <t>-1.5</t>
-        </is>
-      </c>
+      <c r="E85" s="4" t="inlineStr"/>
+      <c r="F85" s="4" t="inlineStr"/>
       <c r="G85" s="4" t="n">
         <v>682</v>
       </c>
@@ -31452,16 +30808,8 @@
           <t xml:space="preserve">致茂            </t>
         </is>
       </c>
-      <c r="E86" s="4" t="inlineStr">
-        <is>
-          <t>923.00</t>
-        </is>
-      </c>
-      <c r="F86" s="4" t="inlineStr">
-        <is>
-          <t>-2.0</t>
-        </is>
-      </c>
+      <c r="E86" s="4" t="inlineStr"/>
+      <c r="F86" s="4" t="inlineStr"/>
       <c r="G86" s="4" t="n">
         <v>651</v>
       </c>
@@ -31485,16 +30833,8 @@
           <t xml:space="preserve">宏達電          </t>
         </is>
       </c>
-      <c r="E87" s="4" t="inlineStr">
-        <is>
-          <t>45.95</t>
-        </is>
-      </c>
-      <c r="F87" s="4" t="inlineStr">
-        <is>
-          <t>-0.35</t>
-        </is>
-      </c>
+      <c r="E87" s="4" t="inlineStr"/>
+      <c r="F87" s="4" t="inlineStr"/>
       <c r="G87" s="4" t="n">
         <v>651</v>
       </c>
@@ -31518,16 +30858,8 @@
           <t xml:space="preserve">佳能            </t>
         </is>
       </c>
-      <c r="E88" s="4" t="inlineStr">
-        <is>
-          <t>78.40</t>
-        </is>
-      </c>
-      <c r="F88" s="4" t="inlineStr">
-        <is>
-          <t>+1.0</t>
-        </is>
-      </c>
+      <c r="E88" s="4" t="inlineStr"/>
+      <c r="F88" s="4" t="inlineStr"/>
       <c r="G88" s="4" t="n">
         <v>645</v>
       </c>
@@ -31551,16 +30883,8 @@
           <t xml:space="preserve">上銀            </t>
         </is>
       </c>
-      <c r="E89" s="4" t="inlineStr">
-        <is>
-          <t>197.00</t>
-        </is>
-      </c>
-      <c r="F89" s="4" t="inlineStr">
-        <is>
-          <t>+3.0</t>
-        </is>
-      </c>
+      <c r="E89" s="4" t="inlineStr"/>
+      <c r="F89" s="4" t="inlineStr"/>
       <c r="G89" s="4" t="n">
         <v>635</v>
       </c>
@@ -31584,16 +30908,8 @@
           <t xml:space="preserve">皇普            </t>
         </is>
       </c>
-      <c r="E90" s="4" t="inlineStr">
-        <is>
-          <t>31.00</t>
-        </is>
-      </c>
-      <c r="F90" s="4" t="inlineStr">
-        <is>
-          <t>+1.05</t>
-        </is>
-      </c>
+      <c r="E90" s="4" t="inlineStr"/>
+      <c r="F90" s="4" t="inlineStr"/>
       <c r="G90" s="4" t="n">
         <v>634</v>
       </c>
@@ -31617,16 +30933,8 @@
           <t xml:space="preserve">華紙            </t>
         </is>
       </c>
-      <c r="E91" s="4" t="inlineStr">
-        <is>
-          <t>11.95</t>
-        </is>
-      </c>
-      <c r="F91" s="4" t="inlineStr">
-        <is>
-          <t>+0.2</t>
-        </is>
-      </c>
+      <c r="E91" s="4" t="inlineStr"/>
+      <c r="F91" s="4" t="inlineStr"/>
       <c r="G91" s="4" t="n">
         <v>621</v>
       </c>
@@ -31650,16 +30958,8 @@
           <t xml:space="preserve">敬鵬            </t>
         </is>
       </c>
-      <c r="E92" s="4" t="inlineStr">
-        <is>
-          <t>31.70</t>
-        </is>
-      </c>
-      <c r="F92" s="4" t="inlineStr">
-        <is>
-          <t>+0.5</t>
-        </is>
-      </c>
+      <c r="E92" s="4" t="inlineStr"/>
+      <c r="F92" s="4" t="inlineStr"/>
       <c r="G92" s="4" t="n">
         <v>613</v>
       </c>
@@ -31683,16 +30983,8 @@
           <t xml:space="preserve">群益證          </t>
         </is>
       </c>
-      <c r="E93" s="4" t="inlineStr">
-        <is>
-          <t>26.80</t>
-        </is>
-      </c>
-      <c r="F93" s="4" t="inlineStr">
-        <is>
-          <t>-0.3</t>
-        </is>
-      </c>
+      <c r="E93" s="4" t="inlineStr"/>
+      <c r="F93" s="4" t="inlineStr"/>
       <c r="G93" s="4" t="n">
         <v>610</v>
       </c>
@@ -31716,16 +31008,8 @@
           <t xml:space="preserve">菱光            </t>
         </is>
       </c>
-      <c r="E94" s="4" t="inlineStr">
-        <is>
-          <t>53.30</t>
-        </is>
-      </c>
-      <c r="F94" s="4" t="inlineStr">
-        <is>
-          <t>+3.35</t>
-        </is>
-      </c>
+      <c r="E94" s="4" t="inlineStr"/>
+      <c r="F94" s="4" t="inlineStr"/>
       <c r="G94" s="4" t="n">
         <v>606</v>
       </c>
@@ -31749,16 +31033,8 @@
           <t xml:space="preserve">卜蜂            </t>
         </is>
       </c>
-      <c r="E95" s="4" t="inlineStr">
-        <is>
-          <t>138.50</t>
-        </is>
-      </c>
-      <c r="F95" s="4" t="inlineStr">
-        <is>
-          <t>+2.0</t>
-        </is>
-      </c>
+      <c r="E95" s="4" t="inlineStr"/>
+      <c r="F95" s="4" t="inlineStr"/>
       <c r="G95" s="4" t="n">
         <v>575</v>
       </c>
@@ -31782,16 +31058,8 @@
           <t xml:space="preserve">富華新          </t>
         </is>
       </c>
-      <c r="E96" s="4" t="inlineStr">
-        <is>
-          <t>18.10</t>
-        </is>
-      </c>
-      <c r="F96" s="4" t="inlineStr">
-        <is>
-          <t>+0.25</t>
-        </is>
-      </c>
+      <c r="E96" s="4" t="inlineStr"/>
+      <c r="F96" s="4" t="inlineStr"/>
       <c r="G96" s="4" t="n">
         <v>557</v>
       </c>
@@ -31815,16 +31083,8 @@
           <t xml:space="preserve">台達電          </t>
         </is>
       </c>
-      <c r="E97" s="4" t="inlineStr">
-        <is>
-          <t>1,015.00</t>
-        </is>
-      </c>
-      <c r="F97" s="4" t="inlineStr">
-        <is>
-          <t>+5.0</t>
-        </is>
-      </c>
+      <c r="E97" s="4" t="inlineStr"/>
+      <c r="F97" s="4" t="inlineStr"/>
       <c r="G97" s="4" t="n">
         <v>554</v>
       </c>
@@ -31848,16 +31108,8 @@
           <t xml:space="preserve">神隆            </t>
         </is>
       </c>
-      <c r="E98" s="4" t="inlineStr">
-        <is>
-          <t>23.40</t>
-        </is>
-      </c>
-      <c r="F98" s="4" t="inlineStr">
-        <is>
-          <t>+0.7</t>
-        </is>
-      </c>
+      <c r="E98" s="4" t="inlineStr"/>
+      <c r="F98" s="4" t="inlineStr"/>
       <c r="G98" s="4" t="n">
         <v>544</v>
       </c>
@@ -31881,16 +31133,8 @@
           <t xml:space="preserve">南電            </t>
         </is>
       </c>
-      <c r="E99" s="4" t="inlineStr">
-        <is>
-          <t>240.50</t>
-        </is>
-      </c>
-      <c r="F99" s="4" t="inlineStr">
-        <is>
-          <t>+3.5</t>
-        </is>
-      </c>
+      <c r="E99" s="4" t="inlineStr"/>
+      <c r="F99" s="4" t="inlineStr"/>
       <c r="G99" s="4" t="n">
         <v>532</v>
       </c>
@@ -31914,16 +31158,8 @@
           <t xml:space="preserve">勝一            </t>
         </is>
       </c>
-      <c r="E100" s="4" t="inlineStr">
-        <is>
-          <t>166.50</t>
-        </is>
-      </c>
-      <c r="F100" s="4" t="inlineStr">
-        <is>
-          <t>+2.5</t>
-        </is>
-      </c>
+      <c r="E100" s="4" t="inlineStr"/>
+      <c r="F100" s="4" t="inlineStr"/>
       <c r="G100" s="4" t="n">
         <v>528</v>
       </c>
@@ -31947,16 +31183,8 @@
           <t xml:space="preserve">中鼎            </t>
         </is>
       </c>
-      <c r="E101" s="4" t="inlineStr">
-        <is>
-          <t>31.60</t>
-        </is>
-      </c>
-      <c r="F101" s="4" t="inlineStr">
-        <is>
-          <t>+0.1</t>
-        </is>
-      </c>
+      <c r="E101" s="4" t="inlineStr"/>
+      <c r="F101" s="4" t="inlineStr"/>
       <c r="G101" s="4" t="n">
         <v>527</v>
       </c>
@@ -31980,16 +31208,8 @@
           <t xml:space="preserve">榮科            </t>
         </is>
       </c>
-      <c r="E102" s="4" t="inlineStr">
-        <is>
-          <t>50.30</t>
-        </is>
-      </c>
-      <c r="F102" s="4" t="inlineStr">
-        <is>
-          <t>+0.5</t>
-        </is>
-      </c>
+      <c r="E102" s="4" t="inlineStr"/>
+      <c r="F102" s="4" t="inlineStr"/>
       <c r="G102" s="4" t="n">
         <v>524</v>
       </c>
@@ -32013,16 +31233,8 @@
           <t xml:space="preserve">元大台灣50正2   </t>
         </is>
       </c>
-      <c r="E103" s="4" t="inlineStr">
-        <is>
-          <t>399.65</t>
-        </is>
-      </c>
-      <c r="F103" s="4" t="inlineStr">
-        <is>
-          <t>-1.05</t>
-        </is>
-      </c>
+      <c r="E103" s="4" t="inlineStr"/>
+      <c r="F103" s="4" t="inlineStr"/>
       <c r="G103" s="4" t="n">
         <v>518</v>
       </c>
@@ -32123,16 +31335,8 @@
           <t xml:space="preserve">元大台灣50      </t>
         </is>
       </c>
-      <c r="E109" s="4" t="inlineStr">
-        <is>
-          <t>69.85</t>
-        </is>
-      </c>
-      <c r="F109" s="4" t="inlineStr">
-        <is>
-          <t>-0.25</t>
-        </is>
-      </c>
+      <c r="E109" s="4" t="inlineStr"/>
+      <c r="F109" s="4" t="inlineStr"/>
       <c r="G109" s="4" t="n">
         <v>-54894</v>
       </c>
@@ -32156,16 +31360,8 @@
           <t xml:space="preserve">友達            </t>
         </is>
       </c>
-      <c r="E110" s="4" t="inlineStr">
-        <is>
-          <t>14.50</t>
-        </is>
-      </c>
-      <c r="F110" s="4" t="inlineStr">
-        <is>
-          <t>-1.15</t>
-        </is>
-      </c>
+      <c r="E110" s="4" t="inlineStr"/>
+      <c r="F110" s="4" t="inlineStr"/>
       <c r="G110" s="4" t="n">
         <v>-23392</v>
       </c>
@@ -32189,16 +31385,8 @@
           <t xml:space="preserve">南亞            </t>
         </is>
       </c>
-      <c r="E111" s="4" t="inlineStr">
-        <is>
-          <t>61.90</t>
-        </is>
-      </c>
-      <c r="F111" s="4" t="inlineStr">
-        <is>
-          <t>-5.1</t>
-        </is>
-      </c>
+      <c r="E111" s="4" t="inlineStr"/>
+      <c r="F111" s="4" t="inlineStr"/>
       <c r="G111" s="4" t="n">
         <v>-22306</v>
       </c>
@@ -32222,16 +31410,8 @@
           <t xml:space="preserve">中鋼            </t>
         </is>
       </c>
-      <c r="E112" s="4" t="inlineStr">
-        <is>
-          <t>19.00</t>
-        </is>
-      </c>
-      <c r="F112" s="4" t="inlineStr">
-        <is>
-          <t>-0.15</t>
-        </is>
-      </c>
+      <c r="E112" s="4" t="inlineStr"/>
+      <c r="F112" s="4" t="inlineStr"/>
       <c r="G112" s="4" t="n">
         <v>-18995</v>
       </c>
@@ -32255,16 +31435,8 @@
           <t xml:space="preserve">緯創            </t>
         </is>
       </c>
-      <c r="E113" s="4" t="inlineStr">
-        <is>
-          <t>149.00</t>
-        </is>
-      </c>
-      <c r="F113" s="4" t="inlineStr">
-        <is>
-          <t>-2.0</t>
-        </is>
-      </c>
+      <c r="E113" s="4" t="inlineStr"/>
+      <c r="F113" s="4" t="inlineStr"/>
       <c r="G113" s="4" t="n">
         <v>-11521</v>
       </c>
@@ -32288,16 +31460,8 @@
           <t>國泰台灣科技龍頭</t>
         </is>
       </c>
-      <c r="E114" s="4" t="inlineStr">
-        <is>
-          <t>34.44</t>
-        </is>
-      </c>
-      <c r="F114" s="4" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
+      <c r="E114" s="4" t="inlineStr"/>
+      <c r="F114" s="4" t="inlineStr"/>
       <c r="G114" s="4" t="n">
         <v>-10564</v>
       </c>
@@ -32321,16 +31485,8 @@
           <t xml:space="preserve">台積電          </t>
         </is>
       </c>
-      <c r="E115" s="4" t="inlineStr">
-        <is>
-          <t>1,680.00</t>
-        </is>
-      </c>
-      <c r="F115" s="4" t="inlineStr">
-        <is>
-          <t>-5.0</t>
-        </is>
-      </c>
+      <c r="E115" s="4" t="inlineStr"/>
+      <c r="F115" s="4" t="inlineStr"/>
       <c r="G115" s="4" t="n">
         <v>-10187</v>
       </c>
@@ -32354,16 +31510,8 @@
           <t xml:space="preserve">仁寶            </t>
         </is>
       </c>
-      <c r="E116" s="4" t="inlineStr">
-        <is>
-          <t>29.55</t>
-        </is>
-      </c>
-      <c r="F116" s="4" t="inlineStr">
-        <is>
-          <t>-0.5</t>
-        </is>
-      </c>
+      <c r="E116" s="4" t="inlineStr"/>
+      <c r="F116" s="4" t="inlineStr"/>
       <c r="G116" s="4" t="n">
         <v>-9540</v>
       </c>
@@ -32387,16 +31535,8 @@
           <t xml:space="preserve">凱基金          </t>
         </is>
       </c>
-      <c r="E117" s="4" t="inlineStr">
-        <is>
-          <t>17.45</t>
-        </is>
-      </c>
-      <c r="F117" s="4" t="inlineStr">
-        <is>
-          <t>-0.15</t>
-        </is>
-      </c>
+      <c r="E117" s="4" t="inlineStr"/>
+      <c r="F117" s="4" t="inlineStr"/>
       <c r="G117" s="4" t="n">
         <v>-8264</v>
       </c>
@@ -32420,16 +31560,8 @@
           <t xml:space="preserve">漢翔            </t>
         </is>
       </c>
-      <c r="E118" s="4" t="inlineStr">
-        <is>
-          <t>53.10</t>
-        </is>
-      </c>
-      <c r="F118" s="4" t="inlineStr">
-        <is>
-          <t>-1.8</t>
-        </is>
-      </c>
+      <c r="E118" s="4" t="inlineStr"/>
+      <c r="F118" s="4" t="inlineStr"/>
       <c r="G118" s="4" t="n">
         <v>-8194</v>
       </c>
@@ -32453,16 +31585,8 @@
           <t xml:space="preserve">神達            </t>
         </is>
       </c>
-      <c r="E119" s="4" t="inlineStr">
-        <is>
-          <t>88.80</t>
-        </is>
-      </c>
-      <c r="F119" s="4" t="inlineStr">
-        <is>
-          <t>-3.2</t>
-        </is>
-      </c>
+      <c r="E119" s="4" t="inlineStr"/>
+      <c r="F119" s="4" t="inlineStr"/>
       <c r="G119" s="4" t="n">
         <v>-8105</v>
       </c>
@@ -32486,16 +31610,8 @@
           <t xml:space="preserve">長榮航          </t>
         </is>
       </c>
-      <c r="E120" s="4" t="inlineStr">
-        <is>
-          <t>36.55</t>
-        </is>
-      </c>
-      <c r="F120" s="4" t="inlineStr">
-        <is>
-          <t>+0.1</t>
-        </is>
-      </c>
+      <c r="E120" s="4" t="inlineStr"/>
+      <c r="F120" s="4" t="inlineStr"/>
       <c r="G120" s="4" t="n">
         <v>-7596</v>
       </c>
@@ -32519,16 +31635,8 @@
           <t xml:space="preserve">元晶            </t>
         </is>
       </c>
-      <c r="E121" s="4" t="inlineStr">
-        <is>
-          <t>31.65</t>
-        </is>
-      </c>
-      <c r="F121" s="4" t="inlineStr">
-        <is>
-          <t>+0.45</t>
-        </is>
-      </c>
+      <c r="E121" s="4" t="inlineStr"/>
+      <c r="F121" s="4" t="inlineStr"/>
       <c r="G121" s="4" t="n">
         <v>-7517</v>
       </c>
@@ -32552,16 +31660,8 @@
           <t xml:space="preserve">中石化          </t>
         </is>
       </c>
-      <c r="E122" s="4" t="inlineStr">
-        <is>
-          <t>7.89</t>
-        </is>
-      </c>
-      <c r="F122" s="4" t="inlineStr">
-        <is>
-          <t>-0.13</t>
-        </is>
-      </c>
+      <c r="E122" s="4" t="inlineStr"/>
+      <c r="F122" s="4" t="inlineStr"/>
       <c r="G122" s="4" t="n">
         <v>-5829</v>
       </c>
@@ -32585,16 +31685,8 @@
           <t xml:space="preserve">富邦金          </t>
         </is>
       </c>
-      <c r="E123" s="4" t="inlineStr">
-        <is>
-          <t>95.50</t>
-        </is>
-      </c>
-      <c r="F123" s="4" t="inlineStr">
-        <is>
-          <t>-1.5</t>
-        </is>
-      </c>
+      <c r="E123" s="4" t="inlineStr"/>
+      <c r="F123" s="4" t="inlineStr"/>
       <c r="G123" s="4" t="n">
         <v>-5823</v>
       </c>
@@ -32618,16 +31710,8 @@
           <t xml:space="preserve">大成鋼          </t>
         </is>
       </c>
-      <c r="E124" s="4" t="inlineStr">
-        <is>
-          <t>35.65</t>
-        </is>
-      </c>
-      <c r="F124" s="4" t="inlineStr">
-        <is>
-          <t>-0.15</t>
-        </is>
-      </c>
+      <c r="E124" s="4" t="inlineStr"/>
+      <c r="F124" s="4" t="inlineStr"/>
       <c r="G124" s="4" t="n">
         <v>-5179</v>
       </c>
@@ -32651,16 +31735,8 @@
           <t xml:space="preserve">華邦電          </t>
         </is>
       </c>
-      <c r="E125" s="4" t="inlineStr">
-        <is>
-          <t>97.80</t>
-        </is>
-      </c>
-      <c r="F125" s="4" t="inlineStr">
-        <is>
-          <t>-10.7</t>
-        </is>
-      </c>
+      <c r="E125" s="4" t="inlineStr"/>
+      <c r="F125" s="4" t="inlineStr"/>
       <c r="G125" s="4" t="n">
         <v>-5062</v>
       </c>
@@ -32684,16 +31760,8 @@
           <t xml:space="preserve">玉山金          </t>
         </is>
       </c>
-      <c r="E126" s="4" t="inlineStr">
-        <is>
-          <t>32.85</t>
-        </is>
-      </c>
-      <c r="F126" s="4" t="inlineStr">
-        <is>
-          <t>+0.05</t>
-        </is>
-      </c>
+      <c r="E126" s="4" t="inlineStr"/>
+      <c r="F126" s="4" t="inlineStr"/>
       <c r="G126" s="4" t="n">
         <v>-4908</v>
       </c>
@@ -32717,16 +31785,8 @@
           <t xml:space="preserve">台化            </t>
         </is>
       </c>
-      <c r="E127" s="4" t="inlineStr">
-        <is>
-          <t>31.90</t>
-        </is>
-      </c>
-      <c r="F127" s="4" t="inlineStr">
-        <is>
-          <t>-0.7</t>
-        </is>
-      </c>
+      <c r="E127" s="4" t="inlineStr"/>
+      <c r="F127" s="4" t="inlineStr"/>
       <c r="G127" s="4" t="n">
         <v>-4468</v>
       </c>
@@ -32750,16 +31810,8 @@
           <t xml:space="preserve">彩晶            </t>
         </is>
       </c>
-      <c r="E128" s="4" t="inlineStr">
-        <is>
-          <t>10.50</t>
-        </is>
-      </c>
-      <c r="F128" s="4" t="inlineStr">
-        <is>
-          <t>-1.15</t>
-        </is>
-      </c>
+      <c r="E128" s="4" t="inlineStr"/>
+      <c r="F128" s="4" t="inlineStr"/>
       <c r="G128" s="4" t="n">
         <v>-4457</v>
       </c>
@@ -32783,16 +31835,8 @@
           <t xml:space="preserve">台泥            </t>
         </is>
       </c>
-      <c r="E129" s="4" t="inlineStr">
-        <is>
-          <t>23.65</t>
-        </is>
-      </c>
-      <c r="F129" s="4" t="inlineStr">
-        <is>
-          <t>+0.2</t>
-        </is>
-      </c>
+      <c r="E129" s="4" t="inlineStr"/>
+      <c r="F129" s="4" t="inlineStr"/>
       <c r="G129" s="4" t="n">
         <v>-3960</v>
       </c>
@@ -32816,11 +31860,7 @@
           <t xml:space="preserve">台中銀          </t>
         </is>
       </c>
-      <c r="E130" s="4" t="inlineStr">
-        <is>
-          <t>20.80</t>
-        </is>
-      </c>
+      <c r="E130" s="4" t="inlineStr"/>
       <c r="F130" s="4" t="inlineStr"/>
       <c r="G130" s="4" t="n">
         <v>-3858</v>
@@ -32845,11 +31885,7 @@
           <t xml:space="preserve">彰銀            </t>
         </is>
       </c>
-      <c r="E131" s="4" t="inlineStr">
-        <is>
-          <t>20.50</t>
-        </is>
-      </c>
+      <c r="E131" s="4" t="inlineStr"/>
       <c r="F131" s="4" t="inlineStr"/>
       <c r="G131" s="4" t="n">
         <v>-3649</v>
@@ -32874,16 +31910,8 @@
           <t xml:space="preserve">宏碁            </t>
         </is>
       </c>
-      <c r="E132" s="4" t="inlineStr">
-        <is>
-          <t>26.25</t>
-        </is>
-      </c>
-      <c r="F132" s="4" t="inlineStr">
-        <is>
-          <t>-0.1</t>
-        </is>
-      </c>
+      <c r="E132" s="4" t="inlineStr"/>
+      <c r="F132" s="4" t="inlineStr"/>
       <c r="G132" s="4" t="n">
         <v>-3531</v>
       </c>
@@ -32907,16 +31935,8 @@
           <t xml:space="preserve">和桐            </t>
         </is>
       </c>
-      <c r="E133" s="4" t="inlineStr">
-        <is>
-          <t>8.95</t>
-        </is>
-      </c>
-      <c r="F133" s="4" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
+      <c r="E133" s="4" t="inlineStr"/>
+      <c r="F133" s="4" t="inlineStr"/>
       <c r="G133" s="4" t="n">
         <v>-3529</v>
       </c>
@@ -32940,16 +31960,8 @@
           <t xml:space="preserve">統一            </t>
         </is>
       </c>
-      <c r="E134" s="4" t="inlineStr">
-        <is>
-          <t>75.30</t>
-        </is>
-      </c>
-      <c r="F134" s="4" t="inlineStr">
-        <is>
-          <t>-0.3</t>
-        </is>
-      </c>
+      <c r="E134" s="4" t="inlineStr"/>
+      <c r="F134" s="4" t="inlineStr"/>
       <c r="G134" s="4" t="n">
         <v>-3460</v>
       </c>
@@ -32973,16 +31985,8 @@
           <t xml:space="preserve">潤泰新          </t>
         </is>
       </c>
-      <c r="E135" s="4" t="inlineStr">
-        <is>
-          <t>29.35</t>
-        </is>
-      </c>
-      <c r="F135" s="4" t="inlineStr">
-        <is>
-          <t>+0.05</t>
-        </is>
-      </c>
+      <c r="E135" s="4" t="inlineStr"/>
+      <c r="F135" s="4" t="inlineStr"/>
       <c r="G135" s="4" t="n">
         <v>-3357</v>
       </c>
@@ -33006,16 +32010,8 @@
           <t xml:space="preserve">凌巨            </t>
         </is>
       </c>
-      <c r="E136" s="4" t="inlineStr">
-        <is>
-          <t>14.55</t>
-        </is>
-      </c>
-      <c r="F136" s="4" t="inlineStr">
-        <is>
-          <t>+0.55</t>
-        </is>
-      </c>
+      <c r="E136" s="4" t="inlineStr"/>
+      <c r="F136" s="4" t="inlineStr"/>
       <c r="G136" s="4" t="n">
         <v>-3251</v>
       </c>
@@ -33039,16 +32035,8 @@
           <t xml:space="preserve">裕隆            </t>
         </is>
       </c>
-      <c r="E137" s="4" t="inlineStr">
-        <is>
-          <t>31.45</t>
-        </is>
-      </c>
-      <c r="F137" s="4" t="inlineStr">
-        <is>
-          <t>-0.5</t>
-        </is>
-      </c>
+      <c r="E137" s="4" t="inlineStr"/>
+      <c r="F137" s="4" t="inlineStr"/>
       <c r="G137" s="4" t="n">
         <v>-2964</v>
       </c>
@@ -33072,16 +32060,8 @@
           <t xml:space="preserve">華航            </t>
         </is>
       </c>
-      <c r="E138" s="4" t="inlineStr">
-        <is>
-          <t>20.45</t>
-        </is>
-      </c>
-      <c r="F138" s="4" t="inlineStr">
-        <is>
-          <t>+0.05</t>
-        </is>
-      </c>
+      <c r="E138" s="4" t="inlineStr"/>
+      <c r="F138" s="4" t="inlineStr"/>
       <c r="G138" s="4" t="n">
         <v>-2948</v>
       </c>
@@ -33105,16 +32085,8 @@
           <t xml:space="preserve">和碩            </t>
         </is>
       </c>
-      <c r="E139" s="4" t="inlineStr">
-        <is>
-          <t>69.40</t>
-        </is>
-      </c>
-      <c r="F139" s="4" t="inlineStr">
-        <is>
-          <t>-1.1</t>
-        </is>
-      </c>
+      <c r="E139" s="4" t="inlineStr"/>
+      <c r="F139" s="4" t="inlineStr"/>
       <c r="G139" s="4" t="n">
         <v>-2938</v>
       </c>
@@ -33138,11 +32110,7 @@
           <t xml:space="preserve">中華電          </t>
         </is>
       </c>
-      <c r="E140" s="4" t="inlineStr">
-        <is>
-          <t>133.50</t>
-        </is>
-      </c>
+      <c r="E140" s="4" t="inlineStr"/>
       <c r="F140" s="4" t="inlineStr"/>
       <c r="G140" s="4" t="n">
         <v>-2846</v>
@@ -33167,16 +32135,8 @@
           <t xml:space="preserve">中租-KY         </t>
         </is>
       </c>
-      <c r="E141" s="4" t="inlineStr">
-        <is>
-          <t>105.00</t>
-        </is>
-      </c>
-      <c r="F141" s="4" t="inlineStr">
-        <is>
-          <t>-1.0</t>
-        </is>
-      </c>
+      <c r="E141" s="4" t="inlineStr"/>
+      <c r="F141" s="4" t="inlineStr"/>
       <c r="G141" s="4" t="n">
         <v>-2846</v>
       </c>
@@ -33200,16 +32160,8 @@
           <t xml:space="preserve">富邦NASDAQ      </t>
         </is>
       </c>
-      <c r="E142" s="4" t="inlineStr">
-        <is>
-          <t>103.80</t>
-        </is>
-      </c>
-      <c r="F142" s="4" t="inlineStr">
-        <is>
-          <t>-0.1</t>
-        </is>
-      </c>
+      <c r="E142" s="4" t="inlineStr"/>
+      <c r="F142" s="4" t="inlineStr"/>
       <c r="G142" s="4" t="n">
         <v>-2786</v>
       </c>
@@ -33233,16 +32185,8 @@
           <t xml:space="preserve">燿華            </t>
         </is>
       </c>
-      <c r="E143" s="4" t="inlineStr">
-        <is>
-          <t>30.60</t>
-        </is>
-      </c>
-      <c r="F143" s="4" t="inlineStr">
-        <is>
-          <t>+1.0</t>
-        </is>
-      </c>
+      <c r="E143" s="4" t="inlineStr"/>
+      <c r="F143" s="4" t="inlineStr"/>
       <c r="G143" s="4" t="n">
         <v>-2771</v>
       </c>
@@ -33266,16 +32210,8 @@
           <t xml:space="preserve">技嘉            </t>
         </is>
       </c>
-      <c r="E144" s="4" t="inlineStr">
-        <is>
-          <t>240.00</t>
-        </is>
-      </c>
-      <c r="F144" s="4" t="inlineStr">
-        <is>
-          <t>-5.0</t>
-        </is>
-      </c>
+      <c r="E144" s="4" t="inlineStr"/>
+      <c r="F144" s="4" t="inlineStr"/>
       <c r="G144" s="4" t="n">
         <v>-2554</v>
       </c>
@@ -33299,16 +32235,8 @@
           <t xml:space="preserve">聯強            </t>
         </is>
       </c>
-      <c r="E145" s="4" t="inlineStr">
-        <is>
-          <t>63.90</t>
-        </is>
-      </c>
-      <c r="F145" s="4" t="inlineStr">
-        <is>
-          <t>+0.8</t>
-        </is>
-      </c>
+      <c r="E145" s="4" t="inlineStr"/>
+      <c r="F145" s="4" t="inlineStr"/>
       <c r="G145" s="4" t="n">
         <v>-2374</v>
       </c>
@@ -33332,16 +32260,8 @@
           <t xml:space="preserve">友訊            </t>
         </is>
       </c>
-      <c r="E146" s="4" t="inlineStr">
-        <is>
-          <t>14.80</t>
-        </is>
-      </c>
-      <c r="F146" s="4" t="inlineStr">
-        <is>
-          <t>-0.35</t>
-        </is>
-      </c>
+      <c r="E146" s="4" t="inlineStr"/>
+      <c r="F146" s="4" t="inlineStr"/>
       <c r="G146" s="4" t="n">
         <v>-2348</v>
       </c>
@@ -33365,16 +32285,8 @@
           <t xml:space="preserve">可成            </t>
         </is>
       </c>
-      <c r="E147" s="4" t="inlineStr">
-        <is>
-          <t>204.00</t>
-        </is>
-      </c>
-      <c r="F147" s="4" t="inlineStr">
-        <is>
-          <t>-1.5</t>
-        </is>
-      </c>
+      <c r="E147" s="4" t="inlineStr"/>
+      <c r="F147" s="4" t="inlineStr"/>
       <c r="G147" s="4" t="n">
         <v>-2329</v>
       </c>
@@ -33398,11 +32310,7 @@
           <t xml:space="preserve">長榮            </t>
         </is>
       </c>
-      <c r="E148" s="4" t="inlineStr">
-        <is>
-          <t>193.50</t>
-        </is>
-      </c>
+      <c r="E148" s="4" t="inlineStr"/>
       <c r="F148" s="4" t="inlineStr"/>
       <c r="G148" s="4" t="n">
         <v>-2285</v>
@@ -33427,16 +32335,8 @@
           <t xml:space="preserve">正新            </t>
         </is>
       </c>
-      <c r="E149" s="4" t="inlineStr">
-        <is>
-          <t>30.15</t>
-        </is>
-      </c>
-      <c r="F149" s="4" t="inlineStr">
-        <is>
-          <t>-0.25</t>
-        </is>
-      </c>
+      <c r="E149" s="4" t="inlineStr"/>
+      <c r="F149" s="4" t="inlineStr"/>
       <c r="G149" s="4" t="n">
         <v>-2276</v>
       </c>
@@ -33460,16 +32360,8 @@
           <t xml:space="preserve">統一證          </t>
         </is>
       </c>
-      <c r="E150" s="4" t="inlineStr">
-        <is>
-          <t>26.50</t>
-        </is>
-      </c>
-      <c r="F150" s="4" t="inlineStr">
-        <is>
-          <t>-0.3</t>
-        </is>
-      </c>
+      <c r="E150" s="4" t="inlineStr"/>
+      <c r="F150" s="4" t="inlineStr"/>
       <c r="G150" s="4" t="n">
         <v>-2219</v>
       </c>
@@ -33493,16 +32385,8 @@
           <t xml:space="preserve">華碩            </t>
         </is>
       </c>
-      <c r="E151" s="4" t="inlineStr">
-        <is>
-          <t>529.00</t>
-        </is>
-      </c>
-      <c r="F151" s="4" t="inlineStr">
-        <is>
-          <t>-1.0</t>
-        </is>
-      </c>
+      <c r="E151" s="4" t="inlineStr"/>
+      <c r="F151" s="4" t="inlineStr"/>
       <c r="G151" s="4" t="n">
         <v>-2143</v>
       </c>
@@ -33526,16 +32410,8 @@
           <t xml:space="preserve">元大高股息      </t>
         </is>
       </c>
-      <c r="E152" s="4" t="inlineStr">
-        <is>
-          <t>37.40</t>
-        </is>
-      </c>
-      <c r="F152" s="4" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
+      <c r="E152" s="4" t="inlineStr"/>
+      <c r="F152" s="4" t="inlineStr"/>
       <c r="G152" s="4" t="n">
         <v>-2116</v>
       </c>
@@ -33559,16 +32435,8 @@
           <t xml:space="preserve">長榮航太        </t>
         </is>
       </c>
-      <c r="E153" s="4" t="inlineStr">
-        <is>
-          <t>145.00</t>
-        </is>
-      </c>
-      <c r="F153" s="4" t="inlineStr">
-        <is>
-          <t>-6.0</t>
-        </is>
-      </c>
+      <c r="E153" s="4" t="inlineStr"/>
+      <c r="F153" s="4" t="inlineStr"/>
       <c r="G153" s="4" t="n">
         <v>-2112</v>
       </c>
@@ -33592,16 +32460,8 @@
           <t xml:space="preserve">台玻            </t>
         </is>
       </c>
-      <c r="E154" s="4" t="inlineStr">
-        <is>
-          <t>35.00</t>
-        </is>
-      </c>
-      <c r="F154" s="4" t="inlineStr">
-        <is>
-          <t>-0.2</t>
-        </is>
-      </c>
+      <c r="E154" s="4" t="inlineStr"/>
+      <c r="F154" s="4" t="inlineStr"/>
       <c r="G154" s="4" t="n">
         <v>-2073</v>
       </c>
@@ -33625,16 +32485,8 @@
           <t xml:space="preserve">大同            </t>
         </is>
       </c>
-      <c r="E155" s="4" t="inlineStr">
-        <is>
-          <t>31.20</t>
-        </is>
-      </c>
-      <c r="F155" s="4" t="inlineStr">
-        <is>
-          <t>+0.7</t>
-        </is>
-      </c>
+      <c r="E155" s="4" t="inlineStr"/>
+      <c r="F155" s="4" t="inlineStr"/>
       <c r="G155" s="4" t="n">
         <v>-2041</v>
       </c>
@@ -33658,16 +32510,8 @@
           <t xml:space="preserve">微星            </t>
         </is>
       </c>
-      <c r="E156" s="4" t="inlineStr">
-        <is>
-          <t>97.40</t>
-        </is>
-      </c>
-      <c r="F156" s="4" t="inlineStr">
-        <is>
-          <t>+0.9</t>
-        </is>
-      </c>
+      <c r="E156" s="4" t="inlineStr"/>
+      <c r="F156" s="4" t="inlineStr"/>
       <c r="G156" s="4" t="n">
         <v>-1888</v>
       </c>
@@ -33691,16 +32535,8 @@
           <t xml:space="preserve">國喬            </t>
         </is>
       </c>
-      <c r="E157" s="4" t="inlineStr">
-        <is>
-          <t>12.40</t>
-        </is>
-      </c>
-      <c r="F157" s="4" t="inlineStr">
-        <is>
-          <t>+0.45</t>
-        </is>
-      </c>
+      <c r="E157" s="4" t="inlineStr"/>
+      <c r="F157" s="4" t="inlineStr"/>
       <c r="G157" s="4" t="n">
         <v>-1887</v>
       </c>
@@ -33724,16 +32560,8 @@
           <t xml:space="preserve">福懋            </t>
         </is>
       </c>
-      <c r="E158" s="4" t="inlineStr">
-        <is>
-          <t>15.90</t>
-        </is>
-      </c>
-      <c r="F158" s="4" t="inlineStr">
-        <is>
-          <t>-0.2</t>
-        </is>
-      </c>
+      <c r="E158" s="4" t="inlineStr"/>
+      <c r="F158" s="4" t="inlineStr"/>
       <c r="G158" s="4" t="n">
         <v>-1876</v>
       </c>
@@ -33825,16 +32653,8 @@
           <t xml:space="preserve">復華富時不動產  </t>
         </is>
       </c>
-      <c r="D164" s="4" t="inlineStr">
-        <is>
-          <t>9.50</t>
-        </is>
-      </c>
-      <c r="E164" s="4" t="inlineStr">
-        <is>
-          <t>+0.24</t>
-        </is>
-      </c>
+      <c r="D164" s="4" t="inlineStr"/>
+      <c r="E164" s="4" t="inlineStr"/>
       <c r="F164" s="4" t="n">
         <v>50717</v>
       </c>
@@ -33854,16 +32674,8 @@
           <t>群益台灣精選高息</t>
         </is>
       </c>
-      <c r="D165" s="4" t="inlineStr">
-        <is>
-          <t>22.94</t>
-        </is>
-      </c>
-      <c r="E165" s="4" t="inlineStr">
-        <is>
-          <t>+0.01</t>
-        </is>
-      </c>
+      <c r="D165" s="4" t="inlineStr"/>
+      <c r="E165" s="4" t="inlineStr"/>
       <c r="F165" s="4" t="n">
         <v>30672</v>
       </c>
@@ -33883,16 +32695,8 @@
           <t>元大台灣價值高息</t>
         </is>
       </c>
-      <c r="D166" s="4" t="inlineStr">
-        <is>
-          <t>9.35</t>
-        </is>
-      </c>
-      <c r="E166" s="4" t="inlineStr">
-        <is>
-          <t>+0.02</t>
-        </is>
-      </c>
+      <c r="D166" s="4" t="inlineStr"/>
+      <c r="E166" s="4" t="inlineStr"/>
       <c r="F166" s="4" t="n">
         <v>29508</v>
       </c>
@@ -33912,16 +32716,8 @@
           <t xml:space="preserve">國泰永續高股息  </t>
         </is>
       </c>
-      <c r="D167" s="4" t="inlineStr">
-        <is>
-          <t>22.10</t>
-        </is>
-      </c>
-      <c r="E167" s="4" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
+      <c r="D167" s="4" t="inlineStr"/>
+      <c r="E167" s="4" t="inlineStr"/>
       <c r="F167" s="4" t="n">
         <v>17967</v>
       </c>
@@ -33941,16 +32737,8 @@
           <t>統一台灣高息動能</t>
         </is>
       </c>
-      <c r="D168" s="4" t="inlineStr">
-        <is>
-          <t>15.03</t>
-        </is>
-      </c>
-      <c r="E168" s="4" t="inlineStr">
-        <is>
-          <t>+0.01</t>
-        </is>
-      </c>
+      <c r="D168" s="4" t="inlineStr"/>
+      <c r="E168" s="4" t="inlineStr"/>
       <c r="F168" s="4" t="n">
         <v>11473</v>
       </c>
@@ -33970,16 +32758,8 @@
           <t>富邦特選高股息30</t>
         </is>
       </c>
-      <c r="D169" s="4" t="inlineStr">
-        <is>
-          <t>14.14</t>
-        </is>
-      </c>
-      <c r="E169" s="4" t="inlineStr">
-        <is>
-          <t>-0.03</t>
-        </is>
-      </c>
+      <c r="D169" s="4" t="inlineStr"/>
+      <c r="E169" s="4" t="inlineStr"/>
       <c r="F169" s="4" t="n">
         <v>10820</v>
       </c>
@@ -33999,11 +32779,7 @@
           <t xml:space="preserve">元大S&amp;P500      </t>
         </is>
       </c>
-      <c r="D170" s="4" t="inlineStr">
-        <is>
-          <t>68.65</t>
-        </is>
-      </c>
+      <c r="D170" s="4" t="inlineStr"/>
       <c r="E170" s="4" t="inlineStr"/>
       <c r="F170" s="4" t="n">
         <v>9676</v>
@@ -34024,11 +32800,7 @@
           <t>復華台灣科技優息</t>
         </is>
       </c>
-      <c r="D171" s="4" t="inlineStr">
-        <is>
-          <t>18.54</t>
-        </is>
-      </c>
+      <c r="D171" s="4" t="inlineStr"/>
       <c r="E171" s="4" t="inlineStr"/>
       <c r="F171" s="4" t="n">
         <v>8425</v>
@@ -34049,16 +32821,8 @@
           <t>元大台灣高息低波</t>
         </is>
       </c>
-      <c r="D172" s="4" t="inlineStr">
-        <is>
-          <t>51.00</t>
-        </is>
-      </c>
-      <c r="E172" s="4" t="inlineStr">
-        <is>
-          <t>+0.15</t>
-        </is>
-      </c>
+      <c r="D172" s="4" t="inlineStr"/>
+      <c r="E172" s="4" t="inlineStr"/>
       <c r="F172" s="4" t="n">
         <v>8165</v>
       </c>
@@ -34078,16 +32842,8 @@
           <t>大華優利高填息30</t>
         </is>
       </c>
-      <c r="D173" s="4" t="inlineStr">
-        <is>
-          <t>22.67</t>
-        </is>
-      </c>
-      <c r="E173" s="4" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
+      <c r="D173" s="4" t="inlineStr"/>
+      <c r="E173" s="4" t="inlineStr"/>
       <c r="F173" s="4" t="n">
         <v>6182</v>
       </c>
@@ -34180,16 +32936,8 @@
           <t xml:space="preserve">元大台灣50      </t>
         </is>
       </c>
-      <c r="D179" s="4" t="inlineStr">
-        <is>
-          <t>69.85</t>
-        </is>
-      </c>
-      <c r="E179" s="4" t="inlineStr">
-        <is>
-          <t>-0.25</t>
-        </is>
-      </c>
+      <c r="D179" s="4" t="inlineStr"/>
+      <c r="E179" s="4" t="inlineStr"/>
       <c r="F179" s="4" t="n">
         <v>-54894</v>
       </c>
@@ -34209,16 +32957,8 @@
           <t>國泰台灣科技龍頭</t>
         </is>
       </c>
-      <c r="D180" s="4" t="inlineStr">
-        <is>
-          <t>34.44</t>
-        </is>
-      </c>
-      <c r="E180" s="4" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
+      <c r="D180" s="4" t="inlineStr"/>
+      <c r="E180" s="4" t="inlineStr"/>
       <c r="F180" s="4" t="n">
         <v>-10564</v>
       </c>
@@ -34238,16 +32978,8 @@
           <t xml:space="preserve">富邦NASDAQ      </t>
         </is>
       </c>
-      <c r="D181" s="4" t="inlineStr">
-        <is>
-          <t>103.80</t>
-        </is>
-      </c>
-      <c r="E181" s="4" t="inlineStr">
-        <is>
-          <t>-0.1</t>
-        </is>
-      </c>
+      <c r="D181" s="4" t="inlineStr"/>
+      <c r="E181" s="4" t="inlineStr"/>
       <c r="F181" s="4" t="n">
         <v>-2786</v>
       </c>
@@ -34267,16 +32999,8 @@
           <t xml:space="preserve">元大高股息      </t>
         </is>
       </c>
-      <c r="D182" s="4" t="inlineStr">
-        <is>
-          <t>37.40</t>
-        </is>
-      </c>
-      <c r="E182" s="4" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
+      <c r="D182" s="4" t="inlineStr"/>
+      <c r="E182" s="4" t="inlineStr"/>
       <c r="F182" s="4" t="n">
         <v>-2116</v>
       </c>
@@ -34296,16 +33020,8 @@
           <t xml:space="preserve">元大台灣50反1   </t>
         </is>
       </c>
-      <c r="D183" s="4" t="inlineStr">
-        <is>
-          <t>15.66</t>
-        </is>
-      </c>
-      <c r="E183" s="4" t="inlineStr">
-        <is>
-          <t>+0.03</t>
-        </is>
-      </c>
+      <c r="D183" s="4" t="inlineStr"/>
+      <c r="E183" s="4" t="inlineStr"/>
       <c r="F183" s="4" t="n">
         <v>-1309</v>
       </c>
@@ -34325,16 +33041,8 @@
           <t xml:space="preserve">富邦公司治理    </t>
         </is>
       </c>
-      <c r="D184" s="4" t="inlineStr">
-        <is>
-          <t>60.90</t>
-        </is>
-      </c>
-      <c r="E184" s="4" t="inlineStr">
-        <is>
-          <t>-0.2</t>
-        </is>
-      </c>
+      <c r="D184" s="4" t="inlineStr"/>
+      <c r="E184" s="4" t="inlineStr"/>
       <c r="F184" s="4" t="n">
         <v>-352</v>
       </c>
@@ -34354,16 +33062,8 @@
           <t xml:space="preserve">國泰台灣領袖50  </t>
         </is>
       </c>
-      <c r="D185" s="4" t="inlineStr">
-        <is>
-          <t>27.15</t>
-        </is>
-      </c>
-      <c r="E185" s="4" t="inlineStr">
-        <is>
-          <t>-0.1</t>
-        </is>
-      </c>
+      <c r="D185" s="4" t="inlineStr"/>
+      <c r="E185" s="4" t="inlineStr"/>
       <c r="F185" s="4" t="n">
         <v>-16</v>
       </c>

--- a/StockInfo/tse_analysis_result.xlsx
+++ b/StockInfo/tse_analysis_result.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="20260116" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="20260115" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="20260114" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="20260113" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="20260112" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="彙整分析" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20260116" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20260115" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20260114" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20260113" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20260112" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/StockInfo/tse_analysis_result.xlsx
+++ b/StockInfo/tse_analysis_result.xlsx
@@ -28212,16 +28212,8 @@
           <t>群益台灣精選高息</t>
         </is>
       </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>23.76</t>
-        </is>
-      </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t>-0.22</t>
-        </is>
-      </c>
+      <c r="E4" s="4" t="inlineStr"/>
+      <c r="F4" s="4" t="inlineStr"/>
       <c r="G4" s="4" t="n">
         <v>52305</v>
       </c>
@@ -28245,16 +28237,8 @@
           <t>元大台灣價值高息</t>
         </is>
       </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t>9.64</t>
-        </is>
-      </c>
-      <c r="F5" s="4" t="inlineStr">
-        <is>
-          <t>-0.08</t>
-        </is>
-      </c>
+      <c r="E5" s="4" t="inlineStr"/>
+      <c r="F5" s="4" t="inlineStr"/>
       <c r="G5" s="4" t="n">
         <v>32409</v>
       </c>
@@ -28278,16 +28262,8 @@
           <t>復華台灣科技優息</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>19.30</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>-0.33</t>
-        </is>
-      </c>
+      <c r="E6" s="4" t="inlineStr"/>
+      <c r="F6" s="4" t="inlineStr"/>
       <c r="G6" s="4" t="n">
         <v>31787</v>
       </c>
@@ -28311,16 +28287,8 @@
           <t xml:space="preserve">燿華            </t>
         </is>
       </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>40.80</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>+3.15</t>
-        </is>
-      </c>
+      <c r="E7" s="4" t="inlineStr"/>
+      <c r="F7" s="4" t="inlineStr"/>
       <c r="G7" s="4" t="n">
         <v>27819</v>
       </c>
@@ -28344,16 +28312,8 @@
           <t xml:space="preserve">華航            </t>
         </is>
       </c>
-      <c r="E8" s="4" t="inlineStr">
-        <is>
-          <t>22.25</t>
-        </is>
-      </c>
-      <c r="F8" s="4" t="inlineStr">
-        <is>
-          <t>+0.35</t>
-        </is>
-      </c>
+      <c r="E8" s="4" t="inlineStr"/>
+      <c r="F8" s="4" t="inlineStr"/>
       <c r="G8" s="4" t="n">
         <v>22997</v>
       </c>
@@ -28377,16 +28337,8 @@
           <t xml:space="preserve">國泰永續高股息  </t>
         </is>
       </c>
-      <c r="E9" s="4" t="inlineStr">
-        <is>
-          <t>22.66</t>
-        </is>
-      </c>
-      <c r="F9" s="4" t="inlineStr">
-        <is>
-          <t>-0.18</t>
-        </is>
-      </c>
+      <c r="E9" s="4" t="inlineStr"/>
+      <c r="F9" s="4" t="inlineStr"/>
       <c r="G9" s="4" t="n">
         <v>16773</v>
       </c>
@@ -28410,16 +28362,8 @@
           <t xml:space="preserve">復華富時不動產  </t>
         </is>
       </c>
-      <c r="E10" s="4" t="inlineStr">
-        <is>
-          <t>9.67</t>
-        </is>
-      </c>
-      <c r="F10" s="4" t="inlineStr">
-        <is>
-          <t>-0.12</t>
-        </is>
-      </c>
+      <c r="E10" s="4" t="inlineStr"/>
+      <c r="F10" s="4" t="inlineStr"/>
       <c r="G10" s="4" t="n">
         <v>16136</v>
       </c>
@@ -28443,16 +28387,8 @@
           <t xml:space="preserve">台玻            </t>
         </is>
       </c>
-      <c r="E11" s="4" t="inlineStr">
-        <is>
-          <t>54.00</t>
-        </is>
-      </c>
-      <c r="F11" s="4" t="inlineStr">
-        <is>
-          <t>+3.5</t>
-        </is>
-      </c>
+      <c r="E11" s="4" t="inlineStr"/>
+      <c r="F11" s="4" t="inlineStr"/>
       <c r="G11" s="4" t="n">
         <v>15159</v>
       </c>
@@ -28476,16 +28412,8 @@
           <t xml:space="preserve">長榮航          </t>
         </is>
       </c>
-      <c r="E12" s="4" t="inlineStr">
-        <is>
-          <t>38.30</t>
-        </is>
-      </c>
-      <c r="F12" s="4" t="inlineStr">
-        <is>
-          <t>+0.1</t>
-        </is>
-      </c>
+      <c r="E12" s="4" t="inlineStr"/>
+      <c r="F12" s="4" t="inlineStr"/>
       <c r="G12" s="4" t="n">
         <v>12863</v>
       </c>
@@ -28509,16 +28437,8 @@
           <t xml:space="preserve">玉山金          </t>
         </is>
       </c>
-      <c r="E13" s="4" t="inlineStr">
-        <is>
-          <t>33.35</t>
-        </is>
-      </c>
-      <c r="F13" s="4" t="inlineStr">
-        <is>
-          <t>+0.25</t>
-        </is>
-      </c>
+      <c r="E13" s="4" t="inlineStr"/>
+      <c r="F13" s="4" t="inlineStr"/>
       <c r="G13" s="4" t="n">
         <v>10500</v>
       </c>
@@ -28542,16 +28462,8 @@
           <t xml:space="preserve">欣興            </t>
         </is>
       </c>
-      <c r="E14" s="4" t="inlineStr">
-        <is>
-          <t>321.00</t>
-        </is>
-      </c>
-      <c r="F14" s="4" t="inlineStr">
-        <is>
-          <t>+13.0</t>
-        </is>
-      </c>
+      <c r="E14" s="4" t="inlineStr"/>
+      <c r="F14" s="4" t="inlineStr"/>
       <c r="G14" s="4" t="n">
         <v>7689</v>
       </c>
@@ -28575,16 +28487,8 @@
           <t xml:space="preserve">三商壽          </t>
         </is>
       </c>
-      <c r="E15" s="4" t="inlineStr">
-        <is>
-          <t>7.89</t>
-        </is>
-      </c>
-      <c r="F15" s="4" t="inlineStr">
-        <is>
-          <t>+0.02</t>
-        </is>
-      </c>
+      <c r="E15" s="4" t="inlineStr"/>
+      <c r="F15" s="4" t="inlineStr"/>
       <c r="G15" s="4" t="n">
         <v>7221</v>
       </c>
@@ -28608,16 +28512,8 @@
           <t>統一台灣高息動能</t>
         </is>
       </c>
-      <c r="E16" s="4" t="inlineStr">
-        <is>
-          <t>15.48</t>
-        </is>
-      </c>
-      <c r="F16" s="4" t="inlineStr">
-        <is>
-          <t>-0.26</t>
-        </is>
-      </c>
+      <c r="E16" s="4" t="inlineStr"/>
+      <c r="F16" s="4" t="inlineStr"/>
       <c r="G16" s="4" t="n">
         <v>6559</v>
       </c>
@@ -28641,16 +28537,8 @@
           <t xml:space="preserve">力成            </t>
         </is>
       </c>
-      <c r="E17" s="4" t="inlineStr">
-        <is>
-          <t>239.50</t>
-        </is>
-      </c>
-      <c r="F17" s="4" t="inlineStr">
-        <is>
-          <t>-12.0</t>
-        </is>
-      </c>
+      <c r="E17" s="4" t="inlineStr"/>
+      <c r="F17" s="4" t="inlineStr"/>
       <c r="G17" s="4" t="n">
         <v>6189</v>
       </c>
@@ -28674,16 +28562,8 @@
           <t xml:space="preserve">可寧衛*         </t>
         </is>
       </c>
-      <c r="E18" s="4" t="inlineStr">
-        <is>
-          <t>42.95</t>
-        </is>
-      </c>
-      <c r="F18" s="4" t="inlineStr">
-        <is>
-          <t>+0.6</t>
-        </is>
-      </c>
+      <c r="E18" s="4" t="inlineStr"/>
+      <c r="F18" s="4" t="inlineStr"/>
       <c r="G18" s="4" t="n">
         <v>5404</v>
       </c>
@@ -28707,16 +28587,8 @@
           <t>富邦特選高股息30</t>
         </is>
       </c>
-      <c r="E19" s="4" t="inlineStr">
-        <is>
-          <t>14.25</t>
-        </is>
-      </c>
-      <c r="F19" s="4" t="inlineStr">
-        <is>
-          <t>-0.19</t>
-        </is>
-      </c>
+      <c r="E19" s="4" t="inlineStr"/>
+      <c r="F19" s="4" t="inlineStr"/>
       <c r="G19" s="4" t="n">
         <v>5326</v>
       </c>
@@ -28740,16 +28612,8 @@
           <t xml:space="preserve">啟碁            </t>
         </is>
       </c>
-      <c r="E20" s="4" t="inlineStr">
-        <is>
-          <t>128.50</t>
-        </is>
-      </c>
-      <c r="F20" s="4" t="inlineStr">
-        <is>
-          <t>-1.5</t>
-        </is>
-      </c>
+      <c r="E20" s="4" t="inlineStr"/>
+      <c r="F20" s="4" t="inlineStr"/>
       <c r="G20" s="4" t="n">
         <v>5236</v>
       </c>
@@ -28773,11 +28637,7 @@
           <t>群益優選非投等債</t>
         </is>
       </c>
-      <c r="E21" s="4" t="inlineStr">
-        <is>
-          <t>9.78</t>
-        </is>
-      </c>
+      <c r="E21" s="4" t="inlineStr"/>
       <c r="F21" s="4" t="inlineStr"/>
       <c r="G21" s="4" t="n">
         <v>5067</v>
@@ -28802,16 +28662,8 @@
           <t xml:space="preserve">定穎投控        </t>
         </is>
       </c>
-      <c r="E22" s="4" t="inlineStr">
-        <is>
-          <t>134.00</t>
-        </is>
-      </c>
-      <c r="F22" s="4" t="inlineStr">
-        <is>
-          <t>+2.5</t>
-        </is>
-      </c>
+      <c r="E22" s="4" t="inlineStr"/>
+      <c r="F22" s="4" t="inlineStr"/>
       <c r="G22" s="4" t="n">
         <v>4740</v>
       </c>
@@ -28835,16 +28687,8 @@
           <t xml:space="preserve">南電            </t>
         </is>
       </c>
-      <c r="E23" s="4" t="inlineStr">
-        <is>
-          <t>361.00</t>
-        </is>
-      </c>
-      <c r="F23" s="4" t="inlineStr">
-        <is>
-          <t>+19.5</t>
-        </is>
-      </c>
+      <c r="E23" s="4" t="inlineStr"/>
+      <c r="F23" s="4" t="inlineStr"/>
       <c r="G23" s="4" t="n">
         <v>4527</v>
       </c>
@@ -28868,16 +28712,8 @@
           <t xml:space="preserve">台化            </t>
         </is>
       </c>
-      <c r="E24" s="4" t="inlineStr">
-        <is>
-          <t>34.05</t>
-        </is>
-      </c>
-      <c r="F24" s="4" t="inlineStr">
-        <is>
-          <t>+0.05</t>
-        </is>
-      </c>
+      <c r="E24" s="4" t="inlineStr"/>
+      <c r="F24" s="4" t="inlineStr"/>
       <c r="G24" s="4" t="n">
         <v>3905</v>
       </c>
@@ -28901,11 +28737,7 @@
           <t xml:space="preserve">漢翔            </t>
         </is>
       </c>
-      <c r="E25" s="4" t="inlineStr">
-        <is>
-          <t>57.40</t>
-        </is>
-      </c>
+      <c r="E25" s="4" t="inlineStr"/>
       <c r="F25" s="4" t="inlineStr"/>
       <c r="G25" s="4" t="n">
         <v>3842</v>
@@ -28930,16 +28762,8 @@
           <t xml:space="preserve">南亞            </t>
         </is>
       </c>
-      <c r="E26" s="4" t="inlineStr">
-        <is>
-          <t>73.70</t>
-        </is>
-      </c>
-      <c r="F26" s="4" t="inlineStr">
-        <is>
-          <t>-2.7</t>
-        </is>
-      </c>
+      <c r="E26" s="4" t="inlineStr"/>
+      <c r="F26" s="4" t="inlineStr"/>
       <c r="G26" s="4" t="n">
         <v>3832</v>
       </c>
@@ -28963,16 +28787,8 @@
           <t xml:space="preserve">新興            </t>
         </is>
       </c>
-      <c r="E27" s="4" t="inlineStr">
-        <is>
-          <t>28.85</t>
-        </is>
-      </c>
-      <c r="F27" s="4" t="inlineStr">
-        <is>
-          <t>-0.15</t>
-        </is>
-      </c>
+      <c r="E27" s="4" t="inlineStr"/>
+      <c r="F27" s="4" t="inlineStr"/>
       <c r="G27" s="4" t="n">
         <v>3812</v>
       </c>
@@ -28996,16 +28812,8 @@
           <t xml:space="preserve">裕民            </t>
         </is>
       </c>
-      <c r="E28" s="4" t="inlineStr">
-        <is>
-          <t>62.80</t>
-        </is>
-      </c>
-      <c r="F28" s="4" t="inlineStr">
-        <is>
-          <t>+0.8</t>
-        </is>
-      </c>
+      <c r="E28" s="4" t="inlineStr"/>
+      <c r="F28" s="4" t="inlineStr"/>
       <c r="G28" s="4" t="n">
         <v>3551</v>
       </c>
@@ -29029,16 +28837,8 @@
           <t xml:space="preserve">永光            </t>
         </is>
       </c>
-      <c r="E29" s="4" t="inlineStr">
-        <is>
-          <t>22.45</t>
-        </is>
-      </c>
-      <c r="F29" s="4" t="inlineStr">
-        <is>
-          <t>-0.45</t>
-        </is>
-      </c>
+      <c r="E29" s="4" t="inlineStr"/>
+      <c r="F29" s="4" t="inlineStr"/>
       <c r="G29" s="4" t="n">
         <v>3379</v>
       </c>
@@ -29062,16 +28862,8 @@
           <t xml:space="preserve">佳能            </t>
         </is>
       </c>
-      <c r="E30" s="4" t="inlineStr">
-        <is>
-          <t>82.50</t>
-        </is>
-      </c>
-      <c r="F30" s="4" t="inlineStr">
-        <is>
-          <t>+1.5</t>
-        </is>
-      </c>
+      <c r="E30" s="4" t="inlineStr"/>
+      <c r="F30" s="4" t="inlineStr"/>
       <c r="G30" s="4" t="n">
         <v>3186</v>
       </c>
@@ -29095,16 +28887,8 @@
           <t xml:space="preserve">華南金          </t>
         </is>
       </c>
-      <c r="E31" s="4" t="inlineStr">
-        <is>
-          <t>33.35</t>
-        </is>
-      </c>
-      <c r="F31" s="4" t="inlineStr">
-        <is>
-          <t>+0.3</t>
-        </is>
-      </c>
+      <c r="E31" s="4" t="inlineStr"/>
+      <c r="F31" s="4" t="inlineStr"/>
       <c r="G31" s="4" t="n">
         <v>3136</v>
       </c>
@@ -29128,16 +28912,8 @@
           <t xml:space="preserve">陽明            </t>
         </is>
       </c>
-      <c r="E32" s="4" t="inlineStr">
-        <is>
-          <t>55.20</t>
-        </is>
-      </c>
-      <c r="F32" s="4" t="inlineStr">
-        <is>
-          <t>+0.1</t>
-        </is>
-      </c>
+      <c r="E32" s="4" t="inlineStr"/>
+      <c r="F32" s="4" t="inlineStr"/>
       <c r="G32" s="4" t="n">
         <v>3085</v>
       </c>
@@ -29161,16 +28937,8 @@
           <t xml:space="preserve">一詮            </t>
         </is>
       </c>
-      <c r="E33" s="4" t="inlineStr">
-        <is>
-          <t>94.00</t>
-        </is>
-      </c>
-      <c r="F33" s="4" t="inlineStr">
-        <is>
-          <t>+1.0</t>
-        </is>
-      </c>
+      <c r="E33" s="4" t="inlineStr"/>
+      <c r="F33" s="4" t="inlineStr"/>
       <c r="G33" s="4" t="n">
         <v>3054</v>
       </c>
@@ -29194,16 +28962,8 @@
           <t xml:space="preserve">光寶科          </t>
         </is>
       </c>
-      <c r="E34" s="4" t="inlineStr">
-        <is>
-          <t>161.00</t>
-        </is>
-      </c>
-      <c r="F34" s="4" t="inlineStr">
-        <is>
-          <t>-0.5</t>
-        </is>
-      </c>
+      <c r="E34" s="4" t="inlineStr"/>
+      <c r="F34" s="4" t="inlineStr"/>
       <c r="G34" s="4" t="n">
         <v>2890</v>
       </c>
@@ -29227,16 +28987,8 @@
           <t xml:space="preserve">英業達          </t>
         </is>
       </c>
-      <c r="E35" s="4" t="inlineStr">
-        <is>
-          <t>46.55</t>
-        </is>
-      </c>
-      <c r="F35" s="4" t="inlineStr">
-        <is>
-          <t>+1.75</t>
-        </is>
-      </c>
+      <c r="E35" s="4" t="inlineStr"/>
+      <c r="F35" s="4" t="inlineStr"/>
       <c r="G35" s="4" t="n">
         <v>2732</v>
       </c>
@@ -29260,16 +29012,8 @@
           <t xml:space="preserve">龍德造船        </t>
         </is>
       </c>
-      <c r="E36" s="4" t="inlineStr">
-        <is>
-          <t>161.50</t>
-        </is>
-      </c>
-      <c r="F36" s="4" t="inlineStr">
-        <is>
-          <t>+14.5</t>
-        </is>
-      </c>
+      <c r="E36" s="4" t="inlineStr"/>
+      <c r="F36" s="4" t="inlineStr"/>
       <c r="G36" s="4" t="n">
         <v>2688</v>
       </c>
@@ -29293,16 +29037,8 @@
           <t xml:space="preserve">廣宇            </t>
         </is>
       </c>
-      <c r="E37" s="4" t="inlineStr">
-        <is>
-          <t>53.60</t>
-        </is>
-      </c>
-      <c r="F37" s="4" t="inlineStr">
-        <is>
-          <t>+1.5</t>
-        </is>
-      </c>
+      <c r="E37" s="4" t="inlineStr"/>
+      <c r="F37" s="4" t="inlineStr"/>
       <c r="G37" s="4" t="n">
         <v>2681</v>
       </c>
@@ -29326,16 +29062,8 @@
           <t xml:space="preserve">矽格            </t>
         </is>
       </c>
-      <c r="E38" s="4" t="inlineStr">
-        <is>
-          <t>134.50</t>
-        </is>
-      </c>
-      <c r="F38" s="4" t="inlineStr">
-        <is>
-          <t>-3.5</t>
-        </is>
-      </c>
+      <c r="E38" s="4" t="inlineStr"/>
+      <c r="F38" s="4" t="inlineStr"/>
       <c r="G38" s="4" t="n">
         <v>2650</v>
       </c>
@@ -29359,16 +29087,8 @@
           <t xml:space="preserve">台達電          </t>
         </is>
       </c>
-      <c r="E39" s="4" t="inlineStr">
-        <is>
-          <t>1,135.00</t>
-        </is>
-      </c>
-      <c r="F39" s="4" t="inlineStr">
-        <is>
-          <t>+5.0</t>
-        </is>
-      </c>
+      <c r="E39" s="4" t="inlineStr"/>
+      <c r="F39" s="4" t="inlineStr"/>
       <c r="G39" s="4" t="n">
         <v>2588</v>
       </c>
@@ -29392,16 +29112,8 @@
           <t xml:space="preserve">正達            </t>
         </is>
       </c>
-      <c r="E40" s="4" t="inlineStr">
-        <is>
-          <t>55.30</t>
-        </is>
-      </c>
-      <c r="F40" s="4" t="inlineStr">
-        <is>
-          <t>+3.5</t>
-        </is>
-      </c>
+      <c r="E40" s="4" t="inlineStr"/>
+      <c r="F40" s="4" t="inlineStr"/>
       <c r="G40" s="4" t="n">
         <v>2544</v>
       </c>
@@ -29425,16 +29137,8 @@
           <t xml:space="preserve">金寶            </t>
         </is>
       </c>
-      <c r="E41" s="4" t="inlineStr">
-        <is>
-          <t>33.75</t>
-        </is>
-      </c>
-      <c r="F41" s="4" t="inlineStr">
-        <is>
-          <t>-1.2</t>
-        </is>
-      </c>
+      <c r="E41" s="4" t="inlineStr"/>
+      <c r="F41" s="4" t="inlineStr"/>
       <c r="G41" s="4" t="n">
         <v>2514</v>
       </c>
@@ -29458,16 +29162,8 @@
           <t xml:space="preserve">事欣科          </t>
         </is>
       </c>
-      <c r="E42" s="4" t="inlineStr">
-        <is>
-          <t>64.70</t>
-        </is>
-      </c>
-      <c r="F42" s="4" t="inlineStr">
-        <is>
-          <t>+1.8</t>
-        </is>
-      </c>
+      <c r="E42" s="4" t="inlineStr"/>
+      <c r="F42" s="4" t="inlineStr"/>
       <c r="G42" s="4" t="n">
         <v>2507</v>
       </c>
@@ -29491,16 +29187,8 @@
           <t xml:space="preserve">亞力            </t>
         </is>
       </c>
-      <c r="E43" s="4" t="inlineStr">
-        <is>
-          <t>139.50</t>
-        </is>
-      </c>
-      <c r="F43" s="4" t="inlineStr">
-        <is>
-          <t>+12.5</t>
-        </is>
-      </c>
+      <c r="E43" s="4" t="inlineStr"/>
+      <c r="F43" s="4" t="inlineStr"/>
       <c r="G43" s="4" t="n">
         <v>2268</v>
       </c>
@@ -29524,16 +29212,8 @@
           <t xml:space="preserve">亞光            </t>
         </is>
       </c>
-      <c r="E44" s="4" t="inlineStr">
-        <is>
-          <t>146.00</t>
-        </is>
-      </c>
-      <c r="F44" s="4" t="inlineStr">
-        <is>
-          <t>+2.5</t>
-        </is>
-      </c>
+      <c r="E44" s="4" t="inlineStr"/>
+      <c r="F44" s="4" t="inlineStr"/>
       <c r="G44" s="4" t="n">
         <v>2255</v>
       </c>
@@ -29557,16 +29237,8 @@
           <t>元大台灣高息低波</t>
         </is>
       </c>
-      <c r="E45" s="4" t="inlineStr">
-        <is>
-          <t>51.75</t>
-        </is>
-      </c>
-      <c r="F45" s="4" t="inlineStr">
-        <is>
-          <t>-0.25</t>
-        </is>
-      </c>
+      <c r="E45" s="4" t="inlineStr"/>
+      <c r="F45" s="4" t="inlineStr"/>
       <c r="G45" s="4" t="n">
         <v>2235</v>
       </c>
@@ -29590,16 +29262,8 @@
           <t xml:space="preserve">恩德            </t>
         </is>
       </c>
-      <c r="E46" s="4" t="inlineStr">
-        <is>
-          <t>30.30</t>
-        </is>
-      </c>
-      <c r="F46" s="4" t="inlineStr">
-        <is>
-          <t>-1.4</t>
-        </is>
-      </c>
+      <c r="E46" s="4" t="inlineStr"/>
+      <c r="F46" s="4" t="inlineStr"/>
       <c r="G46" s="4" t="n">
         <v>2122</v>
       </c>
@@ -29623,16 +29287,8 @@
           <t xml:space="preserve">文曄            </t>
         </is>
       </c>
-      <c r="E47" s="4" t="inlineStr">
-        <is>
-          <t>151.00</t>
-        </is>
-      </c>
-      <c r="F47" s="4" t="inlineStr">
-        <is>
-          <t>+4.0</t>
-        </is>
-      </c>
+      <c r="E47" s="4" t="inlineStr"/>
+      <c r="F47" s="4" t="inlineStr"/>
       <c r="G47" s="4" t="n">
         <v>2067</v>
       </c>
@@ -29656,16 +29312,8 @@
           <t xml:space="preserve">和桐            </t>
         </is>
       </c>
-      <c r="E48" s="4" t="inlineStr">
-        <is>
-          <t>9.22</t>
-        </is>
-      </c>
-      <c r="F48" s="4" t="inlineStr">
-        <is>
-          <t>+0.15</t>
-        </is>
-      </c>
+      <c r="E48" s="4" t="inlineStr"/>
+      <c r="F48" s="4" t="inlineStr"/>
       <c r="G48" s="4" t="n">
         <v>2052</v>
       </c>
@@ -29689,16 +29337,8 @@
           <t xml:space="preserve">中信中國高股息  </t>
         </is>
       </c>
-      <c r="E49" s="4" t="inlineStr">
-        <is>
-          <t>15.18</t>
-        </is>
-      </c>
-      <c r="F49" s="4" t="inlineStr">
-        <is>
-          <t>+0.01</t>
-        </is>
-      </c>
+      <c r="E49" s="4" t="inlineStr"/>
+      <c r="F49" s="4" t="inlineStr"/>
       <c r="G49" s="4" t="n">
         <v>2040</v>
       </c>
@@ -29722,16 +29362,8 @@
           <t xml:space="preserve">堤維西          </t>
         </is>
       </c>
-      <c r="E50" s="4" t="inlineStr">
-        <is>
-          <t>52.80</t>
-        </is>
-      </c>
-      <c r="F50" s="4" t="inlineStr">
-        <is>
-          <t>+1.5</t>
-        </is>
-      </c>
+      <c r="E50" s="4" t="inlineStr"/>
+      <c r="F50" s="4" t="inlineStr"/>
       <c r="G50" s="4" t="n">
         <v>2001</v>
       </c>
@@ -29755,16 +29387,8 @@
           <t xml:space="preserve">長華*           </t>
         </is>
       </c>
-      <c r="E51" s="4" t="inlineStr">
-        <is>
-          <t>47.25</t>
-        </is>
-      </c>
-      <c r="F51" s="4" t="inlineStr">
-        <is>
-          <t>-0.8</t>
-        </is>
-      </c>
+      <c r="E51" s="4" t="inlineStr"/>
+      <c r="F51" s="4" t="inlineStr"/>
       <c r="G51" s="4" t="n">
         <v>1947</v>
       </c>
@@ -29788,16 +29412,8 @@
           <t xml:space="preserve">東台            </t>
         </is>
       </c>
-      <c r="E52" s="4" t="inlineStr">
-        <is>
-          <t>37.15</t>
-        </is>
-      </c>
-      <c r="F52" s="4" t="inlineStr">
-        <is>
-          <t>+0.15</t>
-        </is>
-      </c>
+      <c r="E52" s="4" t="inlineStr"/>
+      <c r="F52" s="4" t="inlineStr"/>
       <c r="G52" s="4" t="n">
         <v>1855</v>
       </c>
@@ -29821,16 +29437,8 @@
           <t xml:space="preserve">長興            </t>
         </is>
       </c>
-      <c r="E53" s="4" t="inlineStr">
-        <is>
-          <t>66.70</t>
-        </is>
-      </c>
-      <c r="F53" s="4" t="inlineStr">
-        <is>
-          <t>-3.2</t>
-        </is>
-      </c>
+      <c r="E53" s="4" t="inlineStr"/>
+      <c r="F53" s="4" t="inlineStr"/>
       <c r="G53" s="4" t="n">
         <v>1826</v>
       </c>
@@ -29854,16 +29462,8 @@
           <t xml:space="preserve">慧洋-KY         </t>
         </is>
       </c>
-      <c r="E54" s="4" t="inlineStr">
-        <is>
-          <t>72.30</t>
-        </is>
-      </c>
-      <c r="F54" s="4" t="inlineStr">
-        <is>
-          <t>+1.3</t>
-        </is>
-      </c>
+      <c r="E54" s="4" t="inlineStr"/>
+      <c r="F54" s="4" t="inlineStr"/>
       <c r="G54" s="4" t="n">
         <v>1819</v>
       </c>
@@ -29887,16 +29487,8 @@
           <t xml:space="preserve">矽統            </t>
         </is>
       </c>
-      <c r="E55" s="4" t="inlineStr">
-        <is>
-          <t>56.90</t>
-        </is>
-      </c>
-      <c r="F55" s="4" t="inlineStr">
-        <is>
-          <t>+5.1</t>
-        </is>
-      </c>
+      <c r="E55" s="4" t="inlineStr"/>
+      <c r="F55" s="4" t="inlineStr"/>
       <c r="G55" s="4" t="n">
         <v>1807</v>
       </c>
@@ -29920,16 +29512,8 @@
           <t xml:space="preserve">國際中橡        </t>
         </is>
       </c>
-      <c r="E56" s="4" t="inlineStr">
-        <is>
-          <t>12.15</t>
-        </is>
-      </c>
-      <c r="F56" s="4" t="inlineStr">
-        <is>
-          <t>-0.15</t>
-        </is>
-      </c>
+      <c r="E56" s="4" t="inlineStr"/>
+      <c r="F56" s="4" t="inlineStr"/>
       <c r="G56" s="4" t="n">
         <v>1695</v>
       </c>
@@ -29953,16 +29537,8 @@
           <t xml:space="preserve">台船            </t>
         </is>
       </c>
-      <c r="E57" s="4" t="inlineStr">
-        <is>
-          <t>23.30</t>
-        </is>
-      </c>
-      <c r="F57" s="4" t="inlineStr">
-        <is>
-          <t>+0.6</t>
-        </is>
-      </c>
+      <c r="E57" s="4" t="inlineStr"/>
+      <c r="F57" s="4" t="inlineStr"/>
       <c r="G57" s="4" t="n">
         <v>1682</v>
       </c>
@@ -29986,16 +29562,8 @@
           <t xml:space="preserve">矽力*-KY        </t>
         </is>
       </c>
-      <c r="E58" s="4" t="inlineStr">
-        <is>
-          <t>268.50</t>
-        </is>
-      </c>
-      <c r="F58" s="4" t="inlineStr">
-        <is>
-          <t>+16.5</t>
-        </is>
-      </c>
+      <c r="E58" s="4" t="inlineStr"/>
+      <c r="F58" s="4" t="inlineStr"/>
       <c r="G58" s="4" t="n">
         <v>1640</v>
       </c>
@@ -30019,16 +29587,8 @@
           <t xml:space="preserve">美利達          </t>
         </is>
       </c>
-      <c r="E59" s="4" t="inlineStr">
-        <is>
-          <t>88.70</t>
-        </is>
-      </c>
-      <c r="F59" s="4" t="inlineStr">
-        <is>
-          <t>-1.2</t>
-        </is>
-      </c>
+      <c r="E59" s="4" t="inlineStr"/>
+      <c r="F59" s="4" t="inlineStr"/>
       <c r="G59" s="4" t="n">
         <v>1595</v>
       </c>
@@ -30052,16 +29612,8 @@
           <t xml:space="preserve">富邦NASDAQ      </t>
         </is>
       </c>
-      <c r="E60" s="4" t="inlineStr">
-        <is>
-          <t>101.80</t>
-        </is>
-      </c>
-      <c r="F60" s="4" t="inlineStr">
-        <is>
-          <t>-0.8</t>
-        </is>
-      </c>
+      <c r="E60" s="4" t="inlineStr"/>
+      <c r="F60" s="4" t="inlineStr"/>
       <c r="G60" s="4" t="n">
         <v>1511</v>
       </c>
@@ -30085,16 +29637,8 @@
           <t xml:space="preserve">兆赫            </t>
         </is>
       </c>
-      <c r="E61" s="4" t="inlineStr">
-        <is>
-          <t>34.45</t>
-        </is>
-      </c>
-      <c r="F61" s="4" t="inlineStr">
-        <is>
-          <t>-2.4</t>
-        </is>
-      </c>
+      <c r="E61" s="4" t="inlineStr"/>
+      <c r="F61" s="4" t="inlineStr"/>
       <c r="G61" s="4" t="n">
         <v>1440</v>
       </c>
@@ -30118,16 +29662,8 @@
           <t xml:space="preserve">順德            </t>
         </is>
       </c>
-      <c r="E62" s="4" t="inlineStr">
-        <is>
-          <t>86.00</t>
-        </is>
-      </c>
-      <c r="F62" s="4" t="inlineStr">
-        <is>
-          <t>+2.3</t>
-        </is>
-      </c>
+      <c r="E62" s="4" t="inlineStr"/>
+      <c r="F62" s="4" t="inlineStr"/>
       <c r="G62" s="4" t="n">
         <v>1416</v>
       </c>
@@ -30151,16 +29687,8 @@
           <t xml:space="preserve">榮科            </t>
         </is>
       </c>
-      <c r="E63" s="4" t="inlineStr">
-        <is>
-          <t>61.50</t>
-        </is>
-      </c>
-      <c r="F63" s="4" t="inlineStr">
-        <is>
-          <t>-3.5</t>
-        </is>
-      </c>
+      <c r="E63" s="4" t="inlineStr"/>
+      <c r="F63" s="4" t="inlineStr"/>
       <c r="G63" s="4" t="n">
         <v>1398</v>
       </c>
@@ -30184,16 +29712,8 @@
           <t xml:space="preserve">建漢            </t>
         </is>
       </c>
-      <c r="E64" s="4" t="inlineStr">
-        <is>
-          <t>26.00</t>
-        </is>
-      </c>
-      <c r="F64" s="4" t="inlineStr">
-        <is>
-          <t>+0.2</t>
-        </is>
-      </c>
+      <c r="E64" s="4" t="inlineStr"/>
+      <c r="F64" s="4" t="inlineStr"/>
       <c r="G64" s="4" t="n">
         <v>1386</v>
       </c>
@@ -30217,16 +29737,8 @@
           <t xml:space="preserve">亞航            </t>
         </is>
       </c>
-      <c r="E65" s="4" t="inlineStr">
-        <is>
-          <t>55.90</t>
-        </is>
-      </c>
-      <c r="F65" s="4" t="inlineStr">
-        <is>
-          <t>+0.4</t>
-        </is>
-      </c>
+      <c r="E65" s="4" t="inlineStr"/>
+      <c r="F65" s="4" t="inlineStr"/>
       <c r="G65" s="4" t="n">
         <v>1385</v>
       </c>
@@ -30250,16 +29762,8 @@
           <t xml:space="preserve">茂矽            </t>
         </is>
       </c>
-      <c r="E66" s="4" t="inlineStr">
-        <is>
-          <t>37.80</t>
-        </is>
-      </c>
-      <c r="F66" s="4" t="inlineStr">
-        <is>
-          <t>+1.05</t>
-        </is>
-      </c>
+      <c r="E66" s="4" t="inlineStr"/>
+      <c r="F66" s="4" t="inlineStr"/>
       <c r="G66" s="4" t="n">
         <v>1333</v>
       </c>
@@ -30283,11 +29787,7 @@
           <t xml:space="preserve">統一實          </t>
         </is>
       </c>
-      <c r="E67" s="4" t="inlineStr">
-        <is>
-          <t>18.60</t>
-        </is>
-      </c>
+      <c r="E67" s="4" t="inlineStr"/>
       <c r="F67" s="4" t="inlineStr"/>
       <c r="G67" s="4" t="n">
         <v>1276</v>
@@ -30312,16 +29812,8 @@
           <t xml:space="preserve">嘉聯益          </t>
         </is>
       </c>
-      <c r="E68" s="4" t="inlineStr">
-        <is>
-          <t>16.35</t>
-        </is>
-      </c>
-      <c r="F68" s="4" t="inlineStr">
-        <is>
-          <t>+0.3</t>
-        </is>
-      </c>
+      <c r="E68" s="4" t="inlineStr"/>
+      <c r="F68" s="4" t="inlineStr"/>
       <c r="G68" s="4" t="n">
         <v>1241</v>
       </c>
@@ -30345,16 +29837,8 @@
           <t xml:space="preserve">凌陽            </t>
         </is>
       </c>
-      <c r="E69" s="4" t="inlineStr">
-        <is>
-          <t>22.45</t>
-        </is>
-      </c>
-      <c r="F69" s="4" t="inlineStr">
-        <is>
-          <t>-0.25</t>
-        </is>
-      </c>
+      <c r="E69" s="4" t="inlineStr"/>
+      <c r="F69" s="4" t="inlineStr"/>
       <c r="G69" s="4" t="n">
         <v>1222</v>
       </c>
@@ -30378,16 +29862,8 @@
           <t xml:space="preserve">訊舟            </t>
         </is>
       </c>
-      <c r="E70" s="4" t="inlineStr">
-        <is>
-          <t>19.60</t>
-        </is>
-      </c>
-      <c r="F70" s="4" t="inlineStr">
-        <is>
-          <t>-0.25</t>
-        </is>
-      </c>
+      <c r="E70" s="4" t="inlineStr"/>
+      <c r="F70" s="4" t="inlineStr"/>
       <c r="G70" s="4" t="n">
         <v>1182</v>
       </c>
@@ -30411,16 +29887,8 @@
           <t>大華優利高填息30</t>
         </is>
       </c>
-      <c r="E71" s="4" t="inlineStr">
-        <is>
-          <t>23.12</t>
-        </is>
-      </c>
-      <c r="F71" s="4" t="inlineStr">
-        <is>
-          <t>-0.21</t>
-        </is>
-      </c>
+      <c r="E71" s="4" t="inlineStr"/>
+      <c r="F71" s="4" t="inlineStr"/>
       <c r="G71" s="4" t="n">
         <v>1160</v>
       </c>
@@ -30444,16 +29912,8 @@
           <t xml:space="preserve">仁寶            </t>
         </is>
       </c>
-      <c r="E72" s="4" t="inlineStr">
-        <is>
-          <t>31.90</t>
-        </is>
-      </c>
-      <c r="F72" s="4" t="inlineStr">
-        <is>
-          <t>-0.7</t>
-        </is>
-      </c>
+      <c r="E72" s="4" t="inlineStr"/>
+      <c r="F72" s="4" t="inlineStr"/>
       <c r="G72" s="4" t="n">
         <v>1063</v>
       </c>
@@ -30477,16 +29937,8 @@
           <t xml:space="preserve">錸德            </t>
         </is>
       </c>
-      <c r="E73" s="4" t="inlineStr">
-        <is>
-          <t>15.00</t>
-        </is>
-      </c>
-      <c r="F73" s="4" t="inlineStr">
-        <is>
-          <t>-0.65</t>
-        </is>
-      </c>
+      <c r="E73" s="4" t="inlineStr"/>
+      <c r="F73" s="4" t="inlineStr"/>
       <c r="G73" s="4" t="n">
         <v>1009</v>
       </c>
@@ -30510,16 +29962,8 @@
           <t xml:space="preserve">凌巨            </t>
         </is>
       </c>
-      <c r="E74" s="4" t="inlineStr">
-        <is>
-          <t>14.00</t>
-        </is>
-      </c>
-      <c r="F74" s="4" t="inlineStr">
-        <is>
-          <t>-0.4</t>
-        </is>
-      </c>
+      <c r="E74" s="4" t="inlineStr"/>
+      <c r="F74" s="4" t="inlineStr"/>
       <c r="G74" s="4" t="n">
         <v>993</v>
       </c>
@@ -30543,11 +29987,7 @@
           <t xml:space="preserve">長榮            </t>
         </is>
       </c>
-      <c r="E75" s="4" t="inlineStr">
-        <is>
-          <t>191.00</t>
-        </is>
-      </c>
+      <c r="E75" s="4" t="inlineStr"/>
       <c r="F75" s="4" t="inlineStr"/>
       <c r="G75" s="4" t="n">
         <v>990</v>
@@ -30572,16 +30012,8 @@
           <t xml:space="preserve">精金            </t>
         </is>
       </c>
-      <c r="E76" s="4" t="inlineStr">
-        <is>
-          <t>10.10</t>
-        </is>
-      </c>
-      <c r="F76" s="4" t="inlineStr">
-        <is>
-          <t>+0.89</t>
-        </is>
-      </c>
+      <c r="E76" s="4" t="inlineStr"/>
+      <c r="F76" s="4" t="inlineStr"/>
       <c r="G76" s="4" t="n">
         <v>973</v>
       </c>
@@ -30605,16 +30037,8 @@
           <t xml:space="preserve">中鼎            </t>
         </is>
       </c>
-      <c r="E77" s="4" t="inlineStr">
-        <is>
-          <t>32.60</t>
-        </is>
-      </c>
-      <c r="F77" s="4" t="inlineStr">
-        <is>
-          <t>-0.45</t>
-        </is>
-      </c>
+      <c r="E77" s="4" t="inlineStr"/>
+      <c r="F77" s="4" t="inlineStr"/>
       <c r="G77" s="4" t="n">
         <v>951</v>
       </c>
@@ -30638,16 +30062,8 @@
           <t xml:space="preserve">合機            </t>
         </is>
       </c>
-      <c r="E78" s="4" t="inlineStr">
-        <is>
-          <t>46.80</t>
-        </is>
-      </c>
-      <c r="F78" s="4" t="inlineStr">
-        <is>
-          <t>+1.4</t>
-        </is>
-      </c>
+      <c r="E78" s="4" t="inlineStr"/>
+      <c r="F78" s="4" t="inlineStr"/>
       <c r="G78" s="4" t="n">
         <v>950</v>
       </c>
@@ -30671,16 +30087,8 @@
           <t xml:space="preserve">泰鼎-KY         </t>
         </is>
       </c>
-      <c r="E79" s="4" t="inlineStr">
-        <is>
-          <t>36.70</t>
-        </is>
-      </c>
-      <c r="F79" s="4" t="inlineStr">
-        <is>
-          <t>-0.65</t>
-        </is>
-      </c>
+      <c r="E79" s="4" t="inlineStr"/>
+      <c r="F79" s="4" t="inlineStr"/>
       <c r="G79" s="4" t="n">
         <v>946</v>
       </c>
@@ -30704,16 +30112,8 @@
           <t xml:space="preserve">群益證          </t>
         </is>
       </c>
-      <c r="E80" s="4" t="inlineStr">
-        <is>
-          <t>27.60</t>
-        </is>
-      </c>
-      <c r="F80" s="4" t="inlineStr">
-        <is>
-          <t>-0.3</t>
-        </is>
-      </c>
+      <c r="E80" s="4" t="inlineStr"/>
+      <c r="F80" s="4" t="inlineStr"/>
       <c r="G80" s="4" t="n">
         <v>943</v>
       </c>
@@ -30737,16 +30137,8 @@
           <t xml:space="preserve">光罩            </t>
         </is>
       </c>
-      <c r="E81" s="4" t="inlineStr">
-        <is>
-          <t>41.90</t>
-        </is>
-      </c>
-      <c r="F81" s="4" t="inlineStr">
-        <is>
-          <t>+0.35</t>
-        </is>
-      </c>
+      <c r="E81" s="4" t="inlineStr"/>
+      <c r="F81" s="4" t="inlineStr"/>
       <c r="G81" s="4" t="n">
         <v>896</v>
       </c>
@@ -30770,16 +30162,8 @@
           <t xml:space="preserve">和成            </t>
         </is>
       </c>
-      <c r="E82" s="4" t="inlineStr">
-        <is>
-          <t>20.30</t>
-        </is>
-      </c>
-      <c r="F82" s="4" t="inlineStr">
-        <is>
-          <t>-0.3</t>
-        </is>
-      </c>
+      <c r="E82" s="4" t="inlineStr"/>
+      <c r="F82" s="4" t="inlineStr"/>
       <c r="G82" s="4" t="n">
         <v>868</v>
       </c>
@@ -30803,16 +30187,8 @@
           <t xml:space="preserve">立隆電          </t>
         </is>
       </c>
-      <c r="E83" s="4" t="inlineStr">
-        <is>
-          <t>117.50</t>
-        </is>
-      </c>
-      <c r="F83" s="4" t="inlineStr">
-        <is>
-          <t>-1.5</t>
-        </is>
-      </c>
+      <c r="E83" s="4" t="inlineStr"/>
+      <c r="F83" s="4" t="inlineStr"/>
       <c r="G83" s="4" t="n">
         <v>848</v>
       </c>
@@ -30836,16 +30212,8 @@
           <t xml:space="preserve">中華化          </t>
         </is>
       </c>
-      <c r="E84" s="4" t="inlineStr">
-        <is>
-          <t>46.90</t>
-        </is>
-      </c>
-      <c r="F84" s="4" t="inlineStr">
-        <is>
-          <t>-0.55</t>
-        </is>
-      </c>
+      <c r="E84" s="4" t="inlineStr"/>
+      <c r="F84" s="4" t="inlineStr"/>
       <c r="G84" s="4" t="n">
         <v>835</v>
       </c>
@@ -30869,16 +30237,8 @@
           <t xml:space="preserve">統一證          </t>
         </is>
       </c>
-      <c r="E85" s="4" t="inlineStr">
-        <is>
-          <t>27.55</t>
-        </is>
-      </c>
-      <c r="F85" s="4" t="inlineStr">
-        <is>
-          <t>-0.2</t>
-        </is>
-      </c>
+      <c r="E85" s="4" t="inlineStr"/>
+      <c r="F85" s="4" t="inlineStr"/>
       <c r="G85" s="4" t="n">
         <v>806</v>
       </c>
@@ -30902,16 +30262,8 @@
           <t xml:space="preserve">力特            </t>
         </is>
       </c>
-      <c r="E86" s="4" t="inlineStr">
-        <is>
-          <t>27.80</t>
-        </is>
-      </c>
-      <c r="F86" s="4" t="inlineStr">
-        <is>
-          <t>+1.05</t>
-        </is>
-      </c>
+      <c r="E86" s="4" t="inlineStr"/>
+      <c r="F86" s="4" t="inlineStr"/>
       <c r="G86" s="4" t="n">
         <v>789</v>
       </c>
@@ -30935,16 +30287,8 @@
           <t xml:space="preserve">明泰            </t>
         </is>
       </c>
-      <c r="E87" s="4" t="inlineStr">
-        <is>
-          <t>34.40</t>
-        </is>
-      </c>
-      <c r="F87" s="4" t="inlineStr">
-        <is>
-          <t>-0.05</t>
-        </is>
-      </c>
+      <c r="E87" s="4" t="inlineStr"/>
+      <c r="F87" s="4" t="inlineStr"/>
       <c r="G87" s="4" t="n">
         <v>707</v>
       </c>
@@ -30968,16 +30312,8 @@
           <t xml:space="preserve">瑞軒            </t>
         </is>
       </c>
-      <c r="E88" s="4" t="inlineStr">
-        <is>
-          <t>21.05</t>
-        </is>
-      </c>
-      <c r="F88" s="4" t="inlineStr">
-        <is>
-          <t>+1.9</t>
-        </is>
-      </c>
+      <c r="E88" s="4" t="inlineStr"/>
+      <c r="F88" s="4" t="inlineStr"/>
       <c r="G88" s="4" t="n">
         <v>678</v>
       </c>
@@ -31001,16 +30337,8 @@
           <t xml:space="preserve">臻鼎-KY         </t>
         </is>
       </c>
-      <c r="E89" s="4" t="inlineStr">
-        <is>
-          <t>159.50</t>
-        </is>
-      </c>
-      <c r="F89" s="4" t="inlineStr">
-        <is>
-          <t>-5.0</t>
-        </is>
-      </c>
+      <c r="E89" s="4" t="inlineStr"/>
+      <c r="F89" s="4" t="inlineStr"/>
       <c r="G89" s="4" t="n">
         <v>650</v>
       </c>
@@ -31034,11 +30362,7 @@
           <t xml:space="preserve">裕隆            </t>
         </is>
       </c>
-      <c r="E90" s="4" t="inlineStr">
-        <is>
-          <t>31.90</t>
-        </is>
-      </c>
+      <c r="E90" s="4" t="inlineStr"/>
       <c r="F90" s="4" t="inlineStr"/>
       <c r="G90" s="4" t="n">
         <v>632</v>
@@ -31063,16 +30387,8 @@
           <t xml:space="preserve">華新科          </t>
         </is>
       </c>
-      <c r="E91" s="4" t="inlineStr">
-        <is>
-          <t>143.50</t>
-        </is>
-      </c>
-      <c r="F91" s="4" t="inlineStr">
-        <is>
-          <t>-4.5</t>
-        </is>
-      </c>
+      <c r="E91" s="4" t="inlineStr"/>
+      <c r="F91" s="4" t="inlineStr"/>
       <c r="G91" s="4" t="n">
         <v>598</v>
       </c>
@@ -31096,16 +30412,8 @@
           <t xml:space="preserve">億光            </t>
         </is>
       </c>
-      <c r="E92" s="4" t="inlineStr">
-        <is>
-          <t>55.90</t>
-        </is>
-      </c>
-      <c r="F92" s="4" t="inlineStr">
-        <is>
-          <t>+0.9</t>
-        </is>
-      </c>
+      <c r="E92" s="4" t="inlineStr"/>
+      <c r="F92" s="4" t="inlineStr"/>
       <c r="G92" s="4" t="n">
         <v>550</v>
       </c>
@@ -31129,16 +30437,8 @@
           <t xml:space="preserve">德律            </t>
         </is>
       </c>
-      <c r="E93" s="4" t="inlineStr">
-        <is>
-          <t>180.00</t>
-        </is>
-      </c>
-      <c r="F93" s="4" t="inlineStr">
-        <is>
-          <t>+5.0</t>
-        </is>
-      </c>
+      <c r="E93" s="4" t="inlineStr"/>
+      <c r="F93" s="4" t="inlineStr"/>
       <c r="G93" s="4" t="n">
         <v>540</v>
       </c>
@@ -31162,16 +30462,8 @@
           <t xml:space="preserve">華立            </t>
         </is>
       </c>
-      <c r="E94" s="4" t="inlineStr">
-        <is>
-          <t>116.00</t>
-        </is>
-      </c>
-      <c r="F94" s="4" t="inlineStr">
-        <is>
-          <t>+0.5</t>
-        </is>
-      </c>
+      <c r="E94" s="4" t="inlineStr"/>
+      <c r="F94" s="4" t="inlineStr"/>
       <c r="G94" s="4" t="n">
         <v>519</v>
       </c>
@@ -31195,16 +30487,8 @@
           <t xml:space="preserve">乙盛-KY         </t>
         </is>
       </c>
-      <c r="E95" s="4" t="inlineStr">
-        <is>
-          <t>81.90</t>
-        </is>
-      </c>
-      <c r="F95" s="4" t="inlineStr">
-        <is>
-          <t>-0.5</t>
-        </is>
-      </c>
+      <c r="E95" s="4" t="inlineStr"/>
+      <c r="F95" s="4" t="inlineStr"/>
       <c r="G95" s="4" t="n">
         <v>515</v>
       </c>
@@ -31228,16 +30512,8 @@
           <t xml:space="preserve">豐泰            </t>
         </is>
       </c>
-      <c r="E96" s="4" t="inlineStr">
-        <is>
-          <t>99.80</t>
-        </is>
-      </c>
-      <c r="F96" s="4" t="inlineStr">
-        <is>
-          <t>-0.2</t>
-        </is>
-      </c>
+      <c r="E96" s="4" t="inlineStr"/>
+      <c r="F96" s="4" t="inlineStr"/>
       <c r="G96" s="4" t="n">
         <v>511</v>
       </c>
@@ -31261,16 +30537,8 @@
           <t xml:space="preserve">聯茂            </t>
         </is>
       </c>
-      <c r="E97" s="4" t="inlineStr">
-        <is>
-          <t>115.00</t>
-        </is>
-      </c>
-      <c r="F97" s="4" t="inlineStr">
-        <is>
-          <t>-0.5</t>
-        </is>
-      </c>
+      <c r="E97" s="4" t="inlineStr"/>
+      <c r="F97" s="4" t="inlineStr"/>
       <c r="G97" s="4" t="n">
         <v>502</v>
       </c>
@@ -31294,16 +30562,8 @@
           <t xml:space="preserve">中纖            </t>
         </is>
       </c>
-      <c r="E98" s="4" t="inlineStr">
-        <is>
-          <t>7.10</t>
-        </is>
-      </c>
-      <c r="F98" s="4" t="inlineStr">
-        <is>
-          <t>-0.05</t>
-        </is>
-      </c>
+      <c r="E98" s="4" t="inlineStr"/>
+      <c r="F98" s="4" t="inlineStr"/>
       <c r="G98" s="4" t="n">
         <v>498</v>
       </c>
@@ -31327,11 +30587,7 @@
           <t xml:space="preserve">誠美材          </t>
         </is>
       </c>
-      <c r="E99" s="4" t="inlineStr">
-        <is>
-          <t>14.05</t>
-        </is>
-      </c>
+      <c r="E99" s="4" t="inlineStr"/>
       <c r="F99" s="4" t="inlineStr"/>
       <c r="G99" s="4" t="n">
         <v>489</v>
@@ -31356,16 +30612,8 @@
           <t xml:space="preserve">凱美            </t>
         </is>
       </c>
-      <c r="E100" s="4" t="inlineStr">
-        <is>
-          <t>103.00</t>
-        </is>
-      </c>
-      <c r="F100" s="4" t="inlineStr">
-        <is>
-          <t>-1.0</t>
-        </is>
-      </c>
+      <c r="E100" s="4" t="inlineStr"/>
+      <c r="F100" s="4" t="inlineStr"/>
       <c r="G100" s="4" t="n">
         <v>484</v>
       </c>
@@ -31389,16 +30637,8 @@
           <t xml:space="preserve">美律            </t>
         </is>
       </c>
-      <c r="E101" s="4" t="inlineStr">
-        <is>
-          <t>107.50</t>
-        </is>
-      </c>
-      <c r="F101" s="4" t="inlineStr">
-        <is>
-          <t>+2.0</t>
-        </is>
-      </c>
+      <c r="E101" s="4" t="inlineStr"/>
+      <c r="F101" s="4" t="inlineStr"/>
       <c r="G101" s="4" t="n">
         <v>482</v>
       </c>
@@ -31422,16 +30662,8 @@
           <t xml:space="preserve">增你強          </t>
         </is>
       </c>
-      <c r="E102" s="4" t="inlineStr">
-        <is>
-          <t>40.20</t>
-        </is>
-      </c>
-      <c r="F102" s="4" t="inlineStr">
-        <is>
-          <t>-0.15</t>
-        </is>
-      </c>
+      <c r="E102" s="4" t="inlineStr"/>
+      <c r="F102" s="4" t="inlineStr"/>
       <c r="G102" s="4" t="n">
         <v>476</v>
       </c>
@@ -31455,16 +30687,8 @@
           <t xml:space="preserve">緯穎            </t>
         </is>
       </c>
-      <c r="E103" s="4" t="inlineStr">
-        <is>
-          <t>3,605.00</t>
-        </is>
-      </c>
-      <c r="F103" s="4" t="inlineStr">
-        <is>
-          <t>-65.0</t>
-        </is>
-      </c>
+      <c r="E103" s="4" t="inlineStr"/>
+      <c r="F103" s="4" t="inlineStr"/>
       <c r="G103" s="4" t="n">
         <v>463</v>
       </c>
@@ -31565,16 +30789,8 @@
           <t xml:space="preserve">元大台灣50      </t>
         </is>
       </c>
-      <c r="E109" s="4" t="inlineStr">
-        <is>
-          <t>71.85</t>
-        </is>
-      </c>
-      <c r="F109" s="4" t="inlineStr">
-        <is>
-          <t>-0.75</t>
-        </is>
-      </c>
+      <c r="E109" s="4" t="inlineStr"/>
+      <c r="F109" s="4" t="inlineStr"/>
       <c r="G109" s="4" t="n">
         <v>-105722</v>
       </c>
@@ -31598,16 +30814,8 @@
           <t xml:space="preserve">友達            </t>
         </is>
       </c>
-      <c r="E110" s="4" t="inlineStr">
-        <is>
-          <t>15.90</t>
-        </is>
-      </c>
-      <c r="F110" s="4" t="inlineStr">
-        <is>
-          <t>-0.7</t>
-        </is>
-      </c>
+      <c r="E110" s="4" t="inlineStr"/>
+      <c r="F110" s="4" t="inlineStr"/>
       <c r="G110" s="4" t="n">
         <v>-67333</v>
       </c>
@@ -31631,16 +30839,8 @@
           <t xml:space="preserve">聯電            </t>
         </is>
       </c>
-      <c r="E111" s="4" t="inlineStr">
-        <is>
-          <t>68.40</t>
-        </is>
-      </c>
-      <c r="F111" s="4" t="inlineStr">
-        <is>
-          <t>+0.6</t>
-        </is>
-      </c>
+      <c r="E111" s="4" t="inlineStr"/>
+      <c r="F111" s="4" t="inlineStr"/>
       <c r="G111" s="4" t="n">
         <v>-59491</v>
       </c>
@@ -31664,16 +30864,8 @@
           <t xml:space="preserve">元大高股息      </t>
         </is>
       </c>
-      <c r="E112" s="4" t="inlineStr">
-        <is>
-          <t>38.21</t>
-        </is>
-      </c>
-      <c r="F112" s="4" t="inlineStr">
-        <is>
-          <t>-0.24</t>
-        </is>
-      </c>
+      <c r="E112" s="4" t="inlineStr"/>
+      <c r="F112" s="4" t="inlineStr"/>
       <c r="G112" s="4" t="n">
         <v>-52873</v>
       </c>
@@ -31697,11 +30889,7 @@
           <t xml:space="preserve">群創            </t>
         </is>
       </c>
-      <c r="E113" s="4" t="inlineStr">
-        <is>
-          <t>27.15</t>
-        </is>
-      </c>
+      <c r="E113" s="4" t="inlineStr"/>
       <c r="F113" s="4" t="inlineStr"/>
       <c r="G113" s="4" t="n">
         <v>-49625</v>
@@ -31726,16 +30914,8 @@
           <t xml:space="preserve">大同            </t>
         </is>
       </c>
-      <c r="E114" s="4" t="inlineStr">
-        <is>
-          <t>41.05</t>
-        </is>
-      </c>
-      <c r="F114" s="4" t="inlineStr">
-        <is>
-          <t>-1.7</t>
-        </is>
-      </c>
+      <c r="E114" s="4" t="inlineStr"/>
+      <c r="F114" s="4" t="inlineStr"/>
       <c r="G114" s="4" t="n">
         <v>-35167</v>
       </c>
@@ -31759,16 +30939,8 @@
           <t xml:space="preserve">力積電          </t>
         </is>
       </c>
-      <c r="E115" s="4" t="inlineStr">
-        <is>
-          <t>62.60</t>
-        </is>
-      </c>
-      <c r="F115" s="4" t="inlineStr">
-        <is>
-          <t>-5.6</t>
-        </is>
-      </c>
+      <c r="E115" s="4" t="inlineStr"/>
+      <c r="F115" s="4" t="inlineStr"/>
       <c r="G115" s="4" t="n">
         <v>-31606</v>
       </c>
@@ -31792,16 +30964,8 @@
           <t xml:space="preserve">華新            </t>
         </is>
       </c>
-      <c r="E116" s="4" t="inlineStr">
-        <is>
-          <t>39.65</t>
-        </is>
-      </c>
-      <c r="F116" s="4" t="inlineStr">
-        <is>
-          <t>-2.75</t>
-        </is>
-      </c>
+      <c r="E116" s="4" t="inlineStr"/>
+      <c r="F116" s="4" t="inlineStr"/>
       <c r="G116" s="4" t="n">
         <v>-28040</v>
       </c>
@@ -31825,16 +30989,8 @@
           <t xml:space="preserve">鴻海            </t>
         </is>
       </c>
-      <c r="E117" s="4" t="inlineStr">
-        <is>
-          <t>219.00</t>
-        </is>
-      </c>
-      <c r="F117" s="4" t="inlineStr">
-        <is>
-          <t>-4.5</t>
-        </is>
-      </c>
+      <c r="E117" s="4" t="inlineStr"/>
+      <c r="F117" s="4" t="inlineStr"/>
       <c r="G117" s="4" t="n">
         <v>-24894</v>
       </c>
@@ -31858,16 +31014,8 @@
           <t xml:space="preserve">台積電          </t>
         </is>
       </c>
-      <c r="E118" s="4" t="inlineStr">
-        <is>
-          <t>1,740.00</t>
-        </is>
-      </c>
-      <c r="F118" s="4" t="inlineStr">
-        <is>
-          <t>-35.0</t>
-        </is>
-      </c>
+      <c r="E118" s="4" t="inlineStr"/>
+      <c r="F118" s="4" t="inlineStr"/>
       <c r="G118" s="4" t="n">
         <v>-21665</v>
       </c>
@@ -31891,16 +31039,8 @@
           <t xml:space="preserve">中鋼            </t>
         </is>
       </c>
-      <c r="E119" s="4" t="inlineStr">
-        <is>
-          <t>18.95</t>
-        </is>
-      </c>
-      <c r="F119" s="4" t="inlineStr">
-        <is>
-          <t>-0.2</t>
-        </is>
-      </c>
+      <c r="E119" s="4" t="inlineStr"/>
+      <c r="F119" s="4" t="inlineStr"/>
       <c r="G119" s="4" t="n">
         <v>-21652</v>
       </c>
@@ -31924,16 +31064,8 @@
           <t xml:space="preserve">緯創            </t>
         </is>
       </c>
-      <c r="E120" s="4" t="inlineStr">
-        <is>
-          <t>133.50</t>
-        </is>
-      </c>
-      <c r="F120" s="4" t="inlineStr">
-        <is>
-          <t>-2.5</t>
-        </is>
-      </c>
+      <c r="E120" s="4" t="inlineStr"/>
+      <c r="F120" s="4" t="inlineStr"/>
       <c r="G120" s="4" t="n">
         <v>-20909</v>
       </c>
@@ -31957,16 +31089,8 @@
           <t xml:space="preserve">台新新光金      </t>
         </is>
       </c>
-      <c r="E121" s="4" t="inlineStr">
-        <is>
-          <t>22.10</t>
-        </is>
-      </c>
-      <c r="F121" s="4" t="inlineStr">
-        <is>
-          <t>-0.8</t>
-        </is>
-      </c>
+      <c r="E121" s="4" t="inlineStr"/>
+      <c r="F121" s="4" t="inlineStr"/>
       <c r="G121" s="4" t="n">
         <v>-20600</v>
       </c>
@@ -31990,16 +31114,8 @@
           <t xml:space="preserve">康舒            </t>
         </is>
       </c>
-      <c r="E122" s="4" t="inlineStr">
-        <is>
-          <t>61.10</t>
-        </is>
-      </c>
-      <c r="F122" s="4" t="inlineStr">
-        <is>
-          <t>-2.7</t>
-        </is>
-      </c>
+      <c r="E122" s="4" t="inlineStr"/>
+      <c r="F122" s="4" t="inlineStr"/>
       <c r="G122" s="4" t="n">
         <v>-19652</v>
       </c>
@@ -32023,16 +31139,8 @@
           <t>國泰台灣科技龍頭</t>
         </is>
       </c>
-      <c r="E123" s="4" t="inlineStr">
-        <is>
-          <t>33.06</t>
-        </is>
-      </c>
-      <c r="F123" s="4" t="inlineStr">
-        <is>
-          <t>-0.31</t>
-        </is>
-      </c>
+      <c r="E123" s="4" t="inlineStr"/>
+      <c r="F123" s="4" t="inlineStr"/>
       <c r="G123" s="4" t="n">
         <v>-19499</v>
       </c>
@@ -32056,16 +31164,8 @@
           <t xml:space="preserve">華泰            </t>
         </is>
       </c>
-      <c r="E124" s="4" t="inlineStr">
-        <is>
-          <t>63.80</t>
-        </is>
-      </c>
-      <c r="F124" s="4" t="inlineStr">
-        <is>
-          <t>-6.1</t>
-        </is>
-      </c>
+      <c r="E124" s="4" t="inlineStr"/>
+      <c r="F124" s="4" t="inlineStr"/>
       <c r="G124" s="4" t="n">
         <v>-17239</v>
       </c>
@@ -32089,16 +31189,8 @@
           <t xml:space="preserve">臺企銀          </t>
         </is>
       </c>
-      <c r="E125" s="4" t="inlineStr">
-        <is>
-          <t>15.75</t>
-        </is>
-      </c>
-      <c r="F125" s="4" t="inlineStr">
-        <is>
-          <t>-0.1</t>
-        </is>
-      </c>
+      <c r="E125" s="4" t="inlineStr"/>
+      <c r="F125" s="4" t="inlineStr"/>
       <c r="G125" s="4" t="n">
         <v>-16535</v>
       </c>
@@ -32122,16 +31214,8 @@
           <t xml:space="preserve">彰銀            </t>
         </is>
       </c>
-      <c r="E126" s="4" t="inlineStr">
-        <is>
-          <t>20.20</t>
-        </is>
-      </c>
-      <c r="F126" s="4" t="inlineStr">
-        <is>
-          <t>-0.3</t>
-        </is>
-      </c>
+      <c r="E126" s="4" t="inlineStr"/>
+      <c r="F126" s="4" t="inlineStr"/>
       <c r="G126" s="4" t="n">
         <v>-15818</v>
       </c>
@@ -32155,16 +31239,8 @@
           <t xml:space="preserve">宏碁            </t>
         </is>
       </c>
-      <c r="E127" s="4" t="inlineStr">
-        <is>
-          <t>26.15</t>
-        </is>
-      </c>
-      <c r="F127" s="4" t="inlineStr">
-        <is>
-          <t>-0.6</t>
-        </is>
-      </c>
+      <c r="E127" s="4" t="inlineStr"/>
+      <c r="F127" s="4" t="inlineStr"/>
       <c r="G127" s="4" t="n">
         <v>-14092</v>
       </c>
@@ -32188,16 +31264,8 @@
           <t xml:space="preserve">合庫金          </t>
         </is>
       </c>
-      <c r="E128" s="4" t="inlineStr">
-        <is>
-          <t>23.70</t>
-        </is>
-      </c>
-      <c r="F128" s="4" t="inlineStr">
-        <is>
-          <t>-0.15</t>
-        </is>
-      </c>
+      <c r="E128" s="4" t="inlineStr"/>
+      <c r="F128" s="4" t="inlineStr"/>
       <c r="G128" s="4" t="n">
         <v>-12631</v>
       </c>
@@ -32221,16 +31289,8 @@
           <t xml:space="preserve">東元            </t>
         </is>
       </c>
-      <c r="E129" s="4" t="inlineStr">
-        <is>
-          <t>86.00</t>
-        </is>
-      </c>
-      <c r="F129" s="4" t="inlineStr">
-        <is>
-          <t>-2.8</t>
-        </is>
-      </c>
+      <c r="E129" s="4" t="inlineStr"/>
+      <c r="F129" s="4" t="inlineStr"/>
       <c r="G129" s="4" t="n">
         <v>-10661</v>
       </c>
@@ -32254,16 +31314,8 @@
           <t xml:space="preserve">南茂            </t>
         </is>
       </c>
-      <c r="E130" s="4" t="inlineStr">
-        <is>
-          <t>66.20</t>
-        </is>
-      </c>
-      <c r="F130" s="4" t="inlineStr">
-        <is>
-          <t>-5.5</t>
-        </is>
-      </c>
+      <c r="E130" s="4" t="inlineStr"/>
+      <c r="F130" s="4" t="inlineStr"/>
       <c r="G130" s="4" t="n">
         <v>-8526</v>
       </c>
@@ -32287,16 +31339,8 @@
           <t xml:space="preserve">第一金          </t>
         </is>
       </c>
-      <c r="E131" s="4" t="inlineStr">
-        <is>
-          <t>29.25</t>
-        </is>
-      </c>
-      <c r="F131" s="4" t="inlineStr">
-        <is>
-          <t>-0.2</t>
-        </is>
-      </c>
+      <c r="E131" s="4" t="inlineStr"/>
+      <c r="F131" s="4" t="inlineStr"/>
       <c r="G131" s="4" t="n">
         <v>-8491</v>
       </c>
@@ -32320,16 +31364,8 @@
           <t xml:space="preserve">菱生            </t>
         </is>
       </c>
-      <c r="E132" s="4" t="inlineStr">
-        <is>
-          <t>30.55</t>
-        </is>
-      </c>
-      <c r="F132" s="4" t="inlineStr">
-        <is>
-          <t>-1.8</t>
-        </is>
-      </c>
+      <c r="E132" s="4" t="inlineStr"/>
+      <c r="F132" s="4" t="inlineStr"/>
       <c r="G132" s="4" t="n">
         <v>-8161</v>
       </c>
@@ -32353,16 +31389,8 @@
           <t xml:space="preserve">兆豐金          </t>
         </is>
       </c>
-      <c r="E133" s="4" t="inlineStr">
-        <is>
-          <t>39.80</t>
-        </is>
-      </c>
-      <c r="F133" s="4" t="inlineStr">
-        <is>
-          <t>-0.2</t>
-        </is>
-      </c>
+      <c r="E133" s="4" t="inlineStr"/>
+      <c r="F133" s="4" t="inlineStr"/>
       <c r="G133" s="4" t="n">
         <v>-7437</v>
       </c>
@@ -32386,16 +31414,8 @@
           <t xml:space="preserve">超豐            </t>
         </is>
       </c>
-      <c r="E134" s="4" t="inlineStr">
-        <is>
-          <t>98.70</t>
-        </is>
-      </c>
-      <c r="F134" s="4" t="inlineStr">
-        <is>
-          <t>-8.8</t>
-        </is>
-      </c>
+      <c r="E134" s="4" t="inlineStr"/>
+      <c r="F134" s="4" t="inlineStr"/>
       <c r="G134" s="4" t="n">
         <v>-7245</v>
       </c>
@@ -32419,16 +31439,8 @@
           <t xml:space="preserve">和碩            </t>
         </is>
       </c>
-      <c r="E135" s="4" t="inlineStr">
-        <is>
-          <t>68.50</t>
-        </is>
-      </c>
-      <c r="F135" s="4" t="inlineStr">
-        <is>
-          <t>-1.0</t>
-        </is>
-      </c>
+      <c r="E135" s="4" t="inlineStr"/>
+      <c r="F135" s="4" t="inlineStr"/>
       <c r="G135" s="4" t="n">
         <v>-5978</v>
       </c>
@@ -32452,16 +31464,8 @@
           <t xml:space="preserve">亞泥            </t>
         </is>
       </c>
-      <c r="E136" s="4" t="inlineStr">
-        <is>
-          <t>35.55</t>
-        </is>
-      </c>
-      <c r="F136" s="4" t="inlineStr">
-        <is>
-          <t>-0.5</t>
-        </is>
-      </c>
+      <c r="E136" s="4" t="inlineStr"/>
+      <c r="F136" s="4" t="inlineStr"/>
       <c r="G136" s="4" t="n">
         <v>-5599</v>
       </c>
@@ -32485,16 +31489,8 @@
           <t xml:space="preserve">寶成            </t>
         </is>
       </c>
-      <c r="E137" s="4" t="inlineStr">
-        <is>
-          <t>30.70</t>
-        </is>
-      </c>
-      <c r="F137" s="4" t="inlineStr">
-        <is>
-          <t>-0.7</t>
-        </is>
-      </c>
+      <c r="E137" s="4" t="inlineStr"/>
+      <c r="F137" s="4" t="inlineStr"/>
       <c r="G137" s="4" t="n">
         <v>-5484</v>
       </c>
@@ -32518,16 +31514,8 @@
           <t xml:space="preserve">神達            </t>
         </is>
       </c>
-      <c r="E138" s="4" t="inlineStr">
-        <is>
-          <t>82.00</t>
-        </is>
-      </c>
-      <c r="F138" s="4" t="inlineStr">
-        <is>
-          <t>-1.4</t>
-        </is>
-      </c>
+      <c r="E138" s="4" t="inlineStr"/>
+      <c r="F138" s="4" t="inlineStr"/>
       <c r="G138" s="4" t="n">
         <v>-5378</v>
       </c>
@@ -32551,16 +31539,8 @@
           <t xml:space="preserve">台中銀          </t>
         </is>
       </c>
-      <c r="E139" s="4" t="inlineStr">
-        <is>
-          <t>20.50</t>
-        </is>
-      </c>
-      <c r="F139" s="4" t="inlineStr">
-        <is>
-          <t>-0.2</t>
-        </is>
-      </c>
+      <c r="E139" s="4" t="inlineStr"/>
+      <c r="F139" s="4" t="inlineStr"/>
       <c r="G139" s="4" t="n">
         <v>-5250</v>
       </c>
@@ -32584,16 +31564,8 @@
           <t xml:space="preserve">彩晶            </t>
         </is>
       </c>
-      <c r="E140" s="4" t="inlineStr">
-        <is>
-          <t>9.89</t>
-        </is>
-      </c>
-      <c r="F140" s="4" t="inlineStr">
-        <is>
-          <t>-0.36</t>
-        </is>
-      </c>
+      <c r="E140" s="4" t="inlineStr"/>
+      <c r="F140" s="4" t="inlineStr"/>
       <c r="G140" s="4" t="n">
         <v>-5176</v>
       </c>
@@ -32617,16 +31589,8 @@
           <t xml:space="preserve">南亞科          </t>
         </is>
       </c>
-      <c r="E141" s="4" t="inlineStr">
-        <is>
-          <t>251.00</t>
-        </is>
-      </c>
-      <c r="F141" s="4" t="inlineStr">
-        <is>
-          <t>-21.0</t>
-        </is>
-      </c>
+      <c r="E141" s="4" t="inlineStr"/>
+      <c r="F141" s="4" t="inlineStr"/>
       <c r="G141" s="4" t="n">
         <v>-5072</v>
       </c>
@@ -32650,16 +31614,8 @@
           <t xml:space="preserve">元晶            </t>
         </is>
       </c>
-      <c r="E142" s="4" t="inlineStr">
-        <is>
-          <t>39.80</t>
-        </is>
-      </c>
-      <c r="F142" s="4" t="inlineStr">
-        <is>
-          <t>-1.0</t>
-        </is>
-      </c>
+      <c r="E142" s="4" t="inlineStr"/>
+      <c r="F142" s="4" t="inlineStr"/>
       <c r="G142" s="4" t="n">
         <v>-4961</v>
       </c>
@@ -32683,16 +31639,8 @@
           <t xml:space="preserve">中興電          </t>
         </is>
       </c>
-      <c r="E143" s="4" t="inlineStr">
-        <is>
-          <t>177.50</t>
-        </is>
-      </c>
-      <c r="F143" s="4" t="inlineStr">
-        <is>
-          <t>+1.0</t>
-        </is>
-      </c>
+      <c r="E143" s="4" t="inlineStr"/>
+      <c r="F143" s="4" t="inlineStr"/>
       <c r="G143" s="4" t="n">
         <v>-4927</v>
       </c>
@@ -32716,16 +31664,8 @@
           <t xml:space="preserve">旺宏            </t>
         </is>
       </c>
-      <c r="E144" s="4" t="inlineStr">
-        <is>
-          <t>73.30</t>
-        </is>
-      </c>
-      <c r="F144" s="4" t="inlineStr">
-        <is>
-          <t>-3.5</t>
-        </is>
-      </c>
+      <c r="E144" s="4" t="inlineStr"/>
+      <c r="F144" s="4" t="inlineStr"/>
       <c r="G144" s="4" t="n">
         <v>-4456</v>
       </c>
@@ -32749,16 +31689,8 @@
           <t xml:space="preserve">中信金          </t>
         </is>
       </c>
-      <c r="E145" s="4" t="inlineStr">
-        <is>
-          <t>50.60</t>
-        </is>
-      </c>
-      <c r="F145" s="4" t="inlineStr">
-        <is>
-          <t>-0.4</t>
-        </is>
-      </c>
+      <c r="E145" s="4" t="inlineStr"/>
+      <c r="F145" s="4" t="inlineStr"/>
       <c r="G145" s="4" t="n">
         <v>-4404</v>
       </c>
@@ -32782,16 +31714,8 @@
           <t xml:space="preserve">富邦金          </t>
         </is>
       </c>
-      <c r="E146" s="4" t="inlineStr">
-        <is>
-          <t>93.00</t>
-        </is>
-      </c>
-      <c r="F146" s="4" t="inlineStr">
-        <is>
-          <t>-1.0</t>
-        </is>
-      </c>
+      <c r="E146" s="4" t="inlineStr"/>
+      <c r="F146" s="4" t="inlineStr"/>
       <c r="G146" s="4" t="n">
         <v>-4285</v>
       </c>
@@ -32815,16 +31739,8 @@
           <t xml:space="preserve">華晶科          </t>
         </is>
       </c>
-      <c r="E147" s="4" t="inlineStr">
-        <is>
-          <t>43.35</t>
-        </is>
-      </c>
-      <c r="F147" s="4" t="inlineStr">
-        <is>
-          <t>+2.4</t>
-        </is>
-      </c>
+      <c r="E147" s="4" t="inlineStr"/>
+      <c r="F147" s="4" t="inlineStr"/>
       <c r="G147" s="4" t="n">
         <v>-4099</v>
       </c>
@@ -32848,16 +31764,8 @@
           <t xml:space="preserve">潤泰新          </t>
         </is>
       </c>
-      <c r="E148" s="4" t="inlineStr">
-        <is>
-          <t>29.15</t>
-        </is>
-      </c>
-      <c r="F148" s="4" t="inlineStr">
-        <is>
-          <t>-0.35</t>
-        </is>
-      </c>
+      <c r="E148" s="4" t="inlineStr"/>
+      <c r="F148" s="4" t="inlineStr"/>
       <c r="G148" s="4" t="n">
         <v>-4089</v>
       </c>
@@ -32881,16 +31789,8 @@
           <t xml:space="preserve">景碩            </t>
         </is>
       </c>
-      <c r="E149" s="4" t="inlineStr">
-        <is>
-          <t>200.00</t>
-        </is>
-      </c>
-      <c r="F149" s="4" t="inlineStr">
-        <is>
-          <t>-6.5</t>
-        </is>
-      </c>
+      <c r="E149" s="4" t="inlineStr"/>
+      <c r="F149" s="4" t="inlineStr"/>
       <c r="G149" s="4" t="n">
         <v>-4076</v>
       </c>
@@ -32914,16 +31814,8 @@
           <t xml:space="preserve">飛宏            </t>
         </is>
       </c>
-      <c r="E150" s="4" t="inlineStr">
-        <is>
-          <t>37.00</t>
-        </is>
-      </c>
-      <c r="F150" s="4" t="inlineStr">
-        <is>
-          <t>+3.35</t>
-        </is>
-      </c>
+      <c r="E150" s="4" t="inlineStr"/>
+      <c r="F150" s="4" t="inlineStr"/>
       <c r="G150" s="4" t="n">
         <v>-3906</v>
       </c>
@@ -32947,16 +31839,8 @@
           <t xml:space="preserve">上海商銀        </t>
         </is>
       </c>
-      <c r="E151" s="4" t="inlineStr">
-        <is>
-          <t>39.15</t>
-        </is>
-      </c>
-      <c r="F151" s="4" t="inlineStr">
-        <is>
-          <t>-0.05</t>
-        </is>
-      </c>
+      <c r="E151" s="4" t="inlineStr"/>
+      <c r="F151" s="4" t="inlineStr"/>
       <c r="G151" s="4" t="n">
         <v>-3750</v>
       </c>
@@ -32980,16 +31864,8 @@
           <t xml:space="preserve">元大金          </t>
         </is>
       </c>
-      <c r="E152" s="4" t="inlineStr">
-        <is>
-          <t>41.35</t>
-        </is>
-      </c>
-      <c r="F152" s="4" t="inlineStr">
-        <is>
-          <t>-0.35</t>
-        </is>
-      </c>
+      <c r="E152" s="4" t="inlineStr"/>
+      <c r="F152" s="4" t="inlineStr"/>
       <c r="G152" s="4" t="n">
         <v>-3635</v>
       </c>
@@ -33013,16 +31889,8 @@
           <t xml:space="preserve">大成鋼          </t>
         </is>
       </c>
-      <c r="E153" s="4" t="inlineStr">
-        <is>
-          <t>35.75</t>
-        </is>
-      </c>
-      <c r="F153" s="4" t="inlineStr">
-        <is>
-          <t>-0.4</t>
-        </is>
-      </c>
+      <c r="E153" s="4" t="inlineStr"/>
+      <c r="F153" s="4" t="inlineStr"/>
       <c r="G153" s="4" t="n">
         <v>-3632</v>
       </c>
@@ -33046,16 +31914,8 @@
           <t xml:space="preserve">台灣高鐵        </t>
         </is>
       </c>
-      <c r="E154" s="4" t="inlineStr">
-        <is>
-          <t>27.00</t>
-        </is>
-      </c>
-      <c r="F154" s="4" t="inlineStr">
-        <is>
-          <t>-0.1</t>
-        </is>
-      </c>
+      <c r="E154" s="4" t="inlineStr"/>
+      <c r="F154" s="4" t="inlineStr"/>
       <c r="G154" s="4" t="n">
         <v>-3572</v>
       </c>
@@ -33079,16 +31939,8 @@
           <t xml:space="preserve">聯合再生        </t>
         </is>
       </c>
-      <c r="E155" s="4" t="inlineStr">
-        <is>
-          <t>10.75</t>
-        </is>
-      </c>
-      <c r="F155" s="4" t="inlineStr">
-        <is>
-          <t>-0.6</t>
-        </is>
-      </c>
+      <c r="E155" s="4" t="inlineStr"/>
+      <c r="F155" s="4" t="inlineStr"/>
       <c r="G155" s="4" t="n">
         <v>-3566</v>
       </c>
@@ -33112,16 +31964,8 @@
           <t xml:space="preserve">中石化          </t>
         </is>
       </c>
-      <c r="E156" s="4" t="inlineStr">
-        <is>
-          <t>8.08</t>
-        </is>
-      </c>
-      <c r="F156" s="4" t="inlineStr">
-        <is>
-          <t>-0.07</t>
-        </is>
-      </c>
+      <c r="E156" s="4" t="inlineStr"/>
+      <c r="F156" s="4" t="inlineStr"/>
       <c r="G156" s="4" t="n">
         <v>-3282</v>
       </c>
@@ -33145,16 +31989,8 @@
           <t xml:space="preserve">正新            </t>
         </is>
       </c>
-      <c r="E157" s="4" t="inlineStr">
-        <is>
-          <t>31.25</t>
-        </is>
-      </c>
-      <c r="F157" s="4" t="inlineStr">
-        <is>
-          <t>-0.65</t>
-        </is>
-      </c>
+      <c r="E157" s="4" t="inlineStr"/>
+      <c r="F157" s="4" t="inlineStr"/>
       <c r="G157" s="4" t="n">
         <v>-3231</v>
       </c>
@@ -33178,16 +32014,8 @@
           <t xml:space="preserve">中釉            </t>
         </is>
       </c>
-      <c r="E158" s="4" t="inlineStr">
-        <is>
-          <t>28.40</t>
-        </is>
-      </c>
-      <c r="F158" s="4" t="inlineStr">
-        <is>
-          <t>+0.9</t>
-        </is>
-      </c>
+      <c r="E158" s="4" t="inlineStr"/>
+      <c r="F158" s="4" t="inlineStr"/>
       <c r="G158" s="4" t="n">
         <v>-3137</v>
       </c>
@@ -33279,16 +32107,8 @@
           <t>群益台灣精選高息</t>
         </is>
       </c>
-      <c r="D164" s="4" t="inlineStr">
-        <is>
-          <t>23.76</t>
-        </is>
-      </c>
-      <c r="E164" s="4" t="inlineStr">
-        <is>
-          <t>-0.22</t>
-        </is>
-      </c>
+      <c r="D164" s="4" t="inlineStr"/>
+      <c r="E164" s="4" t="inlineStr"/>
       <c r="F164" s="4" t="n">
         <v>52305</v>
       </c>
@@ -33308,16 +32128,8 @@
           <t>元大台灣價值高息</t>
         </is>
       </c>
-      <c r="D165" s="4" t="inlineStr">
-        <is>
-          <t>9.64</t>
-        </is>
-      </c>
-      <c r="E165" s="4" t="inlineStr">
-        <is>
-          <t>-0.08</t>
-        </is>
-      </c>
+      <c r="D165" s="4" t="inlineStr"/>
+      <c r="E165" s="4" t="inlineStr"/>
       <c r="F165" s="4" t="n">
         <v>32409</v>
       </c>
@@ -33337,16 +32149,8 @@
           <t>復華台灣科技優息</t>
         </is>
       </c>
-      <c r="D166" s="4" t="inlineStr">
-        <is>
-          <t>19.30</t>
-        </is>
-      </c>
-      <c r="E166" s="4" t="inlineStr">
-        <is>
-          <t>-0.33</t>
-        </is>
-      </c>
+      <c r="D166" s="4" t="inlineStr"/>
+      <c r="E166" s="4" t="inlineStr"/>
       <c r="F166" s="4" t="n">
         <v>31787</v>
       </c>
@@ -33366,16 +32170,8 @@
           <t xml:space="preserve">國泰永續高股息  </t>
         </is>
       </c>
-      <c r="D167" s="4" t="inlineStr">
-        <is>
-          <t>22.66</t>
-        </is>
-      </c>
-      <c r="E167" s="4" t="inlineStr">
-        <is>
-          <t>-0.18</t>
-        </is>
-      </c>
+      <c r="D167" s="4" t="inlineStr"/>
+      <c r="E167" s="4" t="inlineStr"/>
       <c r="F167" s="4" t="n">
         <v>16773</v>
       </c>
@@ -33395,16 +32191,8 @@
           <t xml:space="preserve">復華富時不動產  </t>
         </is>
       </c>
-      <c r="D168" s="4" t="inlineStr">
-        <is>
-          <t>9.67</t>
-        </is>
-      </c>
-      <c r="E168" s="4" t="inlineStr">
-        <is>
-          <t>-0.12</t>
-        </is>
-      </c>
+      <c r="D168" s="4" t="inlineStr"/>
+      <c r="E168" s="4" t="inlineStr"/>
       <c r="F168" s="4" t="n">
         <v>16136</v>
       </c>
@@ -33424,16 +32212,8 @@
           <t>統一台灣高息動能</t>
         </is>
       </c>
-      <c r="D169" s="4" t="inlineStr">
-        <is>
-          <t>15.48</t>
-        </is>
-      </c>
-      <c r="E169" s="4" t="inlineStr">
-        <is>
-          <t>-0.26</t>
-        </is>
-      </c>
+      <c r="D169" s="4" t="inlineStr"/>
+      <c r="E169" s="4" t="inlineStr"/>
       <c r="F169" s="4" t="n">
         <v>6559</v>
       </c>
@@ -33453,16 +32233,8 @@
           <t>富邦特選高股息30</t>
         </is>
       </c>
-      <c r="D170" s="4" t="inlineStr">
-        <is>
-          <t>14.25</t>
-        </is>
-      </c>
-      <c r="E170" s="4" t="inlineStr">
-        <is>
-          <t>-0.19</t>
-        </is>
-      </c>
+      <c r="D170" s="4" t="inlineStr"/>
+      <c r="E170" s="4" t="inlineStr"/>
       <c r="F170" s="4" t="n">
         <v>5326</v>
       </c>
@@ -33482,11 +32254,7 @@
           <t>群益優選非投等債</t>
         </is>
       </c>
-      <c r="D171" s="4" t="inlineStr">
-        <is>
-          <t>9.78</t>
-        </is>
-      </c>
+      <c r="D171" s="4" t="inlineStr"/>
       <c r="E171" s="4" t="inlineStr"/>
       <c r="F171" s="4" t="n">
         <v>5067</v>
@@ -33507,16 +32275,8 @@
           <t>元大台灣高息低波</t>
         </is>
       </c>
-      <c r="D172" s="4" t="inlineStr">
-        <is>
-          <t>51.75</t>
-        </is>
-      </c>
-      <c r="E172" s="4" t="inlineStr">
-        <is>
-          <t>-0.25</t>
-        </is>
-      </c>
+      <c r="D172" s="4" t="inlineStr"/>
+      <c r="E172" s="4" t="inlineStr"/>
       <c r="F172" s="4" t="n">
         <v>2235</v>
       </c>
@@ -33536,16 +32296,8 @@
           <t xml:space="preserve">中信中國高股息  </t>
         </is>
       </c>
-      <c r="D173" s="4" t="inlineStr">
-        <is>
-          <t>15.18</t>
-        </is>
-      </c>
-      <c r="E173" s="4" t="inlineStr">
-        <is>
-          <t>+0.01</t>
-        </is>
-      </c>
+      <c r="D173" s="4" t="inlineStr"/>
+      <c r="E173" s="4" t="inlineStr"/>
       <c r="F173" s="4" t="n">
         <v>2040</v>
       </c>
@@ -33638,16 +32390,8 @@
           <t xml:space="preserve">元大台灣50      </t>
         </is>
       </c>
-      <c r="D179" s="4" t="inlineStr">
-        <is>
-          <t>71.85</t>
-        </is>
-      </c>
-      <c r="E179" s="4" t="inlineStr">
-        <is>
-          <t>-0.75</t>
-        </is>
-      </c>
+      <c r="D179" s="4" t="inlineStr"/>
+      <c r="E179" s="4" t="inlineStr"/>
       <c r="F179" s="4" t="n">
         <v>-105722</v>
       </c>
@@ -33667,16 +32411,8 @@
           <t xml:space="preserve">元大高股息      </t>
         </is>
       </c>
-      <c r="D180" s="4" t="inlineStr">
-        <is>
-          <t>38.21</t>
-        </is>
-      </c>
-      <c r="E180" s="4" t="inlineStr">
-        <is>
-          <t>-0.24</t>
-        </is>
-      </c>
+      <c r="D180" s="4" t="inlineStr"/>
+      <c r="E180" s="4" t="inlineStr"/>
       <c r="F180" s="4" t="n">
         <v>-52873</v>
       </c>
@@ -33696,16 +32432,8 @@
           <t>國泰台灣科技龍頭</t>
         </is>
       </c>
-      <c r="D181" s="4" t="inlineStr">
-        <is>
-          <t>33.06</t>
-        </is>
-      </c>
-      <c r="E181" s="4" t="inlineStr">
-        <is>
-          <t>-0.31</t>
-        </is>
-      </c>
+      <c r="D181" s="4" t="inlineStr"/>
+      <c r="E181" s="4" t="inlineStr"/>
       <c r="F181" s="4" t="n">
         <v>-19499</v>
       </c>
@@ -33725,16 +32453,8 @@
           <t xml:space="preserve">元大台灣50反1   </t>
         </is>
       </c>
-      <c r="D182" s="4" t="inlineStr">
-        <is>
-          <t>15.19</t>
-        </is>
-      </c>
-      <c r="E182" s="4" t="inlineStr">
-        <is>
-          <t>+0.15</t>
-        </is>
-      </c>
+      <c r="D182" s="4" t="inlineStr"/>
+      <c r="E182" s="4" t="inlineStr"/>
       <c r="F182" s="4" t="n">
         <v>-2282</v>
       </c>
@@ -33754,16 +32474,8 @@
           <t xml:space="preserve">國泰台灣領袖50  </t>
         </is>
       </c>
-      <c r="D183" s="4" t="inlineStr">
-        <is>
-          <t>27.79</t>
-        </is>
-      </c>
-      <c r="E183" s="4" t="inlineStr">
-        <is>
-          <t>-0.25</t>
-        </is>
-      </c>
+      <c r="D183" s="4" t="inlineStr"/>
+      <c r="E183" s="4" t="inlineStr"/>
       <c r="F183" s="4" t="n">
         <v>-2200</v>
       </c>
@@ -33783,16 +32495,8 @@
           <t xml:space="preserve">元大S&amp;P500      </t>
         </is>
       </c>
-      <c r="D184" s="4" t="inlineStr">
-        <is>
-          <t>67.75</t>
-        </is>
-      </c>
-      <c r="E184" s="4" t="inlineStr">
-        <is>
-          <t>-0.5</t>
-        </is>
-      </c>
+      <c r="D184" s="4" t="inlineStr"/>
+      <c r="E184" s="4" t="inlineStr"/>
       <c r="F184" s="4" t="n">
         <v>-1445</v>
       </c>
@@ -33812,16 +32516,8 @@
           <t xml:space="preserve">元大台灣50正2   </t>
         </is>
       </c>
-      <c r="D185" s="4" t="inlineStr">
-        <is>
-          <t>423.80</t>
-        </is>
-      </c>
-      <c r="E185" s="4" t="inlineStr">
-        <is>
-          <t>-10.2</t>
-        </is>
-      </c>
+      <c r="D185" s="4" t="inlineStr"/>
+      <c r="E185" s="4" t="inlineStr"/>
       <c r="F185" s="4" t="n">
         <v>-1104</v>
       </c>
@@ -33841,16 +32537,8 @@
           <t xml:space="preserve">富邦台50        </t>
         </is>
       </c>
-      <c r="D186" s="4" t="inlineStr">
-        <is>
-          <t>164.10</t>
-        </is>
-      </c>
-      <c r="E186" s="4" t="inlineStr">
-        <is>
-          <t>-1.4</t>
-        </is>
-      </c>
+      <c r="D186" s="4" t="inlineStr"/>
+      <c r="E186" s="4" t="inlineStr"/>
       <c r="F186" s="4" t="n">
         <v>-870</v>
       </c>
@@ -33870,16 +32558,8 @@
           <t xml:space="preserve">富邦公司治理    </t>
         </is>
       </c>
-      <c r="D187" s="4" t="inlineStr">
-        <is>
-          <t>62.65</t>
-        </is>
-      </c>
-      <c r="E187" s="4" t="inlineStr">
-        <is>
-          <t>-0.5</t>
-        </is>
-      </c>
+      <c r="D187" s="4" t="inlineStr"/>
+      <c r="E187" s="4" t="inlineStr"/>
       <c r="F187" s="4" t="n">
         <v>-11</v>
       </c>
